--- a/results/results.xlsx
+++ b/results/results.xlsx
@@ -5,17 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\projects\job_recruitment_dataset\modeling\train_model\results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\projects\job_recruitment_dataset\modeling\training-model\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E01CB993-4452-4782-A9A4-A7024A4B7F78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52386B6E-22A0-455B-A80F-20A38085E5BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="601" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="task 1 (label)" sheetId="1" r:id="rId1"/>
     <sheet name="task 2 (aspect)" sheetId="2" r:id="rId2"/>
-    <sheet name="task 3 (explanation)" sheetId="3" r:id="rId3"/>
+    <sheet name="task 3 (explanation" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,10 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
-  <si>
-    <t>tas</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="53">
   <si>
     <t>vinai/phobert-base</t>
   </si>
@@ -44,9 +41,6 @@
     <t>test</t>
   </si>
   <si>
-    <t>train</t>
-  </si>
-  <si>
     <t>f1</t>
   </si>
   <si>
@@ -75,13 +69,130 @@
   </si>
   <si>
     <t>cross_entropy_loss</t>
+  </si>
+  <si>
+    <t>uitnlp/visobert</t>
+  </si>
+  <si>
+    <t>uitnlp/CafeBERT</t>
+  </si>
+  <si>
+    <t>xlm-roberta-base</t>
+  </si>
+  <si>
+    <t>bert-base-multilingual-cased</t>
+  </si>
+  <si>
+    <t>distilbert-base-multilingual-cased</t>
+  </si>
+  <si>
+    <t> 0.5016</t>
+  </si>
+  <si>
+    <t>5 epochs / 20</t>
+  </si>
+  <si>
+    <t>8 epochs / 20</t>
+  </si>
+  <si>
+    <t>12 epochs / 20</t>
+  </si>
+  <si>
+    <t>6 epochs / 20</t>
+  </si>
+  <si>
+    <t>7 epochs / 20</t>
+  </si>
+  <si>
+    <t>19 epochs / 20</t>
+  </si>
+  <si>
+    <t>bert-base</t>
+  </si>
+  <si>
+    <t>distilbert</t>
+  </si>
+  <si>
+    <t>phobert-base</t>
+  </si>
+  <si>
+    <t>visobert</t>
+  </si>
+  <si>
+    <t>CafeBERT</t>
+  </si>
+  <si>
+    <t>xlm-roberta</t>
+  </si>
+  <si>
+    <t>SO SÁNH TRÊN TẬP DEV</t>
+  </si>
+  <si>
+    <t>SO SÁNH TRÊN TẬP TEST</t>
+  </si>
+  <si>
+    <t>01_loss</t>
+  </si>
+  <si>
+    <t>hamming_loss</t>
+  </si>
+  <si>
+    <t>emr</t>
+  </si>
+  <si>
+    <t>2 epochs / 20</t>
+  </si>
+  <si>
+    <t>9 epochs / 20</t>
+  </si>
+  <si>
+    <t>VietAI/vit5-base</t>
+  </si>
+  <si>
+    <t>source_len</t>
+  </si>
+  <si>
+    <t>target_len</t>
+  </si>
+  <si>
+    <t>BERT score</t>
+  </si>
+  <si>
+    <t>Bleu score</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bleu </t>
+  </si>
+  <si>
+    <t>prec1</t>
+  </si>
+  <si>
+    <t>prec2</t>
+  </si>
+  <si>
+    <t>prec3</t>
+  </si>
+  <si>
+    <t>prec4</t>
+  </si>
+  <si>
+    <t>Rouge score</t>
+  </si>
+  <si>
+    <t>rouge 1</t>
+  </si>
+  <si>
+    <t>rouge 2</t>
+  </si>
+  <si>
+    <t>rouge L</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -89,16 +200,105 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1" tint="4.9989318521683403E-2"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="1" tint="4.9989318521683403E-2"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1" tint="4.9989318521683403E-2"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1" tint="4.9989318521683403E-2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1" tint="4.9989318521683403E-2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1" tint="4.9989318521683403E-2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -106,13 +306,215 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -393,111 +795,2989 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:O42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.6640625" customWidth="1"/>
-    <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:15" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A1" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="I1" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+    </row>
+    <row r="2" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="6"/>
+      <c r="J2" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2">
+        <v>200</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="5">
+        <v>36.7971</v>
+      </c>
+      <c r="F3" s="5">
+        <v>73.924899999999994</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="8">
+        <v>36.7971</v>
+      </c>
+      <c r="K3" s="22">
+        <v>35.455500000000001</v>
+      </c>
+      <c r="L3" s="8">
+        <v>39.610199999999999</v>
+      </c>
+      <c r="M3" s="8">
+        <v>40.867899999999999</v>
+      </c>
+      <c r="N3" s="8">
+        <v>40.0212</v>
+      </c>
+      <c r="O3" s="8">
+        <v>35.601999999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2">
+        <v>32</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0.54020000000000001</v>
+      </c>
+      <c r="F4" s="5">
+        <v>0.52339999999999998</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J4" s="8">
+        <v>0.54020000000000001</v>
+      </c>
+      <c r="K4" s="8">
+        <v>0.55840000000000001</v>
+      </c>
+      <c r="L4" s="8">
+        <v>0.43</v>
+      </c>
+      <c r="M4" s="8">
+        <v>0.43</v>
+      </c>
+      <c r="N4" s="8">
+        <v>0.4582</v>
+      </c>
+      <c r="O4" s="22">
+        <v>0.56089999999999995</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0.59440000000000004</v>
+      </c>
+      <c r="F5" s="5">
+        <v>0.56630000000000003</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J5" s="22">
+        <v>0.59440000000000004</v>
+      </c>
+      <c r="K5" s="8">
+        <v>0.56010000000000004</v>
+      </c>
+      <c r="L5" s="8">
+        <v>0.14330000000000001</v>
+      </c>
+      <c r="M5" s="8">
+        <v>0.14330000000000001</v>
+      </c>
+      <c r="N5" s="8">
+        <v>0.29730000000000001</v>
+      </c>
+      <c r="O5" s="8">
+        <v>0.52180000000000004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0.47260000000000002</v>
+      </c>
+      <c r="F6" s="5">
+        <v>0.46710000000000002</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J6" s="8">
+        <v>0.47260000000000002</v>
+      </c>
+      <c r="K6" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="L6" s="8">
+        <v>0.33329999999999999</v>
+      </c>
+      <c r="M6" s="8">
+        <v>0.33</v>
+      </c>
+      <c r="N6" s="8">
+        <v>0.378</v>
+      </c>
+      <c r="O6" s="8">
+        <v>0.48849999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0.45739999999999997</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0.45019999999999999</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J7" s="8">
+        <v>0.45739999999999997</v>
+      </c>
+      <c r="K7" s="22">
+        <v>0.49509999999999998</v>
+      </c>
+      <c r="L7" s="8">
+        <v>0.20050000000000001</v>
+      </c>
+      <c r="M7" s="8">
+        <v>0.20050000000000001</v>
+      </c>
+      <c r="N7" s="8">
+        <v>0.30969999999999998</v>
+      </c>
+      <c r="O7" s="8">
+        <v>0.44330000000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="F1" t="s">
+      <c r="B8" s="48"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="48"/>
+      <c r="I8" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+    </row>
+    <row r="9" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I9" s="6"/>
+      <c r="J9" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M9" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="N9" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2">
+        <v>400</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="5">
+        <v>35.455500000000001</v>
+      </c>
+      <c r="F10" s="5">
+        <v>70.634799999999998</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J10" s="5">
+        <v>73.924899999999994</v>
+      </c>
+      <c r="K10" s="21">
+        <v>70.634799999999998</v>
+      </c>
+      <c r="L10" s="5">
+        <v>79.212500000000006</v>
+      </c>
+      <c r="M10" s="5">
+        <v>81.971599999999995</v>
+      </c>
+      <c r="N10" s="5">
+        <v>79.314899999999994</v>
+      </c>
+      <c r="O10" s="5">
+        <v>71.0916</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="2">
+        <v>32</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11" s="5">
+        <v>0.55840000000000001</v>
+      </c>
+      <c r="F11" s="5">
+        <v>0.55620000000000003</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J11" s="5">
+        <v>0.52339999999999998</v>
+      </c>
+      <c r="K11" s="21">
+        <v>0.55620000000000003</v>
+      </c>
+      <c r="L11" s="5">
+        <v>0.41399999999999998</v>
+      </c>
+      <c r="M11" s="5">
+        <v>0.41399999999999998</v>
+      </c>
+      <c r="N11" s="5">
+        <v>0.45129999999999998</v>
+      </c>
+      <c r="O11" s="5">
+        <v>0.54790000000000005</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E12" s="5">
+        <v>0.56010000000000004</v>
+      </c>
+      <c r="F12" s="5">
+        <v>0.5635</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J12" s="21">
+        <v>0.56630000000000003</v>
+      </c>
+      <c r="K12" s="5">
+        <v>0.5635</v>
+      </c>
+      <c r="L12" s="5">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="M12" s="5">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="N12" s="5">
+        <v>0.30009999999999998</v>
+      </c>
+      <c r="O12" s="5">
+        <v>0.51370000000000005</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="5">
+        <v>0.50839999999999996</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J13" s="5">
+        <v>0.46710000000000002</v>
+      </c>
+      <c r="K13" s="21">
+        <v>0.50839999999999996</v>
+      </c>
+      <c r="L13" s="5">
+        <v>0.33329999999999999</v>
+      </c>
+      <c r="M13" s="5">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="N13" s="5">
+        <v>0.38090000000000002</v>
+      </c>
+      <c r="O13" s="5">
+        <v>0.4798</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="5">
+        <v>0.49509999999999998</v>
+      </c>
+      <c r="F14" s="5">
+        <v>0.50280000000000002</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J14" s="4">
+        <v>0.45019999999999999</v>
+      </c>
+      <c r="K14" s="21">
+        <v>0.50280000000000002</v>
+      </c>
+      <c r="L14" s="5">
+        <v>0.19520000000000001</v>
+      </c>
+      <c r="M14" s="5">
+        <v>0.19520000000000001</v>
+      </c>
+      <c r="N14" s="5">
+        <v>0.31009999999999999</v>
+      </c>
+      <c r="O14" s="5">
+        <v>0.43280000000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A15" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="48"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="48"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="2">
+        <v>400</v>
+      </c>
+      <c r="C17" s="3"/>
+      <c r="D17" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="5">
+        <v>39.610199999999999</v>
+      </c>
+      <c r="F17" s="5">
+        <v>79.212500000000006</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="2">
+        <v>32</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E18" s="5">
+        <v>0.43</v>
+      </c>
+      <c r="F18" s="5">
+        <v>0.41399999999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="C19" s="3"/>
+      <c r="D19" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E19" s="5">
+        <v>0.14330000000000001</v>
+      </c>
+      <c r="F19" s="5">
+        <v>0.13800000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" s="5">
+        <v>0.33329999999999999</v>
+      </c>
+      <c r="F20" s="5">
+        <v>0.33329999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="E21" s="5">
+        <v>0.20050000000000001</v>
+      </c>
+      <c r="F21" s="5">
+        <v>0.19520000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A22" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" s="48"/>
+      <c r="C22" s="48"/>
+      <c r="D22" s="48"/>
+      <c r="E22" s="48"/>
+      <c r="F22" s="48"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" s="2">
+        <v>500</v>
+      </c>
+      <c r="C24" s="3"/>
+      <c r="D24" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" s="5">
+        <v>40.867899999999999</v>
+      </c>
+      <c r="F24" s="5">
+        <v>81.971599999999995</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" s="2">
+        <v>32</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E25" s="5">
+        <v>0.43</v>
+      </c>
+      <c r="F25" s="5">
+        <v>0.41399999999999998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="C26" s="3"/>
+      <c r="D26" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E26" s="5">
+        <v>0.14330000000000001</v>
+      </c>
+      <c r="F26" s="5">
+        <v>0.13800000000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="B27" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E27" s="5">
+        <v>0.33</v>
+      </c>
+      <c r="F27" s="5">
+        <v>0.33300000000000002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E28" s="5">
+        <v>0.20050000000000001</v>
+      </c>
+      <c r="F28" s="5">
+        <v>0.19520000000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A29" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="B29" s="48"/>
+      <c r="C29" s="48"/>
+      <c r="D29" s="48"/>
+      <c r="E29" s="48"/>
+      <c r="F29" s="48"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" s="3"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B31" s="2">
+        <v>500</v>
+      </c>
+      <c r="C31" s="3"/>
+      <c r="D31" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E31" s="5">
+        <v>40.0212</v>
+      </c>
+      <c r="F31" s="5">
+        <v>79.314899999999994</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32" s="2">
+        <v>32</v>
+      </c>
+      <c r="C32" s="3"/>
+      <c r="D32" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E32" s="5">
+        <v>0.4582</v>
+      </c>
+      <c r="F32" s="5">
+        <v>0.45129999999999998</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E3" t="s">
+      <c r="B33" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="C33" s="3"/>
+      <c r="D33" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E33" s="5">
+        <v>0.29730000000000001</v>
+      </c>
+      <c r="F33" s="5">
+        <v>0.30009999999999998</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E34" s="5">
+        <v>0.378</v>
+      </c>
+      <c r="F34" s="5">
+        <v>0.38090000000000002</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B35" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E35" s="5">
+        <v>0.30969999999999998</v>
+      </c>
+      <c r="F35" s="5">
+        <v>0.31009999999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A36" s="48" t="s">
+        <v>18</v>
+      </c>
+      <c r="B36" s="48"/>
+      <c r="C36" s="48"/>
+      <c r="D36" s="48"/>
+      <c r="E36" s="48"/>
+      <c r="F36" s="48"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C37" s="3"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F37" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B38" s="2">
+        <v>500</v>
+      </c>
+      <c r="C38" s="3"/>
+      <c r="D38" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E38" s="5">
+        <v>35.601999999999997</v>
+      </c>
+      <c r="F38" s="5">
+        <v>71.0916</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B39" s="2">
+        <v>32</v>
+      </c>
+      <c r="C39" s="3"/>
+      <c r="D39" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E39" s="5">
+        <v>0.56089999999999995</v>
+      </c>
+      <c r="F39" s="5">
+        <v>0.54790000000000005</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B40" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="C40" s="3"/>
+      <c r="D40" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E40" s="5">
+        <v>0.52180000000000004</v>
+      </c>
+      <c r="F40" s="5">
+        <v>0.51370000000000005</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E41" s="5">
+        <v>0.48849999999999999</v>
+      </c>
+      <c r="F41" s="5">
+        <v>0.4798</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" t="s">
-        <v>8</v>
+      <c r="B42" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E42" s="5">
+        <v>0.44330000000000003</v>
+      </c>
+      <c r="F42" s="5">
+        <v>0.43280000000000002</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="I1:O1"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="A22:F22"/>
+    <mergeCell ref="A29:F29"/>
+    <mergeCell ref="A36:F36"/>
+    <mergeCell ref="I8:O8"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A8:F8"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A0D7E0A-168F-4870-B43E-5C0DF34CA954}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:O60"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="P8" sqref="P8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.77734375" style="13" customWidth="1"/>
+    <col min="2" max="2" width="31.6640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="13"/>
+    <col min="4" max="4" width="19.33203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" style="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.21875" style="13" customWidth="1"/>
+    <col min="7" max="8" width="8.88671875" style="13"/>
+    <col min="9" max="9" width="18.44140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.6640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12" style="13" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.88671875" style="13" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.44140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.88671875" style="13"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:15" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="I1" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+    </row>
+    <row r="2" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="15"/>
+      <c r="J2" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="L2" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="M2" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="N2" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="O2" s="16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2">
+        <v>200</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="5">
+        <v>50.930300000000003</v>
+      </c>
+      <c r="F3" s="5">
+        <v>101.49</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="5">
+        <v>50.930300000000003</v>
+      </c>
+      <c r="K3" s="5">
+        <v>51.303400000000003</v>
+      </c>
+      <c r="L3" s="5">
+        <v>51.633899999999997</v>
+      </c>
+      <c r="M3" s="5">
+        <v>51.553699999999999</v>
+      </c>
+      <c r="N3" s="5">
+        <v>51.685099999999998</v>
+      </c>
+      <c r="O3" s="21">
+        <v>50.802900000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2">
+        <v>32</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0.97760000000000002</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" s="20">
+        <v>0.97760000000000002</v>
+      </c>
+      <c r="K4" s="4">
+        <v>1</v>
+      </c>
+      <c r="L4" s="4">
+        <v>1</v>
+      </c>
+      <c r="M4" s="4">
+        <v>1</v>
+      </c>
+      <c r="N4" s="4">
+        <v>1</v>
+      </c>
+      <c r="O4" s="4">
+        <v>0.99919999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0.55940000000000001</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0.54669999999999996</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J5" s="20">
+        <v>0.55940000000000001</v>
+      </c>
+      <c r="K5" s="4">
+        <v>0.82</v>
+      </c>
+      <c r="L5" s="4">
+        <v>0.82940000000000003</v>
+      </c>
+      <c r="M5" s="4">
+        <v>0.65639999999999998</v>
+      </c>
+      <c r="N5" s="4">
+        <v>0.58599999999999997</v>
+      </c>
+      <c r="O5" s="5">
+        <v>0.66220000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="4">
+        <v>2.24E-2</v>
+      </c>
+      <c r="F6" s="4">
+        <v>2.4E-2</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="J6" s="20">
+        <v>2.24E-2</v>
+      </c>
+      <c r="K6" s="4">
+        <v>0</v>
+      </c>
+      <c r="L6" s="4">
+        <v>0</v>
+      </c>
+      <c r="M6" s="4">
+        <v>0</v>
+      </c>
+      <c r="N6" s="4">
+        <v>0</v>
+      </c>
+      <c r="O6" s="4">
+        <v>8.0000000000000004E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0.98609999999999998</v>
+      </c>
+      <c r="F7" s="5">
+        <v>0.98670000000000002</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J7" s="21">
+        <v>0.98609999999999998</v>
+      </c>
+      <c r="K7" s="5">
+        <v>0.48980000000000001</v>
+      </c>
+      <c r="L7" s="5">
+        <v>0.48909999999999998</v>
+      </c>
+      <c r="M7" s="5">
+        <v>0.73970000000000002</v>
+      </c>
+      <c r="N7" s="5">
+        <v>0.72489999999999999</v>
+      </c>
+      <c r="O7" s="5">
+        <v>0.73970000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" s="12"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="5">
+        <v>0.60740000000000005</v>
+      </c>
+      <c r="F8" s="5">
+        <v>0.61040000000000005</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J8" s="21">
+        <v>0.60740000000000005</v>
+      </c>
+      <c r="K8" s="5">
+        <v>0.39019999999999999</v>
+      </c>
+      <c r="L8" s="5">
+        <v>0.38440000000000002</v>
+      </c>
+      <c r="M8" s="5">
+        <v>0.52270000000000005</v>
+      </c>
+      <c r="N8" s="5">
+        <v>0.56469999999999998</v>
+      </c>
+      <c r="O8" s="5">
+        <v>0.51429999999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9" s="2"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="5">
+        <v>0.52549999999999997</v>
+      </c>
+      <c r="F9" s="5">
+        <v>0.52980000000000005</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J9" s="5">
+        <v>0.52549999999999997</v>
+      </c>
+      <c r="K9" s="5">
+        <v>0.42670000000000002</v>
+      </c>
+      <c r="L9" s="5">
+        <v>0.40350000000000003</v>
+      </c>
+      <c r="M9" s="5">
+        <v>0.49199999999999999</v>
+      </c>
+      <c r="N9" s="21">
+        <v>0.58250000000000002</v>
+      </c>
+      <c r="O9" s="5">
+        <v>0.48570000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0.76829999999999998</v>
+      </c>
+      <c r="F10" s="4">
+        <v>0.76680000000000004</v>
+      </c>
+      <c r="I10" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="J10" s="21">
+        <v>0.76829999999999998</v>
+      </c>
+      <c r="K10" s="5">
+        <v>0.379</v>
+      </c>
+      <c r="L10" s="5">
+        <v>0.37859999999999999</v>
+      </c>
+      <c r="M10" s="5">
+        <v>0.5746</v>
+      </c>
+      <c r="N10" s="5">
+        <v>0.5635</v>
+      </c>
+      <c r="O10" s="5">
+        <v>0.5746</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="I11" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="17"/>
+    </row>
+    <row r="12" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I12" s="15"/>
+      <c r="J12" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="K12" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="L12" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="M12" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="N12" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="O12" s="16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="2">
+        <v>400</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="5">
+        <v>51.303400000000003</v>
+      </c>
+      <c r="F13" s="5">
+        <v>102.4855</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J13" s="5">
+        <v>101.49</v>
+      </c>
+      <c r="K13" s="5">
+        <v>102.4855</v>
+      </c>
+      <c r="L13" s="5">
+        <v>103.09690000000001</v>
+      </c>
+      <c r="M13" s="5">
+        <v>102.9362</v>
+      </c>
+      <c r="N13" s="5">
+        <v>103.2773</v>
+      </c>
+      <c r="O13" s="21">
+        <v>101.38249999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="2">
+        <v>32</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="4">
+        <v>1</v>
+      </c>
+      <c r="F14" s="4">
+        <v>1</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J14" s="20">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="K14" s="4">
+        <v>1</v>
+      </c>
+      <c r="L14" s="4">
+        <v>1</v>
+      </c>
+      <c r="M14" s="4">
+        <v>1</v>
+      </c>
+      <c r="N14" s="4">
+        <v>1</v>
+      </c>
+      <c r="O14" s="5">
+        <v>0.99880000000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" s="4">
+        <v>0.82</v>
+      </c>
+      <c r="F15" s="4">
+        <v>0.82440000000000002</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J15" s="20">
+        <v>0.54669999999999996</v>
+      </c>
+      <c r="K15" s="4">
+        <v>0.82440000000000002</v>
+      </c>
+      <c r="L15" s="4">
+        <v>0.84540000000000004</v>
+      </c>
+      <c r="M15" s="5">
+        <v>0.65110000000000001</v>
+      </c>
+      <c r="N15" s="5">
+        <v>0.58550000000000002</v>
+      </c>
+      <c r="O15" s="5">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" s="4">
+        <v>0</v>
+      </c>
+      <c r="F16" s="4">
+        <v>0</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="J16" s="20">
+        <v>2.4E-2</v>
+      </c>
+      <c r="K16" s="4">
+        <v>0</v>
+      </c>
+      <c r="L16" s="4">
+        <v>0</v>
+      </c>
+      <c r="M16" s="4">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="N16" s="4">
+        <v>0</v>
+      </c>
+      <c r="O16" s="5">
+        <v>1.1999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E17" s="5">
+        <v>0.48980000000000001</v>
+      </c>
+      <c r="F17" s="5">
+        <v>0.49070000000000003</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J17" s="21">
+        <v>0.98670000000000002</v>
+      </c>
+      <c r="K17" s="5">
+        <v>0.49070000000000003</v>
+      </c>
+      <c r="L17" s="5">
+        <v>0.49120000000000003</v>
+      </c>
+      <c r="M17" s="5">
+        <v>0.74150000000000005</v>
+      </c>
+      <c r="N17" s="5">
+        <v>0.72540000000000004</v>
+      </c>
+      <c r="O17" s="5">
+        <v>0.74150000000000005</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A18" s="12"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" s="5">
+        <v>0.39019999999999999</v>
+      </c>
+      <c r="F18" s="5">
+        <v>0.38929999999999998</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J18" s="21">
+        <v>0.61040000000000005</v>
+      </c>
+      <c r="K18" s="5">
+        <v>0.38929999999999998</v>
+      </c>
+      <c r="L18" s="5">
+        <v>0.38540000000000002</v>
+      </c>
+      <c r="M18" s="5">
+        <v>0.52310000000000001</v>
+      </c>
+      <c r="N18" s="5">
+        <v>0.56499999999999995</v>
+      </c>
+      <c r="O18" s="5">
+        <v>0.51419999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A19" s="2"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E19" s="5">
+        <v>0.42670000000000002</v>
+      </c>
+      <c r="F19" s="5">
+        <v>0.42520000000000002</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J19" s="21">
+        <v>0.52980000000000005</v>
+      </c>
+      <c r="K19" s="5">
+        <v>0.42520000000000002</v>
+      </c>
+      <c r="L19" s="5">
+        <v>0.40450000000000003</v>
+      </c>
+      <c r="M19" s="5">
+        <v>0.49270000000000003</v>
+      </c>
+      <c r="N19" s="5">
+        <v>0.58330000000000004</v>
+      </c>
+      <c r="O19" s="5">
+        <v>0.48599999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" s="5">
+        <v>0.379</v>
+      </c>
+      <c r="F20" s="5">
+        <v>0.37880000000000003</v>
+      </c>
+      <c r="I20" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="J20" s="20">
+        <v>0.76680000000000004</v>
+      </c>
+      <c r="K20" s="5">
+        <v>0.37880000000000003</v>
+      </c>
+      <c r="L20" s="5">
+        <v>0.37909999999999999</v>
+      </c>
+      <c r="M20" s="5">
+        <v>0.57410000000000005</v>
+      </c>
+      <c r="N20" s="5">
+        <v>0.56330000000000002</v>
+      </c>
+      <c r="O20" s="5">
+        <v>0.57410000000000005</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A21" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="19"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="2">
+        <v>400</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" s="5">
+        <v>51.633899999999997</v>
+      </c>
+      <c r="F23" s="5">
+        <v>103.09690000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" s="2">
+        <v>32</v>
+      </c>
+      <c r="C24" s="3"/>
+      <c r="D24" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E24" s="4">
+        <v>1</v>
+      </c>
+      <c r="F24" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E25" s="4">
+        <v>0.82940000000000003</v>
+      </c>
+      <c r="F25" s="4">
+        <v>0.84540000000000004</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E26" s="4">
+        <v>0</v>
+      </c>
+      <c r="F26" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E27" s="5">
+        <v>0.48909999999999998</v>
+      </c>
+      <c r="F27" s="5">
+        <v>0.49120000000000003</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A28" s="12"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E28" s="5">
+        <v>0.38440000000000002</v>
+      </c>
+      <c r="F28" s="5">
+        <v>0.38540000000000002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A29" s="2"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E29" s="5">
+        <v>0.40350000000000003</v>
+      </c>
+      <c r="F29" s="5">
+        <v>0.40450000000000003</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E30" s="5">
+        <v>0.37859999999999999</v>
+      </c>
+      <c r="F30" s="5">
+        <v>0.37909999999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A31" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B31" s="19"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32" s="3"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B33" s="2">
+        <v>500</v>
+      </c>
+      <c r="C33" s="3"/>
+      <c r="D33" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E33" s="5">
+        <v>51.553699999999999</v>
+      </c>
+      <c r="F33" s="5">
+        <v>102.9362</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B34" s="2">
+        <v>32</v>
+      </c>
+      <c r="C34" s="3"/>
+      <c r="D34" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E34" s="4">
+        <v>1</v>
+      </c>
+      <c r="F34" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B35" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="C35" s="3"/>
+      <c r="D35" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E35" s="4">
+        <v>0.65639999999999998</v>
+      </c>
+      <c r="F35" s="5">
+        <v>0.65110000000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E36" s="4">
+        <v>0</v>
+      </c>
+      <c r="F36" s="4">
+        <v>8.0000000000000004E-4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B37" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E37" s="5">
+        <v>0.73970000000000002</v>
+      </c>
+      <c r="F37" s="5">
+        <v>0.74150000000000005</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="12"/>
+      <c r="B38" s="12"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E38" s="5">
+        <v>0.52270000000000005</v>
+      </c>
+      <c r="F38" s="5">
+        <v>0.52310000000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" s="2"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E39" s="5">
+        <v>0.49199999999999999</v>
+      </c>
+      <c r="F39" s="5">
+        <v>0.49270000000000003</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E40" s="5">
+        <v>0.5746</v>
+      </c>
+      <c r="F40" s="5">
+        <v>0.57410000000000005</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A41" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B41" s="19"/>
+      <c r="C41" s="19"/>
+      <c r="D41" s="19"/>
+      <c r="E41" s="19"/>
+      <c r="F41" s="19"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C42" s="3"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B43" s="2">
+        <v>500</v>
+      </c>
+      <c r="C43" s="3"/>
+      <c r="D43" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E43" s="5">
+        <v>51.685099999999998</v>
+      </c>
+      <c r="F43" s="5">
+        <v>103.2773</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B44" s="2">
+        <v>32</v>
+      </c>
+      <c r="C44" s="3"/>
+      <c r="D44" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E44" s="4">
+        <v>1</v>
+      </c>
+      <c r="F44" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B45" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="C45" s="3"/>
+      <c r="D45" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E45" s="4">
+        <v>0.58599999999999997</v>
+      </c>
+      <c r="F45" s="5">
+        <v>0.58550000000000002</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E46" s="4">
+        <v>0</v>
+      </c>
+      <c r="F46" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B47" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E47" s="5">
+        <v>0.72489999999999999</v>
+      </c>
+      <c r="F47" s="5">
+        <v>0.72540000000000004</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" s="12"/>
+      <c r="B48" s="12"/>
+      <c r="C48" s="12"/>
+      <c r="D48" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E48" s="5">
+        <v>0.56469999999999998</v>
+      </c>
+      <c r="F48" s="5">
+        <v>0.56499999999999995</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" s="2"/>
+      <c r="B49" s="5"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E49" s="5">
+        <v>0.58250000000000002</v>
+      </c>
+      <c r="F49" s="5">
+        <v>0.58330000000000004</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" s="2"/>
+      <c r="B50" s="2"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E50" s="5">
+        <v>0.5635</v>
+      </c>
+      <c r="F50" s="5">
+        <v>0.56330000000000002</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A51" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B51" s="19"/>
+      <c r="C51" s="19"/>
+      <c r="D51" s="19"/>
+      <c r="E51" s="19"/>
+      <c r="F51" s="19"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C52" s="3"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B53" s="2">
+        <v>500</v>
+      </c>
+      <c r="C53" s="3"/>
+      <c r="D53" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E53" s="5">
+        <v>50.802900000000001</v>
+      </c>
+      <c r="F53" s="5">
+        <v>101.38249999999999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B54" s="2">
+        <v>32</v>
+      </c>
+      <c r="C54" s="3"/>
+      <c r="D54" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E54" s="4">
+        <v>0.99919999999999998</v>
+      </c>
+      <c r="F54" s="5">
+        <v>0.99880000000000002</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B55" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="C55" s="3"/>
+      <c r="D55" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E55" s="5">
+        <v>0.66220000000000001</v>
+      </c>
+      <c r="F55" s="5">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C56" s="4"/>
+      <c r="D56" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E56" s="4">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="F56" s="5">
+        <v>1.1999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B57" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="C57" s="4"/>
+      <c r="D57" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E57" s="5">
+        <v>0.73970000000000002</v>
+      </c>
+      <c r="F57" s="5">
+        <v>0.74150000000000005</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58" s="12"/>
+      <c r="B58" s="12"/>
+      <c r="C58" s="12"/>
+      <c r="D58" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E58" s="5">
+        <v>0.51429999999999998</v>
+      </c>
+      <c r="F58" s="5">
+        <v>0.51419999999999999</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59" s="2"/>
+      <c r="B59" s="5"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E59" s="5">
+        <v>0.48570000000000002</v>
+      </c>
+      <c r="F59" s="5">
+        <v>0.48599999999999999</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60" s="2"/>
+      <c r="B60" s="2"/>
+      <c r="C60" s="3"/>
+      <c r="D60" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E60" s="5">
+        <v>0.5746</v>
+      </c>
+      <c r="F60" s="5">
+        <v>0.57410000000000005</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A41:F41"/>
+    <mergeCell ref="A51:F51"/>
+    <mergeCell ref="I1:O1"/>
+    <mergeCell ref="I11:O11"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A31:F31"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4037878A-3E1E-40B5-BBBE-F0BE7135F3D3}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A0B247C-F5A8-4947-94D0-4B6C5A99BA4D}">
+  <dimension ref="A1:O43"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12:M14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.21875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.21875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.88671875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.88671875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.44140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.21875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5546875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.6640625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="11.6640625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="25"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="38"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1024</v>
+      </c>
+      <c r="C3" s="25"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="29"/>
+      <c r="N3" s="29"/>
+      <c r="O3" s="29"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="2">
+        <v>512</v>
+      </c>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="29"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="29"/>
+      <c r="O4" s="30"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="2">
+        <v>4</v>
+      </c>
+      <c r="C5" s="25"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="29"/>
+      <c r="M5" s="29"/>
+      <c r="N5" s="29"/>
+      <c r="O5" s="29"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="C6" s="25"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="29"/>
+      <c r="M6" s="29"/>
+      <c r="N6" s="29"/>
+      <c r="O6" s="29"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="2">
+        <v>3</v>
+      </c>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="29"/>
+      <c r="M7" s="29"/>
+      <c r="N7" s="29"/>
+      <c r="O7" s="29"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="26"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="37"/>
+      <c r="K8" s="37"/>
+      <c r="L8" s="37"/>
+      <c r="M8" s="37"/>
+      <c r="N8" s="37"/>
+      <c r="O8" s="37"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="23"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="38"/>
+      <c r="K9" s="38"/>
+      <c r="L9" s="38"/>
+      <c r="M9" s="38"/>
+      <c r="N9" s="38"/>
+      <c r="O9" s="38"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="23"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="32"/>
+      <c r="L10" s="31"/>
+      <c r="M10" s="31"/>
+      <c r="N10" s="31"/>
+      <c r="O10" s="31"/>
+    </row>
+    <row r="11" spans="1:15" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="43"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" s="45"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="46"/>
+      <c r="I11" s="47"/>
+      <c r="J11" s="44" t="s">
+        <v>49</v>
+      </c>
+      <c r="K11" s="45"/>
+      <c r="L11" s="46"/>
+      <c r="M11" s="31"/>
+      <c r="N11" s="31"/>
+      <c r="O11" s="31"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
+      <c r="B12" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="G12" s="41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" s="41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="J12" s="42" t="s">
+        <v>50</v>
+      </c>
+      <c r="K12" s="42" t="s">
+        <v>51</v>
+      </c>
+      <c r="L12" s="42" t="s">
+        <v>52</v>
+      </c>
+      <c r="M12" s="31"/>
+      <c r="N12" s="31"/>
+      <c r="O12" s="31"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="5">
+        <v>0.77410000000000001</v>
+      </c>
+      <c r="C13" s="5">
+        <v>0.78410000000000002</v>
+      </c>
+      <c r="D13" s="5">
+        <v>0.77639999999999998</v>
+      </c>
+      <c r="E13" s="5">
+        <v>0.14130000000000001</v>
+      </c>
+      <c r="F13" s="5">
+        <v>0</v>
+      </c>
+      <c r="G13" s="5">
+        <v>0</v>
+      </c>
+      <c r="H13" s="5">
+        <v>0</v>
+      </c>
+      <c r="I13" s="5">
+        <v>0</v>
+      </c>
+      <c r="J13" s="5">
+        <v>0.59209999999999996</v>
+      </c>
+      <c r="K13" s="5">
+        <v>0.4007</v>
+      </c>
+      <c r="L13" s="5">
+        <v>0.46250000000000002</v>
+      </c>
+      <c r="M13" s="31"/>
+      <c r="N13" s="31"/>
+      <c r="O13" s="31"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="5">
+        <v>0.76890000000000003</v>
+      </c>
+      <c r="C14" s="5">
+        <v>0.7802</v>
+      </c>
+      <c r="D14" s="5">
+        <v>0.77180000000000004</v>
+      </c>
+      <c r="E14" s="5">
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="F14" s="5">
+        <v>0</v>
+      </c>
+      <c r="G14" s="5">
+        <v>0</v>
+      </c>
+      <c r="H14" s="5">
+        <v>0</v>
+      </c>
+      <c r="I14" s="27">
+        <v>0</v>
+      </c>
+      <c r="J14" s="27">
+        <v>0.5827</v>
+      </c>
+      <c r="K14" s="5">
+        <v>0.39150000000000001</v>
+      </c>
+      <c r="L14" s="5">
+        <v>0.45390000000000003</v>
+      </c>
+      <c r="M14" s="31"/>
+      <c r="N14" s="31"/>
+      <c r="O14" s="31"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B15" s="35"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="28"/>
+      <c r="L15" s="28"/>
+      <c r="M15" s="28"/>
+      <c r="N15" s="28"/>
+      <c r="O15" s="28"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="23"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="23"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="23"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="23"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="23"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="23"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="36"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="36"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="23"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="23"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="23"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="23"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="23"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="23"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="24"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="36"/>
+      <c r="B29" s="36"/>
+      <c r="C29" s="36"/>
+      <c r="D29" s="36"/>
+      <c r="E29" s="36"/>
+      <c r="F29" s="36"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="23"/>
+      <c r="B30" s="24"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="26"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="23"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="26"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="24"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="23"/>
+      <c r="B32" s="23"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="24"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="23"/>
+      <c r="B33" s="23"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="24"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="23"/>
+      <c r="B34" s="23"/>
+      <c r="C34" s="26"/>
+      <c r="D34" s="26"/>
+      <c r="E34" s="24"/>
+      <c r="F34" s="24"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="23"/>
+      <c r="B35" s="23"/>
+      <c r="C35" s="26"/>
+      <c r="D35" s="26"/>
+      <c r="E35" s="24"/>
+      <c r="F35" s="24"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="36"/>
+      <c r="B36" s="36"/>
+      <c r="C36" s="36"/>
+      <c r="D36" s="36"/>
+      <c r="E36" s="36"/>
+      <c r="F36" s="36"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="23"/>
+      <c r="B37" s="24"/>
+      <c r="C37" s="25"/>
+      <c r="D37" s="26"/>
+      <c r="E37" s="26"/>
+      <c r="F37" s="26"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="23"/>
+      <c r="B38" s="23"/>
+      <c r="C38" s="25"/>
+      <c r="D38" s="26"/>
+      <c r="E38" s="24"/>
+      <c r="F38" s="24"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="23"/>
+      <c r="B39" s="23"/>
+      <c r="C39" s="25"/>
+      <c r="D39" s="26"/>
+      <c r="E39" s="24"/>
+      <c r="F39" s="24"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="23"/>
+      <c r="B40" s="23"/>
+      <c r="C40" s="25"/>
+      <c r="D40" s="26"/>
+      <c r="E40" s="24"/>
+      <c r="F40" s="24"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="23"/>
+      <c r="B41" s="23"/>
+      <c r="C41" s="26"/>
+      <c r="D41" s="26"/>
+      <c r="E41" s="24"/>
+      <c r="F41" s="24"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="23"/>
+      <c r="B42" s="23"/>
+      <c r="C42" s="26"/>
+      <c r="D42" s="26"/>
+      <c r="E42" s="24"/>
+      <c r="F42" s="24"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="26"/>
+      <c r="B43" s="26"/>
+      <c r="C43" s="26"/>
+      <c r="D43" s="26"/>
+      <c r="E43" s="26"/>
+      <c r="F43" s="26"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A29:F29"/>
+    <mergeCell ref="A36:F36"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="I1:O1"/>
+    <mergeCell ref="I8:O8"/>
+    <mergeCell ref="A22:F22"/>
+  </mergeCells>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/results/results.xlsx
+++ b/results/results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\projects\job_recruitment_dataset\modeling\training-model\results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\projects\job_recruitment_dataset\train_model\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BCC09C4-6283-4154-844A-2DB581C888F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7FA0C16-94BE-4008-A2D0-A90C3954A808}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="task 1 (label)" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="77">
   <si>
     <t>vinai/phobert-base</t>
   </si>
@@ -255,6 +255,9 @@
   </si>
   <si>
     <t>1 e / 20</t>
+  </si>
+  <si>
+    <t>vinai/bartpho-syllable-base</t>
   </si>
 </sst>
 </file>
@@ -607,7 +610,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -645,9 +648,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -693,6 +693,27 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -702,6 +723,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -711,17 +733,24 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -741,33 +770,9 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1016,2359 +1021,2359 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="26"/>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="47" t="s">
+      <c r="A1" s="25"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47" t="s">
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="47"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="45"/>
     </row>
     <row r="2" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="45" t="s">
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="45"/>
-      <c r="N2" s="45"/>
-      <c r="O2" s="25"/>
-      <c r="P2" s="39" t="s">
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="Q2" s="40"/>
-      <c r="R2" s="40"/>
-      <c r="S2" s="40"/>
-      <c r="T2" s="40"/>
-      <c r="U2" s="40"/>
-      <c r="V2" s="41"/>
+      <c r="Q2" s="48"/>
+      <c r="R2" s="48"/>
+      <c r="S2" s="48"/>
+      <c r="T2" s="48"/>
+      <c r="U2" s="48"/>
+      <c r="V2" s="49"/>
     </row>
     <row r="3" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30" t="s">
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="30" t="s">
+      <c r="F3" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26" t="s">
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="26" t="s">
+      <c r="J3" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="26"/>
-      <c r="L3" s="27"/>
-      <c r="M3" s="26" t="s">
+      <c r="K3" s="25"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="N3" s="26" t="s">
+      <c r="N3" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="O3" s="25"/>
-      <c r="P3" s="32"/>
-      <c r="Q3" s="33" t="s">
+      <c r="O3" s="24"/>
+      <c r="P3" s="31"/>
+      <c r="Q3" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="R3" s="33" t="s">
+      <c r="R3" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="S3" s="33" t="s">
+      <c r="S3" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="T3" s="33" t="s">
+      <c r="T3" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="U3" s="33" t="s">
+      <c r="U3" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="V3" s="33" t="s">
+      <c r="V3" s="32" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="29">
+      <c r="B4" s="28">
         <v>200</v>
       </c>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30" t="s">
+      <c r="C4" s="29"/>
+      <c r="D4" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="31">
+      <c r="E4" s="30">
         <v>36.7971</v>
       </c>
-      <c r="F4" s="31">
+      <c r="F4" s="30">
         <v>73.924899999999994</v>
       </c>
-      <c r="G4" s="26" t="s">
+      <c r="G4" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="26">
+      <c r="H4" s="25">
         <v>128</v>
       </c>
-      <c r="I4" s="26">
+      <c r="I4" s="25">
         <v>35.518700000000003</v>
       </c>
-      <c r="J4" s="26">
+      <c r="J4" s="25">
         <v>71.119500000000002</v>
       </c>
-      <c r="K4" s="26" t="s">
+      <c r="K4" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="L4" s="26">
+      <c r="L4" s="25">
         <v>768</v>
       </c>
-      <c r="M4" s="26">
+      <c r="M4" s="25">
         <v>36.367800000000003</v>
       </c>
-      <c r="N4" s="26">
+      <c r="N4" s="25">
         <v>73.439400000000006</v>
       </c>
-      <c r="O4" s="25"/>
-      <c r="P4" s="30" t="s">
+      <c r="O4" s="24"/>
+      <c r="P4" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="34">
+      <c r="Q4" s="33">
         <v>36.7971</v>
       </c>
-      <c r="R4" s="35">
+      <c r="R4" s="34">
         <v>35.455500000000001</v>
       </c>
-      <c r="S4" s="34">
+      <c r="S4" s="33">
         <v>39.610199999999999</v>
       </c>
-      <c r="T4" s="34">
+      <c r="T4" s="33">
         <v>40.867899999999999</v>
       </c>
-      <c r="U4" s="34">
+      <c r="U4" s="33">
         <v>40.0212</v>
       </c>
-      <c r="V4" s="34">
+      <c r="V4" s="33">
         <v>35.601999999999997</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="29">
+      <c r="B5" s="28">
         <v>32</v>
       </c>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30" t="s">
+      <c r="C5" s="29"/>
+      <c r="D5" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="31">
+      <c r="E5" s="30">
         <v>0.54020000000000001</v>
       </c>
-      <c r="F5" s="31">
+      <c r="F5" s="30">
         <v>0.52339999999999998</v>
       </c>
-      <c r="G5" s="26" t="s">
+      <c r="G5" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="26">
+      <c r="H5" s="25">
         <v>1</v>
       </c>
-      <c r="I5" s="26">
+      <c r="I5" s="25">
         <v>0.56259999999999999</v>
       </c>
-      <c r="J5" s="26">
+      <c r="J5" s="25">
         <v>0.55779999999999996</v>
       </c>
-      <c r="K5" s="26" t="s">
+      <c r="K5" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="L5" s="26">
+      <c r="L5" s="25">
         <v>256</v>
       </c>
-      <c r="M5" s="26">
+      <c r="M5" s="25">
         <v>0.54759999999999998</v>
       </c>
-      <c r="N5" s="26">
+      <c r="N5" s="25">
         <v>0.52129999999999999</v>
       </c>
-      <c r="O5" s="25"/>
-      <c r="P5" s="30" t="s">
+      <c r="O5" s="24"/>
+      <c r="P5" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="34">
+      <c r="Q5" s="33">
         <v>0.54020000000000001</v>
       </c>
-      <c r="R5" s="34">
+      <c r="R5" s="33">
         <v>0.55840000000000001</v>
       </c>
-      <c r="S5" s="34">
+      <c r="S5" s="33">
         <v>0.43</v>
       </c>
-      <c r="T5" s="34">
+      <c r="T5" s="33">
         <v>0.43</v>
       </c>
-      <c r="U5" s="34">
+      <c r="U5" s="33">
         <v>0.4582</v>
       </c>
-      <c r="V5" s="35">
+      <c r="V5" s="34">
         <v>0.56089999999999995</v>
       </c>
     </row>
     <row r="6" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="29">
+      <c r="B6" s="28">
         <v>1E-3</v>
       </c>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30" t="s">
+      <c r="C6" s="29"/>
+      <c r="D6" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="31">
+      <c r="E6" s="30">
         <v>0.59440000000000004</v>
       </c>
-      <c r="F6" s="31">
+      <c r="F6" s="30">
         <v>0.56630000000000003</v>
       </c>
-      <c r="G6" s="26" t="s">
+      <c r="G6" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="26" t="s">
+      <c r="H6" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="I6" s="26">
+      <c r="I6" s="25">
         <v>0.56399999999999995</v>
       </c>
-      <c r="J6" s="26">
+      <c r="J6" s="25">
         <v>0.56399999999999995</v>
       </c>
-      <c r="K6" s="26" t="s">
+      <c r="K6" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="L6" s="26">
+      <c r="L6" s="25">
         <v>32</v>
       </c>
-      <c r="M6" s="26">
+      <c r="M6" s="25">
         <v>0.54990000000000006</v>
       </c>
-      <c r="N6" s="26">
+      <c r="N6" s="25">
         <v>0.5141</v>
       </c>
-      <c r="O6" s="25"/>
-      <c r="P6" s="30" t="s">
+      <c r="O6" s="24"/>
+      <c r="P6" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="Q6" s="35">
+      <c r="Q6" s="34">
         <v>0.59440000000000004</v>
       </c>
-      <c r="R6" s="34">
+      <c r="R6" s="33">
         <v>0.56010000000000004</v>
       </c>
-      <c r="S6" s="34">
+      <c r="S6" s="33">
         <v>0.14330000000000001</v>
       </c>
-      <c r="T6" s="34">
+      <c r="T6" s="33">
         <v>0.14330000000000001</v>
       </c>
-      <c r="U6" s="34">
+      <c r="U6" s="33">
         <v>0.29730000000000001</v>
       </c>
-      <c r="V6" s="34">
+      <c r="V6" s="33">
         <v>0.52180000000000004</v>
       </c>
     </row>
     <row r="7" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30" t="s">
+      <c r="C7" s="29"/>
+      <c r="D7" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="31">
+      <c r="E7" s="30">
         <v>0.47260000000000002</v>
       </c>
-      <c r="F7" s="31">
+      <c r="F7" s="30">
         <v>0.46710000000000002</v>
       </c>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26">
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25">
         <v>0.52410000000000001</v>
       </c>
-      <c r="J7" s="26">
+      <c r="J7" s="25">
         <v>0.52339999999999998</v>
       </c>
-      <c r="K7" s="26" t="s">
+      <c r="K7" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="L7" s="28" t="s">
+      <c r="L7" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="M7" s="26">
+      <c r="M7" s="25">
         <v>0.48549999999999999</v>
       </c>
-      <c r="N7" s="26">
+      <c r="N7" s="25">
         <v>0.4647</v>
       </c>
-      <c r="O7" s="25"/>
-      <c r="P7" s="30" t="s">
+      <c r="O7" s="24"/>
+      <c r="P7" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="Q7" s="34">
+      <c r="Q7" s="33">
         <v>0.47260000000000002</v>
       </c>
-      <c r="R7" s="35" t="s">
+      <c r="R7" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="S7" s="34">
+      <c r="S7" s="33">
         <v>0.33329999999999999</v>
       </c>
-      <c r="T7" s="34">
+      <c r="T7" s="33">
         <v>0.33</v>
       </c>
-      <c r="U7" s="34">
+      <c r="U7" s="33">
         <v>0.378</v>
       </c>
-      <c r="V7" s="34">
+      <c r="V7" s="33">
         <v>0.48849999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="29" t="s">
+      <c r="A8" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="29" t="b">
+      <c r="B8" s="28" t="b">
         <v>1</v>
       </c>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30" t="s">
+      <c r="C8" s="29"/>
+      <c r="D8" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="31">
+      <c r="E8" s="30">
         <v>0.45739999999999997</v>
       </c>
-      <c r="F8" s="30">
+      <c r="F8" s="29">
         <v>0.45019999999999999</v>
       </c>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26">
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25">
         <v>0.52890000000000004</v>
       </c>
-      <c r="J8" s="26">
+      <c r="J8" s="25">
         <v>0.52390000000000003</v>
       </c>
-      <c r="K8" s="26"/>
-      <c r="L8" s="26"/>
-      <c r="M8" s="26">
+      <c r="K8" s="25"/>
+      <c r="L8" s="25"/>
+      <c r="M8" s="25">
         <v>0.47289999999999999</v>
       </c>
-      <c r="N8" s="26">
+      <c r="N8" s="25">
         <v>0.44469999999999998</v>
       </c>
-      <c r="O8" s="25"/>
-      <c r="P8" s="30" t="s">
+      <c r="O8" s="24"/>
+      <c r="P8" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="Q8" s="34">
+      <c r="Q8" s="33">
         <v>0.45739999999999997</v>
       </c>
-      <c r="R8" s="35">
+      <c r="R8" s="34">
         <v>0.49509999999999998</v>
       </c>
-      <c r="S8" s="34">
+      <c r="S8" s="33">
         <v>0.20050000000000001</v>
       </c>
-      <c r="T8" s="34">
+      <c r="T8" s="33">
         <v>0.20050000000000001</v>
       </c>
-      <c r="U8" s="34">
+      <c r="U8" s="33">
         <v>0.30969999999999998</v>
       </c>
-      <c r="V8" s="34">
+      <c r="V8" s="33">
         <v>0.44330000000000003</v>
       </c>
     </row>
     <row r="9" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="45" t="s">
+      <c r="A9" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="46"/>
-      <c r="C9" s="46"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="46"/>
-      <c r="F9" s="46"/>
-      <c r="G9" s="45" t="s">
+      <c r="B9" s="50"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="45"/>
-      <c r="I9" s="45"/>
-      <c r="J9" s="45"/>
-      <c r="K9" s="45"/>
-      <c r="L9" s="45"/>
-      <c r="M9" s="45"/>
-      <c r="N9" s="45"/>
-      <c r="O9" s="25"/>
-      <c r="P9" s="39" t="s">
+      <c r="H9" s="46"/>
+      <c r="I9" s="46"/>
+      <c r="J9" s="46"/>
+      <c r="K9" s="46"/>
+      <c r="L9" s="46"/>
+      <c r="M9" s="46"/>
+      <c r="N9" s="46"/>
+      <c r="O9" s="24"/>
+      <c r="P9" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="Q9" s="40"/>
-      <c r="R9" s="40"/>
-      <c r="S9" s="40"/>
-      <c r="T9" s="40"/>
-      <c r="U9" s="40"/>
-      <c r="V9" s="41"/>
+      <c r="Q9" s="48"/>
+      <c r="R9" s="48"/>
+      <c r="S9" s="48"/>
+      <c r="T9" s="48"/>
+      <c r="U9" s="48"/>
+      <c r="V9" s="49"/>
     </row>
     <row r="10" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="29" t="s">
+      <c r="A10" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="31" t="s">
+      <c r="B10" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30" t="s">
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="F10" s="30" t="s">
+      <c r="F10" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="G10" s="26"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="26" t="s">
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="J10" s="26" t="s">
+      <c r="J10" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="K10" s="26"/>
-      <c r="L10" s="27"/>
-      <c r="M10" s="26" t="s">
+      <c r="K10" s="25"/>
+      <c r="L10" s="26"/>
+      <c r="M10" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="N10" s="26" t="s">
+      <c r="N10" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="O10" s="25"/>
-      <c r="P10" s="32"/>
-      <c r="Q10" s="33" t="s">
+      <c r="O10" s="24"/>
+      <c r="P10" s="31"/>
+      <c r="Q10" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="R10" s="33" t="s">
+      <c r="R10" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="S10" s="33" t="s">
+      <c r="S10" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="T10" s="33" t="s">
+      <c r="T10" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="U10" s="33" t="s">
+      <c r="U10" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="V10" s="33" t="s">
+      <c r="V10" s="32" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="29" t="s">
+      <c r="A11" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="29">
+      <c r="B11" s="28">
         <v>400</v>
       </c>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30" t="s">
+      <c r="C11" s="29"/>
+      <c r="D11" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="31">
+      <c r="E11" s="30">
         <v>35.455500000000001</v>
       </c>
-      <c r="F11" s="31">
+      <c r="F11" s="30">
         <v>70.634799999999998</v>
       </c>
-      <c r="G11" s="26" t="s">
+      <c r="G11" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="H11" s="26">
+      <c r="H11" s="25">
         <v>128</v>
       </c>
-      <c r="I11" s="26">
+      <c r="I11" s="25">
         <v>34.240499999999997</v>
       </c>
-      <c r="J11" s="26">
+      <c r="J11" s="25">
         <v>68.696600000000004</v>
       </c>
-      <c r="K11" s="26" t="s">
+      <c r="K11" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="L11" s="26">
+      <c r="L11" s="25">
         <v>768</v>
       </c>
-      <c r="M11" s="26">
+      <c r="M11" s="25">
         <v>34.5105</v>
       </c>
-      <c r="N11" s="26">
+      <c r="N11" s="25">
         <v>68.833699999999993</v>
       </c>
-      <c r="O11" s="25"/>
-      <c r="P11" s="30" t="s">
+      <c r="O11" s="24"/>
+      <c r="P11" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="Q11" s="31">
+      <c r="Q11" s="30">
         <v>73.924899999999994</v>
       </c>
-      <c r="R11" s="36">
+      <c r="R11" s="35">
         <v>70.634799999999998</v>
       </c>
-      <c r="S11" s="31">
+      <c r="S11" s="30">
         <v>79.212500000000006</v>
       </c>
-      <c r="T11" s="31">
+      <c r="T11" s="30">
         <v>81.971599999999995</v>
       </c>
-      <c r="U11" s="31">
+      <c r="U11" s="30">
         <v>79.314899999999994</v>
       </c>
-      <c r="V11" s="31">
+      <c r="V11" s="30">
         <v>71.0916</v>
       </c>
     </row>
     <row r="12" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="29" t="s">
+      <c r="A12" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="29">
+      <c r="B12" s="28">
         <v>32</v>
       </c>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30" t="s">
+      <c r="C12" s="29"/>
+      <c r="D12" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="31">
+      <c r="E12" s="30">
         <v>0.55840000000000001</v>
       </c>
-      <c r="F12" s="31">
+      <c r="F12" s="30">
         <v>0.55620000000000003</v>
       </c>
-      <c r="G12" s="26" t="s">
+      <c r="G12" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="H12" s="26">
+      <c r="H12" s="25">
         <v>1</v>
       </c>
-      <c r="I12" s="26">
+      <c r="I12" s="25">
         <v>0.59730000000000005</v>
       </c>
-      <c r="J12" s="26">
+      <c r="J12" s="25">
         <v>0.5877</v>
       </c>
-      <c r="K12" s="26" t="s">
+      <c r="K12" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="L12" s="26">
+      <c r="L12" s="25">
         <v>256</v>
       </c>
-      <c r="M12" s="26">
+      <c r="M12" s="25">
         <v>0.58909999999999996</v>
       </c>
-      <c r="N12" s="26">
+      <c r="N12" s="25">
         <v>0.5756</v>
       </c>
-      <c r="O12" s="25"/>
-      <c r="P12" s="30" t="s">
+      <c r="O12" s="24"/>
+      <c r="P12" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="Q12" s="31">
+      <c r="Q12" s="30">
         <v>0.52339999999999998</v>
       </c>
-      <c r="R12" s="36">
+      <c r="R12" s="35">
         <v>0.55620000000000003</v>
       </c>
-      <c r="S12" s="31">
+      <c r="S12" s="30">
         <v>0.41399999999999998</v>
       </c>
-      <c r="T12" s="31">
+      <c r="T12" s="30">
         <v>0.41399999999999998</v>
       </c>
-      <c r="U12" s="31">
+      <c r="U12" s="30">
         <v>0.45129999999999998</v>
       </c>
-      <c r="V12" s="31">
+      <c r="V12" s="30">
         <v>0.54790000000000005</v>
       </c>
     </row>
     <row r="13" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="29" t="s">
+      <c r="A13" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="29">
+      <c r="B13" s="28">
         <v>1E-3</v>
       </c>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30" t="s">
+      <c r="C13" s="29"/>
+      <c r="D13" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="31">
+      <c r="E13" s="30">
         <v>0.56010000000000004</v>
       </c>
-      <c r="F13" s="31">
+      <c r="F13" s="30">
         <v>0.5635</v>
       </c>
-      <c r="G13" s="26" t="s">
+      <c r="G13" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="H13" s="26" t="s">
+      <c r="H13" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="I13" s="26">
+      <c r="I13" s="25">
         <v>0.60309999999999997</v>
       </c>
-      <c r="J13" s="26">
+      <c r="J13" s="25">
         <v>0.59</v>
       </c>
-      <c r="K13" s="26" t="s">
+      <c r="K13" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="L13" s="26">
+      <c r="L13" s="25">
         <v>32</v>
       </c>
-      <c r="M13" s="26">
+      <c r="M13" s="25">
         <v>0.60629999999999995</v>
       </c>
-      <c r="N13" s="26">
+      <c r="N13" s="25">
         <v>0.59560000000000002</v>
       </c>
-      <c r="O13" s="25"/>
-      <c r="P13" s="30" t="s">
+      <c r="O13" s="24"/>
+      <c r="P13" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="Q13" s="36">
+      <c r="Q13" s="35">
         <v>0.56630000000000003</v>
       </c>
-      <c r="R13" s="31">
+      <c r="R13" s="30">
         <v>0.5635</v>
       </c>
-      <c r="S13" s="31">
+      <c r="S13" s="30">
         <v>0.13800000000000001</v>
       </c>
-      <c r="T13" s="31">
+      <c r="T13" s="30">
         <v>0.13800000000000001</v>
       </c>
-      <c r="U13" s="31">
+      <c r="U13" s="30">
         <v>0.30009999999999998</v>
       </c>
-      <c r="V13" s="31">
+      <c r="V13" s="30">
         <v>0.51370000000000005</v>
       </c>
     </row>
     <row r="14" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="29" t="s">
+      <c r="A14" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="29" t="s">
+      <c r="B14" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="30"/>
-      <c r="D14" s="30" t="s">
+      <c r="C14" s="29"/>
+      <c r="D14" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="31" t="s">
+      <c r="E14" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="F14" s="31">
+      <c r="F14" s="30">
         <v>0.50839999999999996</v>
       </c>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="26">
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25">
         <v>0.55830000000000002</v>
       </c>
-      <c r="J14" s="26">
+      <c r="J14" s="25">
         <v>0.55830000000000002</v>
       </c>
-      <c r="K14" s="26" t="s">
+      <c r="K14" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="L14" s="28" t="s">
+      <c r="L14" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="M14" s="26">
+      <c r="M14" s="25">
         <v>0.56489999999999996</v>
       </c>
-      <c r="N14" s="26">
+      <c r="N14" s="25">
         <v>0.56200000000000006</v>
       </c>
-      <c r="O14" s="25"/>
-      <c r="P14" s="30" t="s">
+      <c r="O14" s="24"/>
+      <c r="P14" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="Q14" s="31">
+      <c r="Q14" s="30">
         <v>0.46710000000000002</v>
       </c>
-      <c r="R14" s="36">
+      <c r="R14" s="35">
         <v>0.50839999999999996</v>
       </c>
-      <c r="S14" s="31">
+      <c r="S14" s="30">
         <v>0.33329999999999999</v>
       </c>
-      <c r="T14" s="31">
+      <c r="T14" s="30">
         <v>0.33300000000000002</v>
       </c>
-      <c r="U14" s="31">
+      <c r="U14" s="30">
         <v>0.38090000000000002</v>
       </c>
-      <c r="V14" s="31">
+      <c r="V14" s="30">
         <v>0.4798</v>
       </c>
     </row>
     <row r="15" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="29" t="s">
+      <c r="A15" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="29" t="b">
+      <c r="B15" s="28" t="b">
         <v>1</v>
       </c>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30" t="s">
+      <c r="C15" s="29"/>
+      <c r="D15" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="E15" s="31">
+      <c r="E15" s="30">
         <v>0.49509999999999998</v>
       </c>
-      <c r="F15" s="31">
+      <c r="F15" s="30">
         <v>0.50280000000000002</v>
       </c>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="26">
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25">
         <v>0.56459999999999999</v>
       </c>
-      <c r="J15" s="26">
+      <c r="J15" s="25">
         <v>0.56100000000000005</v>
       </c>
-      <c r="K15" s="26"/>
-      <c r="L15" s="26"/>
-      <c r="M15" s="26">
+      <c r="K15" s="25"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="25">
         <v>0.56769999999999998</v>
       </c>
-      <c r="N15" s="26">
+      <c r="N15" s="25">
         <v>0.5585</v>
       </c>
-      <c r="P15" s="30" t="s">
+      <c r="P15" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="Q15" s="30">
+      <c r="Q15" s="29">
         <v>0.45019999999999999</v>
       </c>
-      <c r="R15" s="36">
+      <c r="R15" s="35">
         <v>0.50280000000000002</v>
       </c>
-      <c r="S15" s="31">
+      <c r="S15" s="30">
         <v>0.19520000000000001</v>
       </c>
-      <c r="T15" s="31">
+      <c r="T15" s="30">
         <v>0.19520000000000001</v>
       </c>
-      <c r="U15" s="31">
+      <c r="U15" s="30">
         <v>0.31009999999999999</v>
       </c>
-      <c r="V15" s="31">
+      <c r="V15" s="30">
         <v>0.43280000000000002</v>
       </c>
     </row>
     <row r="16" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="45" t="s">
+      <c r="A16" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="46"/>
-      <c r="C16" s="46"/>
-      <c r="D16" s="46"/>
-      <c r="E16" s="46"/>
-      <c r="F16" s="46"/>
-      <c r="G16" s="45" t="s">
+      <c r="B16" s="50"/>
+      <c r="C16" s="50"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="50"/>
+      <c r="G16" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="H16" s="45"/>
-      <c r="I16" s="45"/>
-      <c r="J16" s="45"/>
-      <c r="K16" s="45"/>
-      <c r="L16" s="45"/>
-      <c r="M16" s="45"/>
-      <c r="N16" s="45"/>
+      <c r="H16" s="46"/>
+      <c r="I16" s="46"/>
+      <c r="J16" s="46"/>
+      <c r="K16" s="46"/>
+      <c r="L16" s="46"/>
+      <c r="M16" s="46"/>
+      <c r="N16" s="46"/>
     </row>
     <row r="17" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="29" t="s">
+      <c r="A17" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="31" t="s">
+      <c r="B17" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30" t="s">
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="F17" s="30" t="s">
+      <c r="F17" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="G17" s="26"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="26" t="s">
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="J17" s="26" t="s">
+      <c r="J17" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="K17" s="26"/>
-      <c r="L17" s="27"/>
-      <c r="M17" s="26" t="s">
+      <c r="K17" s="25"/>
+      <c r="L17" s="26"/>
+      <c r="M17" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="N17" s="26" t="s">
+      <c r="N17" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="P17" s="42" t="s">
+      <c r="P17" s="51" t="s">
         <v>72</v>
       </c>
-      <c r="Q17" s="43"/>
-      <c r="R17" s="43"/>
-      <c r="S17" s="43"/>
-      <c r="T17" s="43"/>
-      <c r="U17" s="43"/>
-      <c r="V17" s="44"/>
+      <c r="Q17" s="52"/>
+      <c r="R17" s="52"/>
+      <c r="S17" s="52"/>
+      <c r="T17" s="52"/>
+      <c r="U17" s="52"/>
+      <c r="V17" s="53"/>
     </row>
     <row r="18" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="29" t="s">
+      <c r="A18" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="29">
+      <c r="B18" s="28">
         <v>400</v>
       </c>
-      <c r="C18" s="30"/>
-      <c r="D18" s="30" t="s">
+      <c r="C18" s="29"/>
+      <c r="D18" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="E18" s="31">
+      <c r="E18" s="30">
         <v>39.610199999999999</v>
       </c>
-      <c r="F18" s="31">
+      <c r="F18" s="30">
         <v>79.212500000000006</v>
       </c>
-      <c r="G18" s="26" t="s">
+      <c r="G18" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="H18" s="26">
+      <c r="H18" s="25">
         <v>128</v>
       </c>
-      <c r="I18" s="26">
+      <c r="I18" s="25">
         <v>37.413899999999998</v>
       </c>
-      <c r="J18" s="26">
+      <c r="J18" s="25">
         <v>73.477400000000003</v>
       </c>
-      <c r="K18" s="26" t="s">
+      <c r="K18" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="L18" s="26">
+      <c r="L18" s="25">
         <v>768</v>
       </c>
-      <c r="M18" s="26">
+      <c r="M18" s="25">
         <v>40.671199999999999</v>
       </c>
-      <c r="N18" s="26">
+      <c r="N18" s="25">
         <v>81.620199999999997</v>
       </c>
-      <c r="P18" s="39" t="s">
+      <c r="P18" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="Q18" s="40"/>
-      <c r="R18" s="40"/>
-      <c r="S18" s="40"/>
-      <c r="T18" s="40"/>
-      <c r="U18" s="40"/>
-      <c r="V18" s="41"/>
+      <c r="Q18" s="48"/>
+      <c r="R18" s="48"/>
+      <c r="S18" s="48"/>
+      <c r="T18" s="48"/>
+      <c r="U18" s="48"/>
+      <c r="V18" s="49"/>
     </row>
     <row r="19" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="29" t="s">
+      <c r="A19" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="29">
+      <c r="B19" s="28">
         <v>32</v>
       </c>
-      <c r="C19" s="30"/>
-      <c r="D19" s="30" t="s">
+      <c r="C19" s="29"/>
+      <c r="D19" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="E19" s="31">
+      <c r="E19" s="30">
         <v>0.43</v>
       </c>
-      <c r="F19" s="31">
+      <c r="F19" s="30">
         <v>0.41399999999999998</v>
       </c>
-      <c r="G19" s="26" t="s">
+      <c r="G19" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="H19" s="26">
+      <c r="H19" s="25">
         <v>1</v>
       </c>
-      <c r="I19" s="26">
+      <c r="I19" s="25">
         <v>0.52529999999999999</v>
       </c>
-      <c r="J19" s="26">
+      <c r="J19" s="25">
         <v>0.53669999999999995</v>
       </c>
-      <c r="K19" s="26" t="s">
+      <c r="K19" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="L19" s="26">
+      <c r="L19" s="25">
         <v>256</v>
       </c>
-      <c r="M19" s="26">
+      <c r="M19" s="25">
         <v>0.43</v>
       </c>
-      <c r="N19" s="26">
+      <c r="N19" s="25">
         <v>0.41399999999999998</v>
       </c>
-      <c r="P19" s="32"/>
-      <c r="Q19" s="33" t="s">
+      <c r="P19" s="31"/>
+      <c r="Q19" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="R19" s="33" t="s">
+      <c r="R19" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="S19" s="33" t="s">
+      <c r="S19" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="T19" s="33" t="s">
+      <c r="T19" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="U19" s="33" t="s">
+      <c r="U19" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="V19" s="33" t="s">
+      <c r="V19" s="32" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="29" t="s">
+      <c r="A20" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="B20" s="29">
+      <c r="B20" s="28">
         <v>1E-3</v>
       </c>
-      <c r="C20" s="30"/>
-      <c r="D20" s="30" t="s">
+      <c r="C20" s="29"/>
+      <c r="D20" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="E20" s="31">
+      <c r="E20" s="30">
         <v>0.14330000000000001</v>
       </c>
-      <c r="F20" s="31">
+      <c r="F20" s="30">
         <v>0.13800000000000001</v>
       </c>
-      <c r="G20" s="26" t="s">
+      <c r="G20" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="H20" s="26" t="s">
+      <c r="H20" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="I20" s="26">
+      <c r="I20" s="25">
         <v>0.52039999999999997</v>
       </c>
-      <c r="J20" s="26">
+      <c r="J20" s="25">
         <v>0.56310000000000004</v>
       </c>
-      <c r="K20" s="26" t="s">
+      <c r="K20" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="L20" s="26">
+      <c r="L20" s="25">
         <v>32</v>
       </c>
-      <c r="M20" s="26">
+      <c r="M20" s="25">
         <v>0.14330000000000001</v>
       </c>
-      <c r="N20" s="26">
+      <c r="N20" s="25">
         <v>0.13800000000000001</v>
       </c>
-      <c r="P20" s="30" t="s">
+      <c r="P20" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="Q20" s="26">
+      <c r="Q20" s="25">
         <v>35.518700000000003</v>
       </c>
-      <c r="R20" s="37">
+      <c r="R20" s="36">
         <v>34.240499999999997</v>
       </c>
-      <c r="S20" s="26">
+      <c r="S20" s="25">
         <v>37.413899999999998</v>
       </c>
-      <c r="T20" s="26">
+      <c r="T20" s="25">
         <v>40.881500000000003</v>
       </c>
-      <c r="U20" s="26">
+      <c r="U20" s="25">
         <v>39.932600000000001</v>
       </c>
-      <c r="V20" s="26">
+      <c r="V20" s="25">
         <v>34.466700000000003</v>
       </c>
     </row>
     <row r="21" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="29" t="s">
+      <c r="A21" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="29" t="s">
+      <c r="B21" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="30"/>
-      <c r="D21" s="30" t="s">
+      <c r="C21" s="29"/>
+      <c r="D21" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="E21" s="31">
+      <c r="E21" s="30">
         <v>0.33329999999999999</v>
       </c>
-      <c r="F21" s="31">
+      <c r="F21" s="30">
         <v>0.33329999999999999</v>
       </c>
-      <c r="G21" s="26"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26">
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="25">
         <v>0.4546</v>
       </c>
-      <c r="J21" s="26">
+      <c r="J21" s="25">
         <v>0.4773</v>
       </c>
-      <c r="K21" s="26" t="s">
+      <c r="K21" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="L21" s="26" t="s">
+      <c r="L21" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="M21" s="26">
+      <c r="M21" s="25">
         <v>0.33329999999999999</v>
       </c>
-      <c r="N21" s="26">
+      <c r="N21" s="25">
         <v>0.33329999999999999</v>
       </c>
-      <c r="P21" s="30" t="s">
+      <c r="P21" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="Q21" s="26">
+      <c r="Q21" s="25">
         <v>0.56259999999999999</v>
       </c>
-      <c r="R21" s="37">
+      <c r="R21" s="36">
         <v>0.59730000000000005</v>
       </c>
-      <c r="S21" s="26">
+      <c r="S21" s="25">
         <v>0.52529999999999999</v>
       </c>
-      <c r="T21" s="26">
+      <c r="T21" s="25">
         <v>0.43</v>
       </c>
-      <c r="U21" s="26">
+      <c r="U21" s="25">
         <v>0.45979999999999999</v>
       </c>
-      <c r="V21" s="26">
+      <c r="V21" s="25">
         <v>0.57499999999999996</v>
       </c>
     </row>
     <row r="22" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="29" t="s">
+      <c r="A22" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="29" t="b">
+      <c r="B22" s="28" t="b">
         <v>1</v>
       </c>
-      <c r="C22" s="30"/>
-      <c r="D22" s="30" t="s">
+      <c r="C22" s="29"/>
+      <c r="D22" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="E22" s="31">
+      <c r="E22" s="30">
         <v>0.20050000000000001</v>
       </c>
-      <c r="F22" s="31">
+      <c r="F22" s="30">
         <v>0.19520000000000001</v>
       </c>
-      <c r="G22" s="26"/>
-      <c r="H22" s="26"/>
-      <c r="I22" s="26">
+      <c r="G22" s="25"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="25">
         <v>0.43090000000000001</v>
       </c>
-      <c r="J22" s="26">
+      <c r="J22" s="25">
         <v>0.4582</v>
       </c>
-      <c r="K22" s="26"/>
-      <c r="L22" s="26"/>
-      <c r="M22" s="26">
+      <c r="K22" s="25"/>
+      <c r="L22" s="25"/>
+      <c r="M22" s="25">
         <v>0.20050000000000001</v>
       </c>
-      <c r="N22" s="26">
+      <c r="N22" s="25">
         <v>0.19520000000000001</v>
       </c>
-      <c r="P22" s="30" t="s">
+      <c r="P22" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="Q22" s="26">
+      <c r="Q22" s="25">
         <v>0.56399999999999995</v>
       </c>
-      <c r="R22" s="37">
+      <c r="R22" s="36">
         <v>0.60309999999999997</v>
       </c>
-      <c r="S22" s="26">
+      <c r="S22" s="25">
         <v>0.52039999999999997</v>
       </c>
-      <c r="T22" s="26">
+      <c r="T22" s="25">
         <v>0.14330000000000001</v>
       </c>
-      <c r="U22" s="26">
+      <c r="U22" s="25">
         <v>0.29480000000000001</v>
       </c>
-      <c r="V22" s="26">
+      <c r="V22" s="25">
         <v>0.57120000000000004</v>
       </c>
     </row>
     <row r="23" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="45" t="s">
+      <c r="A23" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="B23" s="46"/>
-      <c r="C23" s="46"/>
-      <c r="D23" s="46"/>
-      <c r="E23" s="46"/>
-      <c r="F23" s="46"/>
-      <c r="G23" s="45" t="s">
+      <c r="B23" s="50"/>
+      <c r="C23" s="50"/>
+      <c r="D23" s="50"/>
+      <c r="E23" s="50"/>
+      <c r="F23" s="50"/>
+      <c r="G23" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="H23" s="45"/>
-      <c r="I23" s="45"/>
-      <c r="J23" s="45"/>
-      <c r="K23" s="45"/>
-      <c r="L23" s="45"/>
-      <c r="M23" s="45"/>
-      <c r="N23" s="45"/>
-      <c r="P23" s="30" t="s">
+      <c r="H23" s="46"/>
+      <c r="I23" s="46"/>
+      <c r="J23" s="46"/>
+      <c r="K23" s="46"/>
+      <c r="L23" s="46"/>
+      <c r="M23" s="46"/>
+      <c r="N23" s="46"/>
+      <c r="P23" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="Q23" s="26">
+      <c r="Q23" s="25">
         <v>0.52410000000000001</v>
       </c>
-      <c r="R23" s="37">
+      <c r="R23" s="36">
         <v>0.55830000000000002</v>
       </c>
-      <c r="S23" s="26">
+      <c r="S23" s="25">
         <v>0.4546</v>
       </c>
-      <c r="T23" s="26">
+      <c r="T23" s="25">
         <v>0.33329999999999999</v>
       </c>
-      <c r="U23" s="26">
+      <c r="U23" s="25">
         <v>0.38090000000000002</v>
       </c>
-      <c r="V23" s="26">
+      <c r="V23" s="25">
         <v>0.53690000000000004</v>
       </c>
     </row>
     <row r="24" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="29" t="s">
+      <c r="A24" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="B24" s="31" t="s">
+      <c r="B24" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="C24" s="30"/>
-      <c r="D24" s="30"/>
-      <c r="E24" s="30" t="s">
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="F24" s="30" t="s">
+      <c r="F24" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="G24" s="26"/>
-      <c r="H24" s="26"/>
-      <c r="I24" s="26" t="s">
+      <c r="G24" s="25"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="J24" s="26" t="s">
+      <c r="J24" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="K24" s="26"/>
-      <c r="L24" s="27"/>
-      <c r="M24" s="26" t="s">
+      <c r="K24" s="25"/>
+      <c r="L24" s="26"/>
+      <c r="M24" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="N24" s="26" t="s">
+      <c r="N24" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="P24" s="30" t="s">
+      <c r="P24" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="Q24" s="26">
+      <c r="Q24" s="25">
         <v>0.52890000000000004</v>
       </c>
-      <c r="R24" s="37">
+      <c r="R24" s="36">
         <v>0.56459999999999999</v>
       </c>
-      <c r="S24" s="26">
+      <c r="S24" s="25">
         <v>0.43090000000000001</v>
       </c>
-      <c r="T24" s="26">
+      <c r="T24" s="25">
         <v>0.20050000000000001</v>
       </c>
-      <c r="U24" s="26">
+      <c r="U24" s="25">
         <v>0.314</v>
       </c>
-      <c r="V24" s="26">
+      <c r="V24" s="25">
         <v>0.54169999999999996</v>
       </c>
     </row>
     <row r="25" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="29" t="s">
+      <c r="A25" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="B25" s="29">
+      <c r="B25" s="28">
         <v>500</v>
       </c>
-      <c r="C25" s="30"/>
-      <c r="D25" s="30" t="s">
+      <c r="C25" s="29"/>
+      <c r="D25" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="E25" s="31">
+      <c r="E25" s="30">
         <v>40.867899999999999</v>
       </c>
-      <c r="F25" s="31">
+      <c r="F25" s="30">
         <v>81.971599999999995</v>
       </c>
-      <c r="G25" s="26" t="s">
+      <c r="G25" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="H25" s="26">
+      <c r="H25" s="25">
         <v>128</v>
       </c>
-      <c r="I25" s="26">
+      <c r="I25" s="25">
         <v>40.881500000000003</v>
       </c>
-      <c r="J25" s="26">
+      <c r="J25" s="25">
         <v>82.060900000000004</v>
       </c>
-      <c r="K25" s="26" t="s">
+      <c r="K25" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="L25" s="26">
+      <c r="L25" s="25">
         <v>768</v>
       </c>
-      <c r="M25" s="26">
+      <c r="M25" s="25">
         <v>40.899099999999997</v>
       </c>
-      <c r="N25" s="26">
+      <c r="N25" s="25">
         <v>82.167500000000004</v>
       </c>
-      <c r="P25" s="39" t="s">
+      <c r="P25" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="Q25" s="40"/>
-      <c r="R25" s="40"/>
-      <c r="S25" s="40"/>
-      <c r="T25" s="40"/>
-      <c r="U25" s="40"/>
-      <c r="V25" s="41"/>
+      <c r="Q25" s="48"/>
+      <c r="R25" s="48"/>
+      <c r="S25" s="48"/>
+      <c r="T25" s="48"/>
+      <c r="U25" s="48"/>
+      <c r="V25" s="49"/>
     </row>
     <row r="26" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="29" t="s">
+      <c r="A26" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="B26" s="29">
+      <c r="B26" s="28">
         <v>32</v>
       </c>
-      <c r="C26" s="30"/>
-      <c r="D26" s="30" t="s">
+      <c r="C26" s="29"/>
+      <c r="D26" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="E26" s="31">
+      <c r="E26" s="30">
         <v>0.43</v>
       </c>
-      <c r="F26" s="31">
+      <c r="F26" s="30">
         <v>0.41399999999999998</v>
       </c>
-      <c r="G26" s="26" t="s">
+      <c r="G26" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="H26" s="26">
+      <c r="H26" s="25">
         <v>1</v>
       </c>
-      <c r="I26" s="26">
+      <c r="I26" s="25">
         <v>0.43</v>
       </c>
-      <c r="J26" s="26">
+      <c r="J26" s="25">
         <v>0.41399999999999998</v>
       </c>
-      <c r="K26" s="26" t="s">
+      <c r="K26" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="L26" s="26">
+      <c r="L26" s="25">
         <v>256</v>
       </c>
-      <c r="M26" s="26">
+      <c r="M26" s="25">
         <v>0.43</v>
       </c>
-      <c r="N26" s="26">
+      <c r="N26" s="25">
         <v>0.41399999999999998</v>
       </c>
-      <c r="P26" s="32"/>
-      <c r="Q26" s="33" t="s">
+      <c r="P26" s="31"/>
+      <c r="Q26" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="R26" s="33" t="s">
+      <c r="R26" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="S26" s="33" t="s">
+      <c r="S26" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="T26" s="33" t="s">
+      <c r="T26" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="U26" s="33" t="s">
+      <c r="U26" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="V26" s="33" t="s">
+      <c r="V26" s="32" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="27" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="29" t="s">
+      <c r="A27" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="B27" s="29">
+      <c r="B27" s="28">
         <v>1E-3</v>
       </c>
-      <c r="C27" s="30"/>
-      <c r="D27" s="30" t="s">
+      <c r="C27" s="29"/>
+      <c r="D27" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="E27" s="31">
+      <c r="E27" s="30">
         <v>0.14330000000000001</v>
       </c>
-      <c r="F27" s="31">
+      <c r="F27" s="30">
         <v>0.13800000000000001</v>
       </c>
-      <c r="G27" s="26" t="s">
+      <c r="G27" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="H27" s="28" t="s">
+      <c r="H27" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="I27" s="26">
+      <c r="I27" s="25">
         <v>0.14330000000000001</v>
       </c>
-      <c r="J27" s="26">
+      <c r="J27" s="25">
         <v>0.13800000000000001</v>
       </c>
-      <c r="K27" s="26" t="s">
+      <c r="K27" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="L27" s="26">
+      <c r="L27" s="25">
         <v>32</v>
       </c>
-      <c r="M27" s="26">
+      <c r="M27" s="25">
         <v>0.14330000000000001</v>
       </c>
-      <c r="N27" s="26">
+      <c r="N27" s="25">
         <v>0.13800000000000001</v>
       </c>
-      <c r="P27" s="30" t="s">
+      <c r="P27" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="Q27" s="26">
+      <c r="Q27" s="25">
         <v>71.119500000000002</v>
       </c>
-      <c r="R27" s="26">
+      <c r="R27" s="25">
         <v>68.696600000000004</v>
       </c>
-      <c r="S27" s="26">
+      <c r="S27" s="25">
         <v>73.477400000000003</v>
       </c>
-      <c r="T27" s="26">
+      <c r="T27" s="25">
         <v>82.060900000000004</v>
       </c>
-      <c r="U27" s="26">
+      <c r="U27" s="25">
         <v>79.351399999999998</v>
       </c>
-      <c r="V27" s="37">
+      <c r="V27" s="36">
         <v>68.639700000000005</v>
       </c>
     </row>
     <row r="28" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="29" t="s">
+      <c r="A28" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="B28" s="29" t="s">
+      <c r="B28" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="30"/>
-      <c r="D28" s="30" t="s">
+      <c r="C28" s="29"/>
+      <c r="D28" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="E28" s="31">
+      <c r="E28" s="30">
         <v>0.33</v>
       </c>
-      <c r="F28" s="31">
+      <c r="F28" s="30">
         <v>0.33300000000000002</v>
       </c>
-      <c r="G28" s="26"/>
-      <c r="H28" s="26"/>
-      <c r="I28" s="26">
+      <c r="G28" s="25"/>
+      <c r="H28" s="25"/>
+      <c r="I28" s="25">
         <v>0.33329999999999999</v>
       </c>
-      <c r="J28" s="26">
+      <c r="J28" s="25">
         <v>0.33329999999999999</v>
       </c>
-      <c r="K28" s="26" t="s">
+      <c r="K28" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="L28" s="26" t="s">
+      <c r="L28" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="M28" s="26">
+      <c r="M28" s="25">
         <v>0.33329999999999999</v>
       </c>
-      <c r="N28" s="26">
+      <c r="N28" s="25">
         <v>0.33329999999999999</v>
       </c>
-      <c r="P28" s="30" t="s">
+      <c r="P28" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="Q28" s="26">
+      <c r="Q28" s="25">
         <v>0.55779999999999996</v>
       </c>
-      <c r="R28" s="26">
+      <c r="R28" s="25">
         <v>0.5877</v>
       </c>
-      <c r="S28" s="26">
+      <c r="S28" s="25">
         <v>0.53669999999999995</v>
       </c>
-      <c r="T28" s="26">
+      <c r="T28" s="25">
         <v>0.41399999999999998</v>
       </c>
-      <c r="U28" s="26">
+      <c r="U28" s="25">
         <v>0.45050000000000001</v>
       </c>
-      <c r="V28" s="37">
+      <c r="V28" s="36">
         <v>0.59179999999999999</v>
       </c>
     </row>
     <row r="29" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="29" t="s">
+      <c r="A29" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="B29" s="29" t="b">
+      <c r="B29" s="28" t="b">
         <v>1</v>
       </c>
-      <c r="C29" s="30"/>
-      <c r="D29" s="30" t="s">
+      <c r="C29" s="29"/>
+      <c r="D29" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="E29" s="31">
+      <c r="E29" s="30">
         <v>0.20050000000000001</v>
       </c>
-      <c r="F29" s="31">
+      <c r="F29" s="30">
         <v>0.19520000000000001</v>
       </c>
-      <c r="G29" s="26"/>
-      <c r="H29" s="26"/>
-      <c r="I29" s="26">
+      <c r="G29" s="25"/>
+      <c r="H29" s="25"/>
+      <c r="I29" s="25">
         <v>0.20050000000000001</v>
       </c>
-      <c r="J29" s="26">
+      <c r="J29" s="25">
         <v>0.19520000000000001</v>
       </c>
-      <c r="K29" s="26"/>
-      <c r="L29" s="26"/>
-      <c r="M29" s="26">
+      <c r="K29" s="25"/>
+      <c r="L29" s="25"/>
+      <c r="M29" s="25">
         <v>0.20050000000000001</v>
       </c>
-      <c r="N29" s="26">
+      <c r="N29" s="25">
         <v>0.19520000000000001</v>
       </c>
-      <c r="P29" s="30" t="s">
+      <c r="P29" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="Q29" s="26">
+      <c r="Q29" s="25">
         <v>0.56399999999999995</v>
       </c>
-      <c r="R29" s="26">
+      <c r="R29" s="25">
         <v>0.59</v>
       </c>
-      <c r="S29" s="26">
+      <c r="S29" s="25">
         <v>0.56310000000000004</v>
       </c>
-      <c r="T29" s="26">
+      <c r="T29" s="25">
         <v>0.13800000000000001</v>
       </c>
-      <c r="U29" s="26">
+      <c r="U29" s="25">
         <v>0.29559999999999997</v>
       </c>
-      <c r="V29" s="37">
+      <c r="V29" s="36">
         <v>0.59150000000000003</v>
       </c>
     </row>
     <row r="30" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="45" t="s">
+      <c r="A30" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="B30" s="46"/>
-      <c r="C30" s="46"/>
-      <c r="D30" s="46"/>
-      <c r="E30" s="46"/>
-      <c r="F30" s="46"/>
-      <c r="G30" s="45" t="s">
+      <c r="B30" s="50"/>
+      <c r="C30" s="50"/>
+      <c r="D30" s="50"/>
+      <c r="E30" s="50"/>
+      <c r="F30" s="50"/>
+      <c r="G30" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="H30" s="45"/>
-      <c r="I30" s="45"/>
-      <c r="J30" s="45"/>
-      <c r="K30" s="45"/>
-      <c r="L30" s="45"/>
-      <c r="M30" s="45"/>
-      <c r="N30" s="45"/>
-      <c r="P30" s="30" t="s">
+      <c r="H30" s="46"/>
+      <c r="I30" s="46"/>
+      <c r="J30" s="46"/>
+      <c r="K30" s="46"/>
+      <c r="L30" s="46"/>
+      <c r="M30" s="46"/>
+      <c r="N30" s="46"/>
+      <c r="P30" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="Q30" s="26">
+      <c r="Q30" s="25">
         <v>0.52339999999999998</v>
       </c>
-      <c r="R30" s="26">
+      <c r="R30" s="25">
         <v>0.55830000000000002</v>
       </c>
-      <c r="S30" s="26">
+      <c r="S30" s="25">
         <v>0.4773</v>
       </c>
-      <c r="T30" s="26">
+      <c r="T30" s="25">
         <v>0.33329999999999999</v>
       </c>
-      <c r="U30" s="26">
+      <c r="U30" s="25">
         <v>0.38059999999999999</v>
       </c>
-      <c r="V30" s="37">
+      <c r="V30" s="36">
         <v>0.56100000000000005</v>
       </c>
     </row>
     <row r="31" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="29" t="s">
+      <c r="A31" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="B31" s="31" t="s">
+      <c r="B31" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="C31" s="30"/>
-      <c r="D31" s="30"/>
-      <c r="E31" s="30" t="s">
+      <c r="C31" s="29"/>
+      <c r="D31" s="29"/>
+      <c r="E31" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="F31" s="30" t="s">
+      <c r="F31" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="G31" s="26"/>
-      <c r="H31" s="26"/>
-      <c r="I31" s="26" t="s">
+      <c r="G31" s="25"/>
+      <c r="H31" s="25"/>
+      <c r="I31" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="J31" s="26" t="s">
+      <c r="J31" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="K31" s="26"/>
-      <c r="L31" s="27"/>
-      <c r="M31" s="26" t="s">
+      <c r="K31" s="25"/>
+      <c r="L31" s="26"/>
+      <c r="M31" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="N31" s="26" t="s">
+      <c r="N31" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="P31" s="30" t="s">
+      <c r="P31" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="Q31" s="26">
+      <c r="Q31" s="25">
         <v>0.52390000000000003</v>
       </c>
-      <c r="R31" s="26">
+      <c r="R31" s="25">
         <v>0.56100000000000005</v>
       </c>
-      <c r="S31" s="26">
+      <c r="S31" s="25">
         <v>0.4582</v>
       </c>
-      <c r="T31" s="26">
+      <c r="T31" s="25">
         <v>0.19520000000000001</v>
       </c>
-      <c r="U31" s="26">
+      <c r="U31" s="25">
         <v>0.31030000000000002</v>
       </c>
-      <c r="V31" s="37">
+      <c r="V31" s="36">
         <v>0.56389999999999996</v>
       </c>
     </row>
     <row r="32" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="29" t="s">
+      <c r="A32" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="B32" s="29">
+      <c r="B32" s="28">
         <v>500</v>
       </c>
-      <c r="C32" s="30"/>
-      <c r="D32" s="30" t="s">
+      <c r="C32" s="29"/>
+      <c r="D32" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="E32" s="31">
+      <c r="E32" s="30">
         <v>40.0212</v>
       </c>
-      <c r="F32" s="31">
+      <c r="F32" s="30">
         <v>79.314899999999994</v>
       </c>
-      <c r="G32" s="26" t="s">
+      <c r="G32" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="H32" s="26">
+      <c r="H32" s="25">
         <v>128</v>
       </c>
-      <c r="I32" s="26">
+      <c r="I32" s="25">
         <v>39.932600000000001</v>
       </c>
-      <c r="J32" s="26">
+      <c r="J32" s="25">
         <v>79.351399999999998</v>
       </c>
-      <c r="K32" s="26" t="s">
+      <c r="K32" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="L32" s="26">
+      <c r="L32" s="25">
         <v>768</v>
       </c>
-      <c r="M32" s="26">
+      <c r="M32" s="25">
         <v>40.176099999999998</v>
       </c>
-      <c r="N32" s="26">
+      <c r="N32" s="25">
         <v>79.838700000000003</v>
       </c>
     </row>
     <row r="33" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="29" t="s">
+      <c r="A33" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="B33" s="29">
+      <c r="B33" s="28">
         <v>32</v>
       </c>
-      <c r="C33" s="30"/>
-      <c r="D33" s="30" t="s">
+      <c r="C33" s="29"/>
+      <c r="D33" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="E33" s="31">
+      <c r="E33" s="30">
         <v>0.4582</v>
       </c>
-      <c r="F33" s="31">
+      <c r="F33" s="30">
         <v>0.45129999999999998</v>
       </c>
-      <c r="G33" s="26" t="s">
+      <c r="G33" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="H33" s="26">
+      <c r="H33" s="25">
         <v>1</v>
       </c>
-      <c r="I33" s="26">
+      <c r="I33" s="25">
         <v>0.45979999999999999</v>
       </c>
-      <c r="J33" s="26">
+      <c r="J33" s="25">
         <v>0.45050000000000001</v>
       </c>
-      <c r="K33" s="26" t="s">
+      <c r="K33" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="L33" s="26">
+      <c r="L33" s="25">
         <v>256</v>
       </c>
-      <c r="M33" s="26">
+      <c r="M33" s="25">
         <v>0.44740000000000002</v>
       </c>
-      <c r="N33" s="26">
+      <c r="N33" s="25">
         <v>0.43930000000000002</v>
       </c>
-      <c r="P33" s="42" t="s">
+      <c r="P33" s="51" t="s">
         <v>71</v>
       </c>
-      <c r="Q33" s="43"/>
-      <c r="R33" s="43"/>
-      <c r="S33" s="43"/>
-      <c r="T33" s="43"/>
-      <c r="U33" s="43"/>
-      <c r="V33" s="44"/>
+      <c r="Q33" s="52"/>
+      <c r="R33" s="52"/>
+      <c r="S33" s="52"/>
+      <c r="T33" s="52"/>
+      <c r="U33" s="52"/>
+      <c r="V33" s="53"/>
     </row>
     <row r="34" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="29" t="s">
+      <c r="A34" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="B34" s="29">
+      <c r="B34" s="28">
         <v>1E-3</v>
       </c>
-      <c r="C34" s="30"/>
-      <c r="D34" s="30" t="s">
+      <c r="C34" s="29"/>
+      <c r="D34" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="E34" s="31">
+      <c r="E34" s="30">
         <v>0.29730000000000001</v>
       </c>
-      <c r="F34" s="31">
+      <c r="F34" s="30">
         <v>0.30009999999999998</v>
       </c>
-      <c r="G34" s="26" t="s">
+      <c r="G34" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="H34" s="28" t="s">
+      <c r="H34" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="I34" s="26">
+      <c r="I34" s="25">
         <v>0.29480000000000001</v>
       </c>
-      <c r="J34" s="26">
+      <c r="J34" s="25">
         <v>0.29559999999999997</v>
       </c>
-      <c r="K34" s="26" t="s">
+      <c r="K34" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="L34" s="26">
+      <c r="L34" s="25">
         <v>32</v>
       </c>
-      <c r="M34" s="26">
+      <c r="M34" s="25">
         <v>0.34549999999999997</v>
       </c>
-      <c r="N34" s="26">
+      <c r="N34" s="25">
         <v>0.35399999999999998</v>
       </c>
-      <c r="P34" s="39" t="s">
+      <c r="P34" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="Q34" s="40"/>
-      <c r="R34" s="40"/>
-      <c r="S34" s="40"/>
-      <c r="T34" s="40"/>
-      <c r="U34" s="40"/>
-      <c r="V34" s="41"/>
+      <c r="Q34" s="48"/>
+      <c r="R34" s="48"/>
+      <c r="S34" s="48"/>
+      <c r="T34" s="48"/>
+      <c r="U34" s="48"/>
+      <c r="V34" s="49"/>
     </row>
     <row r="35" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="29" t="s">
+      <c r="A35" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="B35" s="29" t="s">
+      <c r="B35" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="C35" s="30"/>
-      <c r="D35" s="30" t="s">
+      <c r="C35" s="29"/>
+      <c r="D35" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="E35" s="31">
+      <c r="E35" s="30">
         <v>0.378</v>
       </c>
-      <c r="F35" s="31">
+      <c r="F35" s="30">
         <v>0.38090000000000002</v>
       </c>
-      <c r="G35" s="26"/>
-      <c r="H35" s="26"/>
-      <c r="I35" s="26">
+      <c r="G35" s="25"/>
+      <c r="H35" s="25"/>
+      <c r="I35" s="25">
         <v>0.38090000000000002</v>
       </c>
-      <c r="J35" s="26">
+      <c r="J35" s="25">
         <v>0.38059999999999999</v>
       </c>
-      <c r="K35" s="26" t="s">
+      <c r="K35" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="L35" s="26" t="s">
+      <c r="L35" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="M35" s="26">
+      <c r="M35" s="25">
         <v>0.35470000000000002</v>
       </c>
-      <c r="N35" s="26">
+      <c r="N35" s="25">
         <v>0.35980000000000001</v>
       </c>
-      <c r="P35" s="32"/>
-      <c r="Q35" s="33" t="s">
+      <c r="P35" s="31"/>
+      <c r="Q35" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="R35" s="33" t="s">
+      <c r="R35" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="S35" s="33" t="s">
+      <c r="S35" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="T35" s="33" t="s">
+      <c r="T35" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="U35" s="33" t="s">
+      <c r="U35" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="V35" s="33" t="s">
+      <c r="V35" s="32" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="36" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="29" t="s">
+      <c r="A36" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="B36" s="29" t="b">
+      <c r="B36" s="28" t="b">
         <v>1</v>
       </c>
-      <c r="C36" s="30"/>
-      <c r="D36" s="30" t="s">
+      <c r="C36" s="29"/>
+      <c r="D36" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="E36" s="31">
+      <c r="E36" s="30">
         <v>0.30969999999999998</v>
       </c>
-      <c r="F36" s="31">
+      <c r="F36" s="30">
         <v>0.31009999999999999</v>
       </c>
-      <c r="G36" s="26"/>
-      <c r="H36" s="26"/>
-      <c r="I36" s="26">
+      <c r="G36" s="25"/>
+      <c r="H36" s="25"/>
+      <c r="I36" s="25">
         <v>0.314</v>
       </c>
-      <c r="J36" s="26">
+      <c r="J36" s="25">
         <v>0.31030000000000002</v>
       </c>
-      <c r="K36" s="26"/>
-      <c r="L36" s="26"/>
-      <c r="M36" s="26">
+      <c r="K36" s="25"/>
+      <c r="L36" s="25"/>
+      <c r="M36" s="25">
         <v>0.25390000000000001</v>
       </c>
-      <c r="N36" s="26">
+      <c r="N36" s="25">
         <v>0.25319999999999998</v>
       </c>
-      <c r="P36" s="30" t="s">
+      <c r="P36" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="Q36" s="26">
+      <c r="Q36" s="25">
         <v>36.367800000000003</v>
       </c>
-      <c r="R36" s="37">
+      <c r="R36" s="36">
         <v>34.5105</v>
       </c>
-      <c r="S36" s="26">
+      <c r="S36" s="25">
         <v>40.671199999999999</v>
       </c>
-      <c r="T36" s="26">
+      <c r="T36" s="25">
         <v>40.899099999999997</v>
       </c>
-      <c r="U36" s="26">
+      <c r="U36" s="25">
         <v>40.176099999999998</v>
       </c>
-      <c r="V36" s="26">
+      <c r="V36" s="25">
         <v>36.776600000000002</v>
       </c>
     </row>
     <row r="37" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="45" t="s">
+      <c r="A37" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="B37" s="46"/>
-      <c r="C37" s="46"/>
-      <c r="D37" s="46"/>
-      <c r="E37" s="46"/>
-      <c r="F37" s="46"/>
-      <c r="G37" s="45" t="s">
+      <c r="B37" s="50"/>
+      <c r="C37" s="50"/>
+      <c r="D37" s="50"/>
+      <c r="E37" s="50"/>
+      <c r="F37" s="50"/>
+      <c r="G37" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="H37" s="45"/>
-      <c r="I37" s="45"/>
-      <c r="J37" s="45"/>
-      <c r="K37" s="45"/>
-      <c r="L37" s="45"/>
-      <c r="M37" s="45"/>
-      <c r="N37" s="45"/>
-      <c r="P37" s="30" t="s">
+      <c r="H37" s="46"/>
+      <c r="I37" s="46"/>
+      <c r="J37" s="46"/>
+      <c r="K37" s="46"/>
+      <c r="L37" s="46"/>
+      <c r="M37" s="46"/>
+      <c r="N37" s="46"/>
+      <c r="P37" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="Q37" s="26">
+      <c r="Q37" s="25">
         <v>0.54759999999999998</v>
       </c>
-      <c r="R37" s="37">
+      <c r="R37" s="36">
         <v>0.58909999999999996</v>
       </c>
-      <c r="S37" s="26">
+      <c r="S37" s="25">
         <v>0.43</v>
       </c>
-      <c r="T37" s="26">
+      <c r="T37" s="25">
         <v>0.43</v>
       </c>
-      <c r="U37" s="26">
+      <c r="U37" s="25">
         <v>0.44740000000000002</v>
       </c>
-      <c r="V37" s="26">
+      <c r="V37" s="25">
         <v>0.52610000000000001</v>
       </c>
     </row>
     <row r="38" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="29" t="s">
+      <c r="A38" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="B38" s="31" t="s">
+      <c r="B38" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="C38" s="30"/>
-      <c r="D38" s="30"/>
-      <c r="E38" s="30" t="s">
+      <c r="C38" s="29"/>
+      <c r="D38" s="29"/>
+      <c r="E38" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="F38" s="30" t="s">
+      <c r="F38" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="G38" s="26"/>
-      <c r="H38" s="26"/>
-      <c r="I38" s="26" t="s">
+      <c r="G38" s="25"/>
+      <c r="H38" s="25"/>
+      <c r="I38" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="J38" s="26" t="s">
+      <c r="J38" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="K38" s="26"/>
-      <c r="L38" s="27"/>
-      <c r="M38" s="26" t="s">
+      <c r="K38" s="25"/>
+      <c r="L38" s="26"/>
+      <c r="M38" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="N38" s="26" t="s">
+      <c r="N38" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="P38" s="30" t="s">
+      <c r="P38" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="Q38" s="26">
+      <c r="Q38" s="25">
         <v>0.54990000000000006</v>
       </c>
-      <c r="R38" s="37">
+      <c r="R38" s="36">
         <v>0.60629999999999995</v>
       </c>
-      <c r="S38" s="26">
+      <c r="S38" s="25">
         <v>0.14330000000000001</v>
       </c>
-      <c r="T38" s="26">
+      <c r="T38" s="25">
         <v>0.14330000000000001</v>
       </c>
-      <c r="U38" s="26">
+      <c r="U38" s="25">
         <v>0.34549999999999997</v>
       </c>
-      <c r="V38" s="26">
+      <c r="V38" s="25">
         <v>0.51700000000000002</v>
       </c>
     </row>
     <row r="39" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="29" t="s">
+      <c r="A39" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="B39" s="29">
+      <c r="B39" s="28">
         <v>500</v>
       </c>
-      <c r="C39" s="30"/>
-      <c r="D39" s="30" t="s">
+      <c r="C39" s="29"/>
+      <c r="D39" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="E39" s="31">
+      <c r="E39" s="30">
         <v>35.601999999999997</v>
       </c>
-      <c r="F39" s="31">
+      <c r="F39" s="30">
         <v>71.0916</v>
       </c>
-      <c r="G39" s="26" t="s">
+      <c r="G39" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="H39" s="26">
+      <c r="H39" s="25">
         <v>128</v>
       </c>
-      <c r="I39" s="26">
+      <c r="I39" s="25">
         <v>34.466700000000003</v>
       </c>
-      <c r="J39" s="26">
+      <c r="J39" s="25">
         <v>68.639700000000005</v>
       </c>
-      <c r="K39" s="26" t="s">
+      <c r="K39" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="L39" s="26">
+      <c r="L39" s="25">
         <v>768</v>
       </c>
-      <c r="M39" s="26">
+      <c r="M39" s="25">
         <v>36.776600000000002</v>
       </c>
-      <c r="N39" s="26">
+      <c r="N39" s="25">
         <v>71.929000000000002</v>
       </c>
-      <c r="P39" s="30" t="s">
+      <c r="P39" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="Q39" s="26">
+      <c r="Q39" s="25">
         <v>0.48549999999999999</v>
       </c>
-      <c r="R39" s="37">
+      <c r="R39" s="36">
         <v>0.56489999999999996</v>
       </c>
-      <c r="S39" s="26">
+      <c r="S39" s="25">
         <v>0.33329999999999999</v>
       </c>
-      <c r="T39" s="26">
+      <c r="T39" s="25">
         <v>0.33329999999999999</v>
       </c>
-      <c r="U39" s="26">
+      <c r="U39" s="25">
         <v>0.35470000000000002</v>
       </c>
-      <c r="V39" s="26">
+      <c r="V39" s="25">
         <v>0.47289999999999999</v>
       </c>
     </row>
     <row r="40" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="29" t="s">
+      <c r="A40" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="B40" s="29">
+      <c r="B40" s="28">
         <v>32</v>
       </c>
-      <c r="C40" s="30"/>
-      <c r="D40" s="30" t="s">
+      <c r="C40" s="29"/>
+      <c r="D40" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="E40" s="31">
+      <c r="E40" s="30">
         <v>0.56089999999999995</v>
       </c>
-      <c r="F40" s="31">
+      <c r="F40" s="30">
         <v>0.54790000000000005</v>
       </c>
-      <c r="G40" s="26" t="s">
+      <c r="G40" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="H40" s="26">
+      <c r="H40" s="25">
         <v>1</v>
       </c>
-      <c r="I40" s="26">
+      <c r="I40" s="25">
         <v>0.57499999999999996</v>
       </c>
-      <c r="J40" s="26">
+      <c r="J40" s="25">
         <v>0.59179999999999999</v>
       </c>
-      <c r="K40" s="26" t="s">
+      <c r="K40" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="L40" s="26">
+      <c r="L40" s="25">
         <v>256</v>
       </c>
-      <c r="M40" s="26">
+      <c r="M40" s="25">
         <v>0.52610000000000001</v>
       </c>
-      <c r="N40" s="26">
+      <c r="N40" s="25">
         <v>0.55569999999999997</v>
       </c>
-      <c r="P40" s="30" t="s">
+      <c r="P40" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="Q40" s="26">
+      <c r="Q40" s="25">
         <v>0.47289999999999999</v>
       </c>
-      <c r="R40" s="37">
+      <c r="R40" s="36">
         <v>0.56769999999999998</v>
       </c>
-      <c r="S40" s="26">
+      <c r="S40" s="25">
         <v>0.20050000000000001</v>
       </c>
-      <c r="T40" s="26">
+      <c r="T40" s="25">
         <v>0.20050000000000001</v>
       </c>
-      <c r="U40" s="26">
+      <c r="U40" s="25">
         <v>0.25390000000000001</v>
       </c>
-      <c r="V40" s="26">
+      <c r="V40" s="25">
         <v>0.46689999999999998</v>
       </c>
     </row>
     <row r="41" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="29" t="s">
+      <c r="A41" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="B41" s="29">
+      <c r="B41" s="28">
         <v>1E-3</v>
       </c>
-      <c r="C41" s="30"/>
-      <c r="D41" s="30" t="s">
+      <c r="C41" s="29"/>
+      <c r="D41" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="E41" s="31">
+      <c r="E41" s="30">
         <v>0.52180000000000004</v>
       </c>
-      <c r="F41" s="31">
+      <c r="F41" s="30">
         <v>0.51370000000000005</v>
       </c>
-      <c r="G41" s="26" t="s">
+      <c r="G41" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="H41" s="28" t="s">
+      <c r="H41" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="I41" s="26">
+      <c r="I41" s="25">
         <v>0.57120000000000004</v>
       </c>
-      <c r="J41" s="26">
+      <c r="J41" s="25">
         <v>0.59150000000000003</v>
       </c>
-      <c r="K41" s="26" t="s">
+      <c r="K41" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="L41" s="26">
+      <c r="L41" s="25">
         <v>32</v>
       </c>
-      <c r="M41" s="26">
+      <c r="M41" s="25">
         <v>0.51700000000000002</v>
       </c>
-      <c r="N41" s="26">
+      <c r="N41" s="25">
         <v>0.56299999999999994</v>
       </c>
-      <c r="P41" s="39" t="s">
+      <c r="P41" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="Q41" s="40"/>
-      <c r="R41" s="40"/>
-      <c r="S41" s="40"/>
-      <c r="T41" s="40"/>
-      <c r="U41" s="40"/>
-      <c r="V41" s="41"/>
+      <c r="Q41" s="48"/>
+      <c r="R41" s="48"/>
+      <c r="S41" s="48"/>
+      <c r="T41" s="48"/>
+      <c r="U41" s="48"/>
+      <c r="V41" s="49"/>
     </row>
     <row r="42" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="29" t="s">
+      <c r="A42" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="B42" s="29" t="s">
+      <c r="B42" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="C42" s="30"/>
-      <c r="D42" s="30" t="s">
+      <c r="C42" s="29"/>
+      <c r="D42" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="E42" s="31">
+      <c r="E42" s="30">
         <v>0.48849999999999999</v>
       </c>
-      <c r="F42" s="31">
+      <c r="F42" s="30">
         <v>0.4798</v>
       </c>
-      <c r="G42" s="26"/>
-      <c r="H42" s="26"/>
-      <c r="I42" s="26">
+      <c r="G42" s="25"/>
+      <c r="H42" s="25"/>
+      <c r="I42" s="25">
         <v>0.53690000000000004</v>
       </c>
-      <c r="J42" s="26">
+      <c r="J42" s="25">
         <v>0.56100000000000005</v>
       </c>
-      <c r="K42" s="26" t="s">
+      <c r="K42" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="L42" s="26" t="s">
+      <c r="L42" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="M42" s="26">
+      <c r="M42" s="25">
         <v>0.47289999999999999</v>
       </c>
-      <c r="N42" s="26">
+      <c r="N42" s="25">
         <v>0.50770000000000004</v>
       </c>
-      <c r="P42" s="32"/>
-      <c r="Q42" s="33" t="s">
+      <c r="P42" s="31"/>
+      <c r="Q42" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="R42" s="33" t="s">
+      <c r="R42" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="S42" s="33" t="s">
+      <c r="S42" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="T42" s="33" t="s">
+      <c r="T42" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="U42" s="33" t="s">
+      <c r="U42" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="V42" s="33" t="s">
+      <c r="V42" s="32" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="43" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="29" t="s">
+      <c r="A43" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="B43" s="29" t="b">
+      <c r="B43" s="28" t="b">
         <v>1</v>
       </c>
-      <c r="C43" s="30"/>
-      <c r="D43" s="30" t="s">
+      <c r="C43" s="29"/>
+      <c r="D43" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="E43" s="31">
+      <c r="E43" s="30">
         <v>0.44330000000000003</v>
       </c>
-      <c r="F43" s="31">
+      <c r="F43" s="30">
         <v>0.43280000000000002</v>
       </c>
-      <c r="G43" s="26"/>
-      <c r="H43" s="26"/>
-      <c r="I43" s="26">
+      <c r="G43" s="25"/>
+      <c r="H43" s="25"/>
+      <c r="I43" s="25">
         <v>0.54169999999999996</v>
       </c>
-      <c r="J43" s="26">
+      <c r="J43" s="25">
         <v>0.56389999999999996</v>
       </c>
-      <c r="K43" s="26"/>
-      <c r="L43" s="26"/>
-      <c r="M43" s="26">
+      <c r="K43" s="25"/>
+      <c r="L43" s="25"/>
+      <c r="M43" s="25">
         <v>0.46689999999999998</v>
       </c>
-      <c r="N43" s="26">
+      <c r="N43" s="25">
         <v>0.50180000000000002</v>
       </c>
-      <c r="P43" s="30" t="s">
+      <c r="P43" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="Q43" s="26">
+      <c r="Q43" s="25">
         <v>73.439400000000006</v>
       </c>
-      <c r="R43" s="37">
+      <c r="R43" s="36">
         <v>68.833699999999993</v>
       </c>
-      <c r="S43" s="26">
+      <c r="S43" s="25">
         <v>81.620199999999997</v>
       </c>
-      <c r="T43" s="26">
+      <c r="T43" s="25">
         <v>82.167500000000004</v>
       </c>
-      <c r="U43" s="26">
+      <c r="U43" s="25">
         <v>79.838700000000003</v>
       </c>
-      <c r="V43" s="26">
+      <c r="V43" s="25">
         <v>71.929000000000002</v>
       </c>
     </row>
     <row r="44" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="P44" s="30" t="s">
+      <c r="P44" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="Q44" s="26">
+      <c r="Q44" s="25">
         <v>0.52129999999999999</v>
       </c>
-      <c r="R44" s="37">
+      <c r="R44" s="36">
         <v>0.5756</v>
       </c>
-      <c r="S44" s="26">
+      <c r="S44" s="25">
         <v>0.41399999999999998</v>
       </c>
-      <c r="T44" s="26">
+      <c r="T44" s="25">
         <v>0.41399999999999998</v>
       </c>
-      <c r="U44" s="26">
+      <c r="U44" s="25">
         <v>0.43930000000000002</v>
       </c>
-      <c r="V44" s="26">
+      <c r="V44" s="25">
         <v>0.55569999999999997</v>
       </c>
     </row>
     <row r="45" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="P45" s="30" t="s">
+      <c r="P45" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="Q45" s="26">
+      <c r="Q45" s="25">
         <v>0.5141</v>
       </c>
-      <c r="R45" s="37">
+      <c r="R45" s="36">
         <v>0.59560000000000002</v>
       </c>
-      <c r="S45" s="26">
+      <c r="S45" s="25">
         <v>0.13800000000000001</v>
       </c>
-      <c r="T45" s="26">
+      <c r="T45" s="25">
         <v>0.13800000000000001</v>
       </c>
-      <c r="U45" s="26">
+      <c r="U45" s="25">
         <v>0.35399999999999998</v>
       </c>
-      <c r="V45" s="26">
+      <c r="V45" s="25">
         <v>0.56299999999999994</v>
       </c>
     </row>
     <row r="46" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="P46" s="30" t="s">
+      <c r="P46" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="Q46" s="26">
+      <c r="Q46" s="25">
         <v>0.4647</v>
       </c>
-      <c r="R46" s="37">
+      <c r="R46" s="36">
         <v>0.56200000000000006</v>
       </c>
-      <c r="S46" s="26">
+      <c r="S46" s="25">
         <v>0.33329999999999999</v>
       </c>
-      <c r="T46" s="26">
+      <c r="T46" s="25">
         <v>0.33329999999999999</v>
       </c>
-      <c r="U46" s="26">
+      <c r="U46" s="25">
         <v>0.35980000000000001</v>
       </c>
-      <c r="V46" s="26">
+      <c r="V46" s="25">
         <v>0.50770000000000004</v>
       </c>
     </row>
     <row r="47" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="P47" s="30" t="s">
+      <c r="P47" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="Q47" s="26">
+      <c r="Q47" s="25">
         <v>0.44469999999999998</v>
       </c>
-      <c r="R47" s="37">
+      <c r="R47" s="36">
         <v>0.5585</v>
       </c>
-      <c r="S47" s="26">
+      <c r="S47" s="25">
         <v>0.19520000000000001</v>
       </c>
-      <c r="T47" s="26">
+      <c r="T47" s="25">
         <v>0.19520000000000001</v>
       </c>
-      <c r="U47" s="26">
+      <c r="U47" s="25">
         <v>0.25319999999999998</v>
       </c>
-      <c r="V47" s="26">
+      <c r="V47" s="25">
         <v>0.50180000000000002</v>
       </c>
     </row>
@@ -4327,11 +4332,7 @@
     <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="G2:N2"/>
-    <mergeCell ref="G9:N9"/>
-    <mergeCell ref="G16:N16"/>
+    <mergeCell ref="P33:V33"/>
     <mergeCell ref="P34:V34"/>
     <mergeCell ref="P41:V41"/>
     <mergeCell ref="P2:V2"/>
@@ -4348,7 +4349,11 @@
     <mergeCell ref="P17:V17"/>
     <mergeCell ref="P18:V18"/>
     <mergeCell ref="P25:V25"/>
-    <mergeCell ref="P33:V33"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="G2:N2"/>
+    <mergeCell ref="G9:N9"/>
+    <mergeCell ref="G16:N16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -4359,7 +4364,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="T3" sqref="T3"/>
     </sheetView>
   </sheetViews>
@@ -4389,24 +4394,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="26"/>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="50" t="s">
+      <c r="A1" s="25"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50" t="s">
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
-      <c r="N1" s="50"/>
+      <c r="L1" s="60"/>
+      <c r="M1" s="60"/>
+      <c r="N1" s="60"/>
       <c r="P1" s="4"/>
       <c r="Q1" s="4"/>
       <c r="R1" s="4"/>
@@ -4420,66 +4425,66 @@
       <c r="Z1" s="4"/>
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="48" t="s">
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="48"/>
-      <c r="N2" s="48"/>
-      <c r="P2" s="62" t="s">
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="59"/>
+      <c r="P2" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="Q2" s="62"/>
-      <c r="R2" s="62"/>
-      <c r="S2" s="62"/>
-      <c r="T2" s="62"/>
-      <c r="U2" s="62"/>
-      <c r="V2" s="62"/>
+      <c r="Q2" s="56"/>
+      <c r="R2" s="56"/>
+      <c r="S2" s="56"/>
+      <c r="T2" s="56"/>
+      <c r="U2" s="56"/>
+      <c r="V2" s="56"/>
       <c r="X2" s="4"/>
       <c r="Y2" s="4"/>
       <c r="Z2" s="4"/>
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30" t="s">
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="30" t="s">
+      <c r="F3" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26" t="s">
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="26" t="s">
+      <c r="J3" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="26"/>
-      <c r="L3" s="27"/>
-      <c r="M3" s="26" t="s">
+      <c r="K3" s="25"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="N3" s="26" t="s">
+      <c r="N3" s="25" t="s">
         <v>5</v>
       </c>
       <c r="P3" s="5"/>
@@ -4506,44 +4511,44 @@
       <c r="Z3" s="4"/>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="29">
+      <c r="B4" s="28">
         <v>200</v>
       </c>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30" t="s">
+      <c r="C4" s="29"/>
+      <c r="D4" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="31">
+      <c r="E4" s="30">
         <v>50.930300000000003</v>
       </c>
-      <c r="F4" s="31">
+      <c r="F4" s="30">
         <v>101.49</v>
       </c>
-      <c r="G4" s="26" t="s">
+      <c r="G4" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="26">
+      <c r="H4" s="25">
         <v>128</v>
       </c>
-      <c r="I4" s="26">
+      <c r="I4" s="25">
         <v>50.106999999999999</v>
       </c>
-      <c r="J4" s="26">
+      <c r="J4" s="25">
         <v>99.639899999999997</v>
       </c>
-      <c r="K4" s="26" t="s">
+      <c r="K4" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="L4" s="26">
+      <c r="L4" s="25">
         <v>768</v>
       </c>
-      <c r="M4" s="26">
+      <c r="M4" s="25">
         <v>52.969200000000001</v>
       </c>
-      <c r="N4" s="26">
+      <c r="N4" s="25">
         <v>105.5996</v>
       </c>
       <c r="P4" s="2" t="s">
@@ -4564,7 +4569,7 @@
       <c r="U4" s="3">
         <v>51.685099999999998</v>
       </c>
-      <c r="V4" s="68">
+      <c r="V4" s="44">
         <v>50.802900000000001</v>
       </c>
       <c r="X4" s="4"/>
@@ -4572,50 +4577,50 @@
       <c r="Z4" s="4"/>
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="29">
+      <c r="B5" s="28">
         <v>32</v>
       </c>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30" t="s">
+      <c r="C5" s="29"/>
+      <c r="D5" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="30">
+      <c r="E5" s="29">
         <v>0.97760000000000002</v>
       </c>
-      <c r="F5" s="30">
+      <c r="F5" s="29">
         <v>0.97599999999999998</v>
       </c>
-      <c r="G5" s="26" t="s">
+      <c r="G5" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="26">
+      <c r="H5" s="25">
         <v>1</v>
       </c>
-      <c r="I5" s="26">
+      <c r="I5" s="25">
         <v>0.87319999999999998</v>
       </c>
-      <c r="J5" s="26">
+      <c r="J5" s="25">
         <v>0.85119999999999996</v>
       </c>
-      <c r="K5" s="26" t="s">
+      <c r="K5" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="L5" s="26">
+      <c r="L5" s="25">
         <v>256</v>
       </c>
-      <c r="M5" s="26">
+      <c r="M5" s="25">
         <v>0.99339999999999995</v>
       </c>
-      <c r="N5" s="26">
+      <c r="N5" s="25">
         <v>0.98919999999999997</v>
       </c>
       <c r="P5" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="Q5" s="67">
+      <c r="Q5" s="43">
         <v>0.97760000000000002</v>
       </c>
       <c r="R5" s="2">
@@ -4638,50 +4643,50 @@
       <c r="Z5" s="4"/>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="29">
+      <c r="B6" s="28">
         <v>1E-3</v>
       </c>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30" t="s">
+      <c r="C6" s="29"/>
+      <c r="D6" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="E6" s="30">
+      <c r="E6" s="29">
         <v>0.55940000000000001</v>
       </c>
-      <c r="F6" s="30">
+      <c r="F6" s="29">
         <v>0.54669999999999996</v>
       </c>
-      <c r="G6" s="26" t="s">
+      <c r="G6" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="26" t="s">
+      <c r="H6" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="I6" s="26">
+      <c r="I6" s="25">
         <v>0.42359999999999998</v>
       </c>
-      <c r="J6" s="26">
+      <c r="J6" s="25">
         <v>0.40670000000000001</v>
       </c>
-      <c r="K6" s="26" t="s">
+      <c r="K6" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="L6" s="26">
+      <c r="L6" s="25">
         <v>32</v>
       </c>
-      <c r="M6" s="26">
+      <c r="M6" s="25">
         <v>0.50580000000000003</v>
       </c>
-      <c r="N6" s="26">
+      <c r="N6" s="25">
         <v>0.50249999999999995</v>
       </c>
       <c r="P6" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="Q6" s="67">
+      <c r="Q6" s="43">
         <v>0.55940000000000001</v>
       </c>
       <c r="R6" s="2">
@@ -4704,46 +4709,46 @@
       <c r="Z6" s="4"/>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30" t="s">
+      <c r="C7" s="29"/>
+      <c r="D7" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="E7" s="30">
+      <c r="E7" s="29">
         <v>2.24E-2</v>
       </c>
-      <c r="F7" s="30">
+      <c r="F7" s="29">
         <v>2.4E-2</v>
       </c>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26">
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25">
         <v>0.1268</v>
       </c>
-      <c r="J7" s="26">
+      <c r="J7" s="25">
         <v>0.14879999999999999</v>
       </c>
-      <c r="K7" s="26" t="s">
+      <c r="K7" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="L7" s="28" t="s">
+      <c r="L7" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="M7" s="26">
+      <c r="M7" s="25">
         <v>6.6E-3</v>
       </c>
-      <c r="N7" s="26">
+      <c r="N7" s="25">
         <v>1.0800000000000001E-2</v>
       </c>
       <c r="P7" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="Q7" s="67">
+      <c r="Q7" s="43">
         <v>2.24E-2</v>
       </c>
       <c r="R7" s="2">
@@ -4766,42 +4771,42 @@
       <c r="Z7" s="4"/>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="29" t="s">
+      <c r="A8" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="29" t="b">
+      <c r="B8" s="28" t="b">
         <v>1</v>
       </c>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30" t="s">
+      <c r="C8" s="29"/>
+      <c r="D8" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="31">
+      <c r="E8" s="30">
         <v>0.98609999999999998</v>
       </c>
-      <c r="F8" s="31">
+      <c r="F8" s="30">
         <v>0.98670000000000002</v>
       </c>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26">
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25">
         <v>0.94120000000000004</v>
       </c>
-      <c r="J8" s="26">
+      <c r="J8" s="25">
         <v>0.94720000000000004</v>
       </c>
-      <c r="K8" s="26"/>
-      <c r="L8" s="26"/>
-      <c r="M8" s="26">
+      <c r="K8" s="25"/>
+      <c r="L8" s="25"/>
+      <c r="M8" s="25">
         <v>0.75919999999999999</v>
       </c>
-      <c r="N8" s="26">
+      <c r="N8" s="25">
         <v>0.75780000000000003</v>
       </c>
       <c r="P8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="Q8" s="68">
+      <c r="Q8" s="44">
         <v>0.98609999999999998</v>
       </c>
       <c r="R8" s="3">
@@ -4824,38 +4829,38 @@
       <c r="Z8" s="4"/>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="60"/>
-      <c r="B9" s="60"/>
-      <c r="C9" s="60"/>
-      <c r="D9" s="30" t="s">
+      <c r="A9" s="41"/>
+      <c r="B9" s="41"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="31">
+      <c r="E9" s="30">
         <v>0.60740000000000005</v>
       </c>
-      <c r="F9" s="31">
+      <c r="F9" s="30">
         <v>0.61040000000000005</v>
       </c>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26">
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25">
         <v>0.66869999999999996</v>
       </c>
-      <c r="J9" s="26">
+      <c r="J9" s="25">
         <v>0.67120000000000002</v>
       </c>
-      <c r="K9" s="26"/>
-      <c r="L9" s="26"/>
-      <c r="M9" s="26">
+      <c r="K9" s="25"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="25">
         <v>0.64739999999999998</v>
       </c>
-      <c r="N9" s="26">
+      <c r="N9" s="25">
         <v>0.64610000000000001</v>
       </c>
       <c r="P9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="Q9" s="68">
+      <c r="Q9" s="44">
         <v>0.60740000000000005</v>
       </c>
       <c r="R9" s="3">
@@ -4878,32 +4883,32 @@
       <c r="Z9" s="4"/>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="29"/>
-      <c r="B10" s="31"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30" t="s">
+      <c r="A10" s="28"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="31">
+      <c r="E10" s="30">
         <v>0.52549999999999997</v>
       </c>
-      <c r="F10" s="31">
+      <c r="F10" s="30">
         <v>0.52980000000000005</v>
       </c>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="26">
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="25">
         <v>0.6401</v>
       </c>
-      <c r="J10" s="26">
+      <c r="J10" s="25">
         <v>0.64159999999999995</v>
       </c>
-      <c r="K10" s="26"/>
-      <c r="L10" s="26"/>
-      <c r="M10" s="26">
+      <c r="K10" s="25"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="25">
         <v>0.74770000000000003</v>
       </c>
-      <c r="N10" s="26">
+      <c r="N10" s="25">
         <v>0.74729999999999996</v>
       </c>
       <c r="P10" s="2" t="s">
@@ -4921,7 +4926,7 @@
       <c r="T10" s="3">
         <v>0.49199999999999999</v>
       </c>
-      <c r="U10" s="68">
+      <c r="U10" s="44">
         <v>0.58250000000000002</v>
       </c>
       <c r="V10" s="3">
@@ -4932,38 +4937,38 @@
       <c r="Z10" s="4"/>
     </row>
     <row r="11" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="29"/>
-      <c r="B11" s="29"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30" t="s">
+      <c r="A11" s="28"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="31">
+      <c r="E11" s="30">
         <v>0.76829999999999998</v>
       </c>
-      <c r="F11" s="30">
+      <c r="F11" s="29">
         <v>0.76680000000000004</v>
       </c>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="26">
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="25">
         <v>0.72960000000000003</v>
       </c>
-      <c r="J11" s="26">
+      <c r="J11" s="25">
         <v>0.73229999999999995</v>
       </c>
-      <c r="K11" s="26"/>
-      <c r="L11" s="26"/>
-      <c r="M11" s="26">
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="25">
         <v>0.58540000000000003</v>
       </c>
-      <c r="N11" s="26">
+      <c r="N11" s="25">
         <v>0.58289999999999997</v>
       </c>
       <c r="P11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="Q11" s="68">
+      <c r="Q11" s="44">
         <v>0.76829999999999998</v>
       </c>
       <c r="R11" s="3">
@@ -4986,66 +4991,66 @@
       <c r="Z11" s="4"/>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="61" t="s">
+      <c r="A12" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="61"/>
-      <c r="C12" s="61"/>
-      <c r="D12" s="61"/>
-      <c r="E12" s="61"/>
-      <c r="F12" s="61"/>
-      <c r="G12" s="48" t="s">
+      <c r="B12" s="58"/>
+      <c r="C12" s="58"/>
+      <c r="D12" s="58"/>
+      <c r="E12" s="58"/>
+      <c r="F12" s="58"/>
+      <c r="G12" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="H12" s="48"/>
-      <c r="I12" s="48"/>
-      <c r="J12" s="48"/>
-      <c r="K12" s="48"/>
-      <c r="L12" s="48"/>
-      <c r="M12" s="48"/>
-      <c r="N12" s="48"/>
-      <c r="P12" s="63" t="s">
+      <c r="H12" s="59"/>
+      <c r="I12" s="59"/>
+      <c r="J12" s="59"/>
+      <c r="K12" s="59"/>
+      <c r="L12" s="59"/>
+      <c r="M12" s="59"/>
+      <c r="N12" s="59"/>
+      <c r="P12" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="Q12" s="63"/>
-      <c r="R12" s="63"/>
-      <c r="S12" s="63"/>
-      <c r="T12" s="63"/>
-      <c r="U12" s="63"/>
-      <c r="V12" s="63"/>
+      <c r="Q12" s="57"/>
+      <c r="R12" s="57"/>
+      <c r="S12" s="57"/>
+      <c r="T12" s="57"/>
+      <c r="U12" s="57"/>
+      <c r="V12" s="57"/>
       <c r="X12" s="4"/>
       <c r="Y12" s="4"/>
       <c r="Z12" s="4"/>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="29" t="s">
+      <c r="A13" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="29" t="s">
+      <c r="B13" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30" t="s">
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="F13" s="30" t="s">
+      <c r="F13" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="26" t="s">
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="J13" s="26" t="s">
+      <c r="J13" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="K13" s="26"/>
-      <c r="L13" s="27"/>
-      <c r="M13" s="26" t="s">
+      <c r="K13" s="25"/>
+      <c r="L13" s="26"/>
+      <c r="M13" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="N13" s="26" t="s">
+      <c r="N13" s="25" t="s">
         <v>5</v>
       </c>
       <c r="P13" s="5"/>
@@ -5072,44 +5077,44 @@
       <c r="Z13" s="4"/>
     </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="29" t="s">
+      <c r="A14" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="29">
+      <c r="B14" s="28">
         <v>400</v>
       </c>
-      <c r="C14" s="30"/>
-      <c r="D14" s="30" t="s">
+      <c r="C14" s="29"/>
+      <c r="D14" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="E14" s="31">
+      <c r="E14" s="30">
         <v>51.303400000000003</v>
       </c>
-      <c r="F14" s="31">
+      <c r="F14" s="30">
         <v>102.4855</v>
       </c>
-      <c r="G14" s="26" t="s">
+      <c r="G14" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="26">
+      <c r="H14" s="25">
         <v>128</v>
       </c>
-      <c r="I14" s="26">
+      <c r="I14" s="25">
         <v>50.454099999999997</v>
       </c>
-      <c r="J14" s="26">
+      <c r="J14" s="25">
         <v>100.4823</v>
       </c>
-      <c r="K14" s="26" t="s">
+      <c r="K14" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="L14" s="26">
+      <c r="L14" s="25">
         <v>768</v>
       </c>
-      <c r="M14" s="26">
+      <c r="M14" s="25">
         <v>53.444099999999999</v>
       </c>
-      <c r="N14" s="26">
+      <c r="N14" s="25">
         <v>106.858</v>
       </c>
       <c r="P14" s="2" t="s">
@@ -5130,7 +5135,7 @@
       <c r="U14" s="3">
         <v>103.2773</v>
       </c>
-      <c r="V14" s="68">
+      <c r="V14" s="44">
         <v>101.38249999999999</v>
       </c>
       <c r="X14" s="4"/>
@@ -5138,50 +5143,50 @@
       <c r="Z14" s="4"/>
     </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="29" t="s">
+      <c r="A15" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="29">
+      <c r="B15" s="28">
         <v>32</v>
       </c>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30" t="s">
+      <c r="C15" s="29"/>
+      <c r="D15" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="E15" s="30">
+      <c r="E15" s="29">
         <v>1</v>
       </c>
-      <c r="F15" s="30">
+      <c r="F15" s="29">
         <v>1</v>
       </c>
-      <c r="G15" s="26" t="s">
+      <c r="G15" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="H15" s="26">
+      <c r="H15" s="25">
         <v>1</v>
       </c>
-      <c r="I15" s="26">
+      <c r="I15" s="25">
         <v>0.98089999999999999</v>
       </c>
-      <c r="J15" s="26">
+      <c r="J15" s="25">
         <v>0.9768</v>
       </c>
-      <c r="K15" s="26" t="s">
+      <c r="K15" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="L15" s="26">
+      <c r="L15" s="25">
         <v>256</v>
       </c>
-      <c r="M15" s="26">
+      <c r="M15" s="25">
         <v>0.99919999999999998</v>
       </c>
-      <c r="N15" s="26">
+      <c r="N15" s="25">
         <v>1</v>
       </c>
       <c r="P15" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="Q15" s="67">
+      <c r="Q15" s="43">
         <v>0.97599999999999998</v>
       </c>
       <c r="R15" s="2">
@@ -5204,50 +5209,50 @@
       <c r="Z15" s="4"/>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="29" t="s">
+      <c r="A16" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="29">
+      <c r="B16" s="28">
         <v>1E-3</v>
       </c>
-      <c r="C16" s="30"/>
-      <c r="D16" s="30" t="s">
+      <c r="C16" s="29"/>
+      <c r="D16" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="E16" s="30">
+      <c r="E16" s="29">
         <v>0.82</v>
       </c>
-      <c r="F16" s="30">
+      <c r="F16" s="29">
         <v>0.82440000000000002</v>
       </c>
-      <c r="G16" s="26" t="s">
+      <c r="G16" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="H16" s="26" t="s">
+      <c r="H16" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="I16" s="26">
+      <c r="I16" s="25">
         <v>0.52439999999999998</v>
       </c>
-      <c r="J16" s="26">
+      <c r="J16" s="25">
         <v>0.51160000000000005</v>
       </c>
-      <c r="K16" s="26" t="s">
+      <c r="K16" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="L16" s="26">
+      <c r="L16" s="25">
         <v>32</v>
       </c>
-      <c r="M16" s="26">
+      <c r="M16" s="25">
         <v>0.52939999999999998</v>
       </c>
-      <c r="N16" s="26">
+      <c r="N16" s="25">
         <v>0.53</v>
       </c>
       <c r="P16" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="Q16" s="67">
+      <c r="Q16" s="43">
         <v>0.54669999999999996</v>
       </c>
       <c r="R16" s="2">
@@ -5270,46 +5275,46 @@
       <c r="Z16" s="4"/>
     </row>
     <row r="17" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="29" t="s">
+      <c r="A17" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="29" t="s">
+      <c r="B17" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30" t="s">
+      <c r="C17" s="29"/>
+      <c r="D17" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="E17" s="30">
+      <c r="E17" s="29">
         <v>0</v>
       </c>
-      <c r="F17" s="30">
+      <c r="F17" s="29">
         <v>0</v>
       </c>
-      <c r="G17" s="26"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="26">
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25">
         <v>1.9099999999999999E-2</v>
       </c>
-      <c r="J17" s="26">
+      <c r="J17" s="25">
         <v>2.3199999999999998E-2</v>
       </c>
-      <c r="K17" s="26" t="s">
+      <c r="K17" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="L17" s="28" t="s">
+      <c r="L17" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="M17" s="26">
+      <c r="M17" s="25">
         <v>8.0000000000000004E-4</v>
       </c>
-      <c r="N17" s="26">
+      <c r="N17" s="25">
         <v>0</v>
       </c>
       <c r="P17" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="Q17" s="67">
+      <c r="Q17" s="43">
         <v>2.4E-2</v>
       </c>
       <c r="R17" s="2">
@@ -5332,42 +5337,42 @@
       <c r="Z17" s="4"/>
     </row>
     <row r="18" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="29" t="s">
+      <c r="A18" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="29" t="b">
+      <c r="B18" s="28" t="b">
         <v>1</v>
       </c>
-      <c r="C18" s="30"/>
-      <c r="D18" s="30" t="s">
+      <c r="C18" s="29"/>
+      <c r="D18" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="E18" s="31">
+      <c r="E18" s="30">
         <v>0.48980000000000001</v>
       </c>
-      <c r="F18" s="31">
+      <c r="F18" s="30">
         <v>0.49070000000000003</v>
       </c>
-      <c r="G18" s="26"/>
-      <c r="H18" s="26"/>
-      <c r="I18" s="26">
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25">
         <v>0.9466</v>
       </c>
-      <c r="J18" s="26">
+      <c r="J18" s="25">
         <v>0.95279999999999998</v>
       </c>
-      <c r="K18" s="26"/>
-      <c r="L18" s="26"/>
-      <c r="M18" s="26">
+      <c r="K18" s="25"/>
+      <c r="L18" s="25"/>
+      <c r="M18" s="25">
         <v>0.73699999999999999</v>
       </c>
-      <c r="N18" s="26">
+      <c r="N18" s="25">
         <v>0.73670000000000002</v>
       </c>
       <c r="P18" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="Q18" s="68">
+      <c r="Q18" s="44">
         <v>0.98670000000000002</v>
       </c>
       <c r="R18" s="3">
@@ -5390,38 +5395,38 @@
       <c r="Z18" s="4"/>
     </row>
     <row r="19" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="60"/>
-      <c r="B19" s="60"/>
-      <c r="C19" s="60"/>
-      <c r="D19" s="30" t="s">
+      <c r="A19" s="41"/>
+      <c r="B19" s="41"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="E19" s="31">
+      <c r="E19" s="30">
         <v>0.39019999999999999</v>
       </c>
-      <c r="F19" s="31">
+      <c r="F19" s="30">
         <v>0.38929999999999998</v>
       </c>
-      <c r="G19" s="26"/>
-      <c r="H19" s="26"/>
-      <c r="I19" s="26">
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="25">
         <v>0.60819999999999996</v>
       </c>
-      <c r="J19" s="26">
+      <c r="J19" s="25">
         <v>0.61080000000000001</v>
       </c>
-      <c r="K19" s="26"/>
-      <c r="L19" s="26"/>
-      <c r="M19" s="26">
+      <c r="K19" s="25"/>
+      <c r="L19" s="25"/>
+      <c r="M19" s="25">
         <v>0.63570000000000004</v>
       </c>
-      <c r="N19" s="26">
+      <c r="N19" s="25">
         <v>0.63519999999999999</v>
       </c>
       <c r="P19" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="Q19" s="68">
+      <c r="Q19" s="44">
         <v>0.61040000000000005</v>
       </c>
       <c r="R19" s="3">
@@ -5444,38 +5449,38 @@
       <c r="Z19" s="4"/>
     </row>
     <row r="20" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="29"/>
-      <c r="B20" s="31"/>
-      <c r="C20" s="30"/>
-      <c r="D20" s="30" t="s">
+      <c r="A20" s="28"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="E20" s="31">
+      <c r="E20" s="30">
         <v>0.42670000000000002</v>
       </c>
-      <c r="F20" s="31">
+      <c r="F20" s="30">
         <v>0.42520000000000002</v>
       </c>
-      <c r="G20" s="30"/>
-      <c r="H20" s="30"/>
-      <c r="I20" s="26">
+      <c r="G20" s="29"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="25">
         <v>0.5373</v>
       </c>
-      <c r="J20" s="26">
+      <c r="J20" s="25">
         <v>0.54</v>
       </c>
-      <c r="K20" s="26"/>
-      <c r="L20" s="26"/>
-      <c r="M20" s="26">
+      <c r="K20" s="25"/>
+      <c r="L20" s="25"/>
+      <c r="M20" s="25">
         <v>0.73650000000000004</v>
       </c>
-      <c r="N20" s="26">
+      <c r="N20" s="25">
         <v>0.73670000000000002</v>
       </c>
       <c r="P20" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Q20" s="68">
+      <c r="Q20" s="44">
         <v>0.52980000000000005</v>
       </c>
       <c r="R20" s="3">
@@ -5498,39 +5503,39 @@
       <c r="Z20" s="4"/>
     </row>
     <row r="21" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="29"/>
-      <c r="B21" s="29"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="30" t="s">
+      <c r="A21" s="28"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="E21" s="31">
+      <c r="E21" s="30">
         <v>0.379</v>
       </c>
-      <c r="F21" s="31">
+      <c r="F21" s="30">
         <v>0.37880000000000003</v>
       </c>
-      <c r="G21" s="30"/>
-      <c r="H21" s="30"/>
-      <c r="I21" s="26">
+      <c r="G21" s="29"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="25">
         <v>0.73719999999999997</v>
       </c>
-      <c r="J21" s="26">
+      <c r="J21" s="25">
         <v>0.73860000000000003</v>
       </c>
-      <c r="K21" s="26"/>
-      <c r="L21" s="26"/>
-      <c r="M21" s="26">
+      <c r="K21" s="25"/>
+      <c r="L21" s="25"/>
+      <c r="M21" s="25">
         <v>0.57269999999999999</v>
       </c>
-      <c r="N21" s="26">
+      <c r="N21" s="25">
         <v>0.5716</v>
       </c>
       <c r="O21" s="4"/>
       <c r="P21" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="Q21" s="67">
+      <c r="Q21" s="43">
         <v>0.76680000000000004</v>
       </c>
       <c r="R21" s="3">
@@ -5553,24 +5558,24 @@
       <c r="Z21" s="4"/>
     </row>
     <row r="22" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="61" t="s">
+      <c r="A22" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="61"/>
-      <c r="C22" s="61"/>
-      <c r="D22" s="61"/>
-      <c r="E22" s="61"/>
-      <c r="F22" s="61"/>
-      <c r="G22" s="48" t="s">
+      <c r="B22" s="58"/>
+      <c r="C22" s="58"/>
+      <c r="D22" s="58"/>
+      <c r="E22" s="58"/>
+      <c r="F22" s="58"/>
+      <c r="G22" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="H22" s="48"/>
-      <c r="I22" s="48"/>
-      <c r="J22" s="48"/>
-      <c r="K22" s="48"/>
-      <c r="L22" s="48"/>
-      <c r="M22" s="48"/>
-      <c r="N22" s="48"/>
+      <c r="H22" s="59"/>
+      <c r="I22" s="59"/>
+      <c r="J22" s="59"/>
+      <c r="K22" s="59"/>
+      <c r="L22" s="59"/>
+      <c r="M22" s="59"/>
+      <c r="N22" s="59"/>
       <c r="O22" s="4"/>
       <c r="P22" s="4"/>
       <c r="Q22" s="4"/>
@@ -5585,166 +5590,166 @@
       <c r="Z22" s="4"/>
     </row>
     <row r="23" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="29" t="s">
+      <c r="A23" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="B23" s="29" t="s">
+      <c r="B23" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="30"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="30" t="s">
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="F23" s="30" t="s">
+      <c r="F23" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="G23" s="26"/>
-      <c r="H23" s="26"/>
-      <c r="I23" s="26" t="s">
+      <c r="G23" s="25"/>
+      <c r="H23" s="25"/>
+      <c r="I23" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="J23" s="26" t="s">
+      <c r="J23" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="K23" s="26"/>
-      <c r="L23" s="27"/>
-      <c r="M23" s="26" t="s">
+      <c r="K23" s="25"/>
+      <c r="L23" s="26"/>
+      <c r="M23" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="N23" s="26" t="s">
+      <c r="N23" s="25" t="s">
         <v>5</v>
       </c>
       <c r="O23" s="4"/>
-      <c r="P23" s="66" t="s">
+      <c r="P23" s="54" t="s">
         <v>72</v>
       </c>
-      <c r="Q23" s="66"/>
-      <c r="R23" s="66"/>
-      <c r="S23" s="66"/>
-      <c r="T23" s="66"/>
-      <c r="U23" s="66"/>
-      <c r="V23" s="66"/>
+      <c r="Q23" s="54"/>
+      <c r="R23" s="54"/>
+      <c r="S23" s="54"/>
+      <c r="T23" s="54"/>
+      <c r="U23" s="54"/>
+      <c r="V23" s="54"/>
       <c r="W23" s="4"/>
       <c r="X23" s="4"/>
       <c r="Y23" s="4"/>
       <c r="Z23" s="4"/>
     </row>
     <row r="24" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="29" t="s">
+      <c r="A24" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="B24" s="29">
+      <c r="B24" s="28">
         <v>400</v>
       </c>
-      <c r="C24" s="30"/>
-      <c r="D24" s="30" t="s">
+      <c r="C24" s="29"/>
+      <c r="D24" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="E24" s="31">
+      <c r="E24" s="30">
         <v>51.633899999999997</v>
       </c>
-      <c r="F24" s="31">
+      <c r="F24" s="30">
         <v>103.09690000000001</v>
       </c>
-      <c r="G24" s="26" t="s">
+      <c r="G24" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="H24" s="26">
+      <c r="H24" s="25">
         <v>128</v>
       </c>
-      <c r="I24" s="26">
+      <c r="I24" s="25">
         <v>50.6648</v>
       </c>
-      <c r="J24" s="26">
+      <c r="J24" s="25">
         <v>100.96250000000001</v>
       </c>
-      <c r="K24" s="26" t="s">
+      <c r="K24" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="L24" s="26">
+      <c r="L24" s="25">
         <v>768</v>
       </c>
-      <c r="M24" s="26">
+      <c r="M24" s="25">
         <v>53.104399999999998</v>
       </c>
-      <c r="N24" s="26">
+      <c r="N24" s="25">
         <v>105.9354</v>
       </c>
       <c r="O24" s="4"/>
-      <c r="P24" s="64" t="s">
+      <c r="P24" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="Q24" s="64"/>
-      <c r="R24" s="64"/>
-      <c r="S24" s="64"/>
-      <c r="T24" s="64"/>
-      <c r="U24" s="64"/>
-      <c r="V24" s="64"/>
+      <c r="Q24" s="55"/>
+      <c r="R24" s="55"/>
+      <c r="S24" s="55"/>
+      <c r="T24" s="55"/>
+      <c r="U24" s="55"/>
+      <c r="V24" s="55"/>
       <c r="W24" s="4"/>
       <c r="X24" s="4"/>
       <c r="Y24" s="4"/>
       <c r="Z24" s="4"/>
     </row>
     <row r="25" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="29" t="s">
+      <c r="A25" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="B25" s="29">
+      <c r="B25" s="28">
         <v>32</v>
       </c>
-      <c r="C25" s="30"/>
-      <c r="D25" s="30" t="s">
+      <c r="C25" s="29"/>
+      <c r="D25" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="E25" s="30">
+      <c r="E25" s="29">
         <v>1</v>
       </c>
-      <c r="F25" s="30">
+      <c r="F25" s="29">
         <v>1</v>
       </c>
-      <c r="G25" s="26" t="s">
+      <c r="G25" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="H25" s="26">
+      <c r="H25" s="25">
         <v>1</v>
       </c>
-      <c r="I25" s="26">
+      <c r="I25" s="25">
         <v>0.99919999999999998</v>
       </c>
-      <c r="J25" s="26">
+      <c r="J25" s="25">
         <v>0.99960000000000004</v>
       </c>
-      <c r="K25" s="26" t="s">
+      <c r="K25" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="L25" s="26">
+      <c r="L25" s="25">
         <v>256</v>
       </c>
-      <c r="M25" s="26">
+      <c r="M25" s="25">
         <v>0.95940000000000003</v>
       </c>
-      <c r="N25" s="26">
+      <c r="N25" s="25">
         <v>0.96020000000000005</v>
       </c>
       <c r="O25" s="4"/>
-      <c r="P25" s="38"/>
-      <c r="Q25" s="65" t="s">
+      <c r="P25" s="37"/>
+      <c r="Q25" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="R25" s="65" t="s">
+      <c r="R25" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="S25" s="65" t="s">
+      <c r="S25" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="T25" s="65" t="s">
+      <c r="T25" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="U25" s="65" t="s">
+      <c r="U25" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="V25" s="65" t="s">
+      <c r="V25" s="42" t="s">
         <v>29</v>
       </c>
       <c r="W25" s="4"/>
@@ -5753,66 +5758,66 @@
       <c r="Z25" s="4"/>
     </row>
     <row r="26" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="29" t="s">
+      <c r="A26" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="B26" s="29">
+      <c r="B26" s="28">
         <v>1E-3</v>
       </c>
-      <c r="C26" s="30"/>
-      <c r="D26" s="30" t="s">
+      <c r="C26" s="29"/>
+      <c r="D26" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="E26" s="30">
+      <c r="E26" s="29">
         <v>0.82940000000000003</v>
       </c>
-      <c r="F26" s="30">
+      <c r="F26" s="29">
         <v>0.84540000000000004</v>
       </c>
-      <c r="G26" s="26" t="s">
+      <c r="G26" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="H26" s="26" t="s">
+      <c r="H26" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="I26" s="26">
+      <c r="I26" s="25">
         <v>0.69589999999999996</v>
       </c>
-      <c r="J26" s="26">
+      <c r="J26" s="25">
         <v>0.69230000000000003</v>
       </c>
-      <c r="K26" s="26" t="s">
+      <c r="K26" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="L26" s="26">
+      <c r="L26" s="25">
         <v>32</v>
       </c>
-      <c r="M26" s="26">
+      <c r="M26" s="25">
         <v>0.58599999999999997</v>
       </c>
-      <c r="N26" s="26">
+      <c r="N26" s="25">
         <v>0.58089999999999997</v>
       </c>
       <c r="O26" s="4"/>
-      <c r="P26" s="30" t="s">
+      <c r="P26" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="Q26" s="37">
+      <c r="Q26" s="36">
         <v>50.106999999999999</v>
       </c>
-      <c r="R26" s="26">
+      <c r="R26" s="25">
         <v>50.454099999999997</v>
       </c>
-      <c r="S26" s="26">
+      <c r="S26" s="25">
         <v>50.6648</v>
       </c>
-      <c r="T26" s="26">
+      <c r="T26" s="25">
         <v>51.546500000000002</v>
       </c>
-      <c r="U26" s="26">
+      <c r="U26" s="25">
         <v>51.393900000000002</v>
       </c>
-      <c r="V26" s="26">
+      <c r="V26" s="25">
         <v>51.014899999999997</v>
       </c>
       <c r="W26" s="4"/>
@@ -5821,62 +5826,62 @@
       <c r="Z26" s="4"/>
     </row>
     <row r="27" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="29" t="s">
+      <c r="A27" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="B27" s="29" t="s">
+      <c r="B27" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="C27" s="30"/>
-      <c r="D27" s="30" t="s">
+      <c r="C27" s="29"/>
+      <c r="D27" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="E27" s="30">
+      <c r="E27" s="29">
         <v>0</v>
       </c>
-      <c r="F27" s="30">
+      <c r="F27" s="29">
         <v>0</v>
       </c>
-      <c r="G27" s="26"/>
-      <c r="H27" s="26"/>
-      <c r="I27" s="26">
+      <c r="G27" s="25"/>
+      <c r="H27" s="25"/>
+      <c r="I27" s="25">
         <v>8.0000000000000004E-4</v>
       </c>
-      <c r="J27" s="26">
+      <c r="J27" s="25">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="K27" s="26" t="s">
+      <c r="K27" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="L27" s="28" t="s">
+      <c r="L27" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="M27" s="26">
+      <c r="M27" s="25">
         <v>4.0599999999999997E-2</v>
       </c>
-      <c r="N27" s="26">
+      <c r="N27" s="25">
         <v>3.9800000000000002E-2</v>
       </c>
       <c r="O27" s="4"/>
-      <c r="P27" s="30" t="s">
+      <c r="P27" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="Q27" s="37">
+      <c r="Q27" s="36">
         <v>0.87319999999999998</v>
       </c>
-      <c r="R27" s="26">
+      <c r="R27" s="25">
         <v>0.98089999999999999</v>
       </c>
-      <c r="S27" s="26">
+      <c r="S27" s="25">
         <v>0.99919999999999998</v>
       </c>
-      <c r="T27" s="26">
+      <c r="T27" s="25">
         <v>0.98429999999999995</v>
       </c>
-      <c r="U27" s="26">
+      <c r="U27" s="25">
         <v>1</v>
       </c>
-      <c r="V27" s="26">
+      <c r="V27" s="25">
         <v>1</v>
       </c>
       <c r="W27" s="4"/>
@@ -5885,58 +5890,58 @@
       <c r="Z27" s="4"/>
     </row>
     <row r="28" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="29" t="s">
+      <c r="A28" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="B28" s="29" t="b">
+      <c r="B28" s="28" t="b">
         <v>1</v>
       </c>
-      <c r="C28" s="30"/>
-      <c r="D28" s="30" t="s">
+      <c r="C28" s="29"/>
+      <c r="D28" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="E28" s="31">
+      <c r="E28" s="30">
         <v>0.48909999999999998</v>
       </c>
-      <c r="F28" s="31">
+      <c r="F28" s="30">
         <v>0.49120000000000003</v>
       </c>
-      <c r="G28" s="26"/>
-      <c r="H28" s="26"/>
-      <c r="I28" s="26">
+      <c r="G28" s="25"/>
+      <c r="H28" s="25"/>
+      <c r="I28" s="25">
         <v>0.73970000000000002</v>
       </c>
-      <c r="J28" s="26">
+      <c r="J28" s="25">
         <v>0.74150000000000005</v>
       </c>
-      <c r="K28" s="26"/>
-      <c r="L28" s="26"/>
-      <c r="M28" s="26">
+      <c r="K28" s="25"/>
+      <c r="L28" s="25"/>
+      <c r="M28" s="25">
         <v>0.98609999999999998</v>
       </c>
-      <c r="N28" s="26">
+      <c r="N28" s="25">
         <v>0.98670000000000002</v>
       </c>
       <c r="O28" s="4"/>
-      <c r="P28" s="30" t="s">
+      <c r="P28" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="Q28" s="37">
+      <c r="Q28" s="36">
         <v>0.42359999999999998</v>
       </c>
-      <c r="R28" s="26">
+      <c r="R28" s="25">
         <v>0.52439999999999998</v>
       </c>
-      <c r="S28" s="26">
+      <c r="S28" s="25">
         <v>0.69589999999999996</v>
       </c>
-      <c r="T28" s="26">
+      <c r="T28" s="25">
         <v>0.48299999999999998</v>
       </c>
-      <c r="U28" s="26">
+      <c r="U28" s="25">
         <v>0.65639999999999998</v>
       </c>
-      <c r="V28" s="26">
+      <c r="V28" s="25">
         <v>0.64329999999999998</v>
       </c>
       <c r="W28" s="4"/>
@@ -5945,54 +5950,54 @@
       <c r="Z28" s="4"/>
     </row>
     <row r="29" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="60"/>
-      <c r="B29" s="60"/>
-      <c r="C29" s="60"/>
-      <c r="D29" s="30" t="s">
+      <c r="A29" s="41"/>
+      <c r="B29" s="41"/>
+      <c r="C29" s="41"/>
+      <c r="D29" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="E29" s="31">
+      <c r="E29" s="30">
         <v>0.38440000000000002</v>
       </c>
-      <c r="F29" s="31">
+      <c r="F29" s="30">
         <v>0.38540000000000002</v>
       </c>
-      <c r="G29" s="26"/>
-      <c r="H29" s="26"/>
-      <c r="I29" s="26">
+      <c r="G29" s="25"/>
+      <c r="H29" s="25"/>
+      <c r="I29" s="25">
         <v>0.51249999999999996</v>
       </c>
-      <c r="J29" s="26">
+      <c r="J29" s="25">
         <v>0.5101</v>
       </c>
-      <c r="K29" s="26"/>
-      <c r="L29" s="26"/>
-      <c r="M29" s="26">
+      <c r="K29" s="25"/>
+      <c r="L29" s="25"/>
+      <c r="M29" s="25">
         <v>0.59260000000000002</v>
       </c>
-      <c r="N29" s="26">
+      <c r="N29" s="25">
         <v>0.59260000000000002</v>
       </c>
       <c r="O29" s="4"/>
-      <c r="P29" s="30" t="s">
+      <c r="P29" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="Q29" s="37">
+      <c r="Q29" s="36">
         <v>0.1268</v>
       </c>
-      <c r="R29" s="26">
+      <c r="R29" s="25">
         <v>1.9099999999999999E-2</v>
       </c>
-      <c r="S29" s="26">
+      <c r="S29" s="25">
         <v>8.0000000000000004E-4</v>
       </c>
-      <c r="T29" s="26">
+      <c r="T29" s="25">
         <v>1.5699999999999999E-2</v>
       </c>
-      <c r="U29" s="26">
+      <c r="U29" s="25">
         <v>0</v>
       </c>
-      <c r="V29" s="26">
+      <c r="V29" s="25">
         <v>0</v>
       </c>
       <c r="W29" s="4"/>
@@ -6001,54 +6006,54 @@
       <c r="Z29" s="4"/>
     </row>
     <row r="30" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="29"/>
-      <c r="B30" s="31"/>
-      <c r="C30" s="30"/>
-      <c r="D30" s="30" t="s">
+      <c r="A30" s="28"/>
+      <c r="B30" s="30"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="E30" s="31">
+      <c r="E30" s="30">
         <v>0.40350000000000003</v>
       </c>
-      <c r="F30" s="31">
+      <c r="F30" s="30">
         <v>0.40450000000000003</v>
       </c>
-      <c r="G30" s="30"/>
-      <c r="H30" s="30"/>
-      <c r="I30" s="26">
+      <c r="G30" s="29"/>
+      <c r="H30" s="29"/>
+      <c r="I30" s="25">
         <v>0.4909</v>
       </c>
-      <c r="J30" s="26">
+      <c r="J30" s="25">
         <v>0.48659999999999998</v>
       </c>
-      <c r="K30" s="26"/>
-      <c r="L30" s="26"/>
-      <c r="M30" s="26">
+      <c r="K30" s="25"/>
+      <c r="L30" s="25"/>
+      <c r="M30" s="25">
         <v>0.49309999999999998</v>
       </c>
-      <c r="N30" s="26">
+      <c r="N30" s="25">
         <v>0.49340000000000001</v>
       </c>
       <c r="O30" s="4"/>
-      <c r="P30" s="30" t="s">
+      <c r="P30" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="Q30" s="26">
+      <c r="Q30" s="25">
         <v>0.94120000000000004</v>
       </c>
-      <c r="R30" s="37">
+      <c r="R30" s="36">
         <v>0.9466</v>
       </c>
-      <c r="S30" s="26">
+      <c r="S30" s="25">
         <v>0.73970000000000002</v>
       </c>
-      <c r="T30" s="26">
+      <c r="T30" s="25">
         <v>0.98609999999999998</v>
       </c>
-      <c r="U30" s="26">
+      <c r="U30" s="25">
         <v>0.73970000000000002</v>
       </c>
-      <c r="V30" s="26">
+      <c r="V30" s="25">
         <v>0.73699999999999999</v>
       </c>
       <c r="W30" s="4"/>
@@ -6057,54 +6062,54 @@
       <c r="Z30" s="4"/>
     </row>
     <row r="31" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="29"/>
-      <c r="B31" s="29"/>
-      <c r="C31" s="30"/>
-      <c r="D31" s="30" t="s">
+      <c r="A31" s="28"/>
+      <c r="B31" s="28"/>
+      <c r="C31" s="29"/>
+      <c r="D31" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="E31" s="31">
+      <c r="E31" s="30">
         <v>0.37859999999999999</v>
       </c>
-      <c r="F31" s="31">
+      <c r="F31" s="30">
         <v>0.37909999999999999</v>
       </c>
-      <c r="G31" s="30"/>
-      <c r="H31" s="30"/>
-      <c r="I31" s="26">
+      <c r="G31" s="29"/>
+      <c r="H31" s="29"/>
+      <c r="I31" s="25">
         <v>0.5746</v>
       </c>
-      <c r="J31" s="26">
+      <c r="J31" s="25">
         <v>0.57410000000000005</v>
       </c>
-      <c r="K31" s="26"/>
-      <c r="L31" s="26"/>
-      <c r="M31" s="26">
+      <c r="K31" s="25"/>
+      <c r="L31" s="25"/>
+      <c r="M31" s="25">
         <v>0.76829999999999998</v>
       </c>
-      <c r="N31" s="26">
+      <c r="N31" s="25">
         <v>0.76680000000000004</v>
       </c>
       <c r="O31" s="4"/>
-      <c r="P31" s="30" t="s">
+      <c r="P31" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="Q31" s="37">
+      <c r="Q31" s="36">
         <v>0.66869999999999996</v>
       </c>
-      <c r="R31" s="26">
+      <c r="R31" s="25">
         <v>0.60819999999999996</v>
       </c>
-      <c r="S31" s="26">
+      <c r="S31" s="25">
         <v>0.51249999999999996</v>
       </c>
-      <c r="T31" s="26">
+      <c r="T31" s="25">
         <v>0.64129999999999998</v>
       </c>
-      <c r="U31" s="26">
+      <c r="U31" s="25">
         <v>0.52270000000000005</v>
       </c>
-      <c r="V31" s="26">
+      <c r="V31" s="25">
         <v>0.53180000000000005</v>
       </c>
       <c r="W31" s="4"/>
@@ -6113,44 +6118,44 @@
       <c r="Z31" s="4"/>
     </row>
     <row r="32" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="61" t="s">
+      <c r="A32" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="B32" s="61"/>
-      <c r="C32" s="61"/>
-      <c r="D32" s="61"/>
-      <c r="E32" s="61"/>
-      <c r="F32" s="61"/>
-      <c r="G32" s="48" t="s">
+      <c r="B32" s="58"/>
+      <c r="C32" s="58"/>
+      <c r="D32" s="58"/>
+      <c r="E32" s="58"/>
+      <c r="F32" s="58"/>
+      <c r="G32" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="H32" s="48"/>
-      <c r="I32" s="48"/>
-      <c r="J32" s="48"/>
-      <c r="K32" s="48"/>
-      <c r="L32" s="48"/>
-      <c r="M32" s="48"/>
-      <c r="N32" s="48"/>
+      <c r="H32" s="59"/>
+      <c r="I32" s="59"/>
+      <c r="J32" s="59"/>
+      <c r="K32" s="59"/>
+      <c r="L32" s="59"/>
+      <c r="M32" s="59"/>
+      <c r="N32" s="59"/>
       <c r="O32" s="4"/>
-      <c r="P32" s="30" t="s">
+      <c r="P32" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="Q32" s="37">
+      <c r="Q32" s="36">
         <v>0.6401</v>
       </c>
-      <c r="R32" s="26">
+      <c r="R32" s="25">
         <v>0.5373</v>
       </c>
-      <c r="S32" s="26">
+      <c r="S32" s="25">
         <v>0.4909</v>
       </c>
-      <c r="T32" s="26">
+      <c r="T32" s="25">
         <v>0.5635</v>
       </c>
-      <c r="U32" s="26">
+      <c r="U32" s="25">
         <v>0.49199999999999999</v>
       </c>
-      <c r="V32" s="26">
+      <c r="V32" s="25">
         <v>0.51839999999999997</v>
       </c>
       <c r="W32" s="4"/>
@@ -6159,56 +6164,56 @@
       <c r="Z32" s="4"/>
     </row>
     <row r="33" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="29" t="s">
+      <c r="A33" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="B33" s="29" t="s">
+      <c r="B33" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="C33" s="30"/>
-      <c r="D33" s="30"/>
-      <c r="E33" s="30" t="s">
+      <c r="C33" s="29"/>
+      <c r="D33" s="29"/>
+      <c r="E33" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="F33" s="30" t="s">
+      <c r="F33" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="G33" s="26"/>
-      <c r="H33" s="26"/>
-      <c r="I33" s="26" t="s">
+      <c r="G33" s="25"/>
+      <c r="H33" s="25"/>
+      <c r="I33" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="J33" s="26" t="s">
+      <c r="J33" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="K33" s="26"/>
-      <c r="L33" s="27"/>
-      <c r="M33" s="26" t="s">
+      <c r="K33" s="25"/>
+      <c r="L33" s="26"/>
+      <c r="M33" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="N33" s="26" t="s">
+      <c r="N33" s="25" t="s">
         <v>5</v>
       </c>
       <c r="O33" s="4"/>
-      <c r="P33" s="30" t="s">
+      <c r="P33" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="Q33" s="26">
+      <c r="Q33" s="25">
         <v>0.72960000000000003</v>
       </c>
-      <c r="R33" s="26">
+      <c r="R33" s="25">
         <v>0.73719999999999997</v>
       </c>
-      <c r="S33" s="26">
+      <c r="S33" s="25">
         <v>0.5746</v>
       </c>
-      <c r="T33" s="37">
+      <c r="T33" s="36">
         <v>0.76829999999999998</v>
       </c>
-      <c r="U33" s="26">
+      <c r="U33" s="25">
         <v>0.5746</v>
       </c>
-      <c r="V33" s="26">
+      <c r="V33" s="25">
         <v>0.57269999999999999</v>
       </c>
       <c r="W33" s="4"/>
@@ -6217,120 +6222,120 @@
       <c r="Z33" s="4"/>
     </row>
     <row r="34" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="29" t="s">
+      <c r="A34" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="B34" s="29">
+      <c r="B34" s="28">
         <v>500</v>
       </c>
-      <c r="C34" s="30"/>
-      <c r="D34" s="30" t="s">
+      <c r="C34" s="29"/>
+      <c r="D34" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="E34" s="31">
+      <c r="E34" s="30">
         <v>51.553699999999999</v>
       </c>
-      <c r="F34" s="31">
+      <c r="F34" s="30">
         <v>102.9362</v>
       </c>
-      <c r="G34" s="26" t="s">
+      <c r="G34" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="H34" s="26">
+      <c r="H34" s="25">
         <v>128</v>
       </c>
-      <c r="I34" s="26">
+      <c r="I34" s="25">
         <v>51.546500000000002</v>
       </c>
-      <c r="J34" s="26">
+      <c r="J34" s="25">
         <v>102.9555</v>
       </c>
-      <c r="K34" s="26" t="s">
+      <c r="K34" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="L34" s="26">
+      <c r="L34" s="25">
         <v>768</v>
       </c>
-      <c r="M34" s="26">
+      <c r="M34" s="25">
         <v>53.662599999999998</v>
       </c>
-      <c r="N34" s="26">
+      <c r="N34" s="25">
         <v>107.36839999999999</v>
       </c>
       <c r="O34" s="4"/>
-      <c r="P34" s="64" t="s">
+      <c r="P34" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="Q34" s="64"/>
-      <c r="R34" s="64"/>
-      <c r="S34" s="64"/>
-      <c r="T34" s="64"/>
-      <c r="U34" s="64"/>
-      <c r="V34" s="64"/>
+      <c r="Q34" s="55"/>
+      <c r="R34" s="55"/>
+      <c r="S34" s="55"/>
+      <c r="T34" s="55"/>
+      <c r="U34" s="55"/>
+      <c r="V34" s="55"/>
       <c r="W34" s="4"/>
       <c r="X34" s="4"/>
       <c r="Y34" s="4"/>
       <c r="Z34" s="4"/>
     </row>
     <row r="35" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="29" t="s">
+      <c r="A35" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="B35" s="29">
+      <c r="B35" s="28">
         <v>32</v>
       </c>
-      <c r="C35" s="30"/>
-      <c r="D35" s="30" t="s">
+      <c r="C35" s="29"/>
+      <c r="D35" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="E35" s="30">
+      <c r="E35" s="29">
         <v>1</v>
       </c>
-      <c r="F35" s="30">
+      <c r="F35" s="29">
         <v>1</v>
       </c>
-      <c r="G35" s="26" t="s">
+      <c r="G35" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="H35" s="26">
+      <c r="H35" s="25">
         <v>1</v>
       </c>
-      <c r="I35" s="26">
+      <c r="I35" s="25">
         <v>0.98429999999999995</v>
       </c>
-      <c r="J35" s="26">
+      <c r="J35" s="25">
         <v>0.98140000000000005</v>
       </c>
-      <c r="K35" s="26" t="s">
+      <c r="K35" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="L35" s="26">
+      <c r="L35" s="25">
         <v>256</v>
       </c>
-      <c r="M35" s="26">
+      <c r="M35" s="25">
         <v>1</v>
       </c>
-      <c r="N35" s="26">
+      <c r="N35" s="25">
         <v>1</v>
       </c>
       <c r="O35" s="4"/>
-      <c r="P35" s="38"/>
-      <c r="Q35" s="65" t="s">
+      <c r="P35" s="37"/>
+      <c r="Q35" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="R35" s="65" t="s">
+      <c r="R35" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="S35" s="65" t="s">
+      <c r="S35" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="T35" s="65" t="s">
+      <c r="T35" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="U35" s="65" t="s">
+      <c r="U35" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="V35" s="65" t="s">
+      <c r="V35" s="42" t="s">
         <v>29</v>
       </c>
       <c r="W35" s="4"/>
@@ -6339,66 +6344,66 @@
       <c r="Z35" s="4"/>
     </row>
     <row r="36" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="29" t="s">
+      <c r="A36" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="B36" s="29">
+      <c r="B36" s="28">
         <v>1E-3</v>
       </c>
-      <c r="C36" s="30"/>
-      <c r="D36" s="30" t="s">
+      <c r="C36" s="29"/>
+      <c r="D36" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="E36" s="30">
+      <c r="E36" s="29">
         <v>0.65639999999999998</v>
       </c>
-      <c r="F36" s="31">
+      <c r="F36" s="30">
         <v>0.65110000000000001</v>
       </c>
-      <c r="G36" s="26" t="s">
+      <c r="G36" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="H36" s="28" t="s">
+      <c r="H36" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="I36" s="26">
+      <c r="I36" s="25">
         <v>0.48299999999999998</v>
       </c>
-      <c r="J36" s="26">
+      <c r="J36" s="25">
         <v>0.4788</v>
       </c>
-      <c r="K36" s="26" t="s">
+      <c r="K36" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="L36" s="26">
+      <c r="L36" s="25">
         <v>32</v>
       </c>
-      <c r="M36" s="26">
+      <c r="M36" s="25">
         <v>0.91510000000000002</v>
       </c>
-      <c r="N36" s="26">
+      <c r="N36" s="25">
         <v>0.91459999999999997</v>
       </c>
       <c r="O36" s="4"/>
-      <c r="P36" s="30" t="s">
+      <c r="P36" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="Q36" s="37">
+      <c r="Q36" s="36">
         <v>99.639899999999997</v>
       </c>
-      <c r="R36" s="26">
+      <c r="R36" s="25">
         <v>100.4823</v>
       </c>
-      <c r="S36" s="26">
+      <c r="S36" s="25">
         <v>100.96250000000001</v>
       </c>
-      <c r="T36" s="26">
+      <c r="T36" s="25">
         <v>102.9555</v>
       </c>
-      <c r="U36" s="26">
+      <c r="U36" s="25">
         <v>102.58150000000001</v>
       </c>
-      <c r="V36" s="26">
+      <c r="V36" s="25">
         <v>101.9222</v>
       </c>
       <c r="W36" s="4"/>
@@ -6407,62 +6412,62 @@
       <c r="Z36" s="4"/>
     </row>
     <row r="37" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="29" t="s">
+      <c r="A37" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="B37" s="29" t="s">
+      <c r="B37" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="C37" s="30"/>
-      <c r="D37" s="30" t="s">
+      <c r="C37" s="29"/>
+      <c r="D37" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="E37" s="30">
+      <c r="E37" s="29">
         <v>0</v>
       </c>
-      <c r="F37" s="30">
+      <c r="F37" s="29">
         <v>8.0000000000000004E-4</v>
       </c>
-      <c r="G37" s="26"/>
-      <c r="H37" s="26"/>
-      <c r="I37" s="26">
+      <c r="G37" s="25"/>
+      <c r="H37" s="25"/>
+      <c r="I37" s="25">
         <v>1.5699999999999999E-2</v>
       </c>
-      <c r="J37" s="26">
+      <c r="J37" s="25">
         <v>1.8599999999999998E-2</v>
       </c>
-      <c r="K37" s="26" t="s">
+      <c r="K37" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="L37" s="28" t="s">
+      <c r="L37" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="M37" s="26">
+      <c r="M37" s="25">
         <v>0</v>
       </c>
-      <c r="N37" s="26">
+      <c r="N37" s="25">
         <v>0</v>
       </c>
       <c r="O37" s="4"/>
-      <c r="P37" s="30" t="s">
+      <c r="P37" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="Q37" s="37">
+      <c r="Q37" s="36">
         <v>0.85119999999999996</v>
       </c>
-      <c r="R37" s="26">
+      <c r="R37" s="25">
         <v>0.9768</v>
       </c>
-      <c r="S37" s="26">
+      <c r="S37" s="25">
         <v>0.99960000000000004</v>
       </c>
-      <c r="T37" s="26">
+      <c r="T37" s="25">
         <v>0.98140000000000005</v>
       </c>
-      <c r="U37" s="26">
+      <c r="U37" s="25">
         <v>0.99919999999999998</v>
       </c>
-      <c r="V37" s="26">
+      <c r="V37" s="25">
         <v>1</v>
       </c>
       <c r="W37" s="4"/>
@@ -6471,58 +6476,58 @@
       <c r="Z37" s="4"/>
     </row>
     <row r="38" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="29" t="s">
+      <c r="A38" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="B38" s="29" t="b">
+      <c r="B38" s="28" t="b">
         <v>1</v>
       </c>
-      <c r="C38" s="30"/>
-      <c r="D38" s="30" t="s">
+      <c r="C38" s="29"/>
+      <c r="D38" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="E38" s="31">
+      <c r="E38" s="30">
         <v>0.73970000000000002</v>
       </c>
-      <c r="F38" s="31">
+      <c r="F38" s="30">
         <v>0.74150000000000005</v>
       </c>
-      <c r="G38" s="26"/>
-      <c r="H38" s="26"/>
-      <c r="I38" s="26">
+      <c r="G38" s="25"/>
+      <c r="H38" s="25"/>
+      <c r="I38" s="25">
         <v>0.98609999999999998</v>
       </c>
-      <c r="J38" s="26">
+      <c r="J38" s="25">
         <v>0.98670000000000002</v>
       </c>
-      <c r="K38" s="26"/>
-      <c r="L38" s="26"/>
-      <c r="M38" s="26">
+      <c r="K38" s="25"/>
+      <c r="L38" s="25"/>
+      <c r="M38" s="25">
         <v>0.23899999999999999</v>
       </c>
-      <c r="N38" s="26">
+      <c r="N38" s="25">
         <v>0.24030000000000001</v>
       </c>
       <c r="O38" s="4"/>
-      <c r="P38" s="30" t="s">
+      <c r="P38" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="Q38" s="37">
+      <c r="Q38" s="36">
         <v>0.40670000000000001</v>
       </c>
-      <c r="R38" s="26">
+      <c r="R38" s="25">
         <v>0.51160000000000005</v>
       </c>
-      <c r="S38" s="26">
+      <c r="S38" s="25">
         <v>0.69230000000000003</v>
       </c>
-      <c r="T38" s="26">
+      <c r="T38" s="25">
         <v>0.4788</v>
       </c>
-      <c r="U38" s="26">
+      <c r="U38" s="25">
         <v>0.65110000000000001</v>
       </c>
-      <c r="V38" s="26">
+      <c r="V38" s="25">
         <v>0.64500000000000002</v>
       </c>
       <c r="W38" s="4"/>
@@ -6531,54 +6536,54 @@
       <c r="Z38" s="4"/>
     </row>
     <row r="39" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="60"/>
-      <c r="B39" s="60"/>
-      <c r="C39" s="60"/>
-      <c r="D39" s="30" t="s">
+      <c r="A39" s="41"/>
+      <c r="B39" s="41"/>
+      <c r="C39" s="41"/>
+      <c r="D39" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="E39" s="31">
+      <c r="E39" s="30">
         <v>0.52270000000000005</v>
       </c>
-      <c r="F39" s="31">
+      <c r="F39" s="30">
         <v>0.52310000000000001</v>
       </c>
-      <c r="G39" s="26"/>
-      <c r="H39" s="26"/>
-      <c r="I39" s="26">
+      <c r="G39" s="25"/>
+      <c r="H39" s="25"/>
+      <c r="I39" s="25">
         <v>0.64129999999999998</v>
       </c>
-      <c r="J39" s="26">
+      <c r="J39" s="25">
         <v>0.64119999999999999</v>
       </c>
-      <c r="K39" s="26"/>
-      <c r="L39" s="26"/>
-      <c r="M39" s="26">
+      <c r="K39" s="25"/>
+      <c r="L39" s="25"/>
+      <c r="M39" s="25">
         <v>0.26179999999999998</v>
       </c>
-      <c r="N39" s="26">
+      <c r="N39" s="25">
         <v>0.2631</v>
       </c>
       <c r="O39" s="4"/>
-      <c r="P39" s="30" t="s">
+      <c r="P39" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="Q39" s="37">
+      <c r="Q39" s="36">
         <v>0.14879999999999999</v>
       </c>
-      <c r="R39" s="26">
+      <c r="R39" s="25">
         <v>2.3199999999999998E-2</v>
       </c>
-      <c r="S39" s="26">
+      <c r="S39" s="25">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="T39" s="26">
+      <c r="T39" s="25">
         <v>1.8599999999999998E-2</v>
       </c>
-      <c r="U39" s="26">
+      <c r="U39" s="25">
         <v>8.0000000000000004E-4</v>
       </c>
-      <c r="V39" s="26">
+      <c r="V39" s="25">
         <v>0</v>
       </c>
       <c r="W39" s="4"/>
@@ -6587,54 +6592,54 @@
       <c r="Z39" s="4"/>
     </row>
     <row r="40" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="29"/>
-      <c r="B40" s="31"/>
-      <c r="C40" s="30"/>
-      <c r="D40" s="30" t="s">
+      <c r="A40" s="28"/>
+      <c r="B40" s="30"/>
+      <c r="C40" s="29"/>
+      <c r="D40" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="E40" s="31">
+      <c r="E40" s="30">
         <v>0.49199999999999999</v>
       </c>
-      <c r="F40" s="31">
+      <c r="F40" s="30">
         <v>0.49270000000000003</v>
       </c>
-      <c r="G40" s="30"/>
-      <c r="H40" s="30"/>
-      <c r="I40" s="26">
+      <c r="G40" s="29"/>
+      <c r="H40" s="29"/>
+      <c r="I40" s="25">
         <v>0.5635</v>
       </c>
-      <c r="J40" s="26">
+      <c r="J40" s="25">
         <v>0.56389999999999996</v>
       </c>
-      <c r="K40" s="26"/>
-      <c r="L40" s="26"/>
-      <c r="M40" s="26">
+      <c r="K40" s="25"/>
+      <c r="L40" s="25"/>
+      <c r="M40" s="25">
         <v>0.4768</v>
       </c>
-      <c r="N40" s="26">
+      <c r="N40" s="25">
         <v>0.47889999999999999</v>
       </c>
       <c r="O40" s="4"/>
-      <c r="P40" s="30" t="s">
+      <c r="P40" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="Q40" s="26">
+      <c r="Q40" s="25">
         <v>0.94720000000000004</v>
       </c>
-      <c r="R40" s="26">
+      <c r="R40" s="25">
         <v>0.95279999999999998</v>
       </c>
-      <c r="S40" s="26">
+      <c r="S40" s="25">
         <v>0.74150000000000005</v>
       </c>
-      <c r="T40" s="37">
+      <c r="T40" s="36">
         <v>0.98670000000000002</v>
       </c>
-      <c r="U40" s="26">
+      <c r="U40" s="25">
         <v>0.74150000000000005</v>
       </c>
-      <c r="V40" s="26">
+      <c r="V40" s="25">
         <v>0.73670000000000002</v>
       </c>
       <c r="W40" s="4"/>
@@ -6643,54 +6648,54 @@
       <c r="Z40" s="4"/>
     </row>
     <row r="41" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="29"/>
-      <c r="B41" s="29"/>
-      <c r="C41" s="30"/>
-      <c r="D41" s="30" t="s">
+      <c r="A41" s="28"/>
+      <c r="B41" s="28"/>
+      <c r="C41" s="29"/>
+      <c r="D41" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="E41" s="31">
+      <c r="E41" s="30">
         <v>0.5746</v>
       </c>
-      <c r="F41" s="31">
+      <c r="F41" s="30">
         <v>0.57410000000000005</v>
       </c>
-      <c r="G41" s="30"/>
-      <c r="H41" s="30"/>
-      <c r="I41" s="26">
+      <c r="G41" s="29"/>
+      <c r="H41" s="29"/>
+      <c r="I41" s="25">
         <v>0.76829999999999998</v>
       </c>
-      <c r="J41" s="26">
+      <c r="J41" s="25">
         <v>0.76680000000000004</v>
       </c>
-      <c r="K41" s="26"/>
-      <c r="L41" s="26"/>
-      <c r="M41" s="26">
+      <c r="K41" s="25"/>
+      <c r="L41" s="25"/>
+      <c r="M41" s="25">
         <v>0.183</v>
       </c>
-      <c r="N41" s="26">
+      <c r="N41" s="25">
         <v>0.18390000000000001</v>
       </c>
       <c r="O41" s="4"/>
-      <c r="P41" s="30" t="s">
+      <c r="P41" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="Q41" s="37">
+      <c r="Q41" s="36">
         <v>0.67120000000000002</v>
       </c>
-      <c r="R41" s="26">
+      <c r="R41" s="25">
         <v>0.61080000000000001</v>
       </c>
-      <c r="S41" s="26">
+      <c r="S41" s="25">
         <v>0.5101</v>
       </c>
-      <c r="T41" s="26">
+      <c r="T41" s="25">
         <v>0.64119999999999999</v>
       </c>
-      <c r="U41" s="26">
+      <c r="U41" s="25">
         <v>0.52310000000000001</v>
       </c>
-      <c r="V41" s="26">
+      <c r="V41" s="25">
         <v>0.53259999999999996</v>
       </c>
       <c r="W41" s="4"/>
@@ -6699,44 +6704,44 @@
       <c r="Z41" s="4"/>
     </row>
     <row r="42" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="61" t="s">
+      <c r="A42" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="B42" s="61"/>
-      <c r="C42" s="61"/>
-      <c r="D42" s="61"/>
-      <c r="E42" s="61"/>
-      <c r="F42" s="61"/>
-      <c r="G42" s="48" t="s">
+      <c r="B42" s="58"/>
+      <c r="C42" s="58"/>
+      <c r="D42" s="58"/>
+      <c r="E42" s="58"/>
+      <c r="F42" s="58"/>
+      <c r="G42" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="H42" s="48"/>
-      <c r="I42" s="48"/>
-      <c r="J42" s="48"/>
-      <c r="K42" s="48"/>
-      <c r="L42" s="48"/>
-      <c r="M42" s="48"/>
-      <c r="N42" s="48"/>
+      <c r="H42" s="59"/>
+      <c r="I42" s="59"/>
+      <c r="J42" s="59"/>
+      <c r="K42" s="59"/>
+      <c r="L42" s="59"/>
+      <c r="M42" s="59"/>
+      <c r="N42" s="59"/>
       <c r="O42" s="4"/>
-      <c r="P42" s="30" t="s">
+      <c r="P42" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="Q42" s="37">
+      <c r="Q42" s="36">
         <v>0.64159999999999995</v>
       </c>
-      <c r="R42" s="26">
+      <c r="R42" s="25">
         <v>0.54</v>
       </c>
-      <c r="S42" s="26">
+      <c r="S42" s="25">
         <v>0.48659999999999998</v>
       </c>
-      <c r="T42" s="26">
+      <c r="T42" s="25">
         <v>0.56389999999999996</v>
       </c>
-      <c r="U42" s="26">
+      <c r="U42" s="25">
         <v>0.49270000000000003</v>
       </c>
-      <c r="V42" s="26">
+      <c r="V42" s="25">
         <v>0.52080000000000004</v>
       </c>
       <c r="W42" s="4"/>
@@ -6745,56 +6750,56 @@
       <c r="Z42" s="4"/>
     </row>
     <row r="43" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="29" t="s">
+      <c r="A43" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="B43" s="31" t="s">
+      <c r="B43" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="C43" s="30"/>
-      <c r="D43" s="30"/>
-      <c r="E43" s="30" t="s">
+      <c r="C43" s="29"/>
+      <c r="D43" s="29"/>
+      <c r="E43" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="F43" s="30" t="s">
+      <c r="F43" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="G43" s="26"/>
-      <c r="H43" s="26"/>
-      <c r="I43" s="26" t="s">
+      <c r="G43" s="25"/>
+      <c r="H43" s="25"/>
+      <c r="I43" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="J43" s="26" t="s">
+      <c r="J43" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="K43" s="26"/>
-      <c r="L43" s="27"/>
-      <c r="M43" s="26" t="s">
+      <c r="K43" s="25"/>
+      <c r="L43" s="26"/>
+      <c r="M43" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="N43" s="26" t="s">
+      <c r="N43" s="25" t="s">
         <v>5</v>
       </c>
       <c r="O43" s="4"/>
-      <c r="P43" s="30" t="s">
+      <c r="P43" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="Q43" s="26">
+      <c r="Q43" s="25">
         <v>0.73229999999999995</v>
       </c>
-      <c r="R43" s="26">
+      <c r="R43" s="25">
         <v>0.73860000000000003</v>
       </c>
-      <c r="S43" s="26">
+      <c r="S43" s="25">
         <v>0.57410000000000005</v>
       </c>
-      <c r="T43" s="37">
+      <c r="T43" s="36">
         <v>0.76680000000000004</v>
       </c>
-      <c r="U43" s="26">
+      <c r="U43" s="25">
         <v>0.57410000000000005</v>
       </c>
-      <c r="V43" s="26">
+      <c r="V43" s="25">
         <v>0.5716</v>
       </c>
       <c r="W43" s="4"/>
@@ -6803,44 +6808,44 @@
       <c r="Z43" s="4"/>
     </row>
     <row r="44" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="29" t="s">
+      <c r="A44" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="B44" s="29">
+      <c r="B44" s="28">
         <v>500</v>
       </c>
-      <c r="C44" s="30"/>
-      <c r="D44" s="30" t="s">
+      <c r="C44" s="29"/>
+      <c r="D44" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="E44" s="31">
+      <c r="E44" s="30">
         <v>51.685099999999998</v>
       </c>
-      <c r="F44" s="31">
+      <c r="F44" s="30">
         <v>103.2773</v>
       </c>
-      <c r="G44" s="26" t="s">
+      <c r="G44" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="H44" s="26">
+      <c r="H44" s="25">
         <v>128</v>
       </c>
-      <c r="I44" s="26">
+      <c r="I44" s="25">
         <v>51.393900000000002</v>
       </c>
-      <c r="J44" s="26">
+      <c r="J44" s="25">
         <v>102.58150000000001</v>
       </c>
-      <c r="K44" s="26" t="s">
+      <c r="K44" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="L44" s="26">
+      <c r="L44" s="25">
         <v>768</v>
       </c>
-      <c r="M44" s="26">
+      <c r="M44" s="25">
         <v>52.564500000000002</v>
       </c>
-      <c r="N44" s="26">
+      <c r="N44" s="25">
         <v>104.7621</v>
       </c>
       <c r="O44" s="4"/>
@@ -6857,172 +6862,172 @@
       <c r="Z44" s="4"/>
     </row>
     <row r="45" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="29" t="s">
+      <c r="A45" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="B45" s="29">
+      <c r="B45" s="28">
         <v>32</v>
       </c>
-      <c r="C45" s="30"/>
-      <c r="D45" s="30" t="s">
+      <c r="C45" s="29"/>
+      <c r="D45" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="E45" s="30">
+      <c r="E45" s="29">
         <v>1</v>
       </c>
-      <c r="F45" s="30">
+      <c r="F45" s="29">
         <v>1</v>
       </c>
-      <c r="G45" s="26" t="s">
+      <c r="G45" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="H45" s="26">
+      <c r="H45" s="25">
         <v>1</v>
       </c>
-      <c r="I45" s="26">
+      <c r="I45" s="25">
         <v>1</v>
       </c>
-      <c r="J45" s="26">
+      <c r="J45" s="25">
         <v>0.99919999999999998</v>
       </c>
-      <c r="K45" s="26" t="s">
+      <c r="K45" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="L45" s="26">
+      <c r="L45" s="25">
         <v>256</v>
       </c>
-      <c r="M45" s="26">
+      <c r="M45" s="25">
         <v>1</v>
       </c>
-      <c r="N45" s="26">
+      <c r="N45" s="25">
         <v>0.99919999999999998</v>
       </c>
       <c r="O45" s="4"/>
-      <c r="P45" s="66" t="s">
+      <c r="P45" s="54" t="s">
         <v>71</v>
       </c>
-      <c r="Q45" s="66"/>
-      <c r="R45" s="66"/>
-      <c r="S45" s="66"/>
-      <c r="T45" s="66"/>
-      <c r="U45" s="66"/>
-      <c r="V45" s="66"/>
+      <c r="Q45" s="54"/>
+      <c r="R45" s="54"/>
+      <c r="S45" s="54"/>
+      <c r="T45" s="54"/>
+      <c r="U45" s="54"/>
+      <c r="V45" s="54"/>
       <c r="W45" s="4"/>
       <c r="X45" s="4"/>
       <c r="Y45" s="4"/>
       <c r="Z45" s="4"/>
     </row>
     <row r="46" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="29" t="s">
+      <c r="A46" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="B46" s="29">
+      <c r="B46" s="28">
         <v>1E-3</v>
       </c>
-      <c r="C46" s="30"/>
-      <c r="D46" s="30" t="s">
+      <c r="C46" s="29"/>
+      <c r="D46" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="E46" s="30">
+      <c r="E46" s="29">
         <v>0.58599999999999997</v>
       </c>
-      <c r="F46" s="31">
+      <c r="F46" s="30">
         <v>0.58550000000000002</v>
       </c>
-      <c r="G46" s="26" t="s">
+      <c r="G46" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="H46" s="26" t="s">
+      <c r="H46" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="I46" s="26">
+      <c r="I46" s="25">
         <v>0.65639999999999998</v>
       </c>
-      <c r="J46" s="26">
+      <c r="J46" s="25">
         <v>0.65110000000000001</v>
       </c>
-      <c r="K46" s="26" t="s">
+      <c r="K46" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="L46" s="26">
+      <c r="L46" s="25">
         <v>32</v>
       </c>
-      <c r="M46" s="26">
+      <c r="M46" s="25">
         <v>0.65639999999999998</v>
       </c>
-      <c r="N46" s="26">
+      <c r="N46" s="25">
         <v>0.65110000000000001</v>
       </c>
       <c r="O46" s="4"/>
-      <c r="P46" s="64" t="s">
+      <c r="P46" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="Q46" s="64"/>
-      <c r="R46" s="64"/>
-      <c r="S46" s="64"/>
-      <c r="T46" s="64"/>
-      <c r="U46" s="64"/>
-      <c r="V46" s="64"/>
+      <c r="Q46" s="55"/>
+      <c r="R46" s="55"/>
+      <c r="S46" s="55"/>
+      <c r="T46" s="55"/>
+      <c r="U46" s="55"/>
+      <c r="V46" s="55"/>
       <c r="W46" s="4"/>
       <c r="X46" s="4"/>
       <c r="Y46" s="4"/>
       <c r="Z46" s="4"/>
     </row>
     <row r="47" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="29" t="s">
+      <c r="A47" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="B47" s="29" t="s">
+      <c r="B47" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="C47" s="30"/>
-      <c r="D47" s="30" t="s">
+      <c r="C47" s="29"/>
+      <c r="D47" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="E47" s="30">
+      <c r="E47" s="29">
         <v>0</v>
       </c>
-      <c r="F47" s="30">
+      <c r="F47" s="29">
         <v>0</v>
       </c>
-      <c r="G47" s="26"/>
-      <c r="H47" s="26"/>
-      <c r="I47" s="26">
+      <c r="G47" s="25"/>
+      <c r="H47" s="25"/>
+      <c r="I47" s="25">
         <v>0</v>
       </c>
-      <c r="J47" s="26">
+      <c r="J47" s="25">
         <v>8.0000000000000004E-4</v>
       </c>
-      <c r="K47" s="26" t="s">
+      <c r="K47" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="L47" s="28" t="s">
+      <c r="L47" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="M47" s="26">
+      <c r="M47" s="25">
         <v>0</v>
       </c>
-      <c r="N47" s="26">
+      <c r="N47" s="25">
         <v>8.0000000000000004E-4</v>
       </c>
       <c r="O47" s="4"/>
-      <c r="P47" s="38"/>
-      <c r="Q47" s="65" t="s">
+      <c r="P47" s="37"/>
+      <c r="Q47" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="R47" s="65" t="s">
+      <c r="R47" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="S47" s="65" t="s">
+      <c r="S47" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="T47" s="65" t="s">
+      <c r="T47" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="U47" s="65" t="s">
+      <c r="U47" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="V47" s="65" t="s">
+      <c r="V47" s="42" t="s">
         <v>29</v>
       </c>
       <c r="W47" s="4"/>
@@ -7031,58 +7036,58 @@
       <c r="Z47" s="4"/>
     </row>
     <row r="48" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="29" t="s">
+      <c r="A48" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="B48" s="29" t="b">
+      <c r="B48" s="28" t="b">
         <v>1</v>
       </c>
-      <c r="C48" s="30"/>
-      <c r="D48" s="30" t="s">
+      <c r="C48" s="29"/>
+      <c r="D48" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="E48" s="31">
+      <c r="E48" s="30">
         <v>0.72489999999999999</v>
       </c>
-      <c r="F48" s="31">
+      <c r="F48" s="30">
         <v>0.72540000000000004</v>
       </c>
-      <c r="G48" s="26"/>
-      <c r="H48" s="26"/>
-      <c r="I48" s="26">
+      <c r="G48" s="25"/>
+      <c r="H48" s="25"/>
+      <c r="I48" s="25">
         <v>0.73970000000000002</v>
       </c>
-      <c r="J48" s="26">
+      <c r="J48" s="25">
         <v>0.74150000000000005</v>
       </c>
-      <c r="K48" s="26"/>
-      <c r="L48" s="26"/>
-      <c r="M48" s="26">
+      <c r="K48" s="25"/>
+      <c r="L48" s="25"/>
+      <c r="M48" s="25">
         <v>0.73970000000000002</v>
       </c>
-      <c r="N48" s="26">
+      <c r="N48" s="25">
         <v>0.74150000000000005</v>
       </c>
       <c r="O48" s="4"/>
-      <c r="P48" s="30" t="s">
+      <c r="P48" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="Q48" s="26">
+      <c r="Q48" s="25">
         <v>52.969200000000001</v>
       </c>
-      <c r="R48" s="26">
+      <c r="R48" s="25">
         <v>53.444099999999999</v>
       </c>
-      <c r="S48" s="26">
+      <c r="S48" s="25">
         <v>53.104399999999998</v>
       </c>
-      <c r="T48" s="26">
+      <c r="T48" s="25">
         <v>53.662599999999998</v>
       </c>
-      <c r="U48" s="37">
+      <c r="U48" s="36">
         <v>52.564500000000002</v>
       </c>
-      <c r="V48" s="26">
+      <c r="V48" s="25">
         <v>53.426900000000003</v>
       </c>
       <c r="W48" s="4"/>
@@ -7091,54 +7096,54 @@
       <c r="Z48" s="4"/>
     </row>
     <row r="49" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="60"/>
-      <c r="B49" s="60"/>
-      <c r="C49" s="60"/>
-      <c r="D49" s="30" t="s">
+      <c r="A49" s="41"/>
+      <c r="B49" s="41"/>
+      <c r="C49" s="41"/>
+      <c r="D49" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="E49" s="31">
+      <c r="E49" s="30">
         <v>0.56469999999999998</v>
       </c>
-      <c r="F49" s="31">
+      <c r="F49" s="30">
         <v>0.56499999999999995</v>
       </c>
-      <c r="G49" s="26"/>
-      <c r="H49" s="26"/>
-      <c r="I49" s="26">
+      <c r="G49" s="25"/>
+      <c r="H49" s="25"/>
+      <c r="I49" s="25">
         <v>0.52270000000000005</v>
       </c>
-      <c r="J49" s="26">
+      <c r="J49" s="25">
         <v>0.52310000000000001</v>
       </c>
-      <c r="K49" s="26"/>
-      <c r="L49" s="26"/>
-      <c r="M49" s="26">
+      <c r="K49" s="25"/>
+      <c r="L49" s="25"/>
+      <c r="M49" s="25">
         <v>0.52270000000000005</v>
       </c>
-      <c r="N49" s="26">
+      <c r="N49" s="25">
         <v>0.52310000000000001</v>
       </c>
       <c r="O49" s="4"/>
-      <c r="P49" s="30" t="s">
+      <c r="P49" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="Q49" s="26">
+      <c r="Q49" s="25">
         <v>0.99339999999999995</v>
       </c>
-      <c r="R49" s="26">
+      <c r="R49" s="25">
         <v>0.99919999999999998</v>
       </c>
-      <c r="S49" s="37">
+      <c r="S49" s="36">
         <v>0.95940000000000003</v>
       </c>
-      <c r="T49" s="26">
+      <c r="T49" s="25">
         <v>1</v>
       </c>
-      <c r="U49" s="26">
+      <c r="U49" s="25">
         <v>1</v>
       </c>
-      <c r="V49" s="26">
+      <c r="V49" s="25">
         <v>1</v>
       </c>
       <c r="W49" s="4"/>
@@ -7147,54 +7152,54 @@
       <c r="Z49" s="4"/>
     </row>
     <row r="50" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="29"/>
-      <c r="B50" s="31"/>
-      <c r="C50" s="30"/>
-      <c r="D50" s="30" t="s">
+      <c r="A50" s="28"/>
+      <c r="B50" s="30"/>
+      <c r="C50" s="29"/>
+      <c r="D50" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="E50" s="31">
+      <c r="E50" s="30">
         <v>0.58250000000000002</v>
       </c>
-      <c r="F50" s="31">
+      <c r="F50" s="30">
         <v>0.58330000000000004</v>
       </c>
-      <c r="G50" s="30"/>
-      <c r="H50" s="30"/>
-      <c r="I50" s="26">
+      <c r="G50" s="29"/>
+      <c r="H50" s="29"/>
+      <c r="I50" s="25">
         <v>0.49199999999999999</v>
       </c>
-      <c r="J50" s="26">
+      <c r="J50" s="25">
         <v>0.49270000000000003</v>
       </c>
-      <c r="K50" s="26"/>
-      <c r="L50" s="26"/>
-      <c r="M50" s="26">
+      <c r="K50" s="25"/>
+      <c r="L50" s="25"/>
+      <c r="M50" s="25">
         <v>0.49199999999999999</v>
       </c>
-      <c r="N50" s="26">
+      <c r="N50" s="25">
         <v>0.49270000000000003</v>
       </c>
       <c r="O50" s="4"/>
-      <c r="P50" s="30" t="s">
+      <c r="P50" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="Q50" s="37">
+      <c r="Q50" s="36">
         <v>0.50580000000000003</v>
       </c>
-      <c r="R50" s="26">
+      <c r="R50" s="25">
         <v>0.52939999999999998</v>
       </c>
-      <c r="S50" s="26">
+      <c r="S50" s="25">
         <v>0.58599999999999997</v>
       </c>
-      <c r="T50" s="26">
+      <c r="T50" s="25">
         <v>0.91510000000000002</v>
       </c>
-      <c r="U50" s="26">
+      <c r="U50" s="25">
         <v>0.65639999999999998</v>
       </c>
-      <c r="V50" s="26">
+      <c r="V50" s="25">
         <v>0.68059999999999998</v>
       </c>
       <c r="W50" s="4"/>
@@ -7203,54 +7208,54 @@
       <c r="Z50" s="4"/>
     </row>
     <row r="51" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="29"/>
-      <c r="B51" s="29"/>
-      <c r="C51" s="30"/>
-      <c r="D51" s="30" t="s">
+      <c r="A51" s="28"/>
+      <c r="B51" s="28"/>
+      <c r="C51" s="29"/>
+      <c r="D51" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="E51" s="31">
+      <c r="E51" s="30">
         <v>0.5635</v>
       </c>
-      <c r="F51" s="31">
+      <c r="F51" s="30">
         <v>0.56330000000000002</v>
       </c>
-      <c r="G51" s="30"/>
-      <c r="H51" s="30"/>
-      <c r="I51" s="26">
+      <c r="G51" s="29"/>
+      <c r="H51" s="29"/>
+      <c r="I51" s="25">
         <v>0.5746</v>
       </c>
-      <c r="J51" s="26">
+      <c r="J51" s="25">
         <v>0.57410000000000005</v>
       </c>
-      <c r="K51" s="26"/>
-      <c r="L51" s="26"/>
-      <c r="M51" s="26">
+      <c r="K51" s="25"/>
+      <c r="L51" s="25"/>
+      <c r="M51" s="25">
         <v>0.5746</v>
       </c>
-      <c r="N51" s="26">
+      <c r="N51" s="25">
         <v>0.57410000000000005</v>
       </c>
       <c r="O51" s="4"/>
-      <c r="P51" s="30" t="s">
+      <c r="P51" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="Q51" s="26">
+      <c r="Q51" s="25">
         <v>6.6E-3</v>
       </c>
-      <c r="R51" s="26">
+      <c r="R51" s="25">
         <v>8.0000000000000004E-4</v>
       </c>
-      <c r="S51" s="37">
+      <c r="S51" s="36">
         <v>4.0599999999999997E-2</v>
       </c>
-      <c r="T51" s="26">
+      <c r="T51" s="25">
         <v>0</v>
       </c>
-      <c r="U51" s="26">
+      <c r="U51" s="25">
         <v>0</v>
       </c>
-      <c r="V51" s="26">
+      <c r="V51" s="25">
         <v>0</v>
       </c>
       <c r="W51" s="4"/>
@@ -7259,44 +7264,44 @@
       <c r="Z51" s="4"/>
     </row>
     <row r="52" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="61" t="s">
+      <c r="A52" s="58" t="s">
         <v>36</v>
       </c>
-      <c r="B52" s="61"/>
-      <c r="C52" s="61"/>
-      <c r="D52" s="61"/>
-      <c r="E52" s="61"/>
-      <c r="F52" s="61"/>
-      <c r="G52" s="48" t="s">
+      <c r="B52" s="58"/>
+      <c r="C52" s="58"/>
+      <c r="D52" s="58"/>
+      <c r="E52" s="58"/>
+      <c r="F52" s="58"/>
+      <c r="G52" s="59" t="s">
         <v>36</v>
       </c>
-      <c r="H52" s="48"/>
-      <c r="I52" s="48"/>
-      <c r="J52" s="48"/>
-      <c r="K52" s="48"/>
-      <c r="L52" s="48"/>
-      <c r="M52" s="48"/>
-      <c r="N52" s="48"/>
+      <c r="H52" s="59"/>
+      <c r="I52" s="59"/>
+      <c r="J52" s="59"/>
+      <c r="K52" s="59"/>
+      <c r="L52" s="59"/>
+      <c r="M52" s="59"/>
+      <c r="N52" s="59"/>
       <c r="O52" s="4"/>
-      <c r="P52" s="30" t="s">
+      <c r="P52" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="Q52" s="26">
+      <c r="Q52" s="25">
         <v>0.75919999999999999</v>
       </c>
-      <c r="R52" s="26">
+      <c r="R52" s="25">
         <v>0.73699999999999999</v>
       </c>
-      <c r="S52" s="37">
+      <c r="S52" s="36">
         <v>0.98609999999999998</v>
       </c>
-      <c r="T52" s="26">
+      <c r="T52" s="25">
         <v>0.23899999999999999</v>
       </c>
-      <c r="U52" s="26">
+      <c r="U52" s="25">
         <v>0.73970000000000002</v>
       </c>
-      <c r="V52" s="26">
+      <c r="V52" s="25">
         <v>0.73699999999999999</v>
       </c>
       <c r="W52" s="4"/>
@@ -7305,56 +7310,56 @@
       <c r="Z52" s="4"/>
     </row>
     <row r="53" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="29" t="s">
+      <c r="A53" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="B53" s="31" t="s">
+      <c r="B53" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="C53" s="30"/>
-      <c r="D53" s="30"/>
-      <c r="E53" s="30" t="s">
+      <c r="C53" s="29"/>
+      <c r="D53" s="29"/>
+      <c r="E53" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="F53" s="30" t="s">
+      <c r="F53" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="G53" s="26"/>
-      <c r="H53" s="26"/>
-      <c r="I53" s="26" t="s">
+      <c r="G53" s="25"/>
+      <c r="H53" s="25"/>
+      <c r="I53" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="J53" s="26" t="s">
+      <c r="J53" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="K53" s="26"/>
-      <c r="L53" s="27"/>
-      <c r="M53" s="26" t="s">
+      <c r="K53" s="25"/>
+      <c r="L53" s="26"/>
+      <c r="M53" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="N53" s="26" t="s">
+      <c r="N53" s="25" t="s">
         <v>5</v>
       </c>
       <c r="O53" s="4"/>
-      <c r="P53" s="30" t="s">
+      <c r="P53" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="Q53" s="37">
+      <c r="Q53" s="36">
         <v>0.64739999999999998</v>
       </c>
-      <c r="R53" s="26">
+      <c r="R53" s="25">
         <v>0.63570000000000004</v>
       </c>
-      <c r="S53" s="26">
+      <c r="S53" s="25">
         <v>0.59260000000000002</v>
       </c>
-      <c r="T53" s="26">
+      <c r="T53" s="25">
         <v>0.26179999999999998</v>
       </c>
-      <c r="U53" s="26">
+      <c r="U53" s="25">
         <v>0.52270000000000005</v>
       </c>
-      <c r="V53" s="26">
+      <c r="V53" s="25">
         <v>0.52149999999999996</v>
       </c>
       <c r="W53" s="4"/>
@@ -7363,66 +7368,66 @@
       <c r="Z53" s="4"/>
     </row>
     <row r="54" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="29" t="s">
+      <c r="A54" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="B54" s="29">
+      <c r="B54" s="28">
         <v>500</v>
       </c>
-      <c r="C54" s="30"/>
-      <c r="D54" s="30" t="s">
+      <c r="C54" s="29"/>
+      <c r="D54" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="E54" s="31">
+      <c r="E54" s="30">
         <v>50.802900000000001</v>
       </c>
-      <c r="F54" s="31">
+      <c r="F54" s="30">
         <v>101.38249999999999</v>
       </c>
-      <c r="G54" s="26" t="s">
+      <c r="G54" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="H54" s="26">
+      <c r="H54" s="25">
         <v>128</v>
       </c>
-      <c r="I54" s="26">
+      <c r="I54" s="25">
         <v>51.014899999999997</v>
       </c>
-      <c r="J54" s="26">
+      <c r="J54" s="25">
         <v>101.9222</v>
       </c>
-      <c r="K54" s="26" t="s">
+      <c r="K54" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="L54" s="26">
+      <c r="L54" s="25">
         <v>768</v>
       </c>
-      <c r="M54" s="26">
+      <c r="M54" s="25">
         <v>53.426900000000003</v>
       </c>
-      <c r="N54" s="26">
+      <c r="N54" s="25">
         <v>106.809</v>
       </c>
       <c r="O54" s="4"/>
-      <c r="P54" s="30" t="s">
+      <c r="P54" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="Q54" s="37">
+      <c r="Q54" s="36">
         <v>0.74770000000000003</v>
       </c>
-      <c r="R54" s="26">
+      <c r="R54" s="25">
         <v>0.73650000000000004</v>
       </c>
-      <c r="S54" s="26">
+      <c r="S54" s="25">
         <v>0.49309999999999998</v>
       </c>
-      <c r="T54" s="26">
+      <c r="T54" s="25">
         <v>0.4768</v>
       </c>
-      <c r="U54" s="26">
+      <c r="U54" s="25">
         <v>0.49199999999999999</v>
       </c>
-      <c r="V54" s="26">
+      <c r="V54" s="25">
         <v>0.49099999999999999</v>
       </c>
       <c r="W54" s="4"/>
@@ -7431,66 +7436,66 @@
       <c r="Z54" s="4"/>
     </row>
     <row r="55" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="29" t="s">
+      <c r="A55" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="B55" s="29">
+      <c r="B55" s="28">
         <v>32</v>
       </c>
-      <c r="C55" s="30"/>
-      <c r="D55" s="30" t="s">
+      <c r="C55" s="29"/>
+      <c r="D55" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="E55" s="30">
+      <c r="E55" s="29">
         <v>0.99919999999999998</v>
       </c>
-      <c r="F55" s="31">
+      <c r="F55" s="30">
         <v>0.99880000000000002</v>
       </c>
-      <c r="G55" s="26" t="s">
+      <c r="G55" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="H55" s="26">
+      <c r="H55" s="25">
         <v>1</v>
       </c>
-      <c r="I55" s="26">
+      <c r="I55" s="25">
         <v>1</v>
       </c>
-      <c r="J55" s="26">
+      <c r="J55" s="25">
         <v>1</v>
       </c>
-      <c r="K55" s="26" t="s">
+      <c r="K55" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="L55" s="26">
+      <c r="L55" s="25">
         <v>256</v>
       </c>
-      <c r="M55" s="26">
+      <c r="M55" s="25">
         <v>1</v>
       </c>
-      <c r="N55" s="26">
+      <c r="N55" s="25">
         <v>1</v>
       </c>
       <c r="O55" s="4"/>
-      <c r="P55" s="30" t="s">
+      <c r="P55" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="Q55" s="26">
+      <c r="Q55" s="25">
         <v>0.58540000000000003</v>
       </c>
-      <c r="R55" s="26">
+      <c r="R55" s="25">
         <v>0.57269999999999999</v>
       </c>
-      <c r="S55" s="37">
+      <c r="S55" s="36">
         <v>0.76829999999999998</v>
       </c>
-      <c r="T55" s="26">
+      <c r="T55" s="25">
         <v>0.183</v>
       </c>
-      <c r="U55" s="26">
+      <c r="U55" s="25">
         <v>0.5746</v>
       </c>
-      <c r="V55" s="26">
+      <c r="V55" s="25">
         <v>0.57269999999999999</v>
       </c>
       <c r="W55" s="4"/>
@@ -7499,116 +7504,116 @@
       <c r="Z55" s="4"/>
     </row>
     <row r="56" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="29" t="s">
+      <c r="A56" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="B56" s="29">
+      <c r="B56" s="28">
         <v>1E-3</v>
       </c>
-      <c r="C56" s="30"/>
-      <c r="D56" s="30" t="s">
+      <c r="C56" s="29"/>
+      <c r="D56" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="E56" s="31">
+      <c r="E56" s="30">
         <v>0.66220000000000001</v>
       </c>
-      <c r="F56" s="31">
+      <c r="F56" s="30">
         <v>0.66</v>
       </c>
-      <c r="G56" s="26" t="s">
+      <c r="G56" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="H56" s="26" t="s">
+      <c r="H56" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="I56" s="26">
+      <c r="I56" s="25">
         <v>0.64329999999999998</v>
       </c>
-      <c r="J56" s="26">
+      <c r="J56" s="25">
         <v>0.64500000000000002</v>
       </c>
-      <c r="K56" s="26" t="s">
+      <c r="K56" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="L56" s="26">
+      <c r="L56" s="25">
         <v>32</v>
       </c>
-      <c r="M56" s="26">
+      <c r="M56" s="25">
         <v>0.68059999999999998</v>
       </c>
-      <c r="N56" s="26">
+      <c r="N56" s="25">
         <v>0.68059999999999998</v>
       </c>
       <c r="O56" s="4"/>
-      <c r="P56" s="64" t="s">
+      <c r="P56" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="Q56" s="64"/>
-      <c r="R56" s="64"/>
-      <c r="S56" s="64"/>
-      <c r="T56" s="64"/>
-      <c r="U56" s="64"/>
-      <c r="V56" s="64"/>
+      <c r="Q56" s="55"/>
+      <c r="R56" s="55"/>
+      <c r="S56" s="55"/>
+      <c r="T56" s="55"/>
+      <c r="U56" s="55"/>
+      <c r="V56" s="55"/>
       <c r="W56" s="4"/>
       <c r="X56" s="4"/>
       <c r="Y56" s="4"/>
       <c r="Z56" s="4"/>
     </row>
     <row r="57" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="29" t="s">
+      <c r="A57" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="B57" s="29" t="s">
+      <c r="B57" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="C57" s="30"/>
-      <c r="D57" s="30" t="s">
+      <c r="C57" s="29"/>
+      <c r="D57" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="E57" s="30">
+      <c r="E57" s="29">
         <v>8.0000000000000004E-4</v>
       </c>
-      <c r="F57" s="31">
+      <c r="F57" s="30">
         <v>1.1999999999999999E-3</v>
       </c>
-      <c r="G57" s="26"/>
-      <c r="H57" s="26"/>
-      <c r="I57" s="26">
+      <c r="G57" s="25"/>
+      <c r="H57" s="25"/>
+      <c r="I57" s="25">
         <v>0</v>
       </c>
-      <c r="J57" s="26">
+      <c r="J57" s="25">
         <v>0</v>
       </c>
-      <c r="K57" s="26" t="s">
+      <c r="K57" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="L57" s="28" t="s">
+      <c r="L57" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="M57" s="26">
+      <c r="M57" s="25">
         <v>0</v>
       </c>
-      <c r="N57" s="26">
+      <c r="N57" s="25">
         <v>0</v>
       </c>
       <c r="O57" s="4"/>
-      <c r="P57" s="38"/>
-      <c r="Q57" s="65" t="s">
+      <c r="P57" s="37"/>
+      <c r="Q57" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="R57" s="65" t="s">
+      <c r="R57" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="S57" s="65" t="s">
+      <c r="S57" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="T57" s="65" t="s">
+      <c r="T57" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="U57" s="65" t="s">
+      <c r="U57" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="V57" s="65" t="s">
+      <c r="V57" s="42" t="s">
         <v>29</v>
       </c>
       <c r="W57" s="4"/>
@@ -7617,58 +7622,58 @@
       <c r="Z57" s="4"/>
     </row>
     <row r="58" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="29" t="s">
+      <c r="A58" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="B58" s="29" t="b">
+      <c r="B58" s="28" t="b">
         <v>1</v>
       </c>
-      <c r="C58" s="30"/>
-      <c r="D58" s="30" t="s">
+      <c r="C58" s="29"/>
+      <c r="D58" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="E58" s="31">
+      <c r="E58" s="30">
         <v>0.73970000000000002</v>
       </c>
-      <c r="F58" s="31">
+      <c r="F58" s="30">
         <v>0.74150000000000005</v>
       </c>
-      <c r="G58" s="26"/>
-      <c r="H58" s="26"/>
-      <c r="I58" s="26">
+      <c r="G58" s="25"/>
+      <c r="H58" s="25"/>
+      <c r="I58" s="25">
         <v>0.73699999999999999</v>
       </c>
-      <c r="J58" s="26">
+      <c r="J58" s="25">
         <v>0.73670000000000002</v>
       </c>
-      <c r="K58" s="26"/>
-      <c r="L58" s="26"/>
-      <c r="M58" s="26">
+      <c r="K58" s="25"/>
+      <c r="L58" s="25"/>
+      <c r="M58" s="25">
         <v>0.73699999999999999</v>
       </c>
-      <c r="N58" s="26">
+      <c r="N58" s="25">
         <v>0.73670000000000002</v>
       </c>
       <c r="O58" s="4"/>
-      <c r="P58" s="30" t="s">
+      <c r="P58" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="Q58" s="37">
+      <c r="Q58" s="36">
         <v>105.5996</v>
       </c>
-      <c r="R58" s="26">
+      <c r="R58" s="25">
         <v>106.858</v>
       </c>
-      <c r="S58" s="26">
+      <c r="S58" s="25">
         <v>105.9354</v>
       </c>
-      <c r="T58" s="26">
+      <c r="T58" s="25">
         <v>107.36839999999999</v>
       </c>
-      <c r="U58" s="26">
+      <c r="U58" s="25">
         <v>104.7621</v>
       </c>
-      <c r="V58" s="26">
+      <c r="V58" s="25">
         <v>106.809</v>
       </c>
       <c r="W58" s="4"/>
@@ -7677,54 +7682,54 @@
       <c r="Z58" s="4"/>
     </row>
     <row r="59" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="60"/>
-      <c r="B59" s="60"/>
-      <c r="C59" s="60"/>
-      <c r="D59" s="30" t="s">
+      <c r="A59" s="41"/>
+      <c r="B59" s="41"/>
+      <c r="C59" s="41"/>
+      <c r="D59" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="E59" s="31">
+      <c r="E59" s="30">
         <v>0.51429999999999998</v>
       </c>
-      <c r="F59" s="31">
+      <c r="F59" s="30">
         <v>0.51419999999999999</v>
       </c>
-      <c r="G59" s="26"/>
-      <c r="H59" s="26"/>
-      <c r="I59" s="26">
+      <c r="G59" s="25"/>
+      <c r="H59" s="25"/>
+      <c r="I59" s="25">
         <v>0.53180000000000005</v>
       </c>
-      <c r="J59" s="26">
+      <c r="J59" s="25">
         <v>0.53259999999999996</v>
       </c>
-      <c r="K59" s="26"/>
-      <c r="L59" s="26"/>
-      <c r="M59" s="26">
+      <c r="K59" s="25"/>
+      <c r="L59" s="25"/>
+      <c r="M59" s="25">
         <v>0.52149999999999996</v>
       </c>
-      <c r="N59" s="26">
+      <c r="N59" s="25">
         <v>0.5212</v>
       </c>
       <c r="O59" s="4"/>
-      <c r="P59" s="30" t="s">
+      <c r="P59" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="Q59" s="26">
+      <c r="Q59" s="25">
         <v>0.98919999999999997</v>
       </c>
-      <c r="R59" s="26">
+      <c r="R59" s="25">
         <v>1</v>
       </c>
-      <c r="S59" s="37">
+      <c r="S59" s="36">
         <v>0.96020000000000005</v>
       </c>
-      <c r="T59" s="26">
+      <c r="T59" s="25">
         <v>1</v>
       </c>
-      <c r="U59" s="26">
+      <c r="U59" s="25">
         <v>0.99919999999999998</v>
       </c>
-      <c r="V59" s="26">
+      <c r="V59" s="25">
         <v>1</v>
       </c>
       <c r="W59" s="4"/>
@@ -7733,54 +7738,54 @@
       <c r="Z59" s="4"/>
     </row>
     <row r="60" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="29"/>
-      <c r="B60" s="31"/>
-      <c r="C60" s="30"/>
-      <c r="D60" s="30" t="s">
+      <c r="A60" s="28"/>
+      <c r="B60" s="30"/>
+      <c r="C60" s="29"/>
+      <c r="D60" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="E60" s="31">
+      <c r="E60" s="30">
         <v>0.48570000000000002</v>
       </c>
-      <c r="F60" s="31">
+      <c r="F60" s="30">
         <v>0.48599999999999999</v>
       </c>
-      <c r="G60" s="30"/>
-      <c r="H60" s="30"/>
-      <c r="I60" s="26">
+      <c r="G60" s="29"/>
+      <c r="H60" s="29"/>
+      <c r="I60" s="25">
         <v>0.51839999999999997</v>
       </c>
-      <c r="J60" s="26">
+      <c r="J60" s="25">
         <v>0.52080000000000004</v>
       </c>
-      <c r="K60" s="26"/>
-      <c r="L60" s="26"/>
-      <c r="M60" s="26">
+      <c r="K60" s="25"/>
+      <c r="L60" s="25"/>
+      <c r="M60" s="25">
         <v>0.49099999999999999</v>
       </c>
-      <c r="N60" s="26">
+      <c r="N60" s="25">
         <v>0.49120000000000003</v>
       </c>
       <c r="O60" s="4"/>
-      <c r="P60" s="30" t="s">
+      <c r="P60" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="Q60" s="37">
+      <c r="Q60" s="36">
         <v>0.50249999999999995</v>
       </c>
-      <c r="R60" s="26">
+      <c r="R60" s="25">
         <v>0.53</v>
       </c>
-      <c r="S60" s="26">
+      <c r="S60" s="25">
         <v>0.58089999999999997</v>
       </c>
-      <c r="T60" s="26">
+      <c r="T60" s="25">
         <v>0.91459999999999997</v>
       </c>
-      <c r="U60" s="26">
+      <c r="U60" s="25">
         <v>0.65110000000000001</v>
       </c>
-      <c r="V60" s="26">
+      <c r="V60" s="25">
         <v>0.68059999999999998</v>
       </c>
       <c r="W60" s="4"/>
@@ -7789,54 +7794,54 @@
       <c r="Z60" s="4"/>
     </row>
     <row r="61" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="29"/>
-      <c r="B61" s="29"/>
-      <c r="C61" s="30"/>
-      <c r="D61" s="30" t="s">
+      <c r="A61" s="28"/>
+      <c r="B61" s="28"/>
+      <c r="C61" s="29"/>
+      <c r="D61" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="E61" s="31">
+      <c r="E61" s="30">
         <v>0.5746</v>
       </c>
-      <c r="F61" s="31">
+      <c r="F61" s="30">
         <v>0.57410000000000005</v>
       </c>
-      <c r="G61" s="30"/>
-      <c r="H61" s="30"/>
-      <c r="I61" s="26">
+      <c r="G61" s="29"/>
+      <c r="H61" s="29"/>
+      <c r="I61" s="25">
         <v>0.57269999999999999</v>
       </c>
-      <c r="J61" s="26">
+      <c r="J61" s="25">
         <v>0.5716</v>
       </c>
-      <c r="K61" s="26"/>
-      <c r="L61" s="26"/>
-      <c r="M61" s="26">
+      <c r="K61" s="25"/>
+      <c r="L61" s="25"/>
+      <c r="M61" s="25">
         <v>0.57269999999999999</v>
       </c>
-      <c r="N61" s="26">
+      <c r="N61" s="25">
         <v>0.5716</v>
       </c>
       <c r="O61" s="4"/>
-      <c r="P61" s="30" t="s">
+      <c r="P61" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="Q61" s="26">
+      <c r="Q61" s="25">
         <v>1.0800000000000001E-2</v>
       </c>
-      <c r="R61" s="26">
+      <c r="R61" s="25">
         <v>0</v>
       </c>
-      <c r="S61" s="37">
+      <c r="S61" s="36">
         <v>3.9800000000000002E-2</v>
       </c>
-      <c r="T61" s="26">
+      <c r="T61" s="25">
         <v>0</v>
       </c>
-      <c r="U61" s="26">
+      <c r="U61" s="25">
         <v>8.0000000000000004E-4</v>
       </c>
-      <c r="V61" s="26">
+      <c r="V61" s="25">
         <v>0</v>
       </c>
       <c r="W61" s="4"/>
@@ -7860,25 +7865,25 @@
       <c r="M62" s="4"/>
       <c r="N62" s="4"/>
       <c r="O62" s="4"/>
-      <c r="P62" s="30" t="s">
+      <c r="P62" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="Q62" s="26">
+      <c r="Q62" s="25">
         <v>0.75780000000000003</v>
       </c>
-      <c r="R62" s="26">
+      <c r="R62" s="25">
         <v>0.73670000000000002</v>
       </c>
-      <c r="S62" s="37">
+      <c r="S62" s="36">
         <v>0.98670000000000002</v>
       </c>
-      <c r="T62" s="26">
+      <c r="T62" s="25">
         <v>0.24030000000000001</v>
       </c>
-      <c r="U62" s="26">
+      <c r="U62" s="25">
         <v>0.74150000000000005</v>
       </c>
-      <c r="V62" s="26">
+      <c r="V62" s="25">
         <v>0.73670000000000002</v>
       </c>
       <c r="W62" s="4"/>
@@ -7902,25 +7907,25 @@
       <c r="M63" s="4"/>
       <c r="N63" s="4"/>
       <c r="O63" s="4"/>
-      <c r="P63" s="30" t="s">
+      <c r="P63" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="Q63" s="37">
+      <c r="Q63" s="36">
         <v>0.64610000000000001</v>
       </c>
-      <c r="R63" s="26">
+      <c r="R63" s="25">
         <v>0.63519999999999999</v>
       </c>
-      <c r="S63" s="26">
+      <c r="S63" s="25">
         <v>0.59260000000000002</v>
       </c>
-      <c r="T63" s="26">
+      <c r="T63" s="25">
         <v>0.2631</v>
       </c>
-      <c r="U63" s="26">
+      <c r="U63" s="25">
         <v>0.52310000000000001</v>
       </c>
-      <c r="V63" s="26">
+      <c r="V63" s="25">
         <v>0.5212</v>
       </c>
       <c r="W63" s="4"/>
@@ -7944,25 +7949,25 @@
       <c r="M64" s="4"/>
       <c r="N64" s="4"/>
       <c r="O64" s="4"/>
-      <c r="P64" s="30" t="s">
+      <c r="P64" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="Q64" s="37">
+      <c r="Q64" s="36">
         <v>0.74729999999999996</v>
       </c>
-      <c r="R64" s="26">
+      <c r="R64" s="25">
         <v>0.73670000000000002</v>
       </c>
-      <c r="S64" s="26">
+      <c r="S64" s="25">
         <v>0.49340000000000001</v>
       </c>
-      <c r="T64" s="26">
+      <c r="T64" s="25">
         <v>0.47889999999999999</v>
       </c>
-      <c r="U64" s="26">
+      <c r="U64" s="25">
         <v>0.49270000000000003</v>
       </c>
-      <c r="V64" s="26">
+      <c r="V64" s="25">
         <v>0.49120000000000003</v>
       </c>
       <c r="W64" s="4"/>
@@ -7986,25 +7991,25 @@
       <c r="M65" s="4"/>
       <c r="N65" s="4"/>
       <c r="O65" s="4"/>
-      <c r="P65" s="30" t="s">
+      <c r="P65" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="Q65" s="26">
+      <c r="Q65" s="25">
         <v>0.58289999999999997</v>
       </c>
-      <c r="R65" s="26">
+      <c r="R65" s="25">
         <v>0.5716</v>
       </c>
-      <c r="S65" s="37">
+      <c r="S65" s="36">
         <v>0.76680000000000004</v>
       </c>
-      <c r="T65" s="26">
+      <c r="T65" s="25">
         <v>0.18390000000000001</v>
       </c>
-      <c r="U65" s="26">
+      <c r="U65" s="25">
         <v>0.57410000000000005</v>
       </c>
-      <c r="V65" s="26">
+      <c r="V65" s="25">
         <v>0.5716</v>
       </c>
       <c r="W65" s="4"/>
@@ -34194,6 +34199,20 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A32:F32"/>
+    <mergeCell ref="A42:F42"/>
+    <mergeCell ref="A52:F52"/>
+    <mergeCell ref="G22:N22"/>
+    <mergeCell ref="G32:N32"/>
+    <mergeCell ref="A22:F22"/>
+    <mergeCell ref="G42:N42"/>
+    <mergeCell ref="G52:N52"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="G2:N2"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="G12:N12"/>
+    <mergeCell ref="A12:F12"/>
     <mergeCell ref="P45:V45"/>
     <mergeCell ref="P46:V46"/>
     <mergeCell ref="P56:V56"/>
@@ -34202,20 +34221,6 @@
     <mergeCell ref="P24:V24"/>
     <mergeCell ref="P34:V34"/>
     <mergeCell ref="P23:V23"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="G2:N2"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="G12:N12"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="A32:F32"/>
-    <mergeCell ref="A42:F42"/>
-    <mergeCell ref="A52:F52"/>
-    <mergeCell ref="G22:N22"/>
-    <mergeCell ref="G32:N32"/>
-    <mergeCell ref="A22:F22"/>
-    <mergeCell ref="G42:N42"/>
-    <mergeCell ref="G52:N52"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -34226,15 +34231,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9:T12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18.33203125" customWidth="1"/>
-    <col min="2" max="2" width="15.33203125" customWidth="1"/>
+    <col min="2" max="2" width="32.88671875" customWidth="1"/>
     <col min="3" max="3" width="14.109375" customWidth="1"/>
     <col min="4" max="4" width="17.33203125" customWidth="1"/>
-    <col min="5" max="5" width="10.88671875" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.88671875" customWidth="1"/>
     <col min="7" max="7" width="10.44140625" customWidth="1"/>
     <col min="8" max="8" width="10.33203125" customWidth="1"/>
@@ -34249,23 +34256,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="63" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" s="64"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
+      <c r="E1" s="64"/>
       <c r="F1" s="8"/>
       <c r="G1" s="9"/>
       <c r="H1" s="9"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="56"/>
-      <c r="K1" s="56"/>
-      <c r="L1" s="56"/>
-      <c r="M1" s="56"/>
-      <c r="N1" s="56"/>
-      <c r="O1" s="57"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
+      <c r="M1" s="66"/>
+      <c r="N1" s="66"/>
+      <c r="O1" s="67"/>
       <c r="P1" s="9"/>
       <c r="Q1" s="9"/>
       <c r="R1" s="9"/>
@@ -34283,11 +34292,15 @@
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
       <c r="F2" s="9"/>
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
@@ -34315,11 +34328,15 @@
         <v>44</v>
       </c>
       <c r="B3" s="1">
+        <v>768</v>
+      </c>
+      <c r="C3" s="9"/>
+      <c r="D3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" s="1">
         <v>1024</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="12"/>
       <c r="F3" s="12"/>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
@@ -34347,11 +34364,15 @@
         <v>45</v>
       </c>
       <c r="B4" s="1">
+        <v>128</v>
+      </c>
+      <c r="C4" s="9"/>
+      <c r="D4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="1">
         <v>512</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
@@ -34379,11 +34400,15 @@
         <v>9</v>
       </c>
       <c r="B5" s="1">
+        <v>32</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="D5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="1">
         <v>4</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="12"/>
       <c r="F5" s="12"/>
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
@@ -34411,11 +34436,15 @@
         <v>12</v>
       </c>
       <c r="B6" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="C6" s="9"/>
+      <c r="D6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="1">
         <v>1E-3</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="12"/>
       <c r="F6" s="12"/>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
@@ -34446,8 +34475,12 @@
         <v>3</v>
       </c>
       <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="12"/>
+      <c r="D7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="1">
+        <v>3</v>
+      </c>
       <c r="F7" s="12"/>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
@@ -34478,18 +34511,22 @@
         <v>1</v>
       </c>
       <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="12"/>
+      <c r="D8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="1" t="b">
+        <v>1</v>
+      </c>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
-      <c r="I8" s="55"/>
-      <c r="J8" s="56"/>
-      <c r="K8" s="56"/>
-      <c r="L8" s="56"/>
-      <c r="M8" s="56"/>
-      <c r="N8" s="56"/>
-      <c r="O8" s="57"/>
+      <c r="I8" s="65"/>
+      <c r="J8" s="66"/>
+      <c r="K8" s="66"/>
+      <c r="L8" s="66"/>
+      <c r="M8" s="66"/>
+      <c r="N8" s="66"/>
+      <c r="O8" s="67"/>
       <c r="P8" s="9"/>
       <c r="Q8" s="9"/>
       <c r="R8" s="9"/>
@@ -34511,18 +34548,24 @@
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="11"/>
-      <c r="O9" s="11"/>
-      <c r="P9" s="9"/>
-      <c r="Q9" s="9"/>
-      <c r="R9" s="9"/>
-      <c r="S9" s="9"/>
-      <c r="T9" s="9"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="68" t="s">
+        <v>46</v>
+      </c>
+      <c r="K9" s="69"/>
+      <c r="L9" s="64"/>
+      <c r="M9" s="70" t="s">
+        <v>47</v>
+      </c>
+      <c r="N9" s="69"/>
+      <c r="O9" s="69"/>
+      <c r="P9" s="64"/>
+      <c r="Q9" s="17"/>
+      <c r="R9" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="S9" s="38"/>
+      <c r="T9" s="39"/>
       <c r="U9" s="9"/>
       <c r="V9" s="9"/>
       <c r="W9" s="9"/>
@@ -34531,26 +34574,52 @@
       <c r="Z9" s="9"/>
     </row>
     <row r="10" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="15"/>
-      <c r="B10" s="15"/>
+      <c r="A10" s="63" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="64"/>
       <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="12"/>
+      <c r="D10" s="63" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" s="64"/>
       <c r="F10" s="12"/>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="16"/>
-      <c r="M10" s="16"/>
-      <c r="N10" s="16"/>
-      <c r="O10" s="16"/>
-      <c r="P10" s="9"/>
-      <c r="Q10" s="9"/>
-      <c r="R10" s="9"/>
-      <c r="S10" s="9"/>
-      <c r="T10" s="9"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="K10" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="L10" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="M10" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="N10" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="O10" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="P10" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q10" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="R10" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="S10" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="T10" s="21" t="s">
+        <v>56</v>
+      </c>
       <c r="U10" s="9"/>
       <c r="V10" s="9"/>
       <c r="W10" s="9"/>
@@ -34559,32 +34628,54 @@
       <c r="Z10" s="9"/>
     </row>
     <row r="11" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="1"/>
-      <c r="B11" s="58" t="s">
-        <v>46</v>
-      </c>
-      <c r="C11" s="49"/>
-      <c r="D11" s="54"/>
-      <c r="E11" s="59" t="s">
-        <v>47</v>
-      </c>
-      <c r="F11" s="49"/>
-      <c r="G11" s="49"/>
-      <c r="H11" s="54"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="59" t="s">
-        <v>48</v>
-      </c>
-      <c r="K11" s="49"/>
-      <c r="L11" s="54"/>
-      <c r="M11" s="16"/>
-      <c r="N11" s="16"/>
-      <c r="O11" s="16"/>
-      <c r="P11" s="9"/>
-      <c r="Q11" s="9"/>
-      <c r="R11" s="9"/>
-      <c r="S11" s="9"/>
-      <c r="T11" s="9"/>
+      <c r="A11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J11" s="3">
+        <v>0.77410000000000001</v>
+      </c>
+      <c r="K11" s="3">
+        <v>0.78410000000000002</v>
+      </c>
+      <c r="L11" s="3">
+        <v>0.77639999999999998</v>
+      </c>
+      <c r="M11" s="3">
+        <v>0.14130000000000001</v>
+      </c>
+      <c r="N11" s="3">
+        <v>0</v>
+      </c>
+      <c r="O11" s="3">
+        <v>0</v>
+      </c>
+      <c r="P11" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="3">
+        <v>0</v>
+      </c>
+      <c r="R11" s="3">
+        <v>0.59209999999999996</v>
+      </c>
+      <c r="S11" s="3">
+        <v>0.4007</v>
+      </c>
+      <c r="T11" s="3">
+        <v>0.46250000000000002</v>
+      </c>
       <c r="U11" s="9"/>
       <c r="V11" s="9"/>
       <c r="W11" s="9"/>
@@ -34593,48 +34684,54 @@
       <c r="Z11" s="9"/>
     </row>
     <row r="12" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
-      <c r="B12" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="F12" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="G12" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="H12" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="I12" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="J12" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="K12" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="L12" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="M12" s="16"/>
-      <c r="N12" s="16"/>
-      <c r="O12" s="16"/>
-      <c r="P12" s="9"/>
-      <c r="Q12" s="9"/>
-      <c r="R12" s="9"/>
-      <c r="S12" s="9"/>
-      <c r="T12" s="9"/>
+      <c r="A12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1024</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1024</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J12" s="3">
+        <v>0.76890000000000003</v>
+      </c>
+      <c r="K12" s="3">
+        <v>0.7802</v>
+      </c>
+      <c r="L12" s="3">
+        <v>0.77180000000000004</v>
+      </c>
+      <c r="M12" s="3">
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="N12" s="3">
+        <v>0</v>
+      </c>
+      <c r="O12" s="3">
+        <v>0</v>
+      </c>
+      <c r="P12" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="22">
+        <v>0</v>
+      </c>
+      <c r="R12" s="22">
+        <v>0.5827</v>
+      </c>
+      <c r="S12" s="3">
+        <v>0.39150000000000001</v>
+      </c>
+      <c r="T12" s="3">
+        <v>0.45390000000000003</v>
+      </c>
       <c r="U12" s="9"/>
       <c r="V12" s="9"/>
       <c r="W12" s="9"/>
@@ -34644,40 +34741,16 @@
     </row>
     <row r="13" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="3">
-        <v>0.77410000000000001</v>
-      </c>
-      <c r="C13" s="3">
-        <v>0.78410000000000002</v>
-      </c>
-      <c r="D13" s="3">
-        <v>0.77639999999999998</v>
-      </c>
-      <c r="E13" s="3">
-        <v>0.14130000000000001</v>
-      </c>
-      <c r="F13" s="3">
-        <v>0</v>
-      </c>
-      <c r="G13" s="3">
-        <v>0</v>
-      </c>
-      <c r="H13" s="3">
-        <v>0</v>
-      </c>
-      <c r="I13" s="3">
-        <v>0</v>
-      </c>
-      <c r="J13" s="3">
-        <v>0.59209999999999996</v>
-      </c>
-      <c r="K13" s="3">
-        <v>0.4007</v>
-      </c>
-      <c r="L13" s="3">
-        <v>0.46250000000000002</v>
+        <v>45</v>
+      </c>
+      <c r="B13" s="1">
+        <v>512</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" s="1">
+        <v>512</v>
       </c>
       <c r="M13" s="16"/>
       <c r="N13" s="16"/>
@@ -34696,40 +34769,16 @@
     </row>
     <row r="14" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" s="3">
-        <v>0.76890000000000003</v>
-      </c>
-      <c r="C14" s="3">
-        <v>0.7802</v>
-      </c>
-      <c r="D14" s="3">
-        <v>0.77180000000000004</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0.13300000000000001</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="23">
-        <v>0</v>
-      </c>
-      <c r="J14" s="23">
-        <v>0.5827</v>
-      </c>
-      <c r="K14" s="3">
-        <v>0.39150000000000001</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0.45390000000000003</v>
+        <v>9</v>
+      </c>
+      <c r="B14" s="1">
+        <v>4</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="1">
+        <v>4</v>
       </c>
       <c r="M14" s="16"/>
       <c r="N14" s="16"/>
@@ -34747,12 +34796,20 @@
       <c r="Z14" s="9"/>
     </row>
     <row r="15" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="9"/>
-      <c r="B15" s="24"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
+      <c r="A15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="C15" s="23"/>
+      <c r="D15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="F15" s="23"/>
       <c r="G15" s="9"/>
       <c r="H15" s="9"/>
       <c r="I15" s="10"/>
@@ -34775,11 +34832,19 @@
       <c r="Z15" s="9"/>
     </row>
     <row r="16" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="15"/>
-      <c r="B16" s="12"/>
+      <c r="A16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1">
+        <v>3</v>
+      </c>
       <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
+      <c r="D16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="1">
+        <v>3</v>
+      </c>
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
       <c r="H16" s="9"/>
@@ -34803,11 +34868,19 @@
       <c r="Z16" s="9"/>
     </row>
     <row r="17" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="15"/>
-      <c r="B17" s="15"/>
+      <c r="A17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="1" t="b">
+        <v>1</v>
+      </c>
       <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="12"/>
+      <c r="D17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" s="1" t="b">
+        <v>1</v>
+      </c>
       <c r="F17" s="12"/>
       <c r="G17" s="9"/>
       <c r="H17" s="9"/>
@@ -34943,12 +35016,12 @@
       <c r="Z21" s="9"/>
     </row>
     <row r="22" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="51"/>
-      <c r="B22" s="52"/>
-      <c r="C22" s="52"/>
-      <c r="D22" s="52"/>
-      <c r="E22" s="52"/>
-      <c r="F22" s="52"/>
+      <c r="A22" s="61"/>
+      <c r="B22" s="62"/>
+      <c r="C22" s="62"/>
+      <c r="D22" s="62"/>
+      <c r="E22" s="62"/>
+      <c r="F22" s="62"/>
       <c r="G22" s="9"/>
       <c r="H22" s="9"/>
       <c r="I22" s="9"/>
@@ -35139,12 +35212,12 @@
       <c r="Z28" s="9"/>
     </row>
     <row r="29" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="51"/>
-      <c r="B29" s="52"/>
-      <c r="C29" s="52"/>
-      <c r="D29" s="52"/>
-      <c r="E29" s="52"/>
-      <c r="F29" s="52"/>
+      <c r="A29" s="61"/>
+      <c r="B29" s="62"/>
+      <c r="C29" s="62"/>
+      <c r="D29" s="62"/>
+      <c r="E29" s="62"/>
+      <c r="F29" s="62"/>
       <c r="G29" s="9"/>
       <c r="H29" s="9"/>
       <c r="I29" s="9"/>
@@ -35335,12 +35408,12 @@
       <c r="Z35" s="9"/>
     </row>
     <row r="36" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="51"/>
-      <c r="B36" s="52"/>
-      <c r="C36" s="52"/>
-      <c r="D36" s="52"/>
-      <c r="E36" s="52"/>
-      <c r="F36" s="52"/>
+      <c r="A36" s="61"/>
+      <c r="B36" s="62"/>
+      <c r="C36" s="62"/>
+      <c r="D36" s="62"/>
+      <c r="E36" s="62"/>
+      <c r="F36" s="62"/>
       <c r="G36" s="9"/>
       <c r="H36" s="9"/>
       <c r="I36" s="9"/>
@@ -62355,16 +62428,18 @@
       <c r="Z1000" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="11">
     <mergeCell ref="A29:F29"/>
     <mergeCell ref="A36:F36"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="I1:O1"/>
     <mergeCell ref="I8:O8"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="M9:P9"/>
     <mergeCell ref="A22:F22"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="D10:E10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>

--- a/results/results.xlsx
+++ b/results/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\projects\job_recruitment_dataset\train_model\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F45509A-B386-4719-A3B0-9F3F6B6B0AFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C59D79F8-DD86-4797-9293-8A8A81D539E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="task 1 (label)" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="83">
   <si>
     <t>vinai/phobert-base</t>
   </si>
@@ -89,12 +89,6 @@
     <t>uitnlp/visobert</t>
   </si>
   <si>
-    <t>8 epochs / 20</t>
-  </si>
-  <si>
-    <t> 0.5016</t>
-  </si>
-  <si>
     <t>uitnlp/CafeBERT</t>
   </si>
   <si>
@@ -134,13 +128,7 @@
     <t>bert-base-multilingual-cased</t>
   </si>
   <si>
-    <t>7 epochs / 20</t>
-  </si>
-  <si>
     <t>distilbert-base-multilingual-cased</t>
-  </si>
-  <si>
-    <t>19 epochs / 20</t>
   </si>
   <si>
     <t>01_loss</t>
@@ -252,6 +240,42 @@
   </si>
   <si>
     <t>DEV</t>
+  </si>
+  <si>
+    <t>13 epochs / 20</t>
+  </si>
+  <si>
+    <t>10 epochs / 20</t>
+  </si>
+  <si>
+    <t>losses_dev</t>
+  </si>
+  <si>
+    <t>accs_dev</t>
+  </si>
+  <si>
+    <t>f1s_dev</t>
+  </si>
+  <si>
+    <t>precs_dev</t>
+  </si>
+  <si>
+    <t>recalls_dev</t>
+  </si>
+  <si>
+    <t>losses_test</t>
+  </si>
+  <si>
+    <t>accs_test</t>
+  </si>
+  <si>
+    <t>f1s_test</t>
+  </si>
+  <si>
+    <t>precs_test</t>
+  </si>
+  <si>
+    <t>recalls_test</t>
   </si>
 </sst>
 </file>
@@ -365,7 +389,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -382,12 +406,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
         <bgColor rgb="FF92D050"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC5E0B3"/>
-        <bgColor rgb="FFC5E0B3"/>
       </patternFill>
     </fill>
     <fill>
@@ -583,20 +601,20 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
@@ -614,16 +632,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -631,8 +640,8 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
@@ -642,10 +651,10 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
@@ -658,7 +667,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -667,8 +676,17 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -679,23 +697,23 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -707,43 +725,41 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -961,8 +977,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V1000"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:N8"/>
+    <sheetView tabSelected="1" topLeftCell="O30" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="S37" sqref="S37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -971,8 +987,7 @@
     <col min="2" max="2" width="31.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.6640625" customWidth="1"/>
     <col min="4" max="4" width="19.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="8.88671875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.5546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.109375" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="8.88671875" bestFit="1" customWidth="1"/>
@@ -997,41 +1012,41 @@
       <c r="D1" s="14"/>
       <c r="E1" s="14"/>
       <c r="F1" s="14"/>
-      <c r="G1" s="49" t="s">
+      <c r="G1" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49" t="s">
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="49"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="51"/>
     </row>
     <row r="2" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="50" t="s">
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="50"/>
-      <c r="M2" s="50"/>
-      <c r="N2" s="50"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="49"/>
+      <c r="M2" s="49"/>
+      <c r="N2" s="49"/>
       <c r="O2" s="13"/>
       <c r="P2" s="46" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Q2" s="47"/>
       <c r="R2" s="47"/>
@@ -1074,22 +1089,22 @@
       <c r="O3" s="13"/>
       <c r="P3" s="20"/>
       <c r="Q3" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="R3" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="S3" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="R3" s="21" t="s">
+      <c r="T3" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="S3" s="21" t="s">
+      <c r="U3" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="T3" s="21" t="s">
+      <c r="V3" s="21" t="s">
         <v>27</v>
-      </c>
-      <c r="U3" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="V3" s="21" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1097,17 +1112,17 @@
         <v>6</v>
       </c>
       <c r="B4" s="17">
-        <v>200</v>
+        <v>256</v>
       </c>
       <c r="C4" s="18"/>
       <c r="D4" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="19">
-        <v>36.7971</v>
-      </c>
-      <c r="F4" s="19">
-        <v>73.924899999999994</v>
+      <c r="E4">
+        <v>36.586799999999997</v>
+      </c>
+      <c r="F4">
+        <v>72.2</v>
       </c>
       <c r="G4" s="14" t="s">
         <v>8</v>
@@ -1122,7 +1137,7 @@
         <v>71.119500000000002</v>
       </c>
       <c r="K4" s="14" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="L4" s="14">
         <v>768</v>
@@ -1134,26 +1149,26 @@
         <v>73.439400000000006</v>
       </c>
       <c r="O4" s="13"/>
-      <c r="P4" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q4" s="22">
-        <v>36.7971</v>
-      </c>
-      <c r="R4" s="23">
-        <v>35.455500000000001</v>
-      </c>
-      <c r="S4" s="22">
-        <v>39.610199999999999</v>
-      </c>
-      <c r="T4" s="22">
-        <v>40.867899999999999</v>
-      </c>
-      <c r="U4" s="22">
-        <v>40.0212</v>
-      </c>
-      <c r="V4" s="22">
-        <v>35.601999999999997</v>
+      <c r="P4" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q4" s="32">
+        <v>36.586799999999997</v>
+      </c>
+      <c r="R4" s="35">
+        <v>34.943600000000004</v>
+      </c>
+      <c r="S4" s="32">
+        <v>38.656399999999998</v>
+      </c>
+      <c r="T4" s="32">
+        <v>40.902900000000002</v>
+      </c>
+      <c r="U4" s="32">
+        <v>39.638800000000003</v>
+      </c>
+      <c r="V4" s="32">
+        <v>35.880600000000001</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1167,11 +1182,11 @@
       <c r="D5" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="19">
-        <v>0.54020000000000001</v>
-      </c>
-      <c r="F5" s="19">
-        <v>0.52339999999999998</v>
+      <c r="E5">
+        <v>0.52370000000000005</v>
+      </c>
+      <c r="F5">
+        <v>0.55469999999999997</v>
       </c>
       <c r="G5" s="14" t="s">
         <v>11</v>
@@ -1186,7 +1201,7 @@
         <v>0.55779999999999996</v>
       </c>
       <c r="K5" s="14" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="L5" s="14">
         <v>256</v>
@@ -1198,26 +1213,26 @@
         <v>0.52129999999999999</v>
       </c>
       <c r="O5" s="13"/>
-      <c r="P5" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q5" s="22">
-        <v>0.54020000000000001</v>
-      </c>
-      <c r="R5" s="22">
-        <v>0.55840000000000001</v>
-      </c>
-      <c r="S5" s="22">
-        <v>0.43</v>
-      </c>
-      <c r="T5" s="22">
-        <v>0.43</v>
-      </c>
-      <c r="U5" s="22">
-        <v>0.4582</v>
-      </c>
-      <c r="V5" s="23">
-        <v>0.56089999999999995</v>
+      <c r="P5" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q5" s="32">
+        <v>0.52370000000000005</v>
+      </c>
+      <c r="R5" s="35">
+        <v>0.57509999999999994</v>
+      </c>
+      <c r="S5" s="32">
+        <v>0.50460000000000005</v>
+      </c>
+      <c r="T5" s="32">
+        <v>0.4224</v>
+      </c>
+      <c r="U5" s="32">
+        <v>0.45729999999999998</v>
+      </c>
+      <c r="V5" s="32">
+        <v>0.54690000000000005</v>
       </c>
     </row>
     <row r="6" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1231,17 +1246,17 @@
       <c r="D6" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="19">
-        <v>0.59440000000000004</v>
-      </c>
-      <c r="F6" s="19">
-        <v>0.56630000000000003</v>
+      <c r="E6">
+        <v>0.51900000000000002</v>
+      </c>
+      <c r="F6">
+        <v>0.55079999999999996</v>
       </c>
       <c r="G6" s="14" t="s">
         <v>14</v>
       </c>
       <c r="H6" s="14" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="I6" s="14">
         <v>0.56399999999999995</v>
@@ -1250,7 +1265,7 @@
         <v>0.56399999999999995</v>
       </c>
       <c r="K6" s="14" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="L6" s="14">
         <v>32</v>
@@ -1262,26 +1277,26 @@
         <v>0.5141</v>
       </c>
       <c r="O6" s="13"/>
-      <c r="P6" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q6" s="23">
-        <v>0.59440000000000004</v>
-      </c>
-      <c r="R6" s="22">
-        <v>0.56010000000000004</v>
-      </c>
-      <c r="S6" s="22">
-        <v>0.14330000000000001</v>
-      </c>
-      <c r="T6" s="22">
-        <v>0.14330000000000001</v>
-      </c>
-      <c r="U6" s="22">
-        <v>0.29730000000000001</v>
-      </c>
-      <c r="V6" s="22">
-        <v>0.52180000000000004</v>
+      <c r="P6" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q6" s="32">
+        <v>0.51900000000000002</v>
+      </c>
+      <c r="R6" s="35">
+        <v>0.59460000000000002</v>
+      </c>
+      <c r="S6" s="32">
+        <v>0.40789999999999998</v>
+      </c>
+      <c r="T6" s="32">
+        <v>0.14080000000000001</v>
+      </c>
+      <c r="U6" s="32">
+        <v>0.31509999999999999</v>
+      </c>
+      <c r="V6" s="32">
+        <v>0.55389999999999995</v>
       </c>
     </row>
     <row r="7" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1295,11 +1310,11 @@
       <c r="D7" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="19">
-        <v>0.47260000000000002</v>
-      </c>
-      <c r="F7" s="19">
-        <v>0.46710000000000002</v>
+      <c r="E7">
+        <v>0.48820000000000002</v>
+      </c>
+      <c r="F7">
+        <v>0.51139999999999997</v>
       </c>
       <c r="G7" s="14"/>
       <c r="H7" s="14"/>
@@ -1313,7 +1328,7 @@
         <v>14</v>
       </c>
       <c r="L7" s="16" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="M7" s="14">
         <v>0.48549999999999999</v>
@@ -1322,26 +1337,26 @@
         <v>0.4647</v>
       </c>
       <c r="O7" s="13"/>
-      <c r="P7" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q7" s="22">
-        <v>0.47260000000000002</v>
-      </c>
-      <c r="R7" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="S7" s="22">
+      <c r="P7" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q7" s="32">
+        <v>0.48820000000000002</v>
+      </c>
+      <c r="R7" s="35">
+        <v>0.53759999999999997</v>
+      </c>
+      <c r="S7" s="32">
+        <v>0.41920000000000002</v>
+      </c>
+      <c r="T7" s="32">
         <v>0.33329999999999999</v>
       </c>
-      <c r="T7" s="22">
-        <v>0.33</v>
-      </c>
-      <c r="U7" s="22">
-        <v>0.378</v>
-      </c>
-      <c r="V7" s="22">
-        <v>0.48849999999999999</v>
+      <c r="U7" s="32">
+        <v>0.37359999999999999</v>
+      </c>
+      <c r="V7" s="32">
+        <v>0.48020000000000002</v>
       </c>
     </row>
     <row r="8" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1355,11 +1370,11 @@
       <c r="D8" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="19">
-        <v>0.45739999999999997</v>
-      </c>
-      <c r="F8" s="18">
-        <v>0.45019999999999999</v>
+      <c r="E8">
+        <v>0.49</v>
+      </c>
+      <c r="F8">
+        <v>0.51190000000000002</v>
       </c>
       <c r="G8" s="14"/>
       <c r="H8" s="14"/>
@@ -1378,50 +1393,50 @@
         <v>0.44469999999999998</v>
       </c>
       <c r="O8" s="13"/>
-      <c r="P8" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q8" s="22">
-        <v>0.45739999999999997</v>
-      </c>
-      <c r="R8" s="23">
-        <v>0.49509999999999998</v>
-      </c>
-      <c r="S8" s="22">
-        <v>0.20050000000000001</v>
-      </c>
-      <c r="T8" s="22">
-        <v>0.20050000000000001</v>
-      </c>
-      <c r="U8" s="22">
-        <v>0.30969999999999998</v>
-      </c>
-      <c r="V8" s="22">
-        <v>0.44330000000000003</v>
+      <c r="P8" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q8" s="32">
+        <v>0.49</v>
+      </c>
+      <c r="R8" s="35">
+        <v>0.54179999999999995</v>
+      </c>
+      <c r="S8" s="32">
+        <v>0.34749999999999998</v>
+      </c>
+      <c r="T8" s="32">
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="U8" s="32">
+        <v>0.2888</v>
+      </c>
+      <c r="V8" s="32">
+        <v>0.45910000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="50" t="s">
+      <c r="A9" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="54"/>
-      <c r="C9" s="54"/>
-      <c r="D9" s="54"/>
-      <c r="E9" s="54"/>
-      <c r="F9" s="54"/>
-      <c r="G9" s="50" t="s">
+      <c r="B9" s="50"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="50"/>
-      <c r="I9" s="50"/>
-      <c r="J9" s="50"/>
-      <c r="K9" s="50"/>
-      <c r="L9" s="50"/>
-      <c r="M9" s="50"/>
-      <c r="N9" s="50"/>
+      <c r="H9" s="49"/>
+      <c r="I9" s="49"/>
+      <c r="J9" s="49"/>
+      <c r="K9" s="49"/>
+      <c r="L9" s="49"/>
+      <c r="M9" s="49"/>
+      <c r="N9" s="49"/>
       <c r="O9" s="13"/>
       <c r="P9" s="46" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="47"/>
       <c r="R9" s="47"/>
@@ -1464,22 +1479,22 @@
       <c r="O10" s="13"/>
       <c r="P10" s="20"/>
       <c r="Q10" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="R10" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="S10" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="R10" s="21" t="s">
+      <c r="T10" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="S10" s="21" t="s">
+      <c r="U10" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="T10" s="21" t="s">
+      <c r="V10" s="21" t="s">
         <v>27</v>
-      </c>
-      <c r="U10" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="V10" s="21" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1487,17 +1502,17 @@
         <v>6</v>
       </c>
       <c r="B11" s="17">
-        <v>400</v>
+        <v>512</v>
       </c>
       <c r="C11" s="18"/>
       <c r="D11" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="19">
-        <v>35.455500000000001</v>
-      </c>
-      <c r="F11" s="19">
-        <v>70.634799999999998</v>
+      <c r="E11">
+        <v>34.943600000000004</v>
+      </c>
+      <c r="F11">
+        <v>69.438100000000006</v>
       </c>
       <c r="G11" s="14" t="s">
         <v>8</v>
@@ -1512,7 +1527,7 @@
         <v>68.696600000000004</v>
       </c>
       <c r="K11" s="14" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="L11" s="14">
         <v>768</v>
@@ -1525,25 +1540,25 @@
       </c>
       <c r="O11" s="13"/>
       <c r="P11" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q11" s="19">
-        <v>73.924899999999994</v>
-      </c>
-      <c r="R11" s="24">
-        <v>70.634799999999998</v>
-      </c>
-      <c r="S11" s="19">
-        <v>79.212500000000006</v>
-      </c>
-      <c r="T11" s="19">
-        <v>81.971599999999995</v>
-      </c>
-      <c r="U11" s="19">
-        <v>79.314899999999994</v>
-      </c>
-      <c r="V11" s="19">
-        <v>71.0916</v>
+        <v>78</v>
+      </c>
+      <c r="Q11" s="69">
+        <v>72.2</v>
+      </c>
+      <c r="R11" s="70">
+        <v>69.438100000000006</v>
+      </c>
+      <c r="S11" s="69">
+        <v>77.311999999999998</v>
+      </c>
+      <c r="T11" s="69">
+        <v>81.634399999999999</v>
+      </c>
+      <c r="U11" s="69">
+        <v>79.0381</v>
+      </c>
+      <c r="V11" s="69">
+        <v>71.499799999999993</v>
       </c>
     </row>
     <row r="12" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1557,11 +1572,11 @@
       <c r="D12" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="19">
-        <v>0.55840000000000001</v>
-      </c>
-      <c r="F12" s="19">
-        <v>0.55620000000000003</v>
+      <c r="E12">
+        <v>0.57509999999999994</v>
+      </c>
+      <c r="F12">
+        <v>0.57999999999999996</v>
       </c>
       <c r="G12" s="14" t="s">
         <v>11</v>
@@ -1576,7 +1591,7 @@
         <v>0.5877</v>
       </c>
       <c r="K12" s="14" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="L12" s="14">
         <v>256</v>
@@ -1589,25 +1604,25 @@
       </c>
       <c r="O12" s="13"/>
       <c r="P12" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q12" s="19">
-        <v>0.52339999999999998</v>
-      </c>
-      <c r="R12" s="24">
-        <v>0.55620000000000003</v>
-      </c>
-      <c r="S12" s="19">
-        <v>0.41399999999999998</v>
-      </c>
-      <c r="T12" s="19">
-        <v>0.41399999999999998</v>
-      </c>
-      <c r="U12" s="19">
-        <v>0.45129999999999998</v>
-      </c>
-      <c r="V12" s="19">
-        <v>0.54790000000000005</v>
+        <v>79</v>
+      </c>
+      <c r="Q12" s="69">
+        <v>0.55469999999999997</v>
+      </c>
+      <c r="R12" s="70">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="S12" s="69">
+        <v>0.50290000000000001</v>
+      </c>
+      <c r="T12" s="69">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="U12" s="69">
+        <v>0.45729999999999998</v>
+      </c>
+      <c r="V12" s="69">
+        <v>0.54600000000000004</v>
       </c>
     </row>
     <row r="13" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1621,17 +1636,17 @@
       <c r="D13" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="19">
-        <v>0.56010000000000004</v>
-      </c>
-      <c r="F13" s="19">
-        <v>0.5635</v>
+      <c r="E13">
+        <v>0.59460000000000002</v>
+      </c>
+      <c r="F13">
+        <v>0.59119999999999995</v>
       </c>
       <c r="G13" s="14" t="s">
         <v>14</v>
       </c>
       <c r="H13" s="14" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="I13" s="14">
         <v>0.60309999999999997</v>
@@ -1640,7 +1655,7 @@
         <v>0.59</v>
       </c>
       <c r="K13" s="14" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="L13" s="14">
         <v>32</v>
@@ -1653,25 +1668,25 @@
       </c>
       <c r="O13" s="13"/>
       <c r="P13" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q13" s="24">
-        <v>0.56630000000000003</v>
-      </c>
-      <c r="R13" s="19">
-        <v>0.5635</v>
-      </c>
-      <c r="S13" s="19">
-        <v>0.13800000000000001</v>
-      </c>
-      <c r="T13" s="19">
-        <v>0.13800000000000001</v>
-      </c>
-      <c r="U13" s="19">
-        <v>0.30009999999999998</v>
-      </c>
-      <c r="V13" s="19">
-        <v>0.51370000000000005</v>
+        <v>80</v>
+      </c>
+      <c r="Q13" s="69">
+        <v>0.55079999999999996</v>
+      </c>
+      <c r="R13" s="70">
+        <v>0.59119999999999995</v>
+      </c>
+      <c r="S13" s="69">
+        <v>0.40329999999999999</v>
+      </c>
+      <c r="T13" s="69">
+        <v>0.14169999999999999</v>
+      </c>
+      <c r="U13" s="69">
+        <v>0.31140000000000001</v>
+      </c>
+      <c r="V13" s="69">
+        <v>0.54400000000000004</v>
       </c>
     </row>
     <row r="14" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1679,17 +1694,17 @@
         <v>14</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>20</v>
+        <v>71</v>
       </c>
       <c r="C14" s="18"/>
       <c r="D14" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="F14" s="19">
-        <v>0.50839999999999996</v>
+      <c r="E14">
+        <v>0.53759999999999997</v>
+      </c>
+      <c r="F14">
+        <v>0.53749999999999998</v>
       </c>
       <c r="G14" s="14"/>
       <c r="H14" s="14"/>
@@ -1703,7 +1718,7 @@
         <v>14</v>
       </c>
       <c r="L14" s="16" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="M14" s="14">
         <v>0.56489999999999996</v>
@@ -1713,25 +1728,25 @@
       </c>
       <c r="O14" s="13"/>
       <c r="P14" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q14" s="19">
-        <v>0.46710000000000002</v>
-      </c>
-      <c r="R14" s="24">
-        <v>0.50839999999999996</v>
-      </c>
-      <c r="S14" s="19">
+        <v>81</v>
+      </c>
+      <c r="Q14" s="69">
+        <v>0.51139999999999997</v>
+      </c>
+      <c r="R14" s="70">
+        <v>0.53749999999999998</v>
+      </c>
+      <c r="S14" s="69">
+        <v>0.41620000000000001</v>
+      </c>
+      <c r="T14" s="69">
         <v>0.33329999999999999</v>
       </c>
-      <c r="T14" s="19">
-        <v>0.33300000000000002</v>
-      </c>
-      <c r="U14" s="19">
-        <v>0.38090000000000002</v>
-      </c>
-      <c r="V14" s="19">
-        <v>0.4798</v>
+      <c r="U14" s="69">
+        <v>0.373</v>
+      </c>
+      <c r="V14" s="69">
+        <v>0.47749999999999998</v>
       </c>
     </row>
     <row r="15" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1745,11 +1760,11 @@
       <c r="D15" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="E15" s="19">
-        <v>0.49509999999999998</v>
-      </c>
-      <c r="F15" s="19">
-        <v>0.50280000000000002</v>
+      <c r="E15">
+        <v>0.54179999999999995</v>
+      </c>
+      <c r="F15">
+        <v>0.53990000000000005</v>
       </c>
       <c r="G15" s="14"/>
       <c r="H15" s="14"/>
@@ -1768,53 +1783,53 @@
         <v>0.5585</v>
       </c>
       <c r="P15" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q15" s="18">
-        <v>0.45019999999999999</v>
-      </c>
-      <c r="R15" s="24">
-        <v>0.50280000000000002</v>
-      </c>
-      <c r="S15" s="19">
-        <v>0.19520000000000001</v>
-      </c>
-      <c r="T15" s="19">
-        <v>0.19520000000000001</v>
-      </c>
-      <c r="U15" s="19">
-        <v>0.31009999999999999</v>
-      </c>
-      <c r="V15" s="19">
-        <v>0.43280000000000002</v>
+        <v>82</v>
+      </c>
+      <c r="Q15" s="71">
+        <v>0.51190000000000002</v>
+      </c>
+      <c r="R15" s="70">
+        <v>0.53990000000000005</v>
+      </c>
+      <c r="S15" s="69">
+        <v>0.34689999999999999</v>
+      </c>
+      <c r="T15" s="69">
+        <v>0.1988</v>
+      </c>
+      <c r="U15" s="69">
+        <v>0.29310000000000003</v>
+      </c>
+      <c r="V15" s="69">
+        <v>0.45660000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="50" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" s="54"/>
-      <c r="C16" s="54"/>
-      <c r="D16" s="54"/>
-      <c r="E16" s="54"/>
-      <c r="F16" s="54"/>
-      <c r="G16" s="50" t="s">
-        <v>22</v>
-      </c>
-      <c r="H16" s="50"/>
-      <c r="I16" s="50"/>
-      <c r="J16" s="50"/>
-      <c r="K16" s="50"/>
-      <c r="L16" s="50"/>
-      <c r="M16" s="50"/>
-      <c r="N16" s="50"/>
+      <c r="A16" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="50"/>
+      <c r="C16" s="50"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="50"/>
+      <c r="G16" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="H16" s="49"/>
+      <c r="I16" s="49"/>
+      <c r="J16" s="49"/>
+      <c r="K16" s="49"/>
+      <c r="L16" s="49"/>
+      <c r="M16" s="49"/>
+      <c r="N16" s="49"/>
     </row>
     <row r="17" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="17" t="s">
         <v>3</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C17" s="18"/>
       <c r="D17" s="18"/>
@@ -1840,32 +1855,32 @@
       <c r="N17" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="P17" s="51" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q17" s="52"/>
-      <c r="R17" s="52"/>
-      <c r="S17" s="52"/>
-      <c r="T17" s="52"/>
-      <c r="U17" s="52"/>
-      <c r="V17" s="53"/>
+      <c r="P17" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q17" s="44"/>
+      <c r="R17" s="44"/>
+      <c r="S17" s="44"/>
+      <c r="T17" s="44"/>
+      <c r="U17" s="44"/>
+      <c r="V17" s="45"/>
     </row>
     <row r="18" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="17" t="s">
         <v>6</v>
       </c>
       <c r="B18" s="17">
-        <v>400</v>
+        <v>512</v>
       </c>
       <c r="C18" s="18"/>
       <c r="D18" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="E18" s="19">
-        <v>39.610199999999999</v>
-      </c>
-      <c r="F18" s="19">
-        <v>79.212500000000006</v>
+      <c r="E18">
+        <v>38.656399999999998</v>
+      </c>
+      <c r="F18">
+        <v>77.311999999999998</v>
       </c>
       <c r="G18" s="14" t="s">
         <v>8</v>
@@ -1880,7 +1895,7 @@
         <v>73.477400000000003</v>
       </c>
       <c r="K18" s="14" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="L18" s="14">
         <v>768</v>
@@ -1892,7 +1907,7 @@
         <v>81.620199999999997</v>
       </c>
       <c r="P18" s="46" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Q18" s="47"/>
       <c r="R18" s="47"/>
@@ -1912,11 +1927,11 @@
       <c r="D19" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="E19" s="19">
-        <v>0.43</v>
-      </c>
-      <c r="F19" s="19">
-        <v>0.41399999999999998</v>
+      <c r="E19">
+        <v>0.50460000000000005</v>
+      </c>
+      <c r="F19">
+        <v>0.50290000000000001</v>
       </c>
       <c r="G19" s="14" t="s">
         <v>11</v>
@@ -1931,7 +1946,7 @@
         <v>0.53669999999999995</v>
       </c>
       <c r="K19" s="14" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="L19" s="14">
         <v>256</v>
@@ -1944,22 +1959,22 @@
       </c>
       <c r="P19" s="20"/>
       <c r="Q19" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="R19" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="S19" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="R19" s="21" t="s">
+      <c r="T19" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="S19" s="21" t="s">
+      <c r="U19" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="T19" s="21" t="s">
+      <c r="V19" s="21" t="s">
         <v>27</v>
-      </c>
-      <c r="U19" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="V19" s="21" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1973,17 +1988,17 @@
       <c r="D20" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="E20" s="19">
-        <v>0.14330000000000001</v>
-      </c>
-      <c r="F20" s="19">
-        <v>0.13800000000000001</v>
+      <c r="E20">
+        <v>0.40789999999999998</v>
+      </c>
+      <c r="F20">
+        <v>0.40329999999999999</v>
       </c>
       <c r="G20" s="14" t="s">
         <v>14</v>
       </c>
       <c r="H20" s="14" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="I20" s="14">
         <v>0.52039999999999997</v>
@@ -1992,7 +2007,7 @@
         <v>0.56310000000000004</v>
       </c>
       <c r="K20" s="14" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="L20" s="14">
         <v>32</v>
@@ -2009,7 +2024,7 @@
       <c r="Q20" s="14">
         <v>35.518700000000003</v>
       </c>
-      <c r="R20" s="25">
+      <c r="R20" s="22">
         <v>34.240499999999997</v>
       </c>
       <c r="S20" s="14">
@@ -2030,17 +2045,17 @@
         <v>14</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>30</v>
+        <v>72</v>
       </c>
       <c r="C21" s="18"/>
       <c r="D21" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="E21" s="19">
-        <v>0.33329999999999999</v>
-      </c>
-      <c r="F21" s="19">
-        <v>0.33329999999999999</v>
+      <c r="E21">
+        <v>0.41920000000000002</v>
+      </c>
+      <c r="F21">
+        <v>0.41620000000000001</v>
       </c>
       <c r="G21" s="14"/>
       <c r="H21" s="14"/>
@@ -2054,7 +2069,7 @@
         <v>14</v>
       </c>
       <c r="L21" s="14" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="M21" s="14">
         <v>0.33329999999999999</v>
@@ -2068,7 +2083,7 @@
       <c r="Q21" s="14">
         <v>0.56259999999999999</v>
       </c>
-      <c r="R21" s="25">
+      <c r="R21" s="22">
         <v>0.59730000000000005</v>
       </c>
       <c r="S21" s="14">
@@ -2095,11 +2110,11 @@
       <c r="D22" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="E22" s="19">
-        <v>0.20050000000000001</v>
-      </c>
-      <c r="F22" s="19">
-        <v>0.19520000000000001</v>
+      <c r="E22">
+        <v>0.34749999999999998</v>
+      </c>
+      <c r="F22">
+        <v>0.34689999999999999</v>
       </c>
       <c r="G22" s="14"/>
       <c r="H22" s="14"/>
@@ -2123,7 +2138,7 @@
       <c r="Q22" s="14">
         <v>0.56399999999999995</v>
       </c>
-      <c r="R22" s="25">
+      <c r="R22" s="22">
         <v>0.60309999999999997</v>
       </c>
       <c r="S22" s="14">
@@ -2140,31 +2155,31 @@
       </c>
     </row>
     <row r="23" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="50" t="s">
-        <v>31</v>
-      </c>
-      <c r="B23" s="54"/>
-      <c r="C23" s="54"/>
-      <c r="D23" s="54"/>
-      <c r="E23" s="54"/>
-      <c r="F23" s="54"/>
-      <c r="G23" s="50" t="s">
-        <v>31</v>
-      </c>
-      <c r="H23" s="50"/>
-      <c r="I23" s="50"/>
-      <c r="J23" s="50"/>
-      <c r="K23" s="50"/>
-      <c r="L23" s="50"/>
-      <c r="M23" s="50"/>
-      <c r="N23" s="50"/>
+      <c r="A23" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" s="50"/>
+      <c r="C23" s="50"/>
+      <c r="D23" s="50"/>
+      <c r="E23" s="50"/>
+      <c r="F23" s="50"/>
+      <c r="G23" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="H23" s="49"/>
+      <c r="I23" s="49"/>
+      <c r="J23" s="49"/>
+      <c r="K23" s="49"/>
+      <c r="L23" s="49"/>
+      <c r="M23" s="49"/>
+      <c r="N23" s="49"/>
       <c r="P23" s="18" t="s">
         <v>16</v>
       </c>
       <c r="Q23" s="14">
         <v>0.52410000000000001</v>
       </c>
-      <c r="R23" s="25">
+      <c r="R23" s="22">
         <v>0.55830000000000002</v>
       </c>
       <c r="S23" s="14">
@@ -2185,7 +2200,7 @@
         <v>3</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C24" s="18"/>
       <c r="D24" s="18"/>
@@ -2217,7 +2232,7 @@
       <c r="Q24" s="14">
         <v>0.52890000000000004</v>
       </c>
-      <c r="R24" s="25">
+      <c r="R24" s="22">
         <v>0.56459999999999999</v>
       </c>
       <c r="S24" s="14">
@@ -2238,17 +2253,17 @@
         <v>6</v>
       </c>
       <c r="B25" s="17">
-        <v>500</v>
+        <v>512</v>
       </c>
       <c r="C25" s="18"/>
       <c r="D25" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="E25" s="19">
-        <v>40.867899999999999</v>
-      </c>
-      <c r="F25" s="19">
-        <v>81.971599999999995</v>
+      <c r="E25">
+        <v>40.902900000000002</v>
+      </c>
+      <c r="F25">
+        <v>81.634399999999999</v>
       </c>
       <c r="G25" s="14" t="s">
         <v>8</v>
@@ -2263,7 +2278,7 @@
         <v>82.060900000000004</v>
       </c>
       <c r="K25" s="14" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="L25" s="14">
         <v>768</v>
@@ -2275,7 +2290,7 @@
         <v>82.167500000000004</v>
       </c>
       <c r="P25" s="46" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q25" s="47"/>
       <c r="R25" s="47"/>
@@ -2295,11 +2310,11 @@
       <c r="D26" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="E26" s="19">
-        <v>0.43</v>
-      </c>
-      <c r="F26" s="19">
-        <v>0.41399999999999998</v>
+      <c r="E26">
+        <v>0.4224</v>
+      </c>
+      <c r="F26">
+        <v>0.42499999999999999</v>
       </c>
       <c r="G26" s="14" t="s">
         <v>11</v>
@@ -2314,7 +2329,7 @@
         <v>0.41399999999999998</v>
       </c>
       <c r="K26" s="14" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="L26" s="14">
         <v>256</v>
@@ -2327,22 +2342,22 @@
       </c>
       <c r="P26" s="20"/>
       <c r="Q26" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="R26" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="S26" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="R26" s="21" t="s">
+      <c r="T26" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="S26" s="21" t="s">
+      <c r="U26" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="T26" s="21" t="s">
+      <c r="V26" s="21" t="s">
         <v>27</v>
-      </c>
-      <c r="U26" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="V26" s="21" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="27" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -2356,17 +2371,17 @@
       <c r="D27" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="E27" s="19">
-        <v>0.14330000000000001</v>
-      </c>
-      <c r="F27" s="19">
-        <v>0.13800000000000001</v>
+      <c r="E27">
+        <v>0.14080000000000001</v>
+      </c>
+      <c r="F27">
+        <v>0.14169999999999999</v>
       </c>
       <c r="G27" s="14" t="s">
         <v>14</v>
       </c>
       <c r="H27" s="16" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="I27" s="14">
         <v>0.14330000000000001</v>
@@ -2375,7 +2390,7 @@
         <v>0.13800000000000001</v>
       </c>
       <c r="K27" s="14" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="L27" s="14">
         <v>32</v>
@@ -2404,7 +2419,7 @@
       <c r="U27" s="14">
         <v>79.351399999999998</v>
       </c>
-      <c r="V27" s="25">
+      <c r="V27" s="22">
         <v>68.639700000000005</v>
       </c>
     </row>
@@ -2413,17 +2428,17 @@
         <v>14</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C28" s="18"/>
       <c r="D28" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="E28" s="19">
-        <v>0.33</v>
-      </c>
-      <c r="F28" s="19">
-        <v>0.33300000000000002</v>
+      <c r="E28">
+        <v>0.33329999999999999</v>
+      </c>
+      <c r="F28">
+        <v>0.33329999999999999</v>
       </c>
       <c r="G28" s="14"/>
       <c r="H28" s="14"/>
@@ -2437,7 +2452,7 @@
         <v>14</v>
       </c>
       <c r="L28" s="14" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="M28" s="14">
         <v>0.33329999999999999</v>
@@ -2463,7 +2478,7 @@
       <c r="U28" s="14">
         <v>0.45050000000000001</v>
       </c>
-      <c r="V28" s="25">
+      <c r="V28" s="22">
         <v>0.59179999999999999</v>
       </c>
     </row>
@@ -2478,11 +2493,11 @@
       <c r="D29" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="E29" s="19">
-        <v>0.20050000000000001</v>
-      </c>
-      <c r="F29" s="19">
-        <v>0.19520000000000001</v>
+      <c r="E29">
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="F29">
+        <v>0.1988</v>
       </c>
       <c r="G29" s="14"/>
       <c r="H29" s="14"/>
@@ -2518,29 +2533,29 @@
       <c r="U29" s="14">
         <v>0.29559999999999997</v>
       </c>
-      <c r="V29" s="25">
+      <c r="V29" s="22">
         <v>0.59150000000000003</v>
       </c>
     </row>
     <row r="30" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="50" t="s">
-        <v>34</v>
-      </c>
-      <c r="B30" s="54"/>
-      <c r="C30" s="54"/>
-      <c r="D30" s="54"/>
-      <c r="E30" s="54"/>
-      <c r="F30" s="54"/>
-      <c r="G30" s="50" t="s">
-        <v>34</v>
-      </c>
-      <c r="H30" s="50"/>
-      <c r="I30" s="50"/>
-      <c r="J30" s="50"/>
-      <c r="K30" s="50"/>
-      <c r="L30" s="50"/>
-      <c r="M30" s="50"/>
-      <c r="N30" s="50"/>
+      <c r="A30" s="49" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" s="50"/>
+      <c r="C30" s="50"/>
+      <c r="D30" s="50"/>
+      <c r="E30" s="50"/>
+      <c r="F30" s="50"/>
+      <c r="G30" s="49" t="s">
+        <v>32</v>
+      </c>
+      <c r="H30" s="49"/>
+      <c r="I30" s="49"/>
+      <c r="J30" s="49"/>
+      <c r="K30" s="49"/>
+      <c r="L30" s="49"/>
+      <c r="M30" s="49"/>
+      <c r="N30" s="49"/>
       <c r="P30" s="18" t="s">
         <v>16</v>
       </c>
@@ -2559,7 +2574,7 @@
       <c r="U30" s="14">
         <v>0.38059999999999999</v>
       </c>
-      <c r="V30" s="25">
+      <c r="V30" s="22">
         <v>0.56100000000000005</v>
       </c>
     </row>
@@ -2568,7 +2583,7 @@
         <v>3</v>
       </c>
       <c r="B31" s="19" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C31" s="18"/>
       <c r="D31" s="18"/>
@@ -2612,7 +2627,7 @@
       <c r="U31" s="14">
         <v>0.31030000000000002</v>
       </c>
-      <c r="V31" s="25">
+      <c r="V31" s="22">
         <v>0.56389999999999996</v>
       </c>
     </row>
@@ -2621,17 +2636,17 @@
         <v>6</v>
       </c>
       <c r="B32" s="17">
-        <v>500</v>
+        <v>512</v>
       </c>
       <c r="C32" s="18"/>
       <c r="D32" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="E32" s="19">
-        <v>40.0212</v>
-      </c>
-      <c r="F32" s="19">
-        <v>79.314899999999994</v>
+      <c r="E32">
+        <v>39.638800000000003</v>
+      </c>
+      <c r="F32">
+        <v>79.0381</v>
       </c>
       <c r="G32" s="14" t="s">
         <v>8</v>
@@ -2646,7 +2661,7 @@
         <v>79.351399999999998</v>
       </c>
       <c r="K32" s="14" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="L32" s="14">
         <v>768</v>
@@ -2669,11 +2684,11 @@
       <c r="D33" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="E33" s="19">
-        <v>0.4582</v>
-      </c>
-      <c r="F33" s="19">
-        <v>0.45129999999999998</v>
+      <c r="E33">
+        <v>0.45729999999999998</v>
+      </c>
+      <c r="F33">
+        <v>0.45729999999999998</v>
       </c>
       <c r="G33" s="14" t="s">
         <v>11</v>
@@ -2688,7 +2703,7 @@
         <v>0.45050000000000001</v>
       </c>
       <c r="K33" s="14" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="L33" s="14">
         <v>256</v>
@@ -2699,15 +2714,15 @@
       <c r="N33" s="14">
         <v>0.43930000000000002</v>
       </c>
-      <c r="P33" s="51" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q33" s="52"/>
-      <c r="R33" s="52"/>
-      <c r="S33" s="52"/>
-      <c r="T33" s="52"/>
-      <c r="U33" s="52"/>
-      <c r="V33" s="53"/>
+      <c r="P33" s="43" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q33" s="44"/>
+      <c r="R33" s="44"/>
+      <c r="S33" s="44"/>
+      <c r="T33" s="44"/>
+      <c r="U33" s="44"/>
+      <c r="V33" s="45"/>
     </row>
     <row r="34" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="17" t="s">
@@ -2720,17 +2735,17 @@
       <c r="D34" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="E34" s="19">
-        <v>0.29730000000000001</v>
-      </c>
-      <c r="F34" s="19">
-        <v>0.30009999999999998</v>
+      <c r="E34">
+        <v>0.31509999999999999</v>
+      </c>
+      <c r="F34">
+        <v>0.31140000000000001</v>
       </c>
       <c r="G34" s="14" t="s">
         <v>14</v>
       </c>
       <c r="H34" s="16" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="I34" s="14">
         <v>0.29480000000000001</v>
@@ -2739,7 +2754,7 @@
         <v>0.29559999999999997</v>
       </c>
       <c r="K34" s="14" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="L34" s="14">
         <v>32</v>
@@ -2751,7 +2766,7 @@
         <v>0.35399999999999998</v>
       </c>
       <c r="P34" s="46" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Q34" s="47"/>
       <c r="R34" s="47"/>
@@ -2765,17 +2780,17 @@
         <v>14</v>
       </c>
       <c r="B35" s="17" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C35" s="18"/>
       <c r="D35" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="E35" s="19">
-        <v>0.378</v>
-      </c>
-      <c r="F35" s="19">
-        <v>0.38090000000000002</v>
+      <c r="E35">
+        <v>0.37359999999999999</v>
+      </c>
+      <c r="F35">
+        <v>0.373</v>
       </c>
       <c r="G35" s="14"/>
       <c r="H35" s="14"/>
@@ -2789,7 +2804,7 @@
         <v>14</v>
       </c>
       <c r="L35" s="14" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="M35" s="14">
         <v>0.35470000000000002</v>
@@ -2799,22 +2814,22 @@
       </c>
       <c r="P35" s="20"/>
       <c r="Q35" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="R35" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="S35" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="R35" s="21" t="s">
+      <c r="T35" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="S35" s="21" t="s">
+      <c r="U35" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="T35" s="21" t="s">
+      <c r="V35" s="21" t="s">
         <v>27</v>
-      </c>
-      <c r="U35" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="V35" s="21" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="36" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -2828,11 +2843,11 @@
       <c r="D36" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="E36" s="19">
-        <v>0.30969999999999998</v>
-      </c>
-      <c r="F36" s="19">
-        <v>0.31009999999999999</v>
+      <c r="E36">
+        <v>0.2888</v>
+      </c>
+      <c r="F36">
+        <v>0.29310000000000003</v>
       </c>
       <c r="G36" s="14"/>
       <c r="H36" s="14"/>
@@ -2856,7 +2871,7 @@
       <c r="Q36" s="14">
         <v>36.367800000000003</v>
       </c>
-      <c r="R36" s="25">
+      <c r="R36" s="22">
         <v>34.5105</v>
       </c>
       <c r="S36" s="14">
@@ -2873,31 +2888,31 @@
       </c>
     </row>
     <row r="37" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="50" t="s">
-        <v>36</v>
-      </c>
-      <c r="B37" s="54"/>
-      <c r="C37" s="54"/>
-      <c r="D37" s="54"/>
-      <c r="E37" s="54"/>
-      <c r="F37" s="54"/>
-      <c r="G37" s="50" t="s">
-        <v>36</v>
-      </c>
-      <c r="H37" s="50"/>
-      <c r="I37" s="50"/>
-      <c r="J37" s="50"/>
-      <c r="K37" s="50"/>
-      <c r="L37" s="50"/>
-      <c r="M37" s="50"/>
-      <c r="N37" s="50"/>
+      <c r="A37" s="49" t="s">
+        <v>33</v>
+      </c>
+      <c r="B37" s="50"/>
+      <c r="C37" s="50"/>
+      <c r="D37" s="50"/>
+      <c r="E37" s="50"/>
+      <c r="F37" s="50"/>
+      <c r="G37" s="49" t="s">
+        <v>33</v>
+      </c>
+      <c r="H37" s="49"/>
+      <c r="I37" s="49"/>
+      <c r="J37" s="49"/>
+      <c r="K37" s="49"/>
+      <c r="L37" s="49"/>
+      <c r="M37" s="49"/>
+      <c r="N37" s="49"/>
       <c r="P37" s="18" t="s">
         <v>10</v>
       </c>
       <c r="Q37" s="14">
         <v>0.54759999999999998</v>
       </c>
-      <c r="R37" s="25">
+      <c r="R37" s="22">
         <v>0.58909999999999996</v>
       </c>
       <c r="S37" s="14">
@@ -2918,7 +2933,7 @@
         <v>3</v>
       </c>
       <c r="B38" s="19" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C38" s="18"/>
       <c r="D38" s="18"/>
@@ -2950,7 +2965,7 @@
       <c r="Q38" s="14">
         <v>0.54990000000000006</v>
       </c>
-      <c r="R38" s="25">
+      <c r="R38" s="22">
         <v>0.60629999999999995</v>
       </c>
       <c r="S38" s="14">
@@ -2971,17 +2986,17 @@
         <v>6</v>
       </c>
       <c r="B39" s="17">
-        <v>500</v>
+        <v>512</v>
       </c>
       <c r="C39" s="18"/>
       <c r="D39" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="E39" s="19">
-        <v>35.601999999999997</v>
-      </c>
-      <c r="F39" s="19">
-        <v>71.0916</v>
+      <c r="E39">
+        <v>35.880600000000001</v>
+      </c>
+      <c r="F39">
+        <v>71.499799999999993</v>
       </c>
       <c r="G39" s="14" t="s">
         <v>8</v>
@@ -2996,7 +3011,7 @@
         <v>68.639700000000005</v>
       </c>
       <c r="K39" s="14" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="L39" s="14">
         <v>768</v>
@@ -3013,7 +3028,7 @@
       <c r="Q39" s="14">
         <v>0.48549999999999999</v>
       </c>
-      <c r="R39" s="25">
+      <c r="R39" s="22">
         <v>0.56489999999999996</v>
       </c>
       <c r="S39" s="14">
@@ -3040,11 +3055,11 @@
       <c r="D40" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="E40" s="19">
-        <v>0.56089999999999995</v>
-      </c>
-      <c r="F40" s="19">
-        <v>0.54790000000000005</v>
+      <c r="E40">
+        <v>0.54690000000000005</v>
+      </c>
+      <c r="F40">
+        <v>0.54600000000000004</v>
       </c>
       <c r="G40" s="14" t="s">
         <v>11</v>
@@ -3059,7 +3074,7 @@
         <v>0.59179999999999999</v>
       </c>
       <c r="K40" s="14" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="L40" s="14">
         <v>256</v>
@@ -3076,7 +3091,7 @@
       <c r="Q40" s="14">
         <v>0.47289999999999999</v>
       </c>
-      <c r="R40" s="25">
+      <c r="R40" s="22">
         <v>0.56769999999999998</v>
       </c>
       <c r="S40" s="14">
@@ -3103,17 +3118,17 @@
       <c r="D41" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="E41" s="19">
-        <v>0.52180000000000004</v>
-      </c>
-      <c r="F41" s="19">
-        <v>0.51370000000000005</v>
+      <c r="E41">
+        <v>0.55389999999999995</v>
+      </c>
+      <c r="F41">
+        <v>0.54400000000000004</v>
       </c>
       <c r="G41" s="14" t="s">
         <v>14</v>
       </c>
       <c r="H41" s="16" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="I41" s="14">
         <v>0.57120000000000004</v>
@@ -3122,7 +3137,7 @@
         <v>0.59150000000000003</v>
       </c>
       <c r="K41" s="14" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="L41" s="14">
         <v>32</v>
@@ -3134,7 +3149,7 @@
         <v>0.56299999999999994</v>
       </c>
       <c r="P41" s="46" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q41" s="47"/>
       <c r="R41" s="47"/>
@@ -3148,17 +3163,17 @@
         <v>14</v>
       </c>
       <c r="B42" s="17" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="C42" s="18"/>
       <c r="D42" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="E42" s="19">
-        <v>0.48849999999999999</v>
-      </c>
-      <c r="F42" s="19">
-        <v>0.4798</v>
+      <c r="E42">
+        <v>0.48020000000000002</v>
+      </c>
+      <c r="F42">
+        <v>0.47749999999999998</v>
       </c>
       <c r="G42" s="14"/>
       <c r="H42" s="14"/>
@@ -3172,7 +3187,7 @@
         <v>14</v>
       </c>
       <c r="L42" s="14" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="M42" s="14">
         <v>0.47289999999999999</v>
@@ -3182,22 +3197,22 @@
       </c>
       <c r="P42" s="20"/>
       <c r="Q42" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="R42" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="S42" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="R42" s="21" t="s">
+      <c r="T42" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="S42" s="21" t="s">
+      <c r="U42" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="T42" s="21" t="s">
+      <c r="V42" s="21" t="s">
         <v>27</v>
-      </c>
-      <c r="U42" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="V42" s="21" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="43" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -3211,11 +3226,11 @@
       <c r="D43" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="E43" s="19">
-        <v>0.44330000000000003</v>
-      </c>
-      <c r="F43" s="19">
-        <v>0.43280000000000002</v>
+      <c r="E43">
+        <v>0.45910000000000001</v>
+      </c>
+      <c r="F43">
+        <v>0.45660000000000001</v>
       </c>
       <c r="G43" s="14"/>
       <c r="H43" s="14"/>
@@ -3239,7 +3254,7 @@
       <c r="Q43" s="14">
         <v>73.439400000000006</v>
       </c>
-      <c r="R43" s="25">
+      <c r="R43" s="22">
         <v>68.833699999999993</v>
       </c>
       <c r="S43" s="14">
@@ -3262,7 +3277,7 @@
       <c r="Q44" s="14">
         <v>0.52129999999999999</v>
       </c>
-      <c r="R44" s="25">
+      <c r="R44" s="22">
         <v>0.5756</v>
       </c>
       <c r="S44" s="14">
@@ -3285,7 +3300,7 @@
       <c r="Q45" s="14">
         <v>0.5141</v>
       </c>
-      <c r="R45" s="25">
+      <c r="R45" s="22">
         <v>0.59560000000000002</v>
       </c>
       <c r="S45" s="14">
@@ -3308,7 +3323,7 @@
       <c r="Q46" s="14">
         <v>0.4647</v>
       </c>
-      <c r="R46" s="25">
+      <c r="R46" s="22">
         <v>0.56200000000000006</v>
       </c>
       <c r="S46" s="14">
@@ -3331,7 +3346,7 @@
       <c r="Q47" s="14">
         <v>0.44469999999999998</v>
       </c>
-      <c r="R47" s="25">
+      <c r="R47" s="22">
         <v>0.5585</v>
       </c>
       <c r="S47" s="14">
@@ -4302,6 +4317,12 @@
     <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="P25:V25"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="G2:N2"/>
+    <mergeCell ref="G9:N9"/>
+    <mergeCell ref="G16:N16"/>
     <mergeCell ref="P33:V33"/>
     <mergeCell ref="P34:V34"/>
     <mergeCell ref="P41:V41"/>
@@ -4318,15 +4339,9 @@
     <mergeCell ref="P9:V9"/>
     <mergeCell ref="P17:V17"/>
     <mergeCell ref="P18:V18"/>
-    <mergeCell ref="P25:V25"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="G2:N2"/>
-    <mergeCell ref="G9:N9"/>
-    <mergeCell ref="G16:N16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4370,18 +4385,18 @@
       <c r="D1" s="14"/>
       <c r="E1" s="14"/>
       <c r="F1" s="14"/>
-      <c r="G1" s="61" t="s">
+      <c r="G1" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="61" t="s">
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="61"/>
-      <c r="M1" s="61"/>
-      <c r="N1" s="61"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
+      <c r="N1" s="54"/>
       <c r="P1" s="3"/>
       <c r="Q1" s="3"/>
       <c r="R1" s="3"/>
@@ -4395,26 +4410,26 @@
       <c r="Z1" s="3"/>
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="60" t="s">
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="60"/>
-      <c r="L2" s="60"/>
-      <c r="M2" s="60"/>
-      <c r="N2" s="60"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="53"/>
+      <c r="N2" s="53"/>
       <c r="P2" s="57" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Q2" s="57"/>
       <c r="R2" s="57"/>
@@ -4459,22 +4474,22 @@
       </c>
       <c r="P3" s="4"/>
       <c r="Q3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="R3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="S3" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="R3" s="5" t="s">
+      <c r="T3" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="S3" s="5" t="s">
+      <c r="U3" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="T3" s="5" t="s">
+      <c r="V3" s="5" t="s">
         <v>27</v>
-      </c>
-      <c r="U3" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="V3" s="5" t="s">
-        <v>29</v>
       </c>
       <c r="X3" s="3"/>
       <c r="Y3" s="3"/>
@@ -4510,7 +4525,7 @@
         <v>99.639899999999997</v>
       </c>
       <c r="K4" s="14" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="L4" s="14">
         <v>768</v>
@@ -4539,7 +4554,7 @@
       <c r="U4" s="2">
         <v>51.685099999999998</v>
       </c>
-      <c r="V4" s="30">
+      <c r="V4" s="27">
         <v>50.802900000000001</v>
       </c>
       <c r="X4" s="3"/>
@@ -4555,7 +4570,7 @@
       </c>
       <c r="C5" s="18"/>
       <c r="D5" s="18" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E5" s="18">
         <v>0.97760000000000002</v>
@@ -4576,7 +4591,7 @@
         <v>0.85119999999999996</v>
       </c>
       <c r="K5" s="14" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="L5" s="14">
         <v>256</v>
@@ -4588,9 +4603,9 @@
         <v>0.98919999999999997</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q5" s="29">
+        <v>34</v>
+      </c>
+      <c r="Q5" s="26">
         <v>0.97760000000000002</v>
       </c>
       <c r="R5" s="1">
@@ -4621,7 +4636,7 @@
       </c>
       <c r="C6" s="18"/>
       <c r="D6" s="18" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E6" s="18">
         <v>0.55940000000000001</v>
@@ -4633,7 +4648,7 @@
         <v>14</v>
       </c>
       <c r="H6" s="14" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="I6" s="14">
         <v>0.42359999999999998</v>
@@ -4642,7 +4657,7 @@
         <v>0.40670000000000001</v>
       </c>
       <c r="K6" s="14" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="L6" s="14">
         <v>32</v>
@@ -4654,9 +4669,9 @@
         <v>0.50249999999999995</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q6" s="29">
+        <v>35</v>
+      </c>
+      <c r="Q6" s="26">
         <v>0.55940000000000001</v>
       </c>
       <c r="R6" s="1">
@@ -4683,11 +4698,11 @@
         <v>14</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C7" s="18"/>
       <c r="D7" s="18" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E7" s="18">
         <v>2.24E-2</v>
@@ -4707,7 +4722,7 @@
         <v>14</v>
       </c>
       <c r="L7" s="16" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="M7" s="14">
         <v>6.6E-3</v>
@@ -4716,9 +4731,9 @@
         <v>1.0800000000000001E-2</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q7" s="29">
+        <v>36</v>
+      </c>
+      <c r="Q7" s="26">
         <v>2.24E-2</v>
       </c>
       <c r="R7" s="1">
@@ -4776,7 +4791,7 @@
       <c r="P8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="Q8" s="30">
+      <c r="Q8" s="27">
         <v>0.98609999999999998</v>
       </c>
       <c r="R8" s="2">
@@ -4799,9 +4814,9 @@
       <c r="Z8" s="3"/>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="27"/>
-      <c r="B9" s="27"/>
-      <c r="C9" s="27"/>
+      <c r="A9" s="24"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="24"/>
       <c r="D9" s="18" t="s">
         <v>18</v>
       </c>
@@ -4830,7 +4845,7 @@
       <c r="P9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="Q9" s="30">
+      <c r="Q9" s="27">
         <v>0.60740000000000005</v>
       </c>
       <c r="R9" s="2">
@@ -4896,7 +4911,7 @@
       <c r="T10" s="2">
         <v>0.49199999999999999</v>
       </c>
-      <c r="U10" s="30">
+      <c r="U10" s="27">
         <v>0.58250000000000002</v>
       </c>
       <c r="V10" s="2">
@@ -4938,7 +4953,7 @@
       <c r="P11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="Q11" s="30">
+      <c r="Q11" s="27">
         <v>0.76829999999999998</v>
       </c>
       <c r="R11" s="2">
@@ -4961,26 +4976,26 @@
       <c r="Z11" s="3"/>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="59" t="s">
+      <c r="A12" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="59"/>
-      <c r="C12" s="59"/>
-      <c r="D12" s="59"/>
-      <c r="E12" s="59"/>
-      <c r="F12" s="59"/>
-      <c r="G12" s="60" t="s">
+      <c r="B12" s="52"/>
+      <c r="C12" s="52"/>
+      <c r="D12" s="52"/>
+      <c r="E12" s="52"/>
+      <c r="F12" s="52"/>
+      <c r="G12" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="H12" s="60"/>
-      <c r="I12" s="60"/>
-      <c r="J12" s="60"/>
-      <c r="K12" s="60"/>
-      <c r="L12" s="60"/>
-      <c r="M12" s="60"/>
-      <c r="N12" s="60"/>
+      <c r="H12" s="53"/>
+      <c r="I12" s="53"/>
+      <c r="J12" s="53"/>
+      <c r="K12" s="53"/>
+      <c r="L12" s="53"/>
+      <c r="M12" s="53"/>
+      <c r="N12" s="53"/>
       <c r="P12" s="58" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="58"/>
       <c r="R12" s="58"/>
@@ -5025,22 +5040,22 @@
       </c>
       <c r="P13" s="4"/>
       <c r="Q13" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="R13" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="S13" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="R13" s="5" t="s">
+      <c r="T13" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="S13" s="5" t="s">
+      <c r="U13" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="T13" s="5" t="s">
+      <c r="V13" s="5" t="s">
         <v>27</v>
-      </c>
-      <c r="U13" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="V13" s="5" t="s">
-        <v>29</v>
       </c>
       <c r="X13" s="3"/>
       <c r="Y13" s="3"/>
@@ -5076,7 +5091,7 @@
         <v>100.4823</v>
       </c>
       <c r="K14" s="14" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="L14" s="14">
         <v>768</v>
@@ -5105,7 +5120,7 @@
       <c r="U14" s="2">
         <v>103.2773</v>
       </c>
-      <c r="V14" s="30">
+      <c r="V14" s="27">
         <v>101.38249999999999</v>
       </c>
       <c r="X14" s="3"/>
@@ -5121,7 +5136,7 @@
       </c>
       <c r="C15" s="18"/>
       <c r="D15" s="18" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E15" s="18">
         <v>1</v>
@@ -5142,7 +5157,7 @@
         <v>0.9768</v>
       </c>
       <c r="K15" s="14" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="L15" s="14">
         <v>256</v>
@@ -5154,9 +5169,9 @@
         <v>1</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q15" s="29">
+        <v>34</v>
+      </c>
+      <c r="Q15" s="26">
         <v>0.97599999999999998</v>
       </c>
       <c r="R15" s="1">
@@ -5187,7 +5202,7 @@
       </c>
       <c r="C16" s="18"/>
       <c r="D16" s="18" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E16" s="18">
         <v>0.82</v>
@@ -5199,7 +5214,7 @@
         <v>14</v>
       </c>
       <c r="H16" s="14" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="I16" s="14">
         <v>0.52439999999999998</v>
@@ -5208,7 +5223,7 @@
         <v>0.51160000000000005</v>
       </c>
       <c r="K16" s="14" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="L16" s="14">
         <v>32</v>
@@ -5220,9 +5235,9 @@
         <v>0.53</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q16" s="29">
+        <v>35</v>
+      </c>
+      <c r="Q16" s="26">
         <v>0.54669999999999996</v>
       </c>
       <c r="R16" s="1">
@@ -5253,7 +5268,7 @@
       </c>
       <c r="C17" s="18"/>
       <c r="D17" s="18" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E17" s="18">
         <v>0</v>
@@ -5273,7 +5288,7 @@
         <v>14</v>
       </c>
       <c r="L17" s="16" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="M17" s="14">
         <v>8.0000000000000004E-4</v>
@@ -5282,9 +5297,9 @@
         <v>0</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q17" s="29">
+        <v>36</v>
+      </c>
+      <c r="Q17" s="26">
         <v>2.4E-2</v>
       </c>
       <c r="R17" s="1">
@@ -5342,7 +5357,7 @@
       <c r="P18" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="Q18" s="30">
+      <c r="Q18" s="27">
         <v>0.98670000000000002</v>
       </c>
       <c r="R18" s="2">
@@ -5365,9 +5380,9 @@
       <c r="Z18" s="3"/>
     </row>
     <row r="19" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="27"/>
-      <c r="B19" s="27"/>
-      <c r="C19" s="27"/>
+      <c r="A19" s="24"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="24"/>
       <c r="D19" s="18" t="s">
         <v>18</v>
       </c>
@@ -5396,7 +5411,7 @@
       <c r="P19" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="Q19" s="30">
+      <c r="Q19" s="27">
         <v>0.61040000000000005</v>
       </c>
       <c r="R19" s="2">
@@ -5450,7 +5465,7 @@
       <c r="P20" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="Q20" s="30">
+      <c r="Q20" s="27">
         <v>0.52980000000000005</v>
       </c>
       <c r="R20" s="2">
@@ -5505,7 +5520,7 @@
       <c r="P21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="Q21" s="29">
+      <c r="Q21" s="26">
         <v>0.76680000000000004</v>
       </c>
       <c r="R21" s="2">
@@ -5528,24 +5543,24 @@
       <c r="Z21" s="3"/>
     </row>
     <row r="22" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" s="59"/>
-      <c r="C22" s="59"/>
-      <c r="D22" s="59"/>
-      <c r="E22" s="59"/>
-      <c r="F22" s="59"/>
-      <c r="G22" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="H22" s="60"/>
-      <c r="I22" s="60"/>
-      <c r="J22" s="60"/>
-      <c r="K22" s="60"/>
-      <c r="L22" s="60"/>
-      <c r="M22" s="60"/>
-      <c r="N22" s="60"/>
+      <c r="A22" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="52"/>
+      <c r="C22" s="52"/>
+      <c r="D22" s="52"/>
+      <c r="E22" s="52"/>
+      <c r="F22" s="52"/>
+      <c r="G22" s="53" t="s">
+        <v>20</v>
+      </c>
+      <c r="H22" s="53"/>
+      <c r="I22" s="53"/>
+      <c r="J22" s="53"/>
+      <c r="K22" s="53"/>
+      <c r="L22" s="53"/>
+      <c r="M22" s="53"/>
+      <c r="N22" s="53"/>
       <c r="O22" s="3"/>
       <c r="P22" s="3"/>
       <c r="Q22" s="3"/>
@@ -5564,7 +5579,7 @@
         <v>3</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C23" s="18"/>
       <c r="D23" s="18"/>
@@ -5592,7 +5607,7 @@
       </c>
       <c r="O23" s="3"/>
       <c r="P23" s="55" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="Q23" s="55"/>
       <c r="R23" s="55"/>
@@ -5635,7 +5650,7 @@
         <v>100.96250000000001</v>
       </c>
       <c r="K24" s="14" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="L24" s="14">
         <v>768</v>
@@ -5648,7 +5663,7 @@
       </c>
       <c r="O24" s="3"/>
       <c r="P24" s="56" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Q24" s="56"/>
       <c r="R24" s="56"/>
@@ -5670,7 +5685,7 @@
       </c>
       <c r="C25" s="18"/>
       <c r="D25" s="18" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E25" s="18">
         <v>1</v>
@@ -5691,7 +5706,7 @@
         <v>0.99960000000000004</v>
       </c>
       <c r="K25" s="14" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="L25" s="14">
         <v>256</v>
@@ -5703,24 +5718,24 @@
         <v>0.96020000000000005</v>
       </c>
       <c r="O25" s="3"/>
-      <c r="P25" s="26"/>
-      <c r="Q25" s="28" t="s">
+      <c r="P25" s="23"/>
+      <c r="Q25" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="R25" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="S25" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="R25" s="28" t="s">
+      <c r="T25" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="S25" s="28" t="s">
+      <c r="U25" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="T25" s="28" t="s">
+      <c r="V25" s="25" t="s">
         <v>27</v>
-      </c>
-      <c r="U25" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="V25" s="28" t="s">
-        <v>29</v>
       </c>
       <c r="W25" s="3"/>
       <c r="X25" s="3"/>
@@ -5736,7 +5751,7 @@
       </c>
       <c r="C26" s="18"/>
       <c r="D26" s="18" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E26" s="18">
         <v>0.82940000000000003</v>
@@ -5748,7 +5763,7 @@
         <v>14</v>
       </c>
       <c r="H26" s="14" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="I26" s="14">
         <v>0.69589999999999996</v>
@@ -5757,7 +5772,7 @@
         <v>0.69230000000000003</v>
       </c>
       <c r="K26" s="14" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="L26" s="14">
         <v>32</v>
@@ -5772,7 +5787,7 @@
       <c r="P26" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="Q26" s="25">
+      <c r="Q26" s="22">
         <v>50.106999999999999</v>
       </c>
       <c r="R26" s="14">
@@ -5800,11 +5815,11 @@
         <v>14</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C27" s="18"/>
       <c r="D27" s="18" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E27" s="18">
         <v>0</v>
@@ -5824,7 +5839,7 @@
         <v>14</v>
       </c>
       <c r="L27" s="16" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="M27" s="14">
         <v>4.0599999999999997E-2</v>
@@ -5834,9 +5849,9 @@
       </c>
       <c r="O27" s="3"/>
       <c r="P27" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q27" s="25">
+        <v>34</v>
+      </c>
+      <c r="Q27" s="22">
         <v>0.87319999999999998</v>
       </c>
       <c r="R27" s="14">
@@ -5894,9 +5909,9 @@
       </c>
       <c r="O28" s="3"/>
       <c r="P28" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q28" s="25">
+        <v>35</v>
+      </c>
+      <c r="Q28" s="22">
         <v>0.42359999999999998</v>
       </c>
       <c r="R28" s="14">
@@ -5920,9 +5935,9 @@
       <c r="Z28" s="3"/>
     </row>
     <row r="29" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="27"/>
-      <c r="B29" s="27"/>
-      <c r="C29" s="27"/>
+      <c r="A29" s="24"/>
+      <c r="B29" s="24"/>
+      <c r="C29" s="24"/>
       <c r="D29" s="18" t="s">
         <v>18</v>
       </c>
@@ -5950,9 +5965,9 @@
       </c>
       <c r="O29" s="3"/>
       <c r="P29" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q29" s="25">
+        <v>36</v>
+      </c>
+      <c r="Q29" s="22">
         <v>0.1268</v>
       </c>
       <c r="R29" s="14">
@@ -6011,7 +6026,7 @@
       <c r="Q30" s="14">
         <v>0.94120000000000004</v>
       </c>
-      <c r="R30" s="25">
+      <c r="R30" s="22">
         <v>0.9466</v>
       </c>
       <c r="S30" s="14">
@@ -6064,7 +6079,7 @@
       <c r="P31" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="Q31" s="25">
+      <c r="Q31" s="22">
         <v>0.66869999999999996</v>
       </c>
       <c r="R31" s="14">
@@ -6088,29 +6103,29 @@
       <c r="Z31" s="3"/>
     </row>
     <row r="32" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="59" t="s">
-        <v>31</v>
-      </c>
-      <c r="B32" s="59"/>
-      <c r="C32" s="59"/>
-      <c r="D32" s="59"/>
-      <c r="E32" s="59"/>
-      <c r="F32" s="59"/>
-      <c r="G32" s="60" t="s">
-        <v>31</v>
-      </c>
-      <c r="H32" s="60"/>
-      <c r="I32" s="60"/>
-      <c r="J32" s="60"/>
-      <c r="K32" s="60"/>
-      <c r="L32" s="60"/>
-      <c r="M32" s="60"/>
-      <c r="N32" s="60"/>
+      <c r="A32" s="52" t="s">
+        <v>29</v>
+      </c>
+      <c r="B32" s="52"/>
+      <c r="C32" s="52"/>
+      <c r="D32" s="52"/>
+      <c r="E32" s="52"/>
+      <c r="F32" s="52"/>
+      <c r="G32" s="53" t="s">
+        <v>29</v>
+      </c>
+      <c r="H32" s="53"/>
+      <c r="I32" s="53"/>
+      <c r="J32" s="53"/>
+      <c r="K32" s="53"/>
+      <c r="L32" s="53"/>
+      <c r="M32" s="53"/>
+      <c r="N32" s="53"/>
       <c r="O32" s="3"/>
       <c r="P32" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="Q32" s="25">
+      <c r="Q32" s="22">
         <v>0.6401</v>
       </c>
       <c r="R32" s="14">
@@ -6138,7 +6153,7 @@
         <v>3</v>
       </c>
       <c r="B33" s="17" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C33" s="18"/>
       <c r="D33" s="18"/>
@@ -6177,7 +6192,7 @@
       <c r="S33" s="14">
         <v>0.5746</v>
       </c>
-      <c r="T33" s="25">
+      <c r="T33" s="22">
         <v>0.76829999999999998</v>
       </c>
       <c r="U33" s="14">
@@ -6221,7 +6236,7 @@
         <v>102.9555</v>
       </c>
       <c r="K34" s="14" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="L34" s="14">
         <v>768</v>
@@ -6234,7 +6249,7 @@
       </c>
       <c r="O34" s="3"/>
       <c r="P34" s="56" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q34" s="56"/>
       <c r="R34" s="56"/>
@@ -6256,7 +6271,7 @@
       </c>
       <c r="C35" s="18"/>
       <c r="D35" s="18" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E35" s="18">
         <v>1</v>
@@ -6277,7 +6292,7 @@
         <v>0.98140000000000005</v>
       </c>
       <c r="K35" s="14" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="L35" s="14">
         <v>256</v>
@@ -6289,24 +6304,24 @@
         <v>1</v>
       </c>
       <c r="O35" s="3"/>
-      <c r="P35" s="26"/>
-      <c r="Q35" s="28" t="s">
+      <c r="P35" s="23"/>
+      <c r="Q35" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="R35" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="S35" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="R35" s="28" t="s">
+      <c r="T35" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="S35" s="28" t="s">
+      <c r="U35" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="T35" s="28" t="s">
+      <c r="V35" s="25" t="s">
         <v>27</v>
-      </c>
-      <c r="U35" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="V35" s="28" t="s">
-        <v>29</v>
       </c>
       <c r="W35" s="3"/>
       <c r="X35" s="3"/>
@@ -6322,7 +6337,7 @@
       </c>
       <c r="C36" s="18"/>
       <c r="D36" s="18" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E36" s="18">
         <v>0.65639999999999998</v>
@@ -6334,7 +6349,7 @@
         <v>14</v>
       </c>
       <c r="H36" s="16" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="I36" s="14">
         <v>0.48299999999999998</v>
@@ -6343,7 +6358,7 @@
         <v>0.4788</v>
       </c>
       <c r="K36" s="14" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="L36" s="14">
         <v>32</v>
@@ -6358,7 +6373,7 @@
       <c r="P36" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="Q36" s="25">
+      <c r="Q36" s="22">
         <v>99.639899999999997</v>
       </c>
       <c r="R36" s="14">
@@ -6390,7 +6405,7 @@
       </c>
       <c r="C37" s="18"/>
       <c r="D37" s="18" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E37" s="18">
         <v>0</v>
@@ -6410,7 +6425,7 @@
         <v>14</v>
       </c>
       <c r="L37" s="16" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="M37" s="14">
         <v>0</v>
@@ -6420,9 +6435,9 @@
       </c>
       <c r="O37" s="3"/>
       <c r="P37" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q37" s="25">
+        <v>34</v>
+      </c>
+      <c r="Q37" s="22">
         <v>0.85119999999999996</v>
       </c>
       <c r="R37" s="14">
@@ -6480,9 +6495,9 @@
       </c>
       <c r="O38" s="3"/>
       <c r="P38" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q38" s="25">
+        <v>35</v>
+      </c>
+      <c r="Q38" s="22">
         <v>0.40670000000000001</v>
       </c>
       <c r="R38" s="14">
@@ -6506,9 +6521,9 @@
       <c r="Z38" s="3"/>
     </row>
     <row r="39" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="27"/>
-      <c r="B39" s="27"/>
-      <c r="C39" s="27"/>
+      <c r="A39" s="24"/>
+      <c r="B39" s="24"/>
+      <c r="C39" s="24"/>
       <c r="D39" s="18" t="s">
         <v>18</v>
       </c>
@@ -6536,9 +6551,9 @@
       </c>
       <c r="O39" s="3"/>
       <c r="P39" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q39" s="25">
+        <v>36</v>
+      </c>
+      <c r="Q39" s="22">
         <v>0.14879999999999999</v>
       </c>
       <c r="R39" s="14">
@@ -6603,7 +6618,7 @@
       <c r="S40" s="14">
         <v>0.74150000000000005</v>
       </c>
-      <c r="T40" s="25">
+      <c r="T40" s="22">
         <v>0.98670000000000002</v>
       </c>
       <c r="U40" s="14">
@@ -6650,7 +6665,7 @@
       <c r="P41" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="Q41" s="25">
+      <c r="Q41" s="22">
         <v>0.67120000000000002</v>
       </c>
       <c r="R41" s="14">
@@ -6674,29 +6689,29 @@
       <c r="Z41" s="3"/>
     </row>
     <row r="42" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="59" t="s">
-        <v>34</v>
-      </c>
-      <c r="B42" s="59"/>
-      <c r="C42" s="59"/>
-      <c r="D42" s="59"/>
-      <c r="E42" s="59"/>
-      <c r="F42" s="59"/>
-      <c r="G42" s="60" t="s">
-        <v>34</v>
-      </c>
-      <c r="H42" s="60"/>
-      <c r="I42" s="60"/>
-      <c r="J42" s="60"/>
-      <c r="K42" s="60"/>
-      <c r="L42" s="60"/>
-      <c r="M42" s="60"/>
-      <c r="N42" s="60"/>
+      <c r="A42" s="52" t="s">
+        <v>32</v>
+      </c>
+      <c r="B42" s="52"/>
+      <c r="C42" s="52"/>
+      <c r="D42" s="52"/>
+      <c r="E42" s="52"/>
+      <c r="F42" s="52"/>
+      <c r="G42" s="53" t="s">
+        <v>32</v>
+      </c>
+      <c r="H42" s="53"/>
+      <c r="I42" s="53"/>
+      <c r="J42" s="53"/>
+      <c r="K42" s="53"/>
+      <c r="L42" s="53"/>
+      <c r="M42" s="53"/>
+      <c r="N42" s="53"/>
       <c r="O42" s="3"/>
       <c r="P42" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="Q42" s="25">
+      <c r="Q42" s="22">
         <v>0.64159999999999995</v>
       </c>
       <c r="R42" s="14">
@@ -6724,7 +6739,7 @@
         <v>3</v>
       </c>
       <c r="B43" s="19" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C43" s="18"/>
       <c r="D43" s="18"/>
@@ -6763,7 +6778,7 @@
       <c r="S43" s="14">
         <v>0.57410000000000005</v>
       </c>
-      <c r="T43" s="25">
+      <c r="T43" s="22">
         <v>0.76680000000000004</v>
       </c>
       <c r="U43" s="14">
@@ -6807,7 +6822,7 @@
         <v>102.58150000000001</v>
       </c>
       <c r="K44" s="14" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="L44" s="14">
         <v>768</v>
@@ -6840,7 +6855,7 @@
       </c>
       <c r="C45" s="18"/>
       <c r="D45" s="18" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E45" s="18">
         <v>1</v>
@@ -6861,7 +6876,7 @@
         <v>0.99919999999999998</v>
       </c>
       <c r="K45" s="14" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="L45" s="14">
         <v>256</v>
@@ -6874,7 +6889,7 @@
       </c>
       <c r="O45" s="3"/>
       <c r="P45" s="55" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="Q45" s="55"/>
       <c r="R45" s="55"/>
@@ -6896,7 +6911,7 @@
       </c>
       <c r="C46" s="18"/>
       <c r="D46" s="18" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E46" s="18">
         <v>0.58599999999999997</v>
@@ -6908,7 +6923,7 @@
         <v>14</v>
       </c>
       <c r="H46" s="14" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="I46" s="14">
         <v>0.65639999999999998</v>
@@ -6917,7 +6932,7 @@
         <v>0.65110000000000001</v>
       </c>
       <c r="K46" s="14" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="L46" s="14">
         <v>32</v>
@@ -6930,7 +6945,7 @@
       </c>
       <c r="O46" s="3"/>
       <c r="P46" s="56" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Q46" s="56"/>
       <c r="R46" s="56"/>
@@ -6948,11 +6963,11 @@
         <v>14</v>
       </c>
       <c r="B47" s="17" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C47" s="18"/>
       <c r="D47" s="18" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E47" s="18">
         <v>0</v>
@@ -6972,7 +6987,7 @@
         <v>14</v>
       </c>
       <c r="L47" s="16" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="M47" s="14">
         <v>0</v>
@@ -6981,24 +6996,24 @@
         <v>8.0000000000000004E-4</v>
       </c>
       <c r="O47" s="3"/>
-      <c r="P47" s="26"/>
-      <c r="Q47" s="28" t="s">
+      <c r="P47" s="23"/>
+      <c r="Q47" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="R47" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="S47" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="R47" s="28" t="s">
+      <c r="T47" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="S47" s="28" t="s">
+      <c r="U47" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="T47" s="28" t="s">
+      <c r="V47" s="25" t="s">
         <v>27</v>
-      </c>
-      <c r="U47" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="V47" s="28" t="s">
-        <v>29</v>
       </c>
       <c r="W47" s="3"/>
       <c r="X47" s="3"/>
@@ -7054,7 +7069,7 @@
       <c r="T48" s="14">
         <v>53.662599999999998</v>
       </c>
-      <c r="U48" s="25">
+      <c r="U48" s="22">
         <v>52.564500000000002</v>
       </c>
       <c r="V48" s="14">
@@ -7066,9 +7081,9 @@
       <c r="Z48" s="3"/>
     </row>
     <row r="49" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="27"/>
-      <c r="B49" s="27"/>
-      <c r="C49" s="27"/>
+      <c r="A49" s="24"/>
+      <c r="B49" s="24"/>
+      <c r="C49" s="24"/>
       <c r="D49" s="18" t="s">
         <v>18</v>
       </c>
@@ -7096,7 +7111,7 @@
       </c>
       <c r="O49" s="3"/>
       <c r="P49" s="18" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="Q49" s="14">
         <v>0.99339999999999995</v>
@@ -7104,7 +7119,7 @@
       <c r="R49" s="14">
         <v>0.99919999999999998</v>
       </c>
-      <c r="S49" s="25">
+      <c r="S49" s="22">
         <v>0.95940000000000003</v>
       </c>
       <c r="T49" s="14">
@@ -7152,9 +7167,9 @@
       </c>
       <c r="O50" s="3"/>
       <c r="P50" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q50" s="25">
+        <v>35</v>
+      </c>
+      <c r="Q50" s="22">
         <v>0.50580000000000003</v>
       </c>
       <c r="R50" s="14">
@@ -7208,7 +7223,7 @@
       </c>
       <c r="O51" s="3"/>
       <c r="P51" s="18" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="Q51" s="14">
         <v>6.6E-3</v>
@@ -7216,7 +7231,7 @@
       <c r="R51" s="14">
         <v>8.0000000000000004E-4</v>
       </c>
-      <c r="S51" s="25">
+      <c r="S51" s="22">
         <v>4.0599999999999997E-2</v>
       </c>
       <c r="T51" s="14">
@@ -7234,24 +7249,24 @@
       <c r="Z51" s="3"/>
     </row>
     <row r="52" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="59" t="s">
-        <v>36</v>
-      </c>
-      <c r="B52" s="59"/>
-      <c r="C52" s="59"/>
-      <c r="D52" s="59"/>
-      <c r="E52" s="59"/>
-      <c r="F52" s="59"/>
-      <c r="G52" s="60" t="s">
-        <v>36</v>
-      </c>
-      <c r="H52" s="60"/>
-      <c r="I52" s="60"/>
-      <c r="J52" s="60"/>
-      <c r="K52" s="60"/>
-      <c r="L52" s="60"/>
-      <c r="M52" s="60"/>
-      <c r="N52" s="60"/>
+      <c r="A52" s="52" t="s">
+        <v>33</v>
+      </c>
+      <c r="B52" s="52"/>
+      <c r="C52" s="52"/>
+      <c r="D52" s="52"/>
+      <c r="E52" s="52"/>
+      <c r="F52" s="52"/>
+      <c r="G52" s="53" t="s">
+        <v>33</v>
+      </c>
+      <c r="H52" s="53"/>
+      <c r="I52" s="53"/>
+      <c r="J52" s="53"/>
+      <c r="K52" s="53"/>
+      <c r="L52" s="53"/>
+      <c r="M52" s="53"/>
+      <c r="N52" s="53"/>
       <c r="O52" s="3"/>
       <c r="P52" s="18" t="s">
         <v>10</v>
@@ -7262,7 +7277,7 @@
       <c r="R52" s="14">
         <v>0.73699999999999999</v>
       </c>
-      <c r="S52" s="25">
+      <c r="S52" s="22">
         <v>0.98609999999999998</v>
       </c>
       <c r="T52" s="14">
@@ -7284,7 +7299,7 @@
         <v>3</v>
       </c>
       <c r="B53" s="19" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C53" s="18"/>
       <c r="D53" s="18"/>
@@ -7314,7 +7329,7 @@
       <c r="P53" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="Q53" s="25">
+      <c r="Q53" s="22">
         <v>0.64739999999999998</v>
       </c>
       <c r="R53" s="14">
@@ -7367,7 +7382,7 @@
         <v>101.9222</v>
       </c>
       <c r="K54" s="14" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="L54" s="14">
         <v>768</v>
@@ -7382,7 +7397,7 @@
       <c r="P54" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="Q54" s="25">
+      <c r="Q54" s="22">
         <v>0.74770000000000003</v>
       </c>
       <c r="R54" s="14">
@@ -7414,7 +7429,7 @@
       </c>
       <c r="C55" s="18"/>
       <c r="D55" s="18" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E55" s="18">
         <v>0.99919999999999998</v>
@@ -7435,7 +7450,7 @@
         <v>1</v>
       </c>
       <c r="K55" s="14" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="L55" s="14">
         <v>256</v>
@@ -7456,7 +7471,7 @@
       <c r="R55" s="14">
         <v>0.57269999999999999</v>
       </c>
-      <c r="S55" s="25">
+      <c r="S55" s="22">
         <v>0.76829999999999998</v>
       </c>
       <c r="T55" s="14">
@@ -7482,7 +7497,7 @@
       </c>
       <c r="C56" s="18"/>
       <c r="D56" s="18" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E56" s="19">
         <v>0.66220000000000001</v>
@@ -7494,7 +7509,7 @@
         <v>14</v>
       </c>
       <c r="H56" s="14" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="I56" s="14">
         <v>0.64329999999999998</v>
@@ -7503,7 +7518,7 @@
         <v>0.64500000000000002</v>
       </c>
       <c r="K56" s="14" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="L56" s="14">
         <v>32</v>
@@ -7516,7 +7531,7 @@
       </c>
       <c r="O56" s="3"/>
       <c r="P56" s="56" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q56" s="56"/>
       <c r="R56" s="56"/>
@@ -7534,11 +7549,11 @@
         <v>14</v>
       </c>
       <c r="B57" s="17" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C57" s="18"/>
       <c r="D57" s="18" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E57" s="18">
         <v>8.0000000000000004E-4</v>
@@ -7558,7 +7573,7 @@
         <v>14</v>
       </c>
       <c r="L57" s="16" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="M57" s="14">
         <v>0</v>
@@ -7567,24 +7582,24 @@
         <v>0</v>
       </c>
       <c r="O57" s="3"/>
-      <c r="P57" s="26"/>
-      <c r="Q57" s="28" t="s">
+      <c r="P57" s="23"/>
+      <c r="Q57" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="R57" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="S57" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="R57" s="28" t="s">
+      <c r="T57" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="S57" s="28" t="s">
+      <c r="U57" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="T57" s="28" t="s">
+      <c r="V57" s="25" t="s">
         <v>27</v>
-      </c>
-      <c r="U57" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="V57" s="28" t="s">
-        <v>29</v>
       </c>
       <c r="W57" s="3"/>
       <c r="X57" s="3"/>
@@ -7628,7 +7643,7 @@
       <c r="P58" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="Q58" s="25">
+      <c r="Q58" s="22">
         <v>105.5996</v>
       </c>
       <c r="R58" s="14">
@@ -7652,9 +7667,9 @@
       <c r="Z58" s="3"/>
     </row>
     <row r="59" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="27"/>
-      <c r="B59" s="27"/>
-      <c r="C59" s="27"/>
+      <c r="A59" s="24"/>
+      <c r="B59" s="24"/>
+      <c r="C59" s="24"/>
       <c r="D59" s="18" t="s">
         <v>18</v>
       </c>
@@ -7682,7 +7697,7 @@
       </c>
       <c r="O59" s="3"/>
       <c r="P59" s="18" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="Q59" s="14">
         <v>0.98919999999999997</v>
@@ -7690,7 +7705,7 @@
       <c r="R59" s="14">
         <v>1</v>
       </c>
-      <c r="S59" s="25">
+      <c r="S59" s="22">
         <v>0.96020000000000005</v>
       </c>
       <c r="T59" s="14">
@@ -7738,9 +7753,9 @@
       </c>
       <c r="O60" s="3"/>
       <c r="P60" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q60" s="25">
+        <v>35</v>
+      </c>
+      <c r="Q60" s="22">
         <v>0.50249999999999995</v>
       </c>
       <c r="R60" s="14">
@@ -7794,7 +7809,7 @@
       </c>
       <c r="O61" s="3"/>
       <c r="P61" s="18" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="Q61" s="14">
         <v>1.0800000000000001E-2</v>
@@ -7802,7 +7817,7 @@
       <c r="R61" s="14">
         <v>0</v>
       </c>
-      <c r="S61" s="25">
+      <c r="S61" s="22">
         <v>3.9800000000000002E-2</v>
       </c>
       <c r="T61" s="14">
@@ -7844,7 +7859,7 @@
       <c r="R62" s="14">
         <v>0.73670000000000002</v>
       </c>
-      <c r="S62" s="25">
+      <c r="S62" s="22">
         <v>0.98670000000000002</v>
       </c>
       <c r="T62" s="14">
@@ -7880,7 +7895,7 @@
       <c r="P63" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="Q63" s="25">
+      <c r="Q63" s="22">
         <v>0.64610000000000001</v>
       </c>
       <c r="R63" s="14">
@@ -7922,7 +7937,7 @@
       <c r="P64" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="Q64" s="25">
+      <c r="Q64" s="22">
         <v>0.74729999999999996</v>
       </c>
       <c r="R64" s="14">
@@ -7970,7 +7985,7 @@
       <c r="R65" s="14">
         <v>0.5716</v>
       </c>
-      <c r="S65" s="25">
+      <c r="S65" s="22">
         <v>0.76680000000000004</v>
       </c>
       <c r="T65" s="14">
@@ -34169,6 +34184,20 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="P45:V45"/>
+    <mergeCell ref="P46:V46"/>
+    <mergeCell ref="P56:V56"/>
+    <mergeCell ref="P2:V2"/>
+    <mergeCell ref="P12:V12"/>
+    <mergeCell ref="P24:V24"/>
+    <mergeCell ref="P34:V34"/>
+    <mergeCell ref="P23:V23"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="G2:N2"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="G12:N12"/>
+    <mergeCell ref="A12:F12"/>
     <mergeCell ref="A32:F32"/>
     <mergeCell ref="A42:F42"/>
     <mergeCell ref="A52:F52"/>
@@ -34177,20 +34206,6 @@
     <mergeCell ref="A22:F22"/>
     <mergeCell ref="G42:N42"/>
     <mergeCell ref="G52:N52"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="G2:N2"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="G12:N12"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="P45:V45"/>
-    <mergeCell ref="P46:V46"/>
-    <mergeCell ref="P56:V56"/>
-    <mergeCell ref="P2:V2"/>
-    <mergeCell ref="P12:V12"/>
-    <mergeCell ref="P24:V24"/>
-    <mergeCell ref="P34:V34"/>
-    <mergeCell ref="P23:V23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -34201,7 +34216,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:V1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="H21" activeCellId="6" sqref="B21 C21 D21 E22 F21 G21 H21"/>
     </sheetView>
   </sheetViews>
@@ -34222,13 +34237,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="62" t="s">
-        <v>65</v>
-      </c>
-      <c r="B1" s="63"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="32"/>
+      <c r="A1" s="64" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="65"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="29"/>
       <c r="L1" s="6"/>
       <c r="M1" s="6"/>
       <c r="N1" s="6"/>
@@ -34242,10 +34257,10 @@
       <c r="V1" s="6"/>
     </row>
     <row r="2" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A2" s="62" t="s">
-        <v>66</v>
-      </c>
-      <c r="B2" s="63"/>
+      <c r="A2" s="64" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="65"/>
       <c r="K2" s="6"/>
       <c r="M2" s="6"/>
       <c r="N2" s="6"/>
@@ -34259,10 +34274,10 @@
       <c r="V2" s="6"/>
     </row>
     <row r="3" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="62" t="s">
-        <v>43</v>
-      </c>
-      <c r="B3" s="63"/>
+      <c r="A3" s="64" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="65"/>
       <c r="K3" s="9"/>
       <c r="M3" s="6"/>
       <c r="N3" s="6"/>
@@ -34277,7 +34292,7 @@
     </row>
     <row r="4" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B4" s="17">
         <v>768</v>
@@ -34296,7 +34311,7 @@
     </row>
     <row r="5" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="17" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B5" s="17">
         <v>128</v>
@@ -34358,7 +34373,7 @@
       <c r="B8" s="17">
         <v>3</v>
       </c>
-      <c r="K8" s="32"/>
+      <c r="K8" s="29"/>
       <c r="M8" s="6"/>
       <c r="N8" s="6"/>
       <c r="O8" s="6"/>
@@ -34387,16 +34402,16 @@
       <c r="V10" s="6"/>
     </row>
     <row r="11" spans="1:22" ht="32.4" x14ac:dyDescent="0.6">
-      <c r="A11" s="64" t="s">
-        <v>74</v>
-      </c>
-      <c r="B11" s="65"/>
-      <c r="C11" s="65"/>
-      <c r="D11" s="65"/>
-      <c r="E11" s="65"/>
-      <c r="F11" s="65"/>
-      <c r="G11" s="65"/>
-      <c r="H11" s="66"/>
+      <c r="A11" s="66" t="s">
+        <v>70</v>
+      </c>
+      <c r="B11" s="67"/>
+      <c r="C11" s="67"/>
+      <c r="D11" s="67"/>
+      <c r="E11" s="67"/>
+      <c r="F11" s="67"/>
+      <c r="G11" s="67"/>
+      <c r="H11" s="68"/>
       <c r="Q11" s="6"/>
       <c r="R11" s="6"/>
       <c r="S11" s="6"/>
@@ -34405,20 +34420,20 @@
       <c r="V11" s="6"/>
     </row>
     <row r="12" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="35"/>
-      <c r="B12" s="67" t="s">
-        <v>69</v>
-      </c>
-      <c r="C12" s="68"/>
-      <c r="D12" s="69"/>
-      <c r="E12" s="45" t="s">
-        <v>68</v>
-      </c>
-      <c r="F12" s="67" t="s">
-        <v>67</v>
-      </c>
-      <c r="G12" s="68"/>
-      <c r="H12" s="69"/>
+      <c r="A12" s="32"/>
+      <c r="B12" s="59" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" s="60"/>
+      <c r="D12" s="61"/>
+      <c r="E12" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="F12" s="59" t="s">
+        <v>63</v>
+      </c>
+      <c r="G12" s="60"/>
+      <c r="H12" s="61"/>
       <c r="Q12" s="6"/>
       <c r="R12" s="6"/>
       <c r="S12" s="6"/>
@@ -34427,25 +34442,25 @@
       <c r="V12" s="6"/>
     </row>
     <row r="13" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="35"/>
-      <c r="B13" s="36" t="s">
+      <c r="A13" s="32"/>
+      <c r="B13" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="36" t="s">
+      <c r="C13" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="36" t="s">
+      <c r="D13" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="45"/>
-      <c r="F13" s="37" t="s">
-        <v>70</v>
-      </c>
-      <c r="G13" s="37" t="s">
-        <v>71</v>
-      </c>
-      <c r="H13" s="37" t="s">
-        <v>72</v>
+      <c r="E13" s="42"/>
+      <c r="F13" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="G13" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="H13" s="34" t="s">
+        <v>68</v>
       </c>
       <c r="K13" s="12"/>
       <c r="M13" s="6"/>
@@ -34460,28 +34475,28 @@
       <c r="V13" s="6"/>
     </row>
     <row r="14" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="B14" s="43">
+      <c r="A14" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14" s="40">
         <v>0.89859999999999995</v>
       </c>
-      <c r="C14" s="44">
+      <c r="C14" s="41">
         <v>0.876</v>
       </c>
-      <c r="D14" s="44">
+      <c r="D14" s="41">
         <v>0.88670000000000004</v>
       </c>
-      <c r="E14" s="41">
+      <c r="E14" s="38">
         <v>0.5323</v>
       </c>
-      <c r="F14" s="44">
+      <c r="F14" s="41">
         <v>0.7893</v>
       </c>
-      <c r="G14" s="44">
+      <c r="G14" s="41">
         <v>0.65559999999999996</v>
       </c>
-      <c r="H14" s="44">
+      <c r="H14" s="41">
         <v>0.71589999999999998</v>
       </c>
       <c r="K14" s="12"/>
@@ -34497,28 +34512,28 @@
       <c r="V14" s="6"/>
     </row>
     <row r="15" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="B15" s="40">
+      <c r="A15" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="B15" s="37">
         <v>0.8851</v>
       </c>
-      <c r="C15" s="41">
+      <c r="C15" s="38">
         <v>0.86240000000000006</v>
       </c>
-      <c r="D15" s="41">
+      <c r="D15" s="38">
         <v>0.87309999999999999</v>
       </c>
-      <c r="E15" s="44">
+      <c r="E15" s="41">
         <v>0.54779999999999995</v>
       </c>
-      <c r="F15" s="41">
+      <c r="F15" s="38">
         <v>0.7581</v>
       </c>
-      <c r="G15" s="41">
+      <c r="G15" s="38">
         <v>0.62450000000000006</v>
       </c>
-      <c r="H15" s="41">
+      <c r="H15" s="38">
         <v>0.68730000000000002</v>
       </c>
       <c r="L15" s="7"/>
@@ -34534,28 +34549,28 @@
       <c r="V15" s="6"/>
     </row>
     <row r="16" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="38" t="s">
-        <v>43</v>
-      </c>
-      <c r="B16" s="39">
+      <c r="A16" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="36">
         <v>0.85070000000000001</v>
       </c>
-      <c r="C16" s="39">
+      <c r="C16" s="36">
         <v>0.83660000000000001</v>
       </c>
-      <c r="D16" s="39">
+      <c r="D16" s="36">
         <v>0.84319999999999995</v>
       </c>
-      <c r="E16" s="39">
+      <c r="E16" s="36">
         <v>0.43430000000000002</v>
       </c>
-      <c r="F16" s="39">
+      <c r="F16" s="36">
         <v>0.72550000000000003</v>
       </c>
-      <c r="G16" s="39">
+      <c r="G16" s="36">
         <v>0.52569999999999995</v>
       </c>
-      <c r="H16" s="39">
+      <c r="H16" s="36">
         <v>0.59299999999999997</v>
       </c>
       <c r="L16" s="6"/>
@@ -34571,13 +34586,13 @@
       <c r="V16" s="6"/>
     </row>
     <row r="17" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="34"/>
-      <c r="C17" s="34"/>
-      <c r="D17" s="33"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="30"/>
       <c r="E17" s="6"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="31"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="28"/>
       <c r="L17" s="6"/>
       <c r="M17" s="6"/>
       <c r="N17" s="6"/>
@@ -34591,16 +34606,16 @@
       <c r="V17" s="6"/>
     </row>
     <row r="18" spans="1:22" ht="32.4" x14ac:dyDescent="0.6">
-      <c r="A18" s="64" t="s">
-        <v>73</v>
-      </c>
-      <c r="B18" s="65"/>
-      <c r="C18" s="65"/>
-      <c r="D18" s="65"/>
-      <c r="E18" s="65"/>
-      <c r="F18" s="65"/>
-      <c r="G18" s="65"/>
-      <c r="H18" s="66"/>
+      <c r="A18" s="66" t="s">
+        <v>69</v>
+      </c>
+      <c r="B18" s="67"/>
+      <c r="C18" s="67"/>
+      <c r="D18" s="67"/>
+      <c r="E18" s="67"/>
+      <c r="F18" s="67"/>
+      <c r="G18" s="67"/>
+      <c r="H18" s="68"/>
       <c r="L18" s="6"/>
       <c r="M18" s="6"/>
       <c r="N18" s="6"/>
@@ -34614,20 +34629,20 @@
       <c r="V18" s="6"/>
     </row>
     <row r="19" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="35"/>
-      <c r="B19" s="67" t="s">
-        <v>69</v>
-      </c>
-      <c r="C19" s="68"/>
-      <c r="D19" s="69"/>
-      <c r="E19" s="45" t="s">
-        <v>68</v>
-      </c>
-      <c r="F19" s="67" t="s">
-        <v>67</v>
-      </c>
-      <c r="G19" s="68"/>
-      <c r="H19" s="69"/>
+      <c r="A19" s="32"/>
+      <c r="B19" s="59" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" s="60"/>
+      <c r="D19" s="61"/>
+      <c r="E19" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="F19" s="59" t="s">
+        <v>63</v>
+      </c>
+      <c r="G19" s="60"/>
+      <c r="H19" s="61"/>
       <c r="O19" s="6"/>
       <c r="P19" s="6"/>
       <c r="Q19" s="6"/>
@@ -34638,25 +34653,25 @@
       <c r="V19" s="6"/>
     </row>
     <row r="20" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="35"/>
-      <c r="B20" s="36" t="s">
+      <c r="A20" s="32"/>
+      <c r="B20" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="36" t="s">
+      <c r="C20" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="D20" s="36" t="s">
+      <c r="D20" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="E20" s="45"/>
-      <c r="F20" s="37" t="s">
-        <v>70</v>
-      </c>
-      <c r="G20" s="37" t="s">
-        <v>71</v>
-      </c>
-      <c r="H20" s="37" t="s">
-        <v>72</v>
+      <c r="E20" s="42"/>
+      <c r="F20" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="G20" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="H20" s="34" t="s">
+        <v>68</v>
       </c>
       <c r="O20" s="6"/>
       <c r="P20" s="6"/>
@@ -34668,28 +34683,28 @@
       <c r="V20" s="6"/>
     </row>
     <row r="21" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="B21" s="43">
+      <c r="A21" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="B21" s="40">
         <v>0.90069999999999995</v>
       </c>
-      <c r="C21" s="44">
+      <c r="C21" s="41">
         <v>0.87970000000000004</v>
       </c>
-      <c r="D21" s="44">
+      <c r="D21" s="41">
         <v>0.88959999999999995</v>
       </c>
-      <c r="E21" s="41">
+      <c r="E21" s="38">
         <v>0.54630000000000001</v>
       </c>
-      <c r="F21" s="44">
+      <c r="F21" s="41">
         <v>0.79300000000000004</v>
       </c>
-      <c r="G21" s="44">
+      <c r="G21" s="41">
         <v>0.66090000000000004</v>
       </c>
-      <c r="H21" s="44">
+      <c r="H21" s="41">
         <v>0.72130000000000005</v>
       </c>
       <c r="O21" s="6"/>
@@ -34702,28 +34717,28 @@
       <c r="V21" s="6"/>
     </row>
     <row r="22" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="B22" s="40">
+      <c r="A22" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="B22" s="37">
         <v>0.88349999999999995</v>
       </c>
-      <c r="C22" s="41">
+      <c r="C22" s="38">
         <v>0.86409999999999998</v>
       </c>
-      <c r="D22" s="41">
+      <c r="D22" s="38">
         <v>0.87319999999999998</v>
       </c>
-      <c r="E22" s="44">
+      <c r="E22" s="41">
         <v>0.54930000000000001</v>
       </c>
-      <c r="F22" s="41">
+      <c r="F22" s="38">
         <v>0.75939999999999996</v>
       </c>
-      <c r="G22" s="41">
+      <c r="G22" s="38">
         <v>0.62150000000000005</v>
       </c>
-      <c r="H22" s="41">
+      <c r="H22" s="38">
         <v>0.68520000000000003</v>
       </c>
       <c r="O22" s="6"/>
@@ -34736,28 +34751,28 @@
       <c r="V22" s="6"/>
     </row>
     <row r="23" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="38" t="s">
-        <v>43</v>
-      </c>
-      <c r="B23" s="39">
+      <c r="A23" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" s="36">
         <v>0.85189999999999999</v>
       </c>
-      <c r="C23" s="39">
+      <c r="C23" s="36">
         <v>0.83930000000000005</v>
       </c>
-      <c r="D23" s="39">
+      <c r="D23" s="36">
         <v>0.84519999999999995</v>
       </c>
-      <c r="E23" s="39">
+      <c r="E23" s="36">
         <v>0.44119999999999998</v>
       </c>
-      <c r="F23" s="42">
+      <c r="F23" s="39">
         <v>0.72550000000000003</v>
       </c>
-      <c r="G23" s="39">
+      <c r="G23" s="36">
         <v>0.52869999999999995</v>
       </c>
-      <c r="H23" s="39">
+      <c r="H23" s="36">
         <v>0.59760000000000002</v>
       </c>
       <c r="O23" s="6"/>
@@ -34962,12 +34977,12 @@
       <c r="V35" s="6"/>
     </row>
     <row r="36" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="70"/>
-      <c r="B36" s="71"/>
-      <c r="C36" s="71"/>
-      <c r="D36" s="71"/>
-      <c r="E36" s="71"/>
-      <c r="F36" s="71"/>
+      <c r="A36" s="62"/>
+      <c r="B36" s="63"/>
+      <c r="C36" s="63"/>
+      <c r="D36" s="63"/>
+      <c r="E36" s="63"/>
+      <c r="F36" s="63"/>
       <c r="G36" s="6"/>
       <c r="H36" s="6"/>
       <c r="I36" s="6"/>
@@ -58123,16 +58138,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A11:H11"/>
+    <mergeCell ref="A18:H18"/>
+    <mergeCell ref="F12:H12"/>
     <mergeCell ref="F19:H19"/>
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="B19:D19"/>
     <mergeCell ref="A36:F36"/>
     <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A11:H11"/>
-    <mergeCell ref="A18:H18"/>
-    <mergeCell ref="F12:H12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>

--- a/results/results.xlsx
+++ b/results/results.xlsx
@@ -8,17 +8,29 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\projects\job_recruitment_dataset\train_model\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C59D79F8-DD86-4797-9293-8A8A81D539E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FB4026E-5856-4EFF-AB87-3E8EE300C075}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="task 1 (label)" sheetId="1" r:id="rId1"/>
     <sheet name="task 2 (aspect)" sheetId="2" r:id="rId2"/>
-    <sheet name="task 3 (explanation)" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId3"/>
+    <sheet name="task 3 (explanation)" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataChecksum="6vpcbb5TEKOza5myTyNdr3K7P5Dq8xeI8NZ38+vA9Sw="/>
     </ext>
@@ -27,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="85">
   <si>
     <t>vinai/phobert-base</t>
   </si>
@@ -182,21 +194,6 @@
     <t>2 e / 20</t>
   </si>
   <si>
-    <t>5 e / 20</t>
-  </si>
-  <si>
-    <t>13 e / 20</t>
-  </si>
-  <si>
-    <t>14 e / 20</t>
-  </si>
-  <si>
-    <t>1 e/ 20</t>
-  </si>
-  <si>
-    <t>7 e / 20</t>
-  </si>
-  <si>
     <t>ADDING CNN</t>
   </si>
   <si>
@@ -277,16 +274,44 @@
   <si>
     <t>recalls_test</t>
   </si>
+  <si>
+    <t>20 e / 20</t>
+  </si>
+  <si>
+    <t>12e/20</t>
+  </si>
+  <si>
+    <t>18 e / 20</t>
+  </si>
+  <si>
+    <t>17 e / 20</t>
+  </si>
+  <si>
+    <t>11 e / 20</t>
+  </si>
+  <si>
+    <t>6e / 20</t>
+  </si>
+  <si>
+    <t>7e/ 20</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -589,177 +614,159 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -977,8 +984,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O30" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="S37" sqref="S37"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39:D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -988,7 +995,7 @@
     <col min="3" max="3" width="8.6640625" customWidth="1"/>
     <col min="4" max="4" width="19.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.109375" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="8.88671875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.5546875" bestFit="1" customWidth="1"/>
@@ -997,11 +1004,11 @@
     <col min="15" max="15" width="10.109375" customWidth="1"/>
     <col min="16" max="16" width="21.88671875" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.109375" customWidth="1"/>
+    <col min="19" max="19" width="11" customWidth="1"/>
+    <col min="20" max="20" width="12.6640625" customWidth="1"/>
+    <col min="21" max="21" width="10.21875" customWidth="1"/>
+    <col min="22" max="22" width="11.44140625" customWidth="1"/>
     <col min="23" max="26" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1012,48 +1019,48 @@
       <c r="D1" s="14"/>
       <c r="E1" s="14"/>
       <c r="F1" s="14"/>
-      <c r="G1" s="51" t="s">
+      <c r="G1" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51" t="s">
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51"/>
-      <c r="N1" s="51"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="45"/>
     </row>
     <row r="2" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="49" t="s">
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49"/>
-      <c r="M2" s="49"/>
-      <c r="N2" s="49"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43"/>
       <c r="O2" s="13"/>
-      <c r="P2" s="46" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q2" s="47"/>
-      <c r="R2" s="47"/>
-      <c r="S2" s="47"/>
-      <c r="T2" s="47"/>
-      <c r="U2" s="47"/>
-      <c r="V2" s="48"/>
+      <c r="P2" s="63" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q2" s="63"/>
+      <c r="R2" s="63"/>
+      <c r="S2" s="63"/>
+      <c r="T2" s="63"/>
+      <c r="U2" s="63"/>
+      <c r="V2" s="63"/>
     </row>
     <row r="3" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="17" t="s">
@@ -1118,10 +1125,10 @@
       <c r="D4" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="14">
         <v>36.586799999999997</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="14">
         <v>72.2</v>
       </c>
       <c r="G4" s="14" t="s">
@@ -1131,10 +1138,10 @@
         <v>128</v>
       </c>
       <c r="I4" s="14">
-        <v>35.518700000000003</v>
+        <v>35.290399999999998</v>
       </c>
       <c r="J4" s="14">
-        <v>71.119500000000002</v>
+        <v>69.400199999999998</v>
       </c>
       <c r="K4" s="14" t="s">
         <v>42</v>
@@ -1143,14 +1150,14 @@
         <v>768</v>
       </c>
       <c r="M4" s="14">
-        <v>36.367800000000003</v>
+        <v>35.567599999999999</v>
       </c>
       <c r="N4" s="14">
-        <v>73.439400000000006</v>
+        <v>70.525400000000005</v>
       </c>
       <c r="O4" s="13"/>
-      <c r="P4" s="32" t="s">
-        <v>73</v>
+      <c r="P4" s="35" t="s">
+        <v>68</v>
       </c>
       <c r="Q4" s="32">
         <v>36.586799999999997</v>
@@ -1182,10 +1189,10 @@
       <c r="D5" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="14">
         <v>0.52370000000000005</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="14">
         <v>0.55469999999999997</v>
       </c>
       <c r="G5" s="14" t="s">
@@ -1195,10 +1202,10 @@
         <v>1</v>
       </c>
       <c r="I5" s="14">
-        <v>0.56259999999999999</v>
+        <v>0.55769999999999997</v>
       </c>
       <c r="J5" s="14">
-        <v>0.55779999999999996</v>
+        <v>0.56720000000000004</v>
       </c>
       <c r="K5" s="14" t="s">
         <v>43</v>
@@ -1207,14 +1214,14 @@
         <v>256</v>
       </c>
       <c r="M5" s="14">
-        <v>0.54759999999999998</v>
+        <v>0.5585</v>
       </c>
       <c r="N5" s="14">
-        <v>0.52129999999999999</v>
+        <v>0.57379999999999998</v>
       </c>
       <c r="O5" s="13"/>
-      <c r="P5" s="32" t="s">
-        <v>74</v>
+      <c r="P5" s="35" t="s">
+        <v>69</v>
       </c>
       <c r="Q5" s="32">
         <v>0.52370000000000005</v>
@@ -1246,10 +1253,10 @@
       <c r="D6" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="14">
         <v>0.51900000000000002</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="14">
         <v>0.55079999999999996</v>
       </c>
       <c r="G6" s="14" t="s">
@@ -1259,10 +1266,10 @@
         <v>48</v>
       </c>
       <c r="I6" s="14">
-        <v>0.56399999999999995</v>
+        <v>0.57720000000000005</v>
       </c>
       <c r="J6" s="14">
-        <v>0.56399999999999995</v>
+        <v>0.58120000000000005</v>
       </c>
       <c r="K6" s="14" t="s">
         <v>44</v>
@@ -1271,14 +1278,14 @@
         <v>32</v>
       </c>
       <c r="M6" s="14">
-        <v>0.54990000000000006</v>
+        <v>0.56369999999999998</v>
       </c>
       <c r="N6" s="14">
-        <v>0.5141</v>
+        <v>0.57369999999999999</v>
       </c>
       <c r="O6" s="13"/>
-      <c r="P6" s="32" t="s">
-        <v>75</v>
+      <c r="P6" s="35" t="s">
+        <v>70</v>
       </c>
       <c r="Q6" s="32">
         <v>0.51900000000000002</v>
@@ -1310,35 +1317,35 @@
       <c r="D7" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="14">
         <v>0.48820000000000002</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="14">
         <v>0.51139999999999997</v>
       </c>
       <c r="G7" s="14"/>
       <c r="H7" s="14"/>
       <c r="I7" s="14">
-        <v>0.52410000000000001</v>
+        <v>0.51659999999999995</v>
       </c>
       <c r="J7" s="14">
-        <v>0.52339999999999998</v>
+        <v>0.52049999999999996</v>
       </c>
       <c r="K7" s="14" t="s">
         <v>14</v>
       </c>
       <c r="L7" s="16" t="s">
-        <v>47</v>
+        <v>82</v>
       </c>
       <c r="M7" s="14">
-        <v>0.48549999999999999</v>
+        <v>0.52890000000000004</v>
       </c>
       <c r="N7" s="14">
-        <v>0.4647</v>
+        <v>0.53969999999999996</v>
       </c>
       <c r="O7" s="13"/>
-      <c r="P7" s="32" t="s">
-        <v>76</v>
+      <c r="P7" s="35" t="s">
+        <v>71</v>
       </c>
       <c r="Q7" s="32">
         <v>0.48820000000000002</v>
@@ -1370,31 +1377,31 @@
       <c r="D8" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="14">
         <v>0.49</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="14">
         <v>0.51190000000000002</v>
       </c>
       <c r="G8" s="14"/>
       <c r="H8" s="14"/>
       <c r="I8" s="14">
-        <v>0.52890000000000004</v>
+        <v>0.52039999999999997</v>
       </c>
       <c r="J8" s="14">
-        <v>0.52390000000000003</v>
+        <v>0.52259999999999995</v>
       </c>
       <c r="K8" s="14"/>
       <c r="L8" s="14"/>
       <c r="M8" s="14">
-        <v>0.47289999999999999</v>
+        <v>0.53420000000000001</v>
       </c>
       <c r="N8" s="14">
-        <v>0.44469999999999998</v>
+        <v>0.54339999999999999</v>
       </c>
       <c r="O8" s="13"/>
-      <c r="P8" s="32" t="s">
-        <v>77</v>
+      <c r="P8" s="35" t="s">
+        <v>72</v>
       </c>
       <c r="Q8" s="32">
         <v>0.49</v>
@@ -1416,34 +1423,34 @@
       </c>
     </row>
     <row r="9" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="49" t="s">
+      <c r="A9" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="50"/>
-      <c r="C9" s="50"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="49" t="s">
+      <c r="B9" s="44"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="49"/>
-      <c r="I9" s="49"/>
-      <c r="J9" s="49"/>
-      <c r="K9" s="49"/>
-      <c r="L9" s="49"/>
-      <c r="M9" s="49"/>
-      <c r="N9" s="49"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="43"/>
+      <c r="J9" s="43"/>
+      <c r="K9" s="43"/>
+      <c r="L9" s="43"/>
+      <c r="M9" s="43"/>
+      <c r="N9" s="43"/>
       <c r="O9" s="13"/>
-      <c r="P9" s="46" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q9" s="47"/>
-      <c r="R9" s="47"/>
-      <c r="S9" s="47"/>
-      <c r="T9" s="47"/>
-      <c r="U9" s="47"/>
-      <c r="V9" s="48"/>
+      <c r="P9" s="64" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q9" s="64"/>
+      <c r="R9" s="64"/>
+      <c r="S9" s="64"/>
+      <c r="T9" s="64"/>
+      <c r="U9" s="64"/>
+      <c r="V9" s="64"/>
     </row>
     <row r="10" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="17" t="s">
@@ -1508,10 +1515,10 @@
       <c r="D11" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="14">
         <v>34.943600000000004</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="14">
         <v>69.438100000000006</v>
       </c>
       <c r="G11" s="14" t="s">
@@ -1521,10 +1528,10 @@
         <v>128</v>
       </c>
       <c r="I11" s="14">
-        <v>34.240499999999997</v>
+        <v>34.151499999999999</v>
       </c>
       <c r="J11" s="14">
-        <v>68.696600000000004</v>
+        <v>68.121300000000005</v>
       </c>
       <c r="K11" s="14" t="s">
         <v>42</v>
@@ -1533,32 +1540,32 @@
         <v>768</v>
       </c>
       <c r="M11" s="14">
-        <v>34.5105</v>
+        <v>35.128399999999999</v>
       </c>
       <c r="N11" s="14">
-        <v>68.833699999999993</v>
+        <v>70.428200000000004</v>
       </c>
       <c r="O11" s="13"/>
-      <c r="P11" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q11" s="69">
-        <v>72.2</v>
-      </c>
-      <c r="R11" s="70">
-        <v>69.438100000000006</v>
-      </c>
-      <c r="S11" s="69">
-        <v>77.311999999999998</v>
-      </c>
-      <c r="T11" s="69">
-        <v>81.634399999999999</v>
-      </c>
-      <c r="U11" s="69">
-        <v>79.0381</v>
-      </c>
-      <c r="V11" s="69">
-        <v>71.499799999999993</v>
+      <c r="P11" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q11" s="32">
+        <v>35.290399999999998</v>
+      </c>
+      <c r="R11" s="35">
+        <v>34.151499999999999</v>
+      </c>
+      <c r="S11" s="32">
+        <v>36.397500000000001</v>
+      </c>
+      <c r="T11" s="32">
+        <v>38.836199999999998</v>
+      </c>
+      <c r="U11" s="32">
+        <v>39.051499999999997</v>
+      </c>
+      <c r="V11" s="32">
+        <v>34.565899999999999</v>
       </c>
     </row>
     <row r="12" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1572,10 +1579,10 @@
       <c r="D12" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="14">
         <v>0.57509999999999994</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="14">
         <v>0.57999999999999996</v>
       </c>
       <c r="G12" s="14" t="s">
@@ -1585,10 +1592,10 @@
         <v>1</v>
       </c>
       <c r="I12" s="14">
-        <v>0.59730000000000005</v>
+        <v>0.59340000000000004</v>
       </c>
       <c r="J12" s="14">
-        <v>0.5877</v>
+        <v>0.58250000000000002</v>
       </c>
       <c r="K12" s="14" t="s">
         <v>43</v>
@@ -1597,32 +1604,32 @@
         <v>256</v>
       </c>
       <c r="M12" s="14">
-        <v>0.58909999999999996</v>
+        <v>0.57010000000000005</v>
       </c>
       <c r="N12" s="14">
-        <v>0.5756</v>
+        <v>0.57130000000000003</v>
       </c>
       <c r="O12" s="13"/>
-      <c r="P12" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q12" s="69">
-        <v>0.55469999999999997</v>
-      </c>
-      <c r="R12" s="70">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="S12" s="69">
-        <v>0.50290000000000001</v>
-      </c>
-      <c r="T12" s="69">
-        <v>0.42499999999999999</v>
-      </c>
-      <c r="U12" s="69">
-        <v>0.45729999999999998</v>
-      </c>
-      <c r="V12" s="69">
-        <v>0.54600000000000004</v>
+      <c r="P12" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q12" s="32">
+        <v>0.55769999999999997</v>
+      </c>
+      <c r="R12" s="32">
+        <v>0.59340000000000004</v>
+      </c>
+      <c r="S12" s="32">
+        <v>0.5353</v>
+      </c>
+      <c r="T12" s="32">
+        <v>0.46889999999999998</v>
+      </c>
+      <c r="U12" s="32">
+        <v>0.46389999999999998</v>
+      </c>
+      <c r="V12" s="35">
+        <v>0.59499999999999997</v>
       </c>
     </row>
     <row r="13" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1636,23 +1643,23 @@
       <c r="D13" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="14">
         <v>0.59460000000000002</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="14">
         <v>0.59119999999999995</v>
       </c>
       <c r="G13" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="H13" s="14" t="s">
-        <v>48</v>
+      <c r="H13" s="16" t="s">
+        <v>79</v>
       </c>
       <c r="I13" s="14">
-        <v>0.60309999999999997</v>
+        <v>0.60060000000000002</v>
       </c>
       <c r="J13" s="14">
-        <v>0.59</v>
+        <v>0.58160000000000001</v>
       </c>
       <c r="K13" s="14" t="s">
         <v>44</v>
@@ -1661,32 +1668,32 @@
         <v>32</v>
       </c>
       <c r="M13" s="14">
-        <v>0.60629999999999995</v>
+        <v>0.58520000000000005</v>
       </c>
       <c r="N13" s="14">
-        <v>0.59560000000000002</v>
+        <v>0.57850000000000001</v>
       </c>
       <c r="O13" s="13"/>
-      <c r="P13" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q13" s="69">
-        <v>0.55079999999999996</v>
-      </c>
-      <c r="R13" s="70">
-        <v>0.59119999999999995</v>
-      </c>
-      <c r="S13" s="69">
-        <v>0.40329999999999999</v>
-      </c>
-      <c r="T13" s="69">
-        <v>0.14169999999999999</v>
-      </c>
-      <c r="U13" s="69">
-        <v>0.31140000000000001</v>
-      </c>
-      <c r="V13" s="69">
-        <v>0.54400000000000004</v>
+      <c r="P13" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q13" s="32">
+        <v>0.52039999999999997</v>
+      </c>
+      <c r="R13" s="35">
+        <v>0.56299999999999994</v>
+      </c>
+      <c r="S13" s="32">
+        <v>0.4642</v>
+      </c>
+      <c r="T13" s="32">
+        <v>0.31480000000000002</v>
+      </c>
+      <c r="U13" s="32">
+        <v>0.29199999999999998</v>
+      </c>
+      <c r="V13" s="32">
+        <v>0.55589999999999995</v>
       </c>
     </row>
     <row r="14" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1694,59 +1701,59 @@
         <v>14</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C14" s="18"/>
       <c r="D14" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="14">
         <v>0.53759999999999997</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="14">
         <v>0.53749999999999998</v>
       </c>
       <c r="G14" s="14"/>
       <c r="H14" s="14"/>
       <c r="I14" s="14">
-        <v>0.55830000000000002</v>
+        <v>0.55889999999999995</v>
       </c>
       <c r="J14" s="14">
-        <v>0.55830000000000002</v>
+        <v>0.54930000000000001</v>
       </c>
       <c r="K14" s="14" t="s">
         <v>14</v>
       </c>
       <c r="L14" s="16" t="s">
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="M14" s="14">
-        <v>0.56489999999999996</v>
+        <v>0.54200000000000004</v>
       </c>
       <c r="N14" s="14">
-        <v>0.56200000000000006</v>
+        <v>0.54010000000000002</v>
       </c>
       <c r="O14" s="13"/>
-      <c r="P14" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q14" s="69">
-        <v>0.51139999999999997</v>
-      </c>
-      <c r="R14" s="70">
-        <v>0.53749999999999998</v>
-      </c>
-      <c r="S14" s="69">
-        <v>0.41620000000000001</v>
-      </c>
-      <c r="T14" s="69">
-        <v>0.33329999999999999</v>
-      </c>
-      <c r="U14" s="69">
-        <v>0.373</v>
-      </c>
-      <c r="V14" s="69">
-        <v>0.47749999999999998</v>
+      <c r="P14" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q14" s="32">
+        <v>0.57720000000000005</v>
+      </c>
+      <c r="R14" s="32">
+        <v>0.60060000000000002</v>
+      </c>
+      <c r="S14" s="32">
+        <v>0.55130000000000001</v>
+      </c>
+      <c r="T14" s="32">
+        <v>0.5282</v>
+      </c>
+      <c r="U14" s="32">
+        <v>0.33629999999999999</v>
+      </c>
+      <c r="V14" s="35">
+        <v>0.61990000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1760,69 +1767,78 @@
       <c r="D15" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="14">
         <v>0.54179999999999995</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="14">
         <v>0.53990000000000005</v>
       </c>
       <c r="G15" s="14"/>
       <c r="H15" s="14"/>
       <c r="I15" s="14">
-        <v>0.56459999999999999</v>
+        <v>0.56299999999999994</v>
       </c>
       <c r="J15" s="14">
-        <v>0.56100000000000005</v>
+        <v>0.55249999999999999</v>
       </c>
       <c r="K15" s="14"/>
       <c r="L15" s="14"/>
       <c r="M15" s="14">
-        <v>0.56769999999999998</v>
+        <v>0.54510000000000003</v>
       </c>
       <c r="N15" s="14">
-        <v>0.5585</v>
-      </c>
-      <c r="P15" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q15" s="71">
-        <v>0.51190000000000002</v>
-      </c>
-      <c r="R15" s="70">
-        <v>0.53990000000000005</v>
-      </c>
-      <c r="S15" s="69">
-        <v>0.34689999999999999</v>
-      </c>
-      <c r="T15" s="69">
-        <v>0.1988</v>
-      </c>
-      <c r="U15" s="69">
-        <v>0.29310000000000003</v>
-      </c>
-      <c r="V15" s="69">
-        <v>0.45660000000000001</v>
+        <v>0.54149999999999998</v>
+      </c>
+      <c r="P15" s="35" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q15" s="32">
+        <v>0.51659999999999995</v>
+      </c>
+      <c r="R15" s="35">
+        <v>0.55889999999999995</v>
+      </c>
+      <c r="S15" s="32">
+        <v>0.47649999999999998</v>
+      </c>
+      <c r="T15" s="32">
+        <v>0.38750000000000001</v>
+      </c>
+      <c r="U15" s="32">
+        <v>0.37869999999999998</v>
+      </c>
+      <c r="V15" s="32">
+        <v>0.55279999999999996</v>
       </c>
     </row>
     <row r="16" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="49" t="s">
+      <c r="A16" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="50"/>
-      <c r="C16" s="50"/>
-      <c r="D16" s="50"/>
-      <c r="E16" s="50"/>
-      <c r="F16" s="50"/>
-      <c r="G16" s="49" t="s">
+      <c r="B16" s="44"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="H16" s="49"/>
-      <c r="I16" s="49"/>
-      <c r="J16" s="49"/>
-      <c r="K16" s="49"/>
-      <c r="L16" s="49"/>
-      <c r="M16" s="49"/>
-      <c r="N16" s="49"/>
+      <c r="H16" s="43"/>
+      <c r="I16" s="43"/>
+      <c r="J16" s="43"/>
+      <c r="K16" s="43"/>
+      <c r="L16" s="43"/>
+      <c r="M16" s="43"/>
+      <c r="N16" s="43"/>
+      <c r="P16" s="64" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q16" s="64"/>
+      <c r="R16" s="64"/>
+      <c r="S16" s="64"/>
+      <c r="T16" s="64"/>
+      <c r="U16" s="64"/>
+      <c r="V16" s="64"/>
     </row>
     <row r="17" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="17" t="s">
@@ -1855,15 +1871,25 @@
       <c r="N17" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="P17" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q17" s="44"/>
-      <c r="R17" s="44"/>
-      <c r="S17" s="44"/>
-      <c r="T17" s="44"/>
-      <c r="U17" s="44"/>
-      <c r="V17" s="45"/>
+      <c r="P17" s="20"/>
+      <c r="Q17" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="R17" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="S17" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="T17" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="U17" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="V17" s="21" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="18" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="17" t="s">
@@ -1876,10 +1902,10 @@
       <c r="D18" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="14">
         <v>38.656399999999998</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="14">
         <v>77.311999999999998</v>
       </c>
       <c r="G18" s="14" t="s">
@@ -1889,10 +1915,10 @@
         <v>128</v>
       </c>
       <c r="I18" s="14">
-        <v>37.413899999999998</v>
+        <v>36.397500000000001</v>
       </c>
       <c r="J18" s="14">
-        <v>73.477400000000003</v>
+        <v>72.728200000000001</v>
       </c>
       <c r="K18" s="14" t="s">
         <v>42</v>
@@ -1901,20 +1927,32 @@
         <v>768</v>
       </c>
       <c r="M18" s="14">
-        <v>40.671199999999999</v>
+        <v>37.780999999999999</v>
       </c>
       <c r="N18" s="14">
-        <v>81.620199999999997</v>
-      </c>
-      <c r="P18" s="46" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q18" s="47"/>
-      <c r="R18" s="47"/>
-      <c r="S18" s="47"/>
-      <c r="T18" s="47"/>
-      <c r="U18" s="47"/>
-      <c r="V18" s="48"/>
+        <v>75.566100000000006</v>
+      </c>
+      <c r="P18" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q18" s="32">
+        <v>35.567599999999999</v>
+      </c>
+      <c r="R18" s="32">
+        <v>35.128399999999999</v>
+      </c>
+      <c r="S18" s="32">
+        <v>37.780999999999999</v>
+      </c>
+      <c r="T18" s="32">
+        <v>40.905200000000001</v>
+      </c>
+      <c r="U18" s="32">
+        <v>40.156999999999996</v>
+      </c>
+      <c r="V18" s="35">
+        <v>34.807499999999997</v>
+      </c>
     </row>
     <row r="19" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="17" t="s">
@@ -1927,10 +1965,10 @@
       <c r="D19" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="14">
         <v>0.50460000000000005</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="14">
         <v>0.50290000000000001</v>
       </c>
       <c r="G19" s="14" t="s">
@@ -1940,10 +1978,10 @@
         <v>1</v>
       </c>
       <c r="I19" s="14">
-        <v>0.52529999999999999</v>
+        <v>0.5353</v>
       </c>
       <c r="J19" s="14">
-        <v>0.53669999999999995</v>
+        <v>0.53190000000000004</v>
       </c>
       <c r="K19" s="14" t="s">
         <v>43</v>
@@ -1952,29 +1990,31 @@
         <v>256</v>
       </c>
       <c r="M19" s="14">
-        <v>0.43</v>
+        <v>0.50370000000000004</v>
       </c>
       <c r="N19" s="14">
-        <v>0.41399999999999998</v>
-      </c>
-      <c r="P19" s="20"/>
-      <c r="Q19" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="R19" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="S19" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="T19" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="U19" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="V19" s="21" t="s">
-        <v>27</v>
+        <v>0.51</v>
+      </c>
+      <c r="P19" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q19" s="32">
+        <v>0.5585</v>
+      </c>
+      <c r="R19" s="35">
+        <v>0.57010000000000005</v>
+      </c>
+      <c r="S19" s="32">
+        <v>0.50370000000000004</v>
+      </c>
+      <c r="T19" s="32">
+        <v>0.4224</v>
+      </c>
+      <c r="U19" s="32">
+        <v>0.43319999999999997</v>
+      </c>
+      <c r="V19" s="32">
+        <v>0.56930000000000003</v>
       </c>
     </row>
     <row r="20" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1988,10 +2028,10 @@
       <c r="D20" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="14">
         <v>0.40789999999999998</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="14">
         <v>0.40329999999999999</v>
       </c>
       <c r="G20" s="14" t="s">
@@ -2001,10 +2041,10 @@
         <v>49</v>
       </c>
       <c r="I20" s="14">
-        <v>0.52039999999999997</v>
+        <v>0.55130000000000001</v>
       </c>
       <c r="J20" s="14">
-        <v>0.56310000000000004</v>
+        <v>0.54669999999999996</v>
       </c>
       <c r="K20" s="14" t="s">
         <v>44</v>
@@ -2013,31 +2053,31 @@
         <v>32</v>
       </c>
       <c r="M20" s="14">
-        <v>0.14330000000000001</v>
+        <v>0.50190000000000001</v>
       </c>
       <c r="N20" s="14">
-        <v>0.13800000000000001</v>
-      </c>
-      <c r="P20" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q20" s="14">
-        <v>35.518700000000003</v>
-      </c>
-      <c r="R20" s="22">
-        <v>34.240499999999997</v>
-      </c>
-      <c r="S20" s="14">
-        <v>37.413899999999998</v>
-      </c>
-      <c r="T20" s="14">
-        <v>40.881500000000003</v>
-      </c>
-      <c r="U20" s="14">
-        <v>39.932600000000001</v>
-      </c>
-      <c r="V20" s="14">
-        <v>34.466700000000003</v>
+        <v>0.56479999999999997</v>
+      </c>
+      <c r="P20" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q20" s="32">
+        <v>0.53420000000000001</v>
+      </c>
+      <c r="R20" s="35">
+        <v>0.54510000000000003</v>
+      </c>
+      <c r="S20" s="32">
+        <v>0.36059999999999998</v>
+      </c>
+      <c r="T20" s="32">
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="U20" s="32">
+        <v>0.22520000000000001</v>
+      </c>
+      <c r="V20" s="32">
+        <v>0.51580000000000004</v>
       </c>
     </row>
     <row r="21" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -2045,58 +2085,58 @@
         <v>14</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C21" s="18"/>
       <c r="D21" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="14">
         <v>0.41920000000000002</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="14">
         <v>0.41620000000000001</v>
       </c>
       <c r="G21" s="14"/>
       <c r="H21" s="14"/>
       <c r="I21" s="14">
-        <v>0.4546</v>
+        <v>0.47649999999999998</v>
       </c>
       <c r="J21" s="14">
-        <v>0.4773</v>
+        <v>0.47139999999999999</v>
       </c>
       <c r="K21" s="14" t="s">
         <v>14</v>
       </c>
       <c r="L21" s="14" t="s">
-        <v>54</v>
+        <v>84</v>
       </c>
       <c r="M21" s="14">
-        <v>0.33329999999999999</v>
+        <v>0.42180000000000001</v>
       </c>
       <c r="N21" s="14">
-        <v>0.33329999999999999</v>
-      </c>
-      <c r="P21" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q21" s="14">
-        <v>0.56259999999999999</v>
-      </c>
-      <c r="R21" s="22">
-        <v>0.59730000000000005</v>
-      </c>
-      <c r="S21" s="14">
-        <v>0.52529999999999999</v>
-      </c>
-      <c r="T21" s="14">
-        <v>0.43</v>
-      </c>
-      <c r="U21" s="14">
-        <v>0.45979999999999999</v>
-      </c>
-      <c r="V21" s="14">
-        <v>0.57499999999999996</v>
+        <v>0.42730000000000001</v>
+      </c>
+      <c r="P21" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q21" s="32">
+        <v>0.56369999999999998</v>
+      </c>
+      <c r="R21" s="32">
+        <v>0.58520000000000005</v>
+      </c>
+      <c r="S21" s="32">
+        <v>0.50190000000000001</v>
+      </c>
+      <c r="T21" s="32">
+        <v>0.14080000000000001</v>
+      </c>
+      <c r="U21" s="32">
+        <v>0.34820000000000001</v>
+      </c>
+      <c r="V21" s="35">
+        <v>0.60699999999999998</v>
       </c>
     </row>
     <row r="22" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -2110,90 +2150,69 @@
       <c r="D22" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="14">
         <v>0.34749999999999998</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="14">
         <v>0.34689999999999999</v>
       </c>
       <c r="G22" s="14"/>
       <c r="H22" s="14"/>
       <c r="I22" s="14">
-        <v>0.43090000000000001</v>
+        <v>0.4642</v>
       </c>
       <c r="J22" s="14">
-        <v>0.4582</v>
+        <v>0.4597</v>
       </c>
       <c r="K22" s="14"/>
       <c r="L22" s="14"/>
       <c r="M22" s="14">
-        <v>0.20050000000000001</v>
+        <v>0.36059999999999998</v>
       </c>
       <c r="N22" s="14">
-        <v>0.19520000000000001</v>
-      </c>
-      <c r="P22" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q22" s="14">
-        <v>0.56399999999999995</v>
-      </c>
-      <c r="R22" s="22">
-        <v>0.60309999999999997</v>
-      </c>
-      <c r="S22" s="14">
-        <v>0.52039999999999997</v>
-      </c>
-      <c r="T22" s="14">
-        <v>0.14330000000000001</v>
-      </c>
-      <c r="U22" s="14">
-        <v>0.29480000000000001</v>
-      </c>
-      <c r="V22" s="14">
-        <v>0.57120000000000004</v>
+        <v>0.37269999999999998</v>
+      </c>
+      <c r="P22" s="35" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q22" s="32">
+        <v>0.52890000000000004</v>
+      </c>
+      <c r="R22" s="35">
+        <v>0.54200000000000004</v>
+      </c>
+      <c r="S22" s="32">
+        <v>0.42180000000000001</v>
+      </c>
+      <c r="T22" s="32">
+        <v>0.33329999999999999</v>
+      </c>
+      <c r="U22" s="32">
+        <v>0.34489999999999998</v>
+      </c>
+      <c r="V22" s="32">
+        <v>0.51739999999999997</v>
       </c>
     </row>
     <row r="23" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="49" t="s">
+      <c r="A23" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="50"/>
-      <c r="C23" s="50"/>
-      <c r="D23" s="50"/>
-      <c r="E23" s="50"/>
-      <c r="F23" s="50"/>
-      <c r="G23" s="49" t="s">
+      <c r="B23" s="44"/>
+      <c r="C23" s="44"/>
+      <c r="D23" s="44"/>
+      <c r="E23" s="44"/>
+      <c r="F23" s="44"/>
+      <c r="G23" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="H23" s="49"/>
-      <c r="I23" s="49"/>
-      <c r="J23" s="49"/>
-      <c r="K23" s="49"/>
-      <c r="L23" s="49"/>
-      <c r="M23" s="49"/>
-      <c r="N23" s="49"/>
-      <c r="P23" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q23" s="14">
-        <v>0.52410000000000001</v>
-      </c>
-      <c r="R23" s="22">
-        <v>0.55830000000000002</v>
-      </c>
-      <c r="S23" s="14">
-        <v>0.4546</v>
-      </c>
-      <c r="T23" s="14">
-        <v>0.33329999999999999</v>
-      </c>
-      <c r="U23" s="14">
-        <v>0.38090000000000002</v>
-      </c>
-      <c r="V23" s="14">
-        <v>0.53690000000000004</v>
-      </c>
+      <c r="H23" s="43"/>
+      <c r="I23" s="43"/>
+      <c r="J23" s="43"/>
+      <c r="K23" s="43"/>
+      <c r="L23" s="43"/>
+      <c r="M23" s="43"/>
+      <c r="N23" s="43"/>
     </row>
     <row r="24" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="17" t="s">
@@ -2226,27 +2245,15 @@
       <c r="N24" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="P24" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q24" s="14">
-        <v>0.52890000000000004</v>
-      </c>
-      <c r="R24" s="22">
-        <v>0.56459999999999999</v>
-      </c>
-      <c r="S24" s="14">
-        <v>0.43090000000000001</v>
-      </c>
-      <c r="T24" s="14">
-        <v>0.20050000000000001</v>
-      </c>
-      <c r="U24" s="14">
-        <v>0.314</v>
-      </c>
-      <c r="V24" s="14">
-        <v>0.54169999999999996</v>
-      </c>
+      <c r="P24" s="63" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="63"/>
+      <c r="R24" s="63"/>
+      <c r="S24" s="63"/>
+      <c r="T24" s="63"/>
+      <c r="U24" s="63"/>
+      <c r="V24" s="63"/>
     </row>
     <row r="25" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="17" t="s">
@@ -2259,10 +2266,10 @@
       <c r="D25" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="14">
         <v>40.902900000000002</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="14">
         <v>81.634399999999999</v>
       </c>
       <c r="G25" s="14" t="s">
@@ -2272,10 +2279,10 @@
         <v>128</v>
       </c>
       <c r="I25" s="14">
-        <v>40.881500000000003</v>
+        <v>38.836199999999998</v>
       </c>
       <c r="J25" s="14">
-        <v>82.060900000000004</v>
+        <v>76.7453</v>
       </c>
       <c r="K25" s="14" t="s">
         <v>42</v>
@@ -2284,20 +2291,30 @@
         <v>768</v>
       </c>
       <c r="M25" s="14">
-        <v>40.899099999999997</v>
+        <v>40.905200000000001</v>
       </c>
       <c r="N25" s="14">
-        <v>82.167500000000004</v>
-      </c>
-      <c r="P25" s="46" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q25" s="47"/>
-      <c r="R25" s="47"/>
-      <c r="S25" s="47"/>
-      <c r="T25" s="47"/>
-      <c r="U25" s="47"/>
-      <c r="V25" s="48"/>
+        <v>81.584400000000002</v>
+      </c>
+      <c r="P25" s="20"/>
+      <c r="Q25" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="R25" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="S25" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="T25" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="U25" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="V25" s="21" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="26" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="17" t="s">
@@ -2310,10 +2327,10 @@
       <c r="D26" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="14">
         <v>0.4224</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="14">
         <v>0.42499999999999999</v>
       </c>
       <c r="G26" s="14" t="s">
@@ -2323,10 +2340,10 @@
         <v>1</v>
       </c>
       <c r="I26" s="14">
-        <v>0.43</v>
+        <v>0.46889999999999998</v>
       </c>
       <c r="J26" s="14">
-        <v>0.41399999999999998</v>
+        <v>0.47220000000000001</v>
       </c>
       <c r="K26" s="14" t="s">
         <v>43</v>
@@ -2335,29 +2352,31 @@
         <v>256</v>
       </c>
       <c r="M26" s="14">
-        <v>0.43</v>
+        <v>0.4224</v>
       </c>
       <c r="N26" s="14">
-        <v>0.41399999999999998</v>
-      </c>
-      <c r="P26" s="20"/>
-      <c r="Q26" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="R26" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="S26" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="T26" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="U26" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="V26" s="21" t="s">
-        <v>27</v>
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="P26" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q26" s="19">
+        <v>72.2</v>
+      </c>
+      <c r="R26" s="24">
+        <v>69.438100000000006</v>
+      </c>
+      <c r="S26" s="19">
+        <v>77.311999999999998</v>
+      </c>
+      <c r="T26" s="19">
+        <v>81.634399999999999</v>
+      </c>
+      <c r="U26" s="19">
+        <v>79.0381</v>
+      </c>
+      <c r="V26" s="19">
+        <v>71.499799999999993</v>
       </c>
     </row>
     <row r="27" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -2371,23 +2390,23 @@
       <c r="D27" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="14">
         <v>0.14080000000000001</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="14">
         <v>0.14169999999999999</v>
       </c>
       <c r="G27" s="14" t="s">
         <v>14</v>
       </c>
       <c r="H27" s="16" t="s">
-        <v>50</v>
+        <v>78</v>
       </c>
       <c r="I27" s="14">
-        <v>0.14330000000000001</v>
+        <v>0.5282</v>
       </c>
       <c r="J27" s="14">
-        <v>0.13800000000000001</v>
+        <v>0.48120000000000002</v>
       </c>
       <c r="K27" s="14" t="s">
         <v>44</v>
@@ -2396,31 +2415,31 @@
         <v>32</v>
       </c>
       <c r="M27" s="14">
-        <v>0.14330000000000001</v>
+        <v>0.14080000000000001</v>
       </c>
       <c r="N27" s="14">
-        <v>0.13800000000000001</v>
+        <v>0.14169999999999999</v>
       </c>
       <c r="P27" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q27" s="14">
-        <v>71.119500000000002</v>
-      </c>
-      <c r="R27" s="14">
-        <v>68.696600000000004</v>
-      </c>
-      <c r="S27" s="14">
-        <v>73.477400000000003</v>
-      </c>
-      <c r="T27" s="14">
-        <v>82.060900000000004</v>
-      </c>
-      <c r="U27" s="14">
-        <v>79.351399999999998</v>
-      </c>
-      <c r="V27" s="22">
-        <v>68.639700000000005</v>
+        <v>74</v>
+      </c>
+      <c r="Q27" s="19">
+        <v>0.55469999999999997</v>
+      </c>
+      <c r="R27" s="24">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="S27" s="19">
+        <v>0.50290000000000001</v>
+      </c>
+      <c r="T27" s="19">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="U27" s="19">
+        <v>0.45729999999999998</v>
+      </c>
+      <c r="V27" s="19">
+        <v>0.54600000000000004</v>
       </c>
     </row>
     <row r="28" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -2434,19 +2453,19 @@
       <c r="D28" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="14">
         <v>0.33329999999999999</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="14">
         <v>0.33329999999999999</v>
       </c>
       <c r="G28" s="14"/>
       <c r="H28" s="14"/>
       <c r="I28" s="14">
-        <v>0.33329999999999999</v>
+        <v>0.38750000000000001</v>
       </c>
       <c r="J28" s="14">
-        <v>0.33329999999999999</v>
+        <v>0.3891</v>
       </c>
       <c r="K28" s="14" t="s">
         <v>14</v>
@@ -2461,25 +2480,25 @@
         <v>0.33329999999999999</v>
       </c>
       <c r="P28" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q28" s="14">
-        <v>0.55779999999999996</v>
-      </c>
-      <c r="R28" s="14">
-        <v>0.5877</v>
-      </c>
-      <c r="S28" s="14">
-        <v>0.53669999999999995</v>
-      </c>
-      <c r="T28" s="14">
-        <v>0.41399999999999998</v>
-      </c>
-      <c r="U28" s="14">
-        <v>0.45050000000000001</v>
-      </c>
-      <c r="V28" s="22">
-        <v>0.59179999999999999</v>
+        <v>75</v>
+      </c>
+      <c r="Q28" s="19">
+        <v>0.55079999999999996</v>
+      </c>
+      <c r="R28" s="24">
+        <v>0.59119999999999995</v>
+      </c>
+      <c r="S28" s="19">
+        <v>0.40329999999999999</v>
+      </c>
+      <c r="T28" s="19">
+        <v>0.14169999999999999</v>
+      </c>
+      <c r="U28" s="19">
+        <v>0.31140000000000001</v>
+      </c>
+      <c r="V28" s="19">
+        <v>0.54400000000000004</v>
       </c>
     </row>
     <row r="29" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -2493,89 +2512,89 @@
       <c r="D29" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="14">
         <v>0.19800000000000001</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="14">
         <v>0.1988</v>
       </c>
       <c r="G29" s="14"/>
       <c r="H29" s="14"/>
       <c r="I29" s="14">
-        <v>0.20050000000000001</v>
+        <v>0.31480000000000002</v>
       </c>
       <c r="J29" s="14">
-        <v>0.19520000000000001</v>
+        <v>0.3206</v>
       </c>
       <c r="K29" s="14"/>
       <c r="L29" s="14"/>
       <c r="M29" s="14">
-        <v>0.20050000000000001</v>
+        <v>0.19800000000000001</v>
       </c>
       <c r="N29" s="14">
-        <v>0.19520000000000001</v>
+        <v>0.1988</v>
       </c>
       <c r="P29" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q29" s="14">
-        <v>0.56399999999999995</v>
-      </c>
-      <c r="R29" s="14">
-        <v>0.59</v>
-      </c>
-      <c r="S29" s="14">
-        <v>0.56310000000000004</v>
-      </c>
-      <c r="T29" s="14">
-        <v>0.13800000000000001</v>
-      </c>
-      <c r="U29" s="14">
-        <v>0.29559999999999997</v>
-      </c>
-      <c r="V29" s="22">
-        <v>0.59150000000000003</v>
+        <v>76</v>
+      </c>
+      <c r="Q29" s="19">
+        <v>0.51139999999999997</v>
+      </c>
+      <c r="R29" s="24">
+        <v>0.53749999999999998</v>
+      </c>
+      <c r="S29" s="19">
+        <v>0.41620000000000001</v>
+      </c>
+      <c r="T29" s="19">
+        <v>0.33329999999999999</v>
+      </c>
+      <c r="U29" s="19">
+        <v>0.373</v>
+      </c>
+      <c r="V29" s="19">
+        <v>0.47749999999999998</v>
       </c>
     </row>
     <row r="30" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="49" t="s">
+      <c r="A30" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="B30" s="50"/>
-      <c r="C30" s="50"/>
-      <c r="D30" s="50"/>
-      <c r="E30" s="50"/>
-      <c r="F30" s="50"/>
-      <c r="G30" s="49" t="s">
+      <c r="B30" s="44"/>
+      <c r="C30" s="44"/>
+      <c r="D30" s="44"/>
+      <c r="E30" s="44"/>
+      <c r="F30" s="44"/>
+      <c r="G30" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="H30" s="49"/>
-      <c r="I30" s="49"/>
-      <c r="J30" s="49"/>
-      <c r="K30" s="49"/>
-      <c r="L30" s="49"/>
-      <c r="M30" s="49"/>
-      <c r="N30" s="49"/>
+      <c r="H30" s="43"/>
+      <c r="I30" s="43"/>
+      <c r="J30" s="43"/>
+      <c r="K30" s="43"/>
+      <c r="L30" s="43"/>
+      <c r="M30" s="43"/>
+      <c r="N30" s="43"/>
       <c r="P30" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q30" s="14">
-        <v>0.52339999999999998</v>
-      </c>
-      <c r="R30" s="14">
-        <v>0.55830000000000002</v>
-      </c>
-      <c r="S30" s="14">
-        <v>0.4773</v>
-      </c>
-      <c r="T30" s="14">
-        <v>0.33329999999999999</v>
-      </c>
-      <c r="U30" s="14">
-        <v>0.38059999999999999</v>
-      </c>
-      <c r="V30" s="22">
-        <v>0.56100000000000005</v>
+        <v>77</v>
+      </c>
+      <c r="Q30" s="18">
+        <v>0.51190000000000002</v>
+      </c>
+      <c r="R30" s="24">
+        <v>0.53990000000000005</v>
+      </c>
+      <c r="S30" s="19">
+        <v>0.34689999999999999</v>
+      </c>
+      <c r="T30" s="19">
+        <v>0.1988</v>
+      </c>
+      <c r="U30" s="19">
+        <v>0.29310000000000003</v>
+      </c>
+      <c r="V30" s="19">
+        <v>0.45660000000000001</v>
       </c>
     </row>
     <row r="31" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -2609,27 +2628,15 @@
       <c r="N31" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="P31" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q31" s="14">
-        <v>0.52390000000000003</v>
-      </c>
-      <c r="R31" s="14">
-        <v>0.56100000000000005</v>
-      </c>
-      <c r="S31" s="14">
-        <v>0.4582</v>
-      </c>
-      <c r="T31" s="14">
-        <v>0.19520000000000001</v>
-      </c>
-      <c r="U31" s="14">
-        <v>0.31030000000000002</v>
-      </c>
-      <c r="V31" s="22">
-        <v>0.56389999999999996</v>
-      </c>
+      <c r="P31" s="64" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q31" s="64"/>
+      <c r="R31" s="64"/>
+      <c r="S31" s="64"/>
+      <c r="T31" s="64"/>
+      <c r="U31" s="64"/>
+      <c r="V31" s="64"/>
     </row>
     <row r="32" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="17" t="s">
@@ -2642,10 +2649,10 @@
       <c r="D32" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="14">
         <v>39.638800000000003</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="14">
         <v>79.0381</v>
       </c>
       <c r="G32" s="14" t="s">
@@ -2655,10 +2662,10 @@
         <v>128</v>
       </c>
       <c r="I32" s="14">
-        <v>39.932600000000001</v>
+        <v>39.051499999999997</v>
       </c>
       <c r="J32" s="14">
-        <v>79.351399999999998</v>
+        <v>77.9649</v>
       </c>
       <c r="K32" s="14" t="s">
         <v>42</v>
@@ -2667,10 +2674,29 @@
         <v>768</v>
       </c>
       <c r="M32" s="14">
-        <v>40.176099999999998</v>
+        <v>40.156999999999996</v>
       </c>
       <c r="N32" s="14">
-        <v>79.838700000000003</v>
+        <v>79.947800000000001</v>
+      </c>
+      <c r="P32" s="20"/>
+      <c r="Q32" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="R32" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="S32" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="T32" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="U32" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="V32" s="21" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="33" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -2684,10 +2710,10 @@
       <c r="D33" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="14">
         <v>0.45729999999999998</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="14">
         <v>0.45729999999999998</v>
       </c>
       <c r="G33" s="14" t="s">
@@ -2697,10 +2723,10 @@
         <v>1</v>
       </c>
       <c r="I33" s="14">
-        <v>0.45979999999999999</v>
+        <v>0.46389999999999998</v>
       </c>
       <c r="J33" s="14">
-        <v>0.45050000000000001</v>
+        <v>0.4602</v>
       </c>
       <c r="K33" s="14" t="s">
         <v>43</v>
@@ -2709,20 +2735,32 @@
         <v>256</v>
       </c>
       <c r="M33" s="14">
-        <v>0.44740000000000002</v>
+        <v>0.43319999999999997</v>
       </c>
       <c r="N33" s="14">
-        <v>0.43930000000000002</v>
-      </c>
-      <c r="P33" s="43" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q33" s="44"/>
-      <c r="R33" s="44"/>
-      <c r="S33" s="44"/>
-      <c r="T33" s="44"/>
-      <c r="U33" s="44"/>
-      <c r="V33" s="45"/>
+        <v>0.43859999999999999</v>
+      </c>
+      <c r="P33" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q33" s="32">
+        <v>69.400199999999998</v>
+      </c>
+      <c r="R33" s="35">
+        <v>68.121300000000005</v>
+      </c>
+      <c r="S33" s="32">
+        <v>72.728200000000001</v>
+      </c>
+      <c r="T33" s="32">
+        <v>76.7453</v>
+      </c>
+      <c r="U33" s="32">
+        <v>77.9649</v>
+      </c>
+      <c r="V33" s="32">
+        <v>68.279799999999994</v>
+      </c>
     </row>
     <row r="34" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="17" t="s">
@@ -2735,23 +2773,23 @@
       <c r="D34" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="14">
         <v>0.31509999999999999</v>
       </c>
-      <c r="F34">
+      <c r="F34" s="14">
         <v>0.31140000000000001</v>
       </c>
       <c r="G34" s="14" t="s">
         <v>14</v>
       </c>
       <c r="H34" s="16" t="s">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="I34" s="14">
-        <v>0.29480000000000001</v>
+        <v>0.33629999999999999</v>
       </c>
       <c r="J34" s="14">
-        <v>0.29559999999999997</v>
+        <v>0.4995</v>
       </c>
       <c r="K34" s="14" t="s">
         <v>44</v>
@@ -2760,20 +2798,32 @@
         <v>32</v>
       </c>
       <c r="M34" s="14">
-        <v>0.34549999999999997</v>
+        <v>0.34820000000000001</v>
       </c>
       <c r="N34" s="14">
-        <v>0.35399999999999998</v>
-      </c>
-      <c r="P34" s="46" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q34" s="47"/>
-      <c r="R34" s="47"/>
-      <c r="S34" s="47"/>
-      <c r="T34" s="47"/>
-      <c r="U34" s="47"/>
-      <c r="V34" s="48"/>
+        <v>0.34</v>
+      </c>
+      <c r="P34" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q34" s="32">
+        <v>0.56720000000000004</v>
+      </c>
+      <c r="R34" s="32">
+        <v>0.58250000000000002</v>
+      </c>
+      <c r="S34" s="32">
+        <v>0.53190000000000004</v>
+      </c>
+      <c r="T34" s="32">
+        <v>0.47220000000000001</v>
+      </c>
+      <c r="U34" s="32">
+        <v>0.4602</v>
+      </c>
+      <c r="V34" s="35">
+        <v>0.58909999999999996</v>
+      </c>
     </row>
     <row r="35" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="17" t="s">
@@ -2786,50 +2836,52 @@
       <c r="D35" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="14">
         <v>0.37359999999999999</v>
       </c>
-      <c r="F35">
+      <c r="F35" s="14">
         <v>0.373</v>
       </c>
       <c r="G35" s="14"/>
       <c r="H35" s="14"/>
       <c r="I35" s="14">
-        <v>0.38090000000000002</v>
+        <v>0.37869999999999998</v>
       </c>
       <c r="J35" s="14">
-        <v>0.38059999999999999</v>
+        <v>0.37419999999999998</v>
       </c>
       <c r="K35" s="14" t="s">
         <v>14</v>
       </c>
       <c r="L35" s="14" t="s">
-        <v>45</v>
+        <v>83</v>
       </c>
       <c r="M35" s="14">
-        <v>0.35470000000000002</v>
+        <v>0.34489999999999998</v>
       </c>
       <c r="N35" s="14">
-        <v>0.35980000000000001</v>
-      </c>
-      <c r="P35" s="20"/>
-      <c r="Q35" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="R35" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="S35" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="T35" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="U35" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="V35" s="21" t="s">
-        <v>27</v>
+        <v>0.34810000000000002</v>
+      </c>
+      <c r="P35" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q35" s="32">
+        <v>0.52259999999999995</v>
+      </c>
+      <c r="R35" s="35">
+        <v>0.55249999999999999</v>
+      </c>
+      <c r="S35" s="32">
+        <v>0.4597</v>
+      </c>
+      <c r="T35" s="32">
+        <v>0.3206</v>
+      </c>
+      <c r="U35" s="32">
+        <v>0.29110000000000003</v>
+      </c>
+      <c r="V35" s="32">
+        <v>0.54500000000000004</v>
       </c>
     </row>
     <row r="36" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -2843,89 +2895,89 @@
       <c r="D36" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="14">
         <v>0.2888</v>
       </c>
-      <c r="F36">
+      <c r="F36" s="14">
         <v>0.29310000000000003</v>
       </c>
       <c r="G36" s="14"/>
       <c r="H36" s="14"/>
       <c r="I36" s="14">
-        <v>0.314</v>
+        <v>0.29199999999999998</v>
       </c>
       <c r="J36" s="14">
-        <v>0.31030000000000002</v>
+        <v>0.29110000000000003</v>
       </c>
       <c r="K36" s="14"/>
       <c r="L36" s="14"/>
       <c r="M36" s="14">
-        <v>0.25390000000000001</v>
+        <v>0.22520000000000001</v>
       </c>
       <c r="N36" s="14">
-        <v>0.25319999999999998</v>
-      </c>
-      <c r="P36" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q36" s="14">
-        <v>36.367800000000003</v>
-      </c>
-      <c r="R36" s="22">
-        <v>34.5105</v>
-      </c>
-      <c r="S36" s="14">
-        <v>40.671199999999999</v>
-      </c>
-      <c r="T36" s="14">
-        <v>40.899099999999997</v>
-      </c>
-      <c r="U36" s="14">
-        <v>40.176099999999998</v>
-      </c>
-      <c r="V36" s="14">
-        <v>36.776600000000002</v>
+        <v>0.23319999999999999</v>
+      </c>
+      <c r="P36" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q36" s="32">
+        <v>0.58120000000000005</v>
+      </c>
+      <c r="R36" s="32">
+        <v>0.58160000000000001</v>
+      </c>
+      <c r="S36" s="32">
+        <v>0.54669999999999996</v>
+      </c>
+      <c r="T36" s="32">
+        <v>0.48120000000000002</v>
+      </c>
+      <c r="U36" s="32">
+        <v>0.4995</v>
+      </c>
+      <c r="V36" s="35">
+        <v>0.61170000000000002</v>
       </c>
     </row>
     <row r="37" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="49" t="s">
+      <c r="A37" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="B37" s="50"/>
-      <c r="C37" s="50"/>
-      <c r="D37" s="50"/>
-      <c r="E37" s="50"/>
-      <c r="F37" s="50"/>
-      <c r="G37" s="49" t="s">
+      <c r="B37" s="44"/>
+      <c r="C37" s="44"/>
+      <c r="D37" s="44"/>
+      <c r="E37" s="44"/>
+      <c r="F37" s="44"/>
+      <c r="G37" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="H37" s="49"/>
-      <c r="I37" s="49"/>
-      <c r="J37" s="49"/>
-      <c r="K37" s="49"/>
-      <c r="L37" s="49"/>
-      <c r="M37" s="49"/>
-      <c r="N37" s="49"/>
-      <c r="P37" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q37" s="14">
-        <v>0.54759999999999998</v>
-      </c>
-      <c r="R37" s="22">
-        <v>0.58909999999999996</v>
-      </c>
-      <c r="S37" s="14">
-        <v>0.43</v>
-      </c>
-      <c r="T37" s="14">
-        <v>0.43</v>
-      </c>
-      <c r="U37" s="14">
-        <v>0.44740000000000002</v>
-      </c>
-      <c r="V37" s="14">
-        <v>0.52610000000000001</v>
+      <c r="H37" s="43"/>
+      <c r="I37" s="43"/>
+      <c r="J37" s="43"/>
+      <c r="K37" s="43"/>
+      <c r="L37" s="43"/>
+      <c r="M37" s="43"/>
+      <c r="N37" s="43"/>
+      <c r="P37" s="35" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q37" s="32">
+        <v>0.52049999999999996</v>
+      </c>
+      <c r="R37" s="35">
+        <v>0.54930000000000001</v>
+      </c>
+      <c r="S37" s="32">
+        <v>0.47139999999999999</v>
+      </c>
+      <c r="T37" s="32">
+        <v>0.3891</v>
+      </c>
+      <c r="U37" s="32">
+        <v>0.37419999999999998</v>
+      </c>
+      <c r="V37" s="32">
+        <v>0.54330000000000001</v>
       </c>
     </row>
     <row r="38" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -2959,27 +3011,15 @@
       <c r="N38" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="P38" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q38" s="14">
-        <v>0.54990000000000006</v>
-      </c>
-      <c r="R38" s="22">
-        <v>0.60629999999999995</v>
-      </c>
-      <c r="S38" s="14">
-        <v>0.14330000000000001</v>
-      </c>
-      <c r="T38" s="14">
-        <v>0.14330000000000001</v>
-      </c>
-      <c r="U38" s="14">
-        <v>0.34549999999999997</v>
-      </c>
-      <c r="V38" s="14">
-        <v>0.51700000000000002</v>
-      </c>
+      <c r="P38" s="64" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q38" s="64"/>
+      <c r="R38" s="64"/>
+      <c r="S38" s="64"/>
+      <c r="T38" s="64"/>
+      <c r="U38" s="64"/>
+      <c r="V38" s="64"/>
     </row>
     <row r="39" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="17" t="s">
@@ -2992,10 +3032,10 @@
       <c r="D39" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="E39">
+      <c r="E39" s="14">
         <v>35.880600000000001</v>
       </c>
-      <c r="F39">
+      <c r="F39" s="14">
         <v>71.499799999999993</v>
       </c>
       <c r="G39" s="14" t="s">
@@ -3005,10 +3045,10 @@
         <v>128</v>
       </c>
       <c r="I39" s="14">
-        <v>34.466700000000003</v>
+        <v>34.565899999999999</v>
       </c>
       <c r="J39" s="14">
-        <v>68.639700000000005</v>
+        <v>68.279799999999994</v>
       </c>
       <c r="K39" s="14" t="s">
         <v>42</v>
@@ -3017,31 +3057,29 @@
         <v>768</v>
       </c>
       <c r="M39" s="14">
-        <v>36.776600000000002</v>
+        <v>34.807499999999997</v>
       </c>
       <c r="N39" s="14">
-        <v>71.929000000000002</v>
-      </c>
-      <c r="P39" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q39" s="14">
-        <v>0.48549999999999999</v>
-      </c>
-      <c r="R39" s="22">
-        <v>0.56489999999999996</v>
-      </c>
-      <c r="S39" s="14">
-        <v>0.33329999999999999</v>
-      </c>
-      <c r="T39" s="14">
-        <v>0.33329999999999999</v>
-      </c>
-      <c r="U39" s="14">
-        <v>0.35470000000000002</v>
-      </c>
-      <c r="V39" s="14">
-        <v>0.47289999999999999</v>
+        <v>69.029399999999995</v>
+      </c>
+      <c r="P39" s="20"/>
+      <c r="Q39" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="R39" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="S39" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="T39" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="U39" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="V39" s="21" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="40" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -3055,10 +3093,10 @@
       <c r="D40" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="E40">
+      <c r="E40" s="14">
         <v>0.54690000000000005</v>
       </c>
-      <c r="F40">
+      <c r="F40" s="14">
         <v>0.54600000000000004</v>
       </c>
       <c r="G40" s="14" t="s">
@@ -3068,10 +3106,10 @@
         <v>1</v>
       </c>
       <c r="I40" s="14">
-        <v>0.57499999999999996</v>
+        <v>0.59499999999999997</v>
       </c>
       <c r="J40" s="14">
-        <v>0.59179999999999999</v>
+        <v>0.58909999999999996</v>
       </c>
       <c r="K40" s="14" t="s">
         <v>43</v>
@@ -3080,31 +3118,31 @@
         <v>256</v>
       </c>
       <c r="M40" s="14">
-        <v>0.52610000000000001</v>
+        <v>0.56930000000000003</v>
       </c>
       <c r="N40" s="14">
-        <v>0.55569999999999997</v>
-      </c>
-      <c r="P40" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q40" s="14">
-        <v>0.47289999999999999</v>
-      </c>
-      <c r="R40" s="22">
-        <v>0.56769999999999998</v>
-      </c>
-      <c r="S40" s="14">
-        <v>0.20050000000000001</v>
-      </c>
-      <c r="T40" s="14">
-        <v>0.20050000000000001</v>
-      </c>
-      <c r="U40" s="14">
-        <v>0.25390000000000001</v>
-      </c>
-      <c r="V40" s="14">
-        <v>0.46689999999999998</v>
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="P40" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q40" s="32">
+        <v>70.525400000000005</v>
+      </c>
+      <c r="R40" s="32">
+        <v>70.428200000000004</v>
+      </c>
+      <c r="S40" s="32">
+        <v>75.566100000000006</v>
+      </c>
+      <c r="T40" s="32">
+        <v>81.584400000000002</v>
+      </c>
+      <c r="U40" s="32">
+        <v>79.947800000000001</v>
+      </c>
+      <c r="V40" s="35">
+        <v>69.029399999999995</v>
       </c>
     </row>
     <row r="41" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -3118,23 +3156,23 @@
       <c r="D41" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="E41">
+      <c r="E41" s="14">
         <v>0.55389999999999995</v>
       </c>
-      <c r="F41">
+      <c r="F41" s="14">
         <v>0.54400000000000004</v>
       </c>
       <c r="G41" s="14" t="s">
         <v>14</v>
       </c>
       <c r="H41" s="16" t="s">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="I41" s="14">
-        <v>0.57120000000000004</v>
+        <v>0.61990000000000001</v>
       </c>
       <c r="J41" s="14">
-        <v>0.59150000000000003</v>
+        <v>0.61170000000000002</v>
       </c>
       <c r="K41" s="14" t="s">
         <v>44</v>
@@ -3143,20 +3181,32 @@
         <v>32</v>
       </c>
       <c r="M41" s="14">
-        <v>0.51700000000000002</v>
+        <v>0.60699999999999998</v>
       </c>
       <c r="N41" s="14">
-        <v>0.56299999999999994</v>
-      </c>
-      <c r="P41" s="46" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q41" s="47"/>
-      <c r="R41" s="47"/>
-      <c r="S41" s="47"/>
-      <c r="T41" s="47"/>
-      <c r="U41" s="47"/>
-      <c r="V41" s="48"/>
+        <v>0.60489999999999999</v>
+      </c>
+      <c r="P41" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q41" s="32">
+        <v>0.57379999999999998</v>
+      </c>
+      <c r="R41" s="32">
+        <v>0.57130000000000003</v>
+      </c>
+      <c r="S41" s="32">
+        <v>0.51</v>
+      </c>
+      <c r="T41" s="32">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="U41" s="32">
+        <v>0.43859999999999999</v>
+      </c>
+      <c r="V41" s="35">
+        <v>0.57499999999999996</v>
+      </c>
     </row>
     <row r="42" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="17" t="s">
@@ -3169,50 +3219,52 @@
       <c r="D42" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="E42">
+      <c r="E42" s="14">
         <v>0.48020000000000002</v>
       </c>
-      <c r="F42">
+      <c r="F42" s="14">
         <v>0.47749999999999998</v>
       </c>
       <c r="G42" s="14"/>
       <c r="H42" s="14"/>
       <c r="I42" s="14">
-        <v>0.53690000000000004</v>
+        <v>0.55279999999999996</v>
       </c>
       <c r="J42" s="14">
-        <v>0.56100000000000005</v>
+        <v>0.54330000000000001</v>
       </c>
       <c r="K42" s="14" t="s">
         <v>14</v>
       </c>
       <c r="L42" s="14" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="M42" s="14">
-        <v>0.47289999999999999</v>
+        <v>0.51739999999999997</v>
       </c>
       <c r="N42" s="14">
-        <v>0.50770000000000004</v>
-      </c>
-      <c r="P42" s="20"/>
-      <c r="Q42" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="R42" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="S42" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="T42" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="U42" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="V42" s="21" t="s">
-        <v>27</v>
+        <v>0.52080000000000004</v>
+      </c>
+      <c r="P42" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q42" s="32">
+        <v>0.54339999999999999</v>
+      </c>
+      <c r="R42" s="35">
+        <v>0.54149999999999998</v>
+      </c>
+      <c r="S42" s="32">
+        <v>0.37269999999999998</v>
+      </c>
+      <c r="T42" s="32">
+        <v>0.1988</v>
+      </c>
+      <c r="U42" s="32">
+        <v>0.23319999999999999</v>
+      </c>
+      <c r="V42" s="65">
+        <v>0.51939999999999997</v>
       </c>
     </row>
     <row r="43" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -3226,142 +3278,76 @@
       <c r="D43" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="E43">
+      <c r="E43" s="14">
         <v>0.45910000000000001</v>
       </c>
-      <c r="F43">
+      <c r="F43" s="14">
         <v>0.45660000000000001</v>
       </c>
       <c r="G43" s="14"/>
       <c r="H43" s="14"/>
       <c r="I43" s="14">
-        <v>0.54169999999999996</v>
+        <v>0.55589999999999995</v>
       </c>
       <c r="J43" s="14">
-        <v>0.56389999999999996</v>
+        <v>0.54500000000000004</v>
       </c>
       <c r="K43" s="14"/>
       <c r="L43" s="14"/>
       <c r="M43" s="14">
-        <v>0.46689999999999998</v>
+        <v>0.51580000000000004</v>
       </c>
       <c r="N43" s="14">
-        <v>0.50180000000000002</v>
-      </c>
-      <c r="P43" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q43" s="14">
-        <v>73.439400000000006</v>
-      </c>
-      <c r="R43" s="22">
-        <v>68.833699999999993</v>
-      </c>
-      <c r="S43" s="14">
-        <v>81.620199999999997</v>
-      </c>
-      <c r="T43" s="14">
-        <v>82.167500000000004</v>
-      </c>
-      <c r="U43" s="14">
-        <v>79.838700000000003</v>
-      </c>
-      <c r="V43" s="14">
-        <v>71.929000000000002</v>
+        <v>0.51939999999999997</v>
+      </c>
+      <c r="P43" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q43" s="32">
+        <v>0.57369999999999999</v>
+      </c>
+      <c r="R43" s="32">
+        <v>0.57850000000000001</v>
+      </c>
+      <c r="S43" s="32">
+        <v>0.56479999999999997</v>
+      </c>
+      <c r="T43" s="32">
+        <v>0.14169999999999999</v>
+      </c>
+      <c r="U43" s="32">
+        <v>0.34</v>
+      </c>
+      <c r="V43" s="35">
+        <v>0.60489999999999999</v>
       </c>
     </row>
     <row r="44" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="P44" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q44" s="14">
-        <v>0.52129999999999999</v>
-      </c>
-      <c r="R44" s="22">
-        <v>0.5756</v>
-      </c>
-      <c r="S44" s="14">
-        <v>0.41399999999999998</v>
-      </c>
-      <c r="T44" s="14">
-        <v>0.41399999999999998</v>
-      </c>
-      <c r="U44" s="14">
-        <v>0.43930000000000002</v>
-      </c>
-      <c r="V44" s="14">
-        <v>0.55569999999999997</v>
-      </c>
-    </row>
-    <row r="45" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="P45" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q45" s="14">
-        <v>0.5141</v>
-      </c>
-      <c r="R45" s="22">
-        <v>0.59560000000000002</v>
-      </c>
-      <c r="S45" s="14">
-        <v>0.13800000000000001</v>
-      </c>
-      <c r="T45" s="14">
-        <v>0.13800000000000001</v>
-      </c>
-      <c r="U45" s="14">
-        <v>0.35399999999999998</v>
-      </c>
-      <c r="V45" s="14">
-        <v>0.56299999999999994</v>
-      </c>
-    </row>
-    <row r="46" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="P46" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q46" s="14">
-        <v>0.4647</v>
-      </c>
-      <c r="R46" s="22">
-        <v>0.56200000000000006</v>
-      </c>
-      <c r="S46" s="14">
+      <c r="P44" s="35" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q44" s="32">
+        <v>0.53969999999999996</v>
+      </c>
+      <c r="R44" s="35">
+        <v>0.54010000000000002</v>
+      </c>
+      <c r="S44" s="32">
+        <v>0.42730000000000001</v>
+      </c>
+      <c r="T44" s="32">
         <v>0.33329999999999999</v>
       </c>
-      <c r="T46" s="14">
-        <v>0.33329999999999999</v>
-      </c>
-      <c r="U46" s="14">
-        <v>0.35980000000000001</v>
-      </c>
-      <c r="V46" s="14">
-        <v>0.50770000000000004</v>
-      </c>
-    </row>
-    <row r="47" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="P47" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q47" s="14">
-        <v>0.44469999999999998</v>
-      </c>
-      <c r="R47" s="22">
-        <v>0.5585</v>
-      </c>
-      <c r="S47" s="14">
-        <v>0.19520000000000001</v>
-      </c>
-      <c r="T47" s="14">
-        <v>0.19520000000000001</v>
-      </c>
-      <c r="U47" s="14">
-        <v>0.25319999999999998</v>
-      </c>
-      <c r="V47" s="14">
-        <v>0.50180000000000002</v>
-      </c>
-    </row>
+      <c r="U44" s="32">
+        <v>0.34810000000000002</v>
+      </c>
+      <c r="V44" s="32">
+        <v>0.52080000000000004</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="46" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="47" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="48" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="49" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="50" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4316,16 +4302,15 @@
     <row r="999" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <mergeCells count="22">
-    <mergeCell ref="P25:V25"/>
+  <mergeCells count="20">
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="K1:N1"/>
     <mergeCell ref="G2:N2"/>
     <mergeCell ref="G9:N9"/>
     <mergeCell ref="G16:N16"/>
-    <mergeCell ref="P33:V33"/>
-    <mergeCell ref="P34:V34"/>
-    <mergeCell ref="P41:V41"/>
+    <mergeCell ref="P38:V38"/>
+    <mergeCell ref="P24:V24"/>
+    <mergeCell ref="P31:V31"/>
     <mergeCell ref="P2:V2"/>
     <mergeCell ref="A23:F23"/>
     <mergeCell ref="A2:F2"/>
@@ -4337,8 +4322,7 @@
     <mergeCell ref="G30:N30"/>
     <mergeCell ref="G37:N37"/>
     <mergeCell ref="P9:V9"/>
-    <mergeCell ref="P17:V17"/>
-    <mergeCell ref="P18:V18"/>
+    <mergeCell ref="P16:V16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -4349,8 +4333,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="T3" sqref="T3"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4385,18 +4369,18 @@
       <c r="D1" s="14"/>
       <c r="E1" s="14"/>
       <c r="F1" s="14"/>
-      <c r="G1" s="54" t="s">
+      <c r="G1" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54" t="s">
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="54"/>
-      <c r="M1" s="54"/>
-      <c r="N1" s="54"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
+      <c r="N1" s="48"/>
       <c r="P1" s="3"/>
       <c r="Q1" s="3"/>
       <c r="R1" s="3"/>
@@ -4410,33 +4394,33 @@
       <c r="Z1" s="3"/>
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="53" t="s">
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="53"/>
-      <c r="M2" s="53"/>
-      <c r="N2" s="53"/>
-      <c r="P2" s="57" t="s">
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="47"/>
+      <c r="L2" s="47"/>
+      <c r="M2" s="47"/>
+      <c r="N2" s="47"/>
+      <c r="P2" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="Q2" s="57"/>
-      <c r="R2" s="57"/>
-      <c r="S2" s="57"/>
-      <c r="T2" s="57"/>
-      <c r="U2" s="57"/>
-      <c r="V2" s="57"/>
+      <c r="Q2" s="51"/>
+      <c r="R2" s="51"/>
+      <c r="S2" s="51"/>
+      <c r="T2" s="51"/>
+      <c r="U2" s="51"/>
+      <c r="V2" s="51"/>
       <c r="X2" s="3"/>
       <c r="Y2" s="3"/>
       <c r="Z2" s="3"/>
@@ -4976,33 +4960,33 @@
       <c r="Z11" s="3"/>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="52" t="s">
+      <c r="A12" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="52"/>
-      <c r="C12" s="52"/>
-      <c r="D12" s="52"/>
-      <c r="E12" s="52"/>
-      <c r="F12" s="52"/>
-      <c r="G12" s="53" t="s">
+      <c r="B12" s="46"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="H12" s="53"/>
-      <c r="I12" s="53"/>
-      <c r="J12" s="53"/>
-      <c r="K12" s="53"/>
-      <c r="L12" s="53"/>
-      <c r="M12" s="53"/>
-      <c r="N12" s="53"/>
-      <c r="P12" s="58" t="s">
+      <c r="H12" s="47"/>
+      <c r="I12" s="47"/>
+      <c r="J12" s="47"/>
+      <c r="K12" s="47"/>
+      <c r="L12" s="47"/>
+      <c r="M12" s="47"/>
+      <c r="N12" s="47"/>
+      <c r="P12" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="Q12" s="58"/>
-      <c r="R12" s="58"/>
-      <c r="S12" s="58"/>
-      <c r="T12" s="58"/>
-      <c r="U12" s="58"/>
-      <c r="V12" s="58"/>
+      <c r="Q12" s="52"/>
+      <c r="R12" s="52"/>
+      <c r="S12" s="52"/>
+      <c r="T12" s="52"/>
+      <c r="U12" s="52"/>
+      <c r="V12" s="52"/>
       <c r="X12" s="3"/>
       <c r="Y12" s="3"/>
       <c r="Z12" s="3"/>
@@ -5288,7 +5272,7 @@
         <v>14</v>
       </c>
       <c r="L17" s="16" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="M17" s="14">
         <v>8.0000000000000004E-4</v>
@@ -5543,24 +5527,24 @@
       <c r="Z21" s="3"/>
     </row>
     <row r="22" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="52" t="s">
+      <c r="A22" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="52"/>
-      <c r="C22" s="52"/>
-      <c r="D22" s="52"/>
-      <c r="E22" s="52"/>
-      <c r="F22" s="52"/>
-      <c r="G22" s="53" t="s">
+      <c r="B22" s="46"/>
+      <c r="C22" s="46"/>
+      <c r="D22" s="46"/>
+      <c r="E22" s="46"/>
+      <c r="F22" s="46"/>
+      <c r="G22" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="H22" s="53"/>
-      <c r="I22" s="53"/>
-      <c r="J22" s="53"/>
-      <c r="K22" s="53"/>
-      <c r="L22" s="53"/>
-      <c r="M22" s="53"/>
-      <c r="N22" s="53"/>
+      <c r="H22" s="47"/>
+      <c r="I22" s="47"/>
+      <c r="J22" s="47"/>
+      <c r="K22" s="47"/>
+      <c r="L22" s="47"/>
+      <c r="M22" s="47"/>
+      <c r="N22" s="47"/>
       <c r="O22" s="3"/>
       <c r="P22" s="3"/>
       <c r="Q22" s="3"/>
@@ -5606,15 +5590,15 @@
         <v>5</v>
       </c>
       <c r="O23" s="3"/>
-      <c r="P23" s="55" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q23" s="55"/>
-      <c r="R23" s="55"/>
-      <c r="S23" s="55"/>
-      <c r="T23" s="55"/>
-      <c r="U23" s="55"/>
-      <c r="V23" s="55"/>
+      <c r="P23" s="49" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q23" s="49"/>
+      <c r="R23" s="49"/>
+      <c r="S23" s="49"/>
+      <c r="T23" s="49"/>
+      <c r="U23" s="49"/>
+      <c r="V23" s="49"/>
       <c r="W23" s="3"/>
       <c r="X23" s="3"/>
       <c r="Y23" s="3"/>
@@ -5662,15 +5646,15 @@
         <v>105.9354</v>
       </c>
       <c r="O24" s="3"/>
-      <c r="P24" s="56" t="s">
+      <c r="P24" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="Q24" s="56"/>
-      <c r="R24" s="56"/>
-      <c r="S24" s="56"/>
-      <c r="T24" s="56"/>
-      <c r="U24" s="56"/>
-      <c r="V24" s="56"/>
+      <c r="Q24" s="50"/>
+      <c r="R24" s="50"/>
+      <c r="S24" s="50"/>
+      <c r="T24" s="50"/>
+      <c r="U24" s="50"/>
+      <c r="V24" s="50"/>
       <c r="W24" s="3"/>
       <c r="X24" s="3"/>
       <c r="Y24" s="3"/>
@@ -5763,7 +5747,7 @@
         <v>14</v>
       </c>
       <c r="H26" s="14" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="I26" s="14">
         <v>0.69589999999999996</v>
@@ -5839,7 +5823,7 @@
         <v>14</v>
       </c>
       <c r="L27" s="16" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="M27" s="14">
         <v>4.0599999999999997E-2</v>
@@ -6103,24 +6087,24 @@
       <c r="Z31" s="3"/>
     </row>
     <row r="32" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="52" t="s">
+      <c r="A32" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="B32" s="52"/>
-      <c r="C32" s="52"/>
-      <c r="D32" s="52"/>
-      <c r="E32" s="52"/>
-      <c r="F32" s="52"/>
-      <c r="G32" s="53" t="s">
+      <c r="B32" s="46"/>
+      <c r="C32" s="46"/>
+      <c r="D32" s="46"/>
+      <c r="E32" s="46"/>
+      <c r="F32" s="46"/>
+      <c r="G32" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="H32" s="53"/>
-      <c r="I32" s="53"/>
-      <c r="J32" s="53"/>
-      <c r="K32" s="53"/>
-      <c r="L32" s="53"/>
-      <c r="M32" s="53"/>
-      <c r="N32" s="53"/>
+      <c r="H32" s="47"/>
+      <c r="I32" s="47"/>
+      <c r="J32" s="47"/>
+      <c r="K32" s="47"/>
+      <c r="L32" s="47"/>
+      <c r="M32" s="47"/>
+      <c r="N32" s="47"/>
       <c r="O32" s="3"/>
       <c r="P32" s="18" t="s">
         <v>13</v>
@@ -6248,15 +6232,15 @@
         <v>107.36839999999999</v>
       </c>
       <c r="O34" s="3"/>
-      <c r="P34" s="56" t="s">
+      <c r="P34" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="Q34" s="56"/>
-      <c r="R34" s="56"/>
-      <c r="S34" s="56"/>
-      <c r="T34" s="56"/>
-      <c r="U34" s="56"/>
-      <c r="V34" s="56"/>
+      <c r="Q34" s="50"/>
+      <c r="R34" s="50"/>
+      <c r="S34" s="50"/>
+      <c r="T34" s="50"/>
+      <c r="U34" s="50"/>
+      <c r="V34" s="50"/>
       <c r="W34" s="3"/>
       <c r="X34" s="3"/>
       <c r="Y34" s="3"/>
@@ -6425,7 +6409,7 @@
         <v>14</v>
       </c>
       <c r="L37" s="16" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="M37" s="14">
         <v>0</v>
@@ -6689,24 +6673,24 @@
       <c r="Z41" s="3"/>
     </row>
     <row r="42" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="52" t="s">
+      <c r="A42" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="B42" s="52"/>
-      <c r="C42" s="52"/>
-      <c r="D42" s="52"/>
-      <c r="E42" s="52"/>
-      <c r="F42" s="52"/>
-      <c r="G42" s="53" t="s">
+      <c r="B42" s="46"/>
+      <c r="C42" s="46"/>
+      <c r="D42" s="46"/>
+      <c r="E42" s="46"/>
+      <c r="F42" s="46"/>
+      <c r="G42" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="H42" s="53"/>
-      <c r="I42" s="53"/>
-      <c r="J42" s="53"/>
-      <c r="K42" s="53"/>
-      <c r="L42" s="53"/>
-      <c r="M42" s="53"/>
-      <c r="N42" s="53"/>
+      <c r="H42" s="47"/>
+      <c r="I42" s="47"/>
+      <c r="J42" s="47"/>
+      <c r="K42" s="47"/>
+      <c r="L42" s="47"/>
+      <c r="M42" s="47"/>
+      <c r="N42" s="47"/>
       <c r="O42" s="3"/>
       <c r="P42" s="18" t="s">
         <v>13</v>
@@ -6888,15 +6872,15 @@
         <v>0.99919999999999998</v>
       </c>
       <c r="O45" s="3"/>
-      <c r="P45" s="55" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q45" s="55"/>
-      <c r="R45" s="55"/>
-      <c r="S45" s="55"/>
-      <c r="T45" s="55"/>
-      <c r="U45" s="55"/>
-      <c r="V45" s="55"/>
+      <c r="P45" s="49" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q45" s="49"/>
+      <c r="R45" s="49"/>
+      <c r="S45" s="49"/>
+      <c r="T45" s="49"/>
+      <c r="U45" s="49"/>
+      <c r="V45" s="49"/>
       <c r="W45" s="3"/>
       <c r="X45" s="3"/>
       <c r="Y45" s="3"/>
@@ -6923,7 +6907,7 @@
         <v>14</v>
       </c>
       <c r="H46" s="14" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="I46" s="14">
         <v>0.65639999999999998</v>
@@ -6944,15 +6928,15 @@
         <v>0.65110000000000001</v>
       </c>
       <c r="O46" s="3"/>
-      <c r="P46" s="56" t="s">
+      <c r="P46" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="Q46" s="56"/>
-      <c r="R46" s="56"/>
-      <c r="S46" s="56"/>
-      <c r="T46" s="56"/>
-      <c r="U46" s="56"/>
-      <c r="V46" s="56"/>
+      <c r="Q46" s="50"/>
+      <c r="R46" s="50"/>
+      <c r="S46" s="50"/>
+      <c r="T46" s="50"/>
+      <c r="U46" s="50"/>
+      <c r="V46" s="50"/>
       <c r="W46" s="3"/>
       <c r="X46" s="3"/>
       <c r="Y46" s="3"/>
@@ -6987,7 +6971,7 @@
         <v>14</v>
       </c>
       <c r="L47" s="16" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="M47" s="14">
         <v>0</v>
@@ -7249,24 +7233,24 @@
       <c r="Z51" s="3"/>
     </row>
     <row r="52" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="52" t="s">
+      <c r="A52" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="B52" s="52"/>
-      <c r="C52" s="52"/>
-      <c r="D52" s="52"/>
-      <c r="E52" s="52"/>
-      <c r="F52" s="52"/>
-      <c r="G52" s="53" t="s">
+      <c r="B52" s="46"/>
+      <c r="C52" s="46"/>
+      <c r="D52" s="46"/>
+      <c r="E52" s="46"/>
+      <c r="F52" s="46"/>
+      <c r="G52" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="H52" s="53"/>
-      <c r="I52" s="53"/>
-      <c r="J52" s="53"/>
-      <c r="K52" s="53"/>
-      <c r="L52" s="53"/>
-      <c r="M52" s="53"/>
-      <c r="N52" s="53"/>
+      <c r="H52" s="47"/>
+      <c r="I52" s="47"/>
+      <c r="J52" s="47"/>
+      <c r="K52" s="47"/>
+      <c r="L52" s="47"/>
+      <c r="M52" s="47"/>
+      <c r="N52" s="47"/>
       <c r="O52" s="3"/>
       <c r="P52" s="18" t="s">
         <v>10</v>
@@ -7530,15 +7514,15 @@
         <v>0.68059999999999998</v>
       </c>
       <c r="O56" s="3"/>
-      <c r="P56" s="56" t="s">
+      <c r="P56" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="Q56" s="56"/>
-      <c r="R56" s="56"/>
-      <c r="S56" s="56"/>
-      <c r="T56" s="56"/>
-      <c r="U56" s="56"/>
-      <c r="V56" s="56"/>
+      <c r="Q56" s="50"/>
+      <c r="R56" s="50"/>
+      <c r="S56" s="50"/>
+      <c r="T56" s="50"/>
+      <c r="U56" s="50"/>
+      <c r="V56" s="50"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
@@ -7573,7 +7557,7 @@
         <v>14</v>
       </c>
       <c r="L57" s="16" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="M57" s="14">
         <v>0</v>
@@ -34213,6 +34197,142 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F7C5310-800D-4A44-A165-6794E5D085F1}">
+  <dimension ref="A2:L11"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="7.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="18"/>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="17">
+        <v>200</v>
+      </c>
+      <c r="C4" s="18"/>
+      <c r="D4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="17">
+        <v>32</v>
+      </c>
+      <c r="C5" s="18"/>
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
+      <c r="J5" s="18"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="17">
+        <v>1E-3</v>
+      </c>
+      <c r="C6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="C8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="18"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" s="24"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="24"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" s="17"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="18"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" s="17"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="18"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:F2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:V1000"/>
   <sheetViews>
@@ -34237,10 +34357,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="64" t="s">
-        <v>61</v>
-      </c>
-      <c r="B1" s="65"/>
+      <c r="A1" s="58" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="59"/>
       <c r="I1" s="28"/>
       <c r="J1" s="28"/>
       <c r="K1" s="29"/>
@@ -34257,10 +34377,10 @@
       <c r="V1" s="6"/>
     </row>
     <row r="2" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A2" s="64" t="s">
-        <v>62</v>
-      </c>
-      <c r="B2" s="65"/>
+      <c r="A2" s="58" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="59"/>
       <c r="K2" s="6"/>
       <c r="M2" s="6"/>
       <c r="N2" s="6"/>
@@ -34274,10 +34394,10 @@
       <c r="V2" s="6"/>
     </row>
     <row r="3" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="64" t="s">
+      <c r="A3" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="65"/>
+      <c r="B3" s="59"/>
       <c r="K3" s="9"/>
       <c r="M3" s="6"/>
       <c r="N3" s="6"/>
@@ -34402,16 +34522,16 @@
       <c r="V10" s="6"/>
     </row>
     <row r="11" spans="1:22" ht="32.4" x14ac:dyDescent="0.6">
-      <c r="A11" s="66" t="s">
-        <v>70</v>
-      </c>
-      <c r="B11" s="67"/>
-      <c r="C11" s="67"/>
-      <c r="D11" s="67"/>
-      <c r="E11" s="67"/>
-      <c r="F11" s="67"/>
-      <c r="G11" s="67"/>
-      <c r="H11" s="68"/>
+      <c r="A11" s="60" t="s">
+        <v>65</v>
+      </c>
+      <c r="B11" s="61"/>
+      <c r="C11" s="61"/>
+      <c r="D11" s="61"/>
+      <c r="E11" s="61"/>
+      <c r="F11" s="61"/>
+      <c r="G11" s="61"/>
+      <c r="H11" s="62"/>
       <c r="Q11" s="6"/>
       <c r="R11" s="6"/>
       <c r="S11" s="6"/>
@@ -34421,19 +34541,19 @@
     </row>
     <row r="12" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="32"/>
-      <c r="B12" s="59" t="s">
-        <v>65</v>
-      </c>
-      <c r="C12" s="60"/>
-      <c r="D12" s="61"/>
+      <c r="B12" s="53" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" s="54"/>
+      <c r="D12" s="55"/>
       <c r="E12" s="42" t="s">
-        <v>64</v>
-      </c>
-      <c r="F12" s="59" t="s">
-        <v>63</v>
-      </c>
-      <c r="G12" s="60"/>
-      <c r="H12" s="61"/>
+        <v>59</v>
+      </c>
+      <c r="F12" s="53" t="s">
+        <v>58</v>
+      </c>
+      <c r="G12" s="54"/>
+      <c r="H12" s="55"/>
       <c r="Q12" s="6"/>
       <c r="R12" s="6"/>
       <c r="S12" s="6"/>
@@ -34454,13 +34574,13 @@
       </c>
       <c r="E13" s="42"/>
       <c r="F13" s="34" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="G13" s="34" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="H13" s="34" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="K13" s="12"/>
       <c r="M13" s="6"/>
@@ -34476,7 +34596,7 @@
     </row>
     <row r="14" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="24" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B14" s="40">
         <v>0.89859999999999995</v>
@@ -34513,7 +34633,7 @@
     </row>
     <row r="15" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="24" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B15" s="37">
         <v>0.8851</v>
@@ -34606,16 +34726,16 @@
       <c r="V17" s="6"/>
     </row>
     <row r="18" spans="1:22" ht="32.4" x14ac:dyDescent="0.6">
-      <c r="A18" s="66" t="s">
-        <v>69</v>
-      </c>
-      <c r="B18" s="67"/>
-      <c r="C18" s="67"/>
-      <c r="D18" s="67"/>
-      <c r="E18" s="67"/>
-      <c r="F18" s="67"/>
-      <c r="G18" s="67"/>
-      <c r="H18" s="68"/>
+      <c r="A18" s="60" t="s">
+        <v>64</v>
+      </c>
+      <c r="B18" s="61"/>
+      <c r="C18" s="61"/>
+      <c r="D18" s="61"/>
+      <c r="E18" s="61"/>
+      <c r="F18" s="61"/>
+      <c r="G18" s="61"/>
+      <c r="H18" s="62"/>
       <c r="L18" s="6"/>
       <c r="M18" s="6"/>
       <c r="N18" s="6"/>
@@ -34630,19 +34750,19 @@
     </row>
     <row r="19" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="32"/>
-      <c r="B19" s="59" t="s">
-        <v>65</v>
-      </c>
-      <c r="C19" s="60"/>
-      <c r="D19" s="61"/>
+      <c r="B19" s="53" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" s="54"/>
+      <c r="D19" s="55"/>
       <c r="E19" s="42" t="s">
-        <v>64</v>
-      </c>
-      <c r="F19" s="59" t="s">
-        <v>63</v>
-      </c>
-      <c r="G19" s="60"/>
-      <c r="H19" s="61"/>
+        <v>59</v>
+      </c>
+      <c r="F19" s="53" t="s">
+        <v>58</v>
+      </c>
+      <c r="G19" s="54"/>
+      <c r="H19" s="55"/>
       <c r="O19" s="6"/>
       <c r="P19" s="6"/>
       <c r="Q19" s="6"/>
@@ -34665,13 +34785,13 @@
       </c>
       <c r="E20" s="42"/>
       <c r="F20" s="34" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="G20" s="34" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="H20" s="34" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="O20" s="6"/>
       <c r="P20" s="6"/>
@@ -34684,7 +34804,7 @@
     </row>
     <row r="21" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="24" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B21" s="40">
         <v>0.90069999999999995</v>
@@ -34718,7 +34838,7 @@
     </row>
     <row r="22" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="24" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B22" s="37">
         <v>0.88349999999999995</v>
@@ -34977,12 +35097,12 @@
       <c r="V35" s="6"/>
     </row>
     <row r="36" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="62"/>
-      <c r="B36" s="63"/>
-      <c r="C36" s="63"/>
-      <c r="D36" s="63"/>
-      <c r="E36" s="63"/>
-      <c r="F36" s="63"/>
+      <c r="A36" s="56"/>
+      <c r="B36" s="57"/>
+      <c r="C36" s="57"/>
+      <c r="D36" s="57"/>
+      <c r="E36" s="57"/>
+      <c r="F36" s="57"/>
       <c r="G36" s="6"/>
       <c r="H36" s="6"/>
       <c r="I36" s="6"/>

--- a/results/results.xlsx
+++ b/results/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\projects\ViReCAX\training_model\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A3D6DEC-AF65-449E-BFAC-100A7489F689}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B0626A2-2C87-4724-A79B-928F327EA338}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="task 1 (label)" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="139">
   <si>
     <t>vinai/phobert-base</t>
   </si>
@@ -445,21 +445,34 @@
     <t>8.7m</t>
   </si>
   <si>
-    <t>TRAIN ON GOOGLE COLAB</t>
+    <t>e+5</t>
   </si>
   <si>
-    <t>e+5</t>
+    <t>TRAIN AGAIN</t>
+  </si>
+  <si>
+    <t>11/e20</t>
+  </si>
+  <si>
+    <t>X</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -663,7 +676,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -821,165 +834,183 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="136">
+  <cellXfs count="146">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
@@ -992,27 +1023,27 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1021,131 +1052,155 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1365,8 +1420,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AR1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="S16" sqref="S16:X21"/>
+    <sheetView topLeftCell="W4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="AA10" sqref="AA10:AF10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1392,32 +1447,31 @@
     <col min="22" max="22" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.44140625" customWidth="1"/>
     <col min="27" max="27" width="20.6640625" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="12.109375" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="8.5546875" style="88" customWidth="1"/>
+    <col min="33" max="33" width="6.88671875" style="88" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="S1" s="98" t="s">
-        <v>135</v>
-      </c>
-      <c r="T1" s="98"/>
-      <c r="U1" s="98"/>
-      <c r="V1" s="98"/>
-      <c r="W1" s="98"/>
-      <c r="X1" s="98"/>
-      <c r="AA1" s="98" t="s">
-        <v>135</v>
-      </c>
-      <c r="AB1" s="98"/>
-      <c r="AC1" s="98"/>
-      <c r="AD1" s="98"/>
-      <c r="AE1" s="98"/>
-      <c r="AF1" s="98"/>
+      <c r="S1" s="108"/>
+      <c r="T1" s="108"/>
+      <c r="U1" s="108"/>
+      <c r="V1" s="108"/>
+      <c r="W1" s="108"/>
+      <c r="X1" s="108"/>
+      <c r="AA1" s="108" t="s">
+        <v>136</v>
+      </c>
+      <c r="AB1" s="108"/>
+      <c r="AC1" s="108"/>
+      <c r="AD1" s="108"/>
+      <c r="AE1" s="108"/>
+      <c r="AF1" s="108"/>
     </row>
     <row r="2" spans="1:44" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="19"/>
@@ -1461,23 +1515,23 @@
       <c r="O2" s="50" t="s">
         <v>115</v>
       </c>
-      <c r="S2" s="99" t="s">
+      <c r="S2" s="109" t="s">
         <v>37</v>
       </c>
-      <c r="T2" s="100"/>
-      <c r="U2" s="100"/>
-      <c r="V2" s="100"/>
-      <c r="W2" s="100"/>
-      <c r="X2" s="101"/>
-      <c r="AA2" s="99" t="s">
+      <c r="T2" s="110"/>
+      <c r="U2" s="110"/>
+      <c r="V2" s="110"/>
+      <c r="W2" s="110"/>
+      <c r="X2" s="111"/>
+      <c r="AA2" s="109" t="s">
         <v>37</v>
       </c>
-      <c r="AB2" s="100"/>
-      <c r="AC2" s="100"/>
-      <c r="AD2" s="100"/>
-      <c r="AE2" s="100"/>
-      <c r="AF2" s="101"/>
-      <c r="AG2" s="97"/>
+      <c r="AB2" s="110"/>
+      <c r="AC2" s="110"/>
+      <c r="AD2" s="110"/>
+      <c r="AE2" s="110"/>
+      <c r="AF2" s="111"/>
+      <c r="AG2" s="95"/>
       <c r="AK2" s="28"/>
       <c r="AL2" s="28"/>
       <c r="AM2" s="28"/>
@@ -1488,7 +1542,7 @@
       <c r="AR2" s="28"/>
     </row>
     <row r="3" spans="1:44" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="104" t="s">
+      <c r="A3" s="114" t="s">
         <v>82</v>
       </c>
       <c r="B3" s="65" t="s">
@@ -1502,10 +1556,10 @@
       <c r="F3" s="70"/>
       <c r="G3" s="70"/>
       <c r="H3" s="70"/>
-      <c r="I3" s="107">
+      <c r="I3" s="117">
         <v>32</v>
       </c>
-      <c r="J3" s="107">
+      <c r="J3" s="117">
         <v>1E-3</v>
       </c>
       <c r="K3" s="21" t="s">
@@ -1514,7 +1568,7 @@
       <c r="L3" s="21">
         <v>10</v>
       </c>
-      <c r="M3" s="102" t="b">
+      <c r="M3" s="112" t="b">
         <v>1</v>
       </c>
       <c r="N3" s="21" t="s">
@@ -1556,7 +1610,7 @@
         <v>42</v>
       </c>
       <c r="AG3" s="33" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AK3" s="8"/>
       <c r="AL3" s="8"/>
@@ -1568,7 +1622,7 @@
       <c r="AR3" s="8"/>
     </row>
     <row r="4" spans="1:44" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="104"/>
+      <c r="A4" s="114"/>
       <c r="B4" s="65" t="s">
         <v>11</v>
       </c>
@@ -1580,15 +1634,15 @@
       <c r="F4" s="70"/>
       <c r="G4" s="70"/>
       <c r="H4" s="70"/>
-      <c r="I4" s="108"/>
-      <c r="J4" s="108"/>
+      <c r="I4" s="118"/>
+      <c r="J4" s="118"/>
       <c r="K4" s="21" t="s">
         <v>78</v>
       </c>
       <c r="L4" s="21">
         <v>18</v>
       </c>
-      <c r="M4" s="102"/>
+      <c r="M4" s="112"/>
       <c r="N4" s="21" t="s">
         <v>108</v>
       </c>
@@ -1617,22 +1671,22 @@
         <v>13</v>
       </c>
       <c r="AB4" s="89">
-        <v>36.0672</v>
+        <v>36.009599999999999</v>
       </c>
       <c r="AC4" s="89">
-        <v>0.53359999999999996</v>
+        <v>0.54610000000000003</v>
       </c>
       <c r="AD4" s="89">
-        <v>0.48980000000000001</v>
+        <v>0.52180000000000004</v>
       </c>
       <c r="AE4" s="89">
-        <v>0.5514</v>
+        <v>0.56069999999999998</v>
       </c>
       <c r="AF4" s="89">
-        <v>0.49199999999999999</v>
-      </c>
-      <c r="AG4" s="96" t="s">
-        <v>92</v>
+        <v>0.52129999999999999</v>
+      </c>
+      <c r="AG4" s="101" t="s">
+        <v>86</v>
       </c>
       <c r="AK4" s="8"/>
       <c r="AL4" s="8"/>
@@ -1644,7 +1698,7 @@
       <c r="AR4" s="8"/>
     </row>
     <row r="5" spans="1:44" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="104"/>
+      <c r="A5" s="114"/>
       <c r="B5" s="65" t="s">
         <v>12</v>
       </c>
@@ -1656,15 +1710,15 @@
       <c r="F5" s="70"/>
       <c r="G5" s="70"/>
       <c r="H5" s="70"/>
-      <c r="I5" s="108"/>
-      <c r="J5" s="108"/>
+      <c r="I5" s="118"/>
+      <c r="J5" s="118"/>
       <c r="K5" s="21" t="s">
         <v>79</v>
       </c>
       <c r="L5" s="21">
         <v>15</v>
       </c>
-      <c r="M5" s="102"/>
+      <c r="M5" s="112"/>
       <c r="N5" s="21" t="s">
         <v>109</v>
       </c>
@@ -1693,22 +1747,22 @@
         <v>14</v>
       </c>
       <c r="AB5" s="89">
-        <v>35.5946</v>
+        <v>35.046999999999997</v>
       </c>
       <c r="AC5" s="89">
-        <v>0.56510000000000005</v>
+        <v>0.56020000000000003</v>
       </c>
       <c r="AD5" s="89">
-        <v>0.53029999999999999</v>
+        <v>0.53359999999999996</v>
       </c>
       <c r="AE5" s="89">
-        <v>0.6038</v>
+        <v>0.58199999999999996</v>
       </c>
       <c r="AF5" s="89">
-        <v>0.5302</v>
-      </c>
-      <c r="AG5" s="96" t="s">
-        <v>85</v>
+        <v>0.53059999999999996</v>
+      </c>
+      <c r="AG5" s="101" t="s">
+        <v>78</v>
       </c>
       <c r="AK5" s="28"/>
       <c r="AL5" s="28"/>
@@ -1720,7 +1774,7 @@
       <c r="AR5" s="8"/>
     </row>
     <row r="6" spans="1:44" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="104"/>
+      <c r="A6" s="114"/>
       <c r="B6" s="65" t="s">
         <v>19</v>
       </c>
@@ -1732,15 +1786,15 @@
       <c r="F6" s="70"/>
       <c r="G6" s="70"/>
       <c r="H6" s="70"/>
-      <c r="I6" s="108"/>
-      <c r="J6" s="108"/>
+      <c r="I6" s="118"/>
+      <c r="J6" s="118"/>
       <c r="K6" s="21" t="s">
         <v>69</v>
       </c>
       <c r="L6" s="21">
         <v>9</v>
       </c>
-      <c r="M6" s="102"/>
+      <c r="M6" s="112"/>
       <c r="N6" s="21" t="s">
         <v>110</v>
       </c>
@@ -1768,11 +1822,24 @@
       <c r="AA6" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="AB6" s="89"/>
-      <c r="AC6" s="89"/>
-      <c r="AD6" s="89"/>
-      <c r="AE6" s="89"/>
-      <c r="AF6" s="89"/>
+      <c r="AB6" s="89">
+        <v>39.516399999999997</v>
+      </c>
+      <c r="AC6" s="89">
+        <v>0.48220000000000002</v>
+      </c>
+      <c r="AD6" s="89">
+        <v>0.31740000000000002</v>
+      </c>
+      <c r="AE6" s="89">
+        <v>0.35289999999999999</v>
+      </c>
+      <c r="AF6" s="89">
+        <v>0.39710000000000001</v>
+      </c>
+      <c r="AG6" s="101" t="s">
+        <v>85</v>
+      </c>
       <c r="AK6" s="8"/>
       <c r="AL6" s="8"/>
       <c r="AM6" s="8"/>
@@ -1783,7 +1850,7 @@
       <c r="AR6" s="8"/>
     </row>
     <row r="7" spans="1:44" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="104"/>
+      <c r="A7" s="114"/>
       <c r="B7" s="65" t="s">
         <v>20</v>
       </c>
@@ -1795,15 +1862,15 @@
       <c r="F7" s="70"/>
       <c r="G7" s="70"/>
       <c r="H7" s="70"/>
-      <c r="I7" s="108"/>
-      <c r="J7" s="108"/>
+      <c r="I7" s="118"/>
+      <c r="J7" s="118"/>
       <c r="K7" s="21" t="s">
         <v>67</v>
       </c>
       <c r="L7" s="21">
         <v>14</v>
       </c>
-      <c r="M7" s="102"/>
+      <c r="M7" s="112"/>
       <c r="N7" s="21" t="s">
         <v>111</v>
       </c>
@@ -1831,22 +1898,22 @@
       <c r="AA7" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="AB7" s="89">
-        <v>40.904000000000003</v>
-      </c>
-      <c r="AC7" s="89">
+      <c r="AB7" s="34">
+        <v>40.902900000000002</v>
+      </c>
+      <c r="AC7" s="34">
         <v>0.4224</v>
       </c>
-      <c r="AD7" s="89">
+      <c r="AD7" s="34">
         <v>0.19800000000000001</v>
       </c>
-      <c r="AE7" s="89">
+      <c r="AE7" s="34">
+        <v>0.33329999999999999</v>
+      </c>
+      <c r="AF7" s="34">
         <v>0.14080000000000001</v>
       </c>
-      <c r="AF7" s="89">
-        <v>0.33329999999999999</v>
-      </c>
-      <c r="AG7" s="96" t="s">
+      <c r="AG7" s="94" t="s">
         <v>67</v>
       </c>
       <c r="AK7" s="8"/>
@@ -1859,7 +1926,7 @@
       <c r="AR7" s="8"/>
     </row>
     <row r="8" spans="1:44" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="104"/>
+      <c r="A8" s="114"/>
       <c r="B8" s="65" t="s">
         <v>21</v>
       </c>
@@ -1871,15 +1938,15 @@
       <c r="F8" s="70"/>
       <c r="G8" s="70"/>
       <c r="H8" s="70"/>
-      <c r="I8" s="108"/>
-      <c r="J8" s="108"/>
+      <c r="I8" s="118"/>
+      <c r="J8" s="118"/>
       <c r="K8" s="21" t="s">
         <v>81</v>
       </c>
       <c r="L8" s="21">
         <v>17</v>
       </c>
-      <c r="M8" s="102"/>
+      <c r="M8" s="112"/>
       <c r="N8" s="21" t="s">
         <v>112</v>
       </c>
@@ -1907,22 +1974,22 @@
       <c r="AA8" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="AB8" s="89">
-        <v>39.079000000000001</v>
-      </c>
-      <c r="AC8" s="89">
-        <v>0.45639999999999997</v>
-      </c>
-      <c r="AD8" s="89">
-        <v>0.27339999999999998</v>
-      </c>
-      <c r="AE8" s="89">
-        <v>0.36020000000000002</v>
-      </c>
-      <c r="AF8" s="89">
-        <v>0.3695</v>
-      </c>
-      <c r="AG8" s="96" t="s">
+      <c r="AB8" s="34">
+        <v>39.638800000000003</v>
+      </c>
+      <c r="AC8" s="34">
+        <v>0.45729999999999998</v>
+      </c>
+      <c r="AD8" s="34">
+        <v>0.2888</v>
+      </c>
+      <c r="AE8" s="34">
+        <v>0.37359999999999999</v>
+      </c>
+      <c r="AF8" s="34">
+        <v>0.31509999999999999</v>
+      </c>
+      <c r="AG8" s="94" t="s">
         <v>85</v>
       </c>
       <c r="AK8" s="8"/>
@@ -1935,7 +2002,7 @@
       <c r="AR8" s="8"/>
     </row>
     <row r="9" spans="1:44" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="105" t="s">
+      <c r="A9" s="115" t="s">
         <v>83</v>
       </c>
       <c r="B9" s="66" t="s">
@@ -1944,22 +2011,22 @@
       <c r="C9" s="69">
         <v>256</v>
       </c>
-      <c r="D9" s="110">
+      <c r="D9" s="120">
         <v>128</v>
       </c>
-      <c r="E9" s="110">
+      <c r="E9" s="120">
         <v>1</v>
       </c>
       <c r="F9" s="70"/>
       <c r="G9" s="70"/>
       <c r="H9" s="70"/>
-      <c r="I9" s="108"/>
-      <c r="J9" s="108"/>
+      <c r="I9" s="118"/>
+      <c r="J9" s="118"/>
       <c r="K9" s="21" t="s">
         <v>84</v>
       </c>
       <c r="L9" s="21"/>
-      <c r="M9" s="102"/>
+      <c r="M9" s="112"/>
       <c r="N9" s="21"/>
       <c r="O9" s="21"/>
       <c r="S9" s="41" t="s">
@@ -1983,23 +2050,23 @@
       <c r="AA9" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="AB9" s="89">
-        <v>36.085900000000002</v>
-      </c>
-      <c r="AC9" s="89">
-        <v>0.55600000000000005</v>
-      </c>
-      <c r="AD9" s="89">
-        <v>0.502</v>
-      </c>
-      <c r="AE9" s="89">
-        <v>0.56530000000000002</v>
-      </c>
-      <c r="AF9" s="89">
-        <v>0.50490000000000002</v>
-      </c>
-      <c r="AG9" s="96" t="s">
-        <v>93</v>
+      <c r="AB9" s="34">
+        <v>36.160899999999998</v>
+      </c>
+      <c r="AC9" s="34">
+        <v>0.53939999999999999</v>
+      </c>
+      <c r="AD9" s="34">
+        <v>0.47270000000000001</v>
+      </c>
+      <c r="AE9" s="34">
+        <v>0.57010000000000005</v>
+      </c>
+      <c r="AF9" s="34">
+        <v>0.48320000000000002</v>
+      </c>
+      <c r="AG9" s="101" t="s">
+        <v>137</v>
       </c>
       <c r="AK9" s="8"/>
       <c r="AL9" s="8"/>
@@ -2011,25 +2078,25 @@
       <c r="AR9" s="8"/>
     </row>
     <row r="10" spans="1:44" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="105"/>
+      <c r="A10" s="115"/>
       <c r="B10" s="66" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="69">
         <v>512</v>
       </c>
-      <c r="D10" s="111"/>
-      <c r="E10" s="111"/>
+      <c r="D10" s="121"/>
+      <c r="E10" s="121"/>
       <c r="F10" s="70"/>
       <c r="G10" s="70"/>
       <c r="H10" s="70"/>
-      <c r="I10" s="108"/>
-      <c r="J10" s="108"/>
+      <c r="I10" s="118"/>
+      <c r="J10" s="118"/>
       <c r="K10" s="21" t="s">
         <v>47</v>
       </c>
       <c r="L10" s="21"/>
-      <c r="M10" s="102"/>
+      <c r="M10" s="112"/>
       <c r="N10" s="21"/>
       <c r="O10" s="21"/>
       <c r="S10" s="42" t="s">
@@ -2050,26 +2117,29 @@
       <c r="X10" s="35">
         <v>0.51659999999999995</v>
       </c>
+      <c r="Z10" t="s">
+        <v>138</v>
+      </c>
       <c r="AA10" s="42" t="s">
-        <v>48</v>
-      </c>
-      <c r="AB10" s="90">
-        <v>35.680999999999997</v>
-      </c>
-      <c r="AC10" s="90">
-        <v>0.55269999999999997</v>
-      </c>
-      <c r="AD10" s="90">
-        <v>0.50009999999999999</v>
-      </c>
-      <c r="AE10" s="90">
-        <v>0.58079999999999998</v>
-      </c>
-      <c r="AF10" s="90">
-        <v>0.50270000000000004</v>
-      </c>
-      <c r="AG10" s="96" t="s">
-        <v>93</v>
+        <v>49</v>
+      </c>
+      <c r="AB10" s="53">
+        <v>34.408999999999999</v>
+      </c>
+      <c r="AC10" s="53">
+        <v>0.57589999999999997</v>
+      </c>
+      <c r="AD10" s="53">
+        <v>0.5413</v>
+      </c>
+      <c r="AE10" s="53">
+        <v>0.59970000000000001</v>
+      </c>
+      <c r="AF10" s="53">
+        <v>0.53859999999999997</v>
+      </c>
+      <c r="AG10" s="101" t="s">
+        <v>86</v>
       </c>
       <c r="AK10" s="8"/>
       <c r="AL10" s="8"/>
@@ -2081,25 +2151,25 @@
       <c r="AR10" s="8"/>
     </row>
     <row r="11" spans="1:44" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="105"/>
+      <c r="A11" s="115"/>
       <c r="B11" s="66" t="s">
         <v>12</v>
       </c>
       <c r="C11" s="69">
         <v>512</v>
       </c>
-      <c r="D11" s="111"/>
-      <c r="E11" s="111"/>
+      <c r="D11" s="121"/>
+      <c r="E11" s="121"/>
       <c r="F11" s="70"/>
       <c r="G11" s="70"/>
       <c r="H11" s="70"/>
-      <c r="I11" s="108"/>
-      <c r="J11" s="108"/>
+      <c r="I11" s="118"/>
+      <c r="J11" s="118"/>
       <c r="K11" s="21" t="s">
         <v>85</v>
       </c>
       <c r="L11" s="21"/>
-      <c r="M11" s="102"/>
+      <c r="M11" s="112"/>
       <c r="N11" s="21"/>
       <c r="O11" s="21"/>
       <c r="S11" s="42" t="s">
@@ -2108,38 +2178,39 @@
       <c r="T11" s="53">
         <v>34.151499999999999</v>
       </c>
-      <c r="U11" s="35">
+      <c r="U11" s="53">
         <v>0.59340000000000004</v>
       </c>
       <c r="V11" s="53">
         <v>0.56299999999999994</v>
       </c>
-      <c r="W11" s="35">
+      <c r="W11" s="53">
         <v>0.60060000000000002</v>
       </c>
       <c r="X11" s="53">
         <v>0.55889999999999995</v>
       </c>
-      <c r="AA11" s="42" t="s">
-        <v>49</v>
-      </c>
-      <c r="AB11" s="90">
-        <v>34.237699999999997</v>
-      </c>
-      <c r="AC11" s="90">
-        <v>0.58420000000000005</v>
-      </c>
-      <c r="AD11" s="90">
-        <v>0.55900000000000005</v>
-      </c>
-      <c r="AE11" s="90">
-        <v>0.61709999999999998</v>
-      </c>
-      <c r="AF11" s="90">
-        <v>0.56020000000000003</v>
-      </c>
-      <c r="AG11" s="96" t="s">
-        <v>85</v>
+      <c r="Z11" s="104"/>
+      <c r="AA11" s="43" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB11" s="91">
+        <v>34.962000000000003</v>
+      </c>
+      <c r="AC11" s="91">
+        <v>0.55600000000000005</v>
+      </c>
+      <c r="AD11" s="91">
+        <v>0.53510000000000002</v>
+      </c>
+      <c r="AE11" s="91">
+        <v>0.57010000000000005</v>
+      </c>
+      <c r="AF11" s="91">
+        <v>0.53620000000000001</v>
+      </c>
+      <c r="AG11" s="94" t="s">
+        <v>87</v>
       </c>
       <c r="AK11" s="8"/>
       <c r="AL11" s="8"/>
@@ -2151,25 +2222,25 @@
       <c r="AR11" s="8"/>
     </row>
     <row r="12" spans="1:44" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="105"/>
+      <c r="A12" s="115"/>
       <c r="B12" s="66" t="s">
         <v>19</v>
       </c>
       <c r="C12" s="69">
         <v>512</v>
       </c>
-      <c r="D12" s="111"/>
-      <c r="E12" s="111"/>
+      <c r="D12" s="121"/>
+      <c r="E12" s="121"/>
       <c r="F12" s="70"/>
       <c r="G12" s="70"/>
       <c r="H12" s="70"/>
-      <c r="I12" s="108"/>
-      <c r="J12" s="108"/>
+      <c r="I12" s="118"/>
+      <c r="J12" s="118"/>
       <c r="K12" s="21" t="s">
         <v>85</v>
       </c>
       <c r="L12" s="21"/>
-      <c r="M12" s="102"/>
+      <c r="M12" s="112"/>
       <c r="N12" s="21"/>
       <c r="O12" s="21"/>
       <c r="S12" s="42" t="s">
@@ -2190,14 +2261,6 @@
       <c r="X12" s="35">
         <v>0.47649999999999998</v>
       </c>
-      <c r="AA12" s="42" t="s">
-        <v>50</v>
-      </c>
-      <c r="AB12" s="90"/>
-      <c r="AC12" s="90"/>
-      <c r="AD12" s="90"/>
-      <c r="AE12" s="90"/>
-      <c r="AF12" s="90"/>
       <c r="AK12" s="8"/>
       <c r="AL12" s="8"/>
       <c r="AM12" s="8"/>
@@ -2208,25 +2271,25 @@
       <c r="AR12" s="8"/>
     </row>
     <row r="13" spans="1:44" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="105"/>
+      <c r="A13" s="115"/>
       <c r="B13" s="66" t="s">
         <v>20</v>
       </c>
       <c r="C13" s="69">
         <v>512</v>
       </c>
-      <c r="D13" s="111"/>
-      <c r="E13" s="111"/>
+      <c r="D13" s="121"/>
+      <c r="E13" s="121"/>
       <c r="F13" s="70"/>
       <c r="G13" s="70"/>
       <c r="H13" s="70"/>
-      <c r="I13" s="108"/>
-      <c r="J13" s="108"/>
+      <c r="I13" s="118"/>
+      <c r="J13" s="118"/>
       <c r="K13" s="21" t="s">
         <v>86</v>
       </c>
       <c r="L13" s="21"/>
-      <c r="M13" s="102"/>
+      <c r="M13" s="112"/>
       <c r="N13" s="21"/>
       <c r="O13" s="21"/>
       <c r="S13" s="42" t="s">
@@ -2247,14 +2310,15 @@
       <c r="X13" s="35">
         <v>0.38750000000000001</v>
       </c>
-      <c r="AA13" s="42" t="s">
-        <v>52</v>
-      </c>
-      <c r="AB13" s="90"/>
-      <c r="AC13" s="90"/>
-      <c r="AD13" s="90"/>
-      <c r="AE13" s="90"/>
-      <c r="AF13" s="90"/>
+      <c r="AA13" s="109" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB13" s="110"/>
+      <c r="AC13" s="110"/>
+      <c r="AD13" s="110"/>
+      <c r="AE13" s="110"/>
+      <c r="AF13" s="111"/>
+      <c r="AG13" s="94"/>
       <c r="AK13" s="27"/>
       <c r="AL13" s="28"/>
       <c r="AM13" s="28"/>
@@ -2265,25 +2329,25 @@
       <c r="AR13" s="8"/>
     </row>
     <row r="14" spans="1:44" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="105"/>
+      <c r="A14" s="115"/>
       <c r="B14" s="66" t="s">
         <v>21</v>
       </c>
       <c r="C14" s="69">
         <v>512</v>
       </c>
-      <c r="D14" s="112"/>
-      <c r="E14" s="112"/>
+      <c r="D14" s="122"/>
+      <c r="E14" s="122"/>
       <c r="F14" s="70"/>
       <c r="G14" s="70"/>
       <c r="H14" s="70"/>
-      <c r="I14" s="108"/>
-      <c r="J14" s="108"/>
+      <c r="I14" s="118"/>
+      <c r="J14" s="118"/>
       <c r="K14" s="21" t="s">
         <v>87</v>
       </c>
       <c r="L14" s="21"/>
-      <c r="M14" s="102"/>
+      <c r="M14" s="112"/>
       <c r="N14" s="21"/>
       <c r="O14" s="21"/>
       <c r="S14" s="42" t="s">
@@ -2304,14 +2368,22 @@
       <c r="X14" s="35">
         <v>0.37869999999999998</v>
       </c>
-      <c r="AA14" s="42" t="s">
-        <v>51</v>
-      </c>
-      <c r="AB14" s="90"/>
-      <c r="AC14" s="90"/>
-      <c r="AD14" s="90"/>
-      <c r="AE14" s="90"/>
-      <c r="AF14" s="90"/>
+      <c r="AA14" s="9"/>
+      <c r="AB14" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC14" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD14" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE14" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF14" s="33" t="s">
+        <v>42</v>
+      </c>
       <c r="AK14" s="29"/>
       <c r="AL14" s="8"/>
       <c r="AM14" s="8"/>
@@ -2322,7 +2394,7 @@
       <c r="AR14" s="8"/>
     </row>
     <row r="15" spans="1:44" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="106" t="s">
+      <c r="A15" s="116" t="s">
         <v>88</v>
       </c>
       <c r="B15" s="67" t="s">
@@ -2333,22 +2405,22 @@
       </c>
       <c r="D15" s="69"/>
       <c r="E15" s="69"/>
-      <c r="F15" s="113">
+      <c r="F15" s="123">
         <v>768</v>
       </c>
-      <c r="G15" s="113">
+      <c r="G15" s="123">
         <v>256</v>
       </c>
-      <c r="H15" s="113">
+      <c r="H15" s="123">
         <v>32</v>
       </c>
-      <c r="I15" s="108"/>
-      <c r="J15" s="108"/>
+      <c r="I15" s="118"/>
+      <c r="J15" s="118"/>
       <c r="K15" s="21" t="s">
         <v>89</v>
       </c>
       <c r="L15" s="21"/>
-      <c r="M15" s="102"/>
+      <c r="M15" s="112"/>
       <c r="N15" s="21"/>
       <c r="O15" s="21"/>
       <c r="S15" s="42" t="s">
@@ -2357,39 +2429,37 @@
       <c r="T15" s="35">
         <v>34.565899999999999</v>
       </c>
-      <c r="U15" s="53">
-        <v>0.59499999999999997</v>
-      </c>
-      <c r="V15" s="35">
+      <c r="U15" s="90">
+        <v>0.58909999999999996</v>
+      </c>
+      <c r="V15" s="90">
         <v>0.55589999999999995</v>
       </c>
-      <c r="W15" s="53">
-        <v>0.61990000000000001</v>
-      </c>
-      <c r="X15" s="35">
+      <c r="W15" s="90">
+        <v>0.60009999999999997</v>
+      </c>
+      <c r="X15" s="90">
         <v>0.55279999999999996</v>
       </c>
-      <c r="AA15" s="42" t="s">
-        <v>53</v>
-      </c>
-      <c r="AB15" s="90">
-        <v>34.2699</v>
-      </c>
-      <c r="AC15" s="90">
-        <v>0.5917</v>
-      </c>
-      <c r="AD15" s="90">
-        <v>0.55910000000000004</v>
-      </c>
-      <c r="AE15" s="90">
-        <v>0.61240000000000006</v>
-      </c>
-      <c r="AF15" s="90">
-        <v>0.55430000000000001</v>
-      </c>
-      <c r="AG15" s="96" t="s">
-        <v>85</v>
-      </c>
+      <c r="AA15" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB15" s="89">
+        <v>71.641400000000004</v>
+      </c>
+      <c r="AC15" s="89">
+        <v>0.56379999999999997</v>
+      </c>
+      <c r="AD15" s="89">
+        <v>0.53600000000000003</v>
+      </c>
+      <c r="AE15" s="89">
+        <v>0.57640000000000002</v>
+      </c>
+      <c r="AF15" s="89">
+        <v>0.53620000000000001</v>
+      </c>
+      <c r="AG15" s="94"/>
       <c r="AK15" s="29"/>
       <c r="AL15" s="8"/>
       <c r="AM15" s="8"/>
@@ -2400,7 +2470,7 @@
       <c r="AR15" s="8"/>
     </row>
     <row r="16" spans="1:44" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="106"/>
+      <c r="A16" s="116"/>
       <c r="B16" s="67" t="s">
         <v>11</v>
       </c>
@@ -2409,16 +2479,16 @@
       </c>
       <c r="D16" s="69"/>
       <c r="E16" s="69"/>
-      <c r="F16" s="114"/>
-      <c r="G16" s="114"/>
-      <c r="H16" s="114"/>
-      <c r="I16" s="108"/>
-      <c r="J16" s="108"/>
+      <c r="F16" s="124"/>
+      <c r="G16" s="124"/>
+      <c r="H16" s="124"/>
+      <c r="I16" s="118"/>
+      <c r="J16" s="118"/>
       <c r="K16" s="21" t="s">
         <v>87</v>
       </c>
       <c r="L16" s="21"/>
-      <c r="M16" s="102"/>
+      <c r="M16" s="112"/>
       <c r="N16" s="21"/>
       <c r="O16" s="21"/>
       <c r="S16" s="43" t="s">
@@ -2439,26 +2509,23 @@
       <c r="X16" s="36">
         <v>0.52890000000000004</v>
       </c>
-      <c r="AA16" s="43" t="s">
-        <v>54</v>
-      </c>
-      <c r="AB16" s="91">
-        <v>36.607799999999997</v>
-      </c>
-      <c r="AC16" s="91">
-        <v>0.52859999999999996</v>
-      </c>
-      <c r="AD16" s="91">
-        <v>0.44879999999999998</v>
-      </c>
-      <c r="AE16" s="91">
-        <v>0.58579999999999999</v>
-      </c>
-      <c r="AF16" s="91">
-        <v>0.4652</v>
-      </c>
-      <c r="AG16" s="96" t="s">
-        <v>89</v>
+      <c r="AA16" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB16" s="89">
+        <v>69.384699999999995</v>
+      </c>
+      <c r="AC16" s="89">
+        <v>0.57709999999999995</v>
+      </c>
+      <c r="AD16" s="89">
+        <v>0.54710000000000003</v>
+      </c>
+      <c r="AE16" s="89">
+        <v>0.59009999999999996</v>
+      </c>
+      <c r="AF16" s="89">
+        <v>0.54579999999999995</v>
       </c>
       <c r="AK16" s="29"/>
       <c r="AL16" s="8"/>
@@ -2470,7 +2537,7 @@
       <c r="AR16" s="8"/>
     </row>
     <row r="17" spans="1:44" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="106"/>
+      <c r="A17" s="116"/>
       <c r="B17" s="67" t="s">
         <v>12</v>
       </c>
@@ -2479,16 +2546,16 @@
       </c>
       <c r="D17" s="69"/>
       <c r="E17" s="69"/>
-      <c r="F17" s="114"/>
-      <c r="G17" s="114"/>
-      <c r="H17" s="114"/>
-      <c r="I17" s="108"/>
-      <c r="J17" s="108"/>
+      <c r="F17" s="124"/>
+      <c r="G17" s="124"/>
+      <c r="H17" s="124"/>
+      <c r="I17" s="118"/>
+      <c r="J17" s="118"/>
       <c r="K17" s="21" t="s">
         <v>90</v>
       </c>
       <c r="L17" s="21"/>
-      <c r="M17" s="102"/>
+      <c r="M17" s="112"/>
       <c r="N17" s="21"/>
       <c r="O17" s="21"/>
       <c r="S17" s="43" t="s">
@@ -2509,26 +2576,23 @@
       <c r="X17" s="54">
         <v>0.54200000000000004</v>
       </c>
-      <c r="AA17" s="43" t="s">
-        <v>55</v>
-      </c>
-      <c r="AB17" s="91">
-        <v>34.582599999999999</v>
-      </c>
-      <c r="AC17" s="91">
-        <v>0.57430000000000003</v>
-      </c>
-      <c r="AD17" s="91">
-        <v>0.5333</v>
-      </c>
-      <c r="AE17" s="91">
-        <v>0.60440000000000005</v>
-      </c>
-      <c r="AF17" s="91">
-        <v>0.52949999999999997</v>
-      </c>
-      <c r="AG17" s="96" t="s">
-        <v>87</v>
+      <c r="AA17" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB17" s="89">
+        <v>79.566900000000004</v>
+      </c>
+      <c r="AC17" s="89">
+        <v>0.4718</v>
+      </c>
+      <c r="AD17" s="89">
+        <v>0.3175</v>
+      </c>
+      <c r="AE17" s="89">
+        <v>0.32240000000000002</v>
+      </c>
+      <c r="AF17" s="89">
+        <v>0.38929999999999998</v>
       </c>
       <c r="AK17" s="29"/>
       <c r="AL17" s="8"/>
@@ -2540,7 +2604,7 @@
       <c r="AR17" s="8"/>
     </row>
     <row r="18" spans="1:44" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="106"/>
+      <c r="A18" s="116"/>
       <c r="B18" s="67" t="s">
         <v>19</v>
       </c>
@@ -2549,16 +2613,16 @@
       </c>
       <c r="D18" s="69"/>
       <c r="E18" s="69"/>
-      <c r="F18" s="114"/>
-      <c r="G18" s="114"/>
-      <c r="H18" s="114"/>
-      <c r="I18" s="108"/>
-      <c r="J18" s="108"/>
+      <c r="F18" s="124"/>
+      <c r="G18" s="124"/>
+      <c r="H18" s="124"/>
+      <c r="I18" s="118"/>
+      <c r="J18" s="118"/>
       <c r="K18" s="21" t="s">
         <v>91</v>
       </c>
       <c r="L18" s="21"/>
-      <c r="M18" s="102"/>
+      <c r="M18" s="112"/>
       <c r="N18" s="21"/>
       <c r="O18" s="21"/>
       <c r="S18" s="43" t="s">
@@ -2579,14 +2643,25 @@
       <c r="X18" s="36">
         <v>0.42180000000000001</v>
       </c>
-      <c r="AA18" s="43" t="s">
-        <v>56</v>
-      </c>
-      <c r="AB18" s="91"/>
-      <c r="AC18" s="91"/>
-      <c r="AD18" s="91"/>
-      <c r="AE18" s="91"/>
-      <c r="AF18" s="91"/>
+      <c r="AA18" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB18" s="31">
+        <v>81.634399999999999</v>
+      </c>
+      <c r="AC18" s="31">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="AD18" s="31">
+        <v>0.1988</v>
+      </c>
+      <c r="AE18" s="31">
+        <v>0.33329999999999999</v>
+      </c>
+      <c r="AF18" s="105">
+        <v>0.14169999999999999</v>
+      </c>
+      <c r="AG18" s="106"/>
       <c r="AK18" s="29"/>
       <c r="AL18" s="8"/>
       <c r="AM18" s="8"/>
@@ -2597,7 +2672,7 @@
       <c r="AR18" s="8"/>
     </row>
     <row r="19" spans="1:44" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="106"/>
+      <c r="A19" s="116"/>
       <c r="B19" s="67" t="s">
         <v>20</v>
       </c>
@@ -2606,16 +2681,16 @@
       </c>
       <c r="D19" s="69"/>
       <c r="E19" s="69"/>
-      <c r="F19" s="114"/>
-      <c r="G19" s="114"/>
-      <c r="H19" s="114"/>
-      <c r="I19" s="108"/>
-      <c r="J19" s="108"/>
+      <c r="F19" s="124"/>
+      <c r="G19" s="124"/>
+      <c r="H19" s="124"/>
+      <c r="I19" s="118"/>
+      <c r="J19" s="118"/>
       <c r="K19" s="21" t="s">
         <v>80</v>
       </c>
       <c r="L19" s="21"/>
-      <c r="M19" s="102"/>
+      <c r="M19" s="112"/>
       <c r="N19" s="21"/>
       <c r="O19" s="21"/>
       <c r="S19" s="43" t="s">
@@ -2636,27 +2711,25 @@
       <c r="X19" s="36">
         <v>0.33329999999999999</v>
       </c>
-      <c r="AA19" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="AB19" s="89">
-        <v>40.927900000000001</v>
-      </c>
-      <c r="AC19" s="89">
-        <v>0.4224</v>
-      </c>
-      <c r="AD19" s="89">
-        <v>0.19800000000000001</v>
-      </c>
-      <c r="AE19" s="89">
-        <v>0.14080000000000001</v>
-      </c>
-      <c r="AF19" s="89">
-        <v>0.33329999999999999</v>
-      </c>
-      <c r="AG19" s="96" t="s">
-        <v>90</v>
-      </c>
+      <c r="AA19" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB19" s="31">
+        <v>79.0381</v>
+      </c>
+      <c r="AC19" s="31">
+        <v>0.45729999999999998</v>
+      </c>
+      <c r="AD19" s="31">
+        <v>0.29310000000000003</v>
+      </c>
+      <c r="AE19" s="31">
+        <v>0.373</v>
+      </c>
+      <c r="AF19" s="31">
+        <v>0.31140000000000001</v>
+      </c>
+      <c r="AG19" s="94"/>
       <c r="AK19" s="29"/>
       <c r="AL19" s="28"/>
       <c r="AM19" s="28"/>
@@ -2667,7 +2740,7 @@
       <c r="AR19" s="8"/>
     </row>
     <row r="20" spans="1:44" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="106"/>
+      <c r="A20" s="116"/>
       <c r="B20" s="67" t="s">
         <v>21</v>
       </c>
@@ -2676,16 +2749,16 @@
       </c>
       <c r="D20" s="69"/>
       <c r="E20" s="69"/>
-      <c r="F20" s="115"/>
-      <c r="G20" s="115"/>
-      <c r="H20" s="115"/>
-      <c r="I20" s="109"/>
-      <c r="J20" s="109"/>
+      <c r="F20" s="125"/>
+      <c r="G20" s="125"/>
+      <c r="H20" s="125"/>
+      <c r="I20" s="119"/>
+      <c r="J20" s="119"/>
       <c r="K20" s="21" t="s">
         <v>92</v>
       </c>
       <c r="L20" s="21"/>
-      <c r="M20" s="102"/>
+      <c r="M20" s="112"/>
       <c r="N20" s="21"/>
       <c r="O20" s="21"/>
       <c r="S20" s="43" t="s">
@@ -2706,14 +2779,25 @@
       <c r="X20" s="36">
         <v>0.34489999999999998</v>
       </c>
-      <c r="AA20" s="43" t="s">
-        <v>58</v>
-      </c>
-      <c r="AB20" s="91"/>
-      <c r="AC20" s="91"/>
-      <c r="AD20" s="91"/>
-      <c r="AE20" s="91"/>
-      <c r="AF20" s="91"/>
+      <c r="AA20" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB20" s="34">
+        <v>72.208100000000002</v>
+      </c>
+      <c r="AC20" s="34">
+        <v>0.54269999999999996</v>
+      </c>
+      <c r="AD20" s="34">
+        <v>0.47749999999999998</v>
+      </c>
+      <c r="AE20" s="34">
+        <v>0.57069999999999999</v>
+      </c>
+      <c r="AF20" s="34">
+        <v>0.48599999999999999</v>
+      </c>
+      <c r="AG20" s="94"/>
       <c r="AK20" s="8"/>
       <c r="AL20" s="8"/>
       <c r="AM20" s="8"/>
@@ -2754,26 +2838,23 @@
       <c r="X21" s="36">
         <v>0.51739999999999997</v>
       </c>
-      <c r="AA21" s="43" t="s">
-        <v>59</v>
-      </c>
-      <c r="AB21" s="91">
-        <v>34.878599999999999</v>
-      </c>
-      <c r="AC21" s="91">
-        <v>0.5585</v>
-      </c>
-      <c r="AD21" s="91">
-        <v>0.52859999999999996</v>
-      </c>
-      <c r="AE21" s="91">
-        <v>0.56379999999999997</v>
-      </c>
-      <c r="AF21" s="91">
-        <v>0.52500000000000002</v>
-      </c>
-      <c r="AG21" s="96" t="s">
-        <v>86</v>
+      <c r="AA21" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB21" s="53">
+        <v>68.727999999999994</v>
+      </c>
+      <c r="AC21" s="53">
+        <v>0.58420000000000005</v>
+      </c>
+      <c r="AD21" s="53">
+        <v>0.55400000000000005</v>
+      </c>
+      <c r="AE21" s="53">
+        <v>0.57789999999999997</v>
+      </c>
+      <c r="AF21" s="53">
+        <v>0.55120000000000002</v>
       </c>
       <c r="AK21" s="8"/>
       <c r="AL21" s="8"/>
@@ -2803,12 +2884,25 @@
       <c r="V22" s="38"/>
       <c r="W22" s="38"/>
       <c r="X22" s="38"/>
-      <c r="AA22" s="37"/>
-      <c r="AB22" s="38"/>
-      <c r="AC22" s="37"/>
-      <c r="AD22" s="38"/>
-      <c r="AE22" s="38"/>
-      <c r="AF22" s="38"/>
+      <c r="AA22" s="96" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB22" s="97">
+        <v>70.093100000000007</v>
+      </c>
+      <c r="AC22" s="97">
+        <v>0.57169999999999999</v>
+      </c>
+      <c r="AD22" s="97">
+        <v>0.54600000000000004</v>
+      </c>
+      <c r="AE22" s="97">
+        <v>0.5756</v>
+      </c>
+      <c r="AF22" s="97">
+        <v>0.5484</v>
+      </c>
+      <c r="AG22" s="94"/>
       <c r="AK22" s="8"/>
       <c r="AL22" s="8"/>
       <c r="AM22" s="8"/>
@@ -2837,12 +2931,13 @@
       <c r="V23" s="39"/>
       <c r="W23" s="39"/>
       <c r="X23" s="39"/>
-      <c r="AA23" s="39"/>
-      <c r="AB23" s="39"/>
-      <c r="AC23" s="39"/>
-      <c r="AD23" s="39"/>
-      <c r="AE23" s="39"/>
-      <c r="AF23" s="39"/>
+      <c r="AA23" s="98"/>
+      <c r="AB23" s="103"/>
+      <c r="AC23" s="103"/>
+      <c r="AD23" s="103"/>
+      <c r="AE23" s="103"/>
+      <c r="AF23" s="103"/>
+      <c r="AG23" s="94"/>
       <c r="AK23" s="8"/>
       <c r="AL23" s="8"/>
       <c r="AM23" s="8"/>
@@ -2865,22 +2960,21 @@
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
       <c r="L24" s="8"/>
-      <c r="S24" s="99" t="s">
+      <c r="S24" s="109" t="s">
         <v>36</v>
       </c>
-      <c r="T24" s="100"/>
-      <c r="U24" s="100"/>
-      <c r="V24" s="100"/>
-      <c r="W24" s="100"/>
-      <c r="X24" s="101"/>
-      <c r="AA24" s="99" t="s">
-        <v>36</v>
-      </c>
+      <c r="T24" s="110"/>
+      <c r="U24" s="110"/>
+      <c r="V24" s="110"/>
+      <c r="W24" s="110"/>
+      <c r="X24" s="111"/>
+      <c r="AA24" s="99"/>
       <c r="AB24" s="100"/>
       <c r="AC24" s="100"/>
       <c r="AD24" s="100"/>
       <c r="AE24" s="100"/>
-      <c r="AF24" s="101"/>
+      <c r="AF24" s="100"/>
+      <c r="AG24" s="94"/>
       <c r="AK24" s="8"/>
       <c r="AL24" s="8"/>
       <c r="AM24" s="8"/>
@@ -2919,22 +3013,13 @@
       <c r="X25" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="AA25" s="9"/>
-      <c r="AB25" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC25" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="AD25" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="AE25" s="33" t="s">
-        <v>41</v>
-      </c>
-      <c r="AF25" s="33" t="s">
-        <v>46</v>
-      </c>
+      <c r="AA25" s="99"/>
+      <c r="AB25" s="100"/>
+      <c r="AC25" s="100"/>
+      <c r="AD25" s="100"/>
+      <c r="AE25" s="100"/>
+      <c r="AF25" s="100"/>
+      <c r="AG25" s="94"/>
       <c r="AK25" s="8"/>
       <c r="AL25" s="8"/>
       <c r="AM25" s="8"/>
@@ -2975,24 +3060,13 @@
       <c r="X26" s="31">
         <v>0.55079999999999996</v>
       </c>
-      <c r="AA26" s="41" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB26" s="92">
-        <v>70.567099999999996</v>
-      </c>
-      <c r="AC26" s="92">
-        <v>0.5585</v>
-      </c>
-      <c r="AD26" s="89">
-        <v>0.50839999999999996</v>
-      </c>
-      <c r="AE26" s="92">
-        <v>0.58230000000000004</v>
-      </c>
-      <c r="AF26" s="92">
-        <v>0.5111</v>
-      </c>
+      <c r="AA26" s="99"/>
+      <c r="AB26" s="100"/>
+      <c r="AC26" s="100"/>
+      <c r="AD26" s="100"/>
+      <c r="AE26" s="100"/>
+      <c r="AF26" s="100"/>
+      <c r="AG26" s="94"/>
       <c r="AK26" s="8"/>
       <c r="AL26" s="8"/>
       <c r="AM26" s="8"/>
@@ -3003,12 +3077,12 @@
       <c r="AR26" s="8"/>
     </row>
     <row r="27" spans="1:44" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="103"/>
-      <c r="B27" s="103"/>
-      <c r="C27" s="103"/>
-      <c r="D27" s="103"/>
-      <c r="E27" s="103"/>
-      <c r="F27" s="103"/>
+      <c r="A27" s="113"/>
+      <c r="B27" s="113"/>
+      <c r="C27" s="113"/>
+      <c r="D27" s="113"/>
+      <c r="E27" s="113"/>
+      <c r="F27" s="113"/>
       <c r="G27" s="8"/>
       <c r="H27" s="8"/>
       <c r="I27" s="8"/>
@@ -3033,24 +3107,13 @@
       <c r="X27" s="55">
         <v>0.59119999999999995</v>
       </c>
-      <c r="AA27" s="41" t="s">
-        <v>14</v>
-      </c>
-      <c r="AB27" s="92">
-        <v>71.140199999999993</v>
-      </c>
-      <c r="AC27" s="92">
-        <v>0.56840000000000002</v>
-      </c>
-      <c r="AD27" s="92">
-        <v>0.52929999999999999</v>
-      </c>
-      <c r="AE27" s="92">
-        <v>0.59960000000000002</v>
-      </c>
-      <c r="AF27" s="92">
-        <v>0.53090000000000004</v>
-      </c>
+      <c r="AA27" s="8"/>
+      <c r="AB27" s="8"/>
+      <c r="AC27" s="8"/>
+      <c r="AD27" s="8"/>
+      <c r="AE27" s="8"/>
+      <c r="AF27" s="8"/>
+      <c r="AG27" s="94"/>
       <c r="AK27" s="8"/>
       <c r="AL27" s="8"/>
       <c r="AM27" s="8"/>
@@ -3091,14 +3154,13 @@
       <c r="X28" s="31">
         <v>0.40329999999999999</v>
       </c>
-      <c r="AA28" s="41" t="s">
-        <v>15</v>
-      </c>
-      <c r="AB28" s="92"/>
-      <c r="AC28" s="92"/>
-      <c r="AD28" s="92"/>
-      <c r="AE28" s="92"/>
-      <c r="AF28" s="92"/>
+      <c r="AA28" s="8"/>
+      <c r="AB28" s="8"/>
+      <c r="AC28" s="8"/>
+      <c r="AD28" s="8"/>
+      <c r="AE28" s="8"/>
+      <c r="AF28" s="8"/>
+      <c r="AG28" s="94"/>
       <c r="AK28" s="8"/>
       <c r="AL28" s="8"/>
       <c r="AM28" s="8"/>
@@ -3139,24 +3201,13 @@
       <c r="X29" s="31">
         <v>0.14169999999999999</v>
       </c>
-      <c r="AA29" s="41" t="s">
-        <v>16</v>
-      </c>
-      <c r="AB29" s="92">
-        <v>81.649299999999997</v>
-      </c>
-      <c r="AC29" s="92">
-        <v>0.42499999999999999</v>
-      </c>
-      <c r="AD29" s="92">
-        <v>0.1988</v>
-      </c>
-      <c r="AE29" s="92">
-        <v>0.14169999999999999</v>
-      </c>
-      <c r="AF29" s="92">
-        <v>0.33329999999999999</v>
-      </c>
+      <c r="AA29" s="8"/>
+      <c r="AB29" s="8"/>
+      <c r="AC29" s="8"/>
+      <c r="AD29" s="8"/>
+      <c r="AE29" s="8"/>
+      <c r="AF29" s="8"/>
+      <c r="AG29" s="94"/>
       <c r="AK29" s="8"/>
       <c r="AL29" s="8"/>
       <c r="AM29" s="8"/>
@@ -3197,24 +3248,13 @@
       <c r="X30" s="31">
         <v>0.31140000000000001</v>
       </c>
-      <c r="AA30" s="41" t="s">
-        <v>17</v>
-      </c>
-      <c r="AB30" s="92">
-        <v>78.102999999999994</v>
-      </c>
-      <c r="AC30" s="92">
-        <v>0.45650000000000002</v>
-      </c>
-      <c r="AD30" s="92">
-        <v>0.27400000000000002</v>
-      </c>
-      <c r="AE30" s="92">
-        <v>0.3629</v>
-      </c>
-      <c r="AF30" s="92">
-        <v>0.36780000000000002</v>
-      </c>
+      <c r="AA30" s="8"/>
+      <c r="AB30" s="8"/>
+      <c r="AC30" s="8"/>
+      <c r="AD30" s="8"/>
+      <c r="AE30" s="8"/>
+      <c r="AF30" s="8"/>
+      <c r="AG30" s="94"/>
       <c r="AK30" s="8"/>
       <c r="AL30" s="8"/>
       <c r="AM30" s="8"/>
@@ -3255,24 +3295,12 @@
       <c r="X31" s="31">
         <v>0.54400000000000004</v>
       </c>
-      <c r="AA31" s="41" t="s">
-        <v>18</v>
-      </c>
-      <c r="AB31" s="92">
-        <v>71.925799999999995</v>
-      </c>
-      <c r="AC31" s="92">
-        <v>0.54930000000000001</v>
-      </c>
-      <c r="AD31" s="92">
-        <v>0.49309999999999998</v>
-      </c>
-      <c r="AE31" s="92">
-        <v>0.55520000000000003</v>
-      </c>
-      <c r="AF31" s="92">
-        <v>0.49669999999999997</v>
-      </c>
+      <c r="AA31" s="99"/>
+      <c r="AB31" s="102"/>
+      <c r="AC31" s="102"/>
+      <c r="AD31" s="102"/>
+      <c r="AE31" s="102"/>
+      <c r="AF31" s="102"/>
       <c r="AK31" s="8"/>
       <c r="AL31" s="8"/>
       <c r="AM31" s="8"/>
@@ -3313,24 +3341,12 @@
       <c r="X32" s="35">
         <v>0.52049999999999996</v>
       </c>
-      <c r="AA32" s="42" t="s">
-        <v>48</v>
-      </c>
-      <c r="AB32" s="90">
-        <v>70.174099999999996</v>
-      </c>
-      <c r="AC32" s="90">
-        <v>0.55969999999999998</v>
-      </c>
-      <c r="AD32" s="90">
-        <v>0.50370000000000004</v>
-      </c>
-      <c r="AE32" s="90">
-        <v>0.58540000000000003</v>
-      </c>
-      <c r="AF32" s="90">
-        <v>0.50690000000000002</v>
-      </c>
+      <c r="AA32" s="99"/>
+      <c r="AB32" s="100"/>
+      <c r="AC32" s="100"/>
+      <c r="AD32" s="100"/>
+      <c r="AE32" s="100"/>
+      <c r="AF32" s="100"/>
       <c r="AK32" s="8"/>
       <c r="AL32" s="8"/>
       <c r="AM32" s="8"/>
@@ -3341,12 +3357,12 @@
       <c r="AR32" s="8"/>
     </row>
     <row r="33" spans="1:44" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="103"/>
-      <c r="B33" s="103"/>
-      <c r="C33" s="103"/>
-      <c r="D33" s="103"/>
-      <c r="E33" s="103"/>
-      <c r="F33" s="103"/>
+      <c r="A33" s="113"/>
+      <c r="B33" s="113"/>
+      <c r="C33" s="113"/>
+      <c r="D33" s="113"/>
+      <c r="E33" s="113"/>
+      <c r="F33" s="113"/>
       <c r="G33" s="8"/>
       <c r="H33" s="8"/>
       <c r="I33" s="8"/>
@@ -3371,24 +3387,12 @@
       <c r="X33" s="53">
         <v>0.54930000000000001</v>
       </c>
-      <c r="AA33" s="42" t="s">
-        <v>49</v>
-      </c>
-      <c r="AB33" s="90">
-        <v>68.737300000000005</v>
-      </c>
-      <c r="AC33" s="90">
-        <v>0.57750000000000001</v>
-      </c>
-      <c r="AD33" s="90">
-        <v>0.54930000000000001</v>
-      </c>
-      <c r="AE33" s="90">
-        <v>0.5927</v>
-      </c>
-      <c r="AF33" s="90">
-        <v>0.5514</v>
-      </c>
+      <c r="AA33" s="99"/>
+      <c r="AB33" s="100"/>
+      <c r="AC33" s="100"/>
+      <c r="AD33" s="100"/>
+      <c r="AE33" s="100"/>
+      <c r="AF33" s="100"/>
       <c r="AK33" s="8"/>
       <c r="AL33" s="8"/>
       <c r="AM33" s="8"/>
@@ -3429,14 +3433,12 @@
       <c r="X34" s="35">
         <v>0.47139999999999999</v>
       </c>
-      <c r="AA34" s="42" t="s">
-        <v>50</v>
-      </c>
-      <c r="AB34" s="90"/>
-      <c r="AC34" s="90"/>
-      <c r="AD34" s="90"/>
-      <c r="AE34" s="90"/>
-      <c r="AF34" s="90"/>
+      <c r="AA34" s="99"/>
+      <c r="AB34" s="100"/>
+      <c r="AC34" s="100"/>
+      <c r="AD34" s="100"/>
+      <c r="AE34" s="100"/>
+      <c r="AF34" s="100"/>
       <c r="AK34" s="8"/>
       <c r="AL34" s="8"/>
       <c r="AM34" s="8"/>
@@ -3477,14 +3479,12 @@
       <c r="X35" s="35">
         <v>0.3891</v>
       </c>
-      <c r="AA35" s="42" t="s">
-        <v>52</v>
-      </c>
-      <c r="AB35" s="90"/>
-      <c r="AC35" s="90"/>
-      <c r="AD35" s="90"/>
-      <c r="AE35" s="90"/>
-      <c r="AF35" s="90"/>
+      <c r="AA35" s="99"/>
+      <c r="AB35" s="100"/>
+      <c r="AC35" s="100"/>
+      <c r="AD35" s="100"/>
+      <c r="AE35" s="100"/>
+      <c r="AF35" s="100"/>
       <c r="AK35" s="8"/>
       <c r="AL35" s="8"/>
       <c r="AM35" s="8"/>
@@ -3525,14 +3525,12 @@
       <c r="X36" s="35">
         <v>0.37419999999999998</v>
       </c>
-      <c r="AA36" s="42" t="s">
-        <v>51</v>
-      </c>
-      <c r="AB36" s="90"/>
-      <c r="AC36" s="90"/>
-      <c r="AD36" s="90"/>
-      <c r="AE36" s="90"/>
-      <c r="AF36" s="90"/>
+      <c r="AA36" s="99"/>
+      <c r="AB36" s="100"/>
+      <c r="AC36" s="100"/>
+      <c r="AD36" s="100"/>
+      <c r="AE36" s="100"/>
+      <c r="AF36" s="100"/>
       <c r="AK36" s="8"/>
       <c r="AL36" s="8"/>
       <c r="AM36" s="8"/>
@@ -3573,24 +3571,12 @@
       <c r="X37" s="35">
         <v>0.54330000000000001</v>
       </c>
-      <c r="AA37" s="42" t="s">
-        <v>53</v>
-      </c>
-      <c r="AB37" s="90">
-        <v>68.650000000000006</v>
-      </c>
-      <c r="AC37" s="90">
-        <v>0.58620000000000005</v>
-      </c>
-      <c r="AD37" s="90">
-        <v>0.54990000000000006</v>
-      </c>
-      <c r="AE37" s="90">
-        <v>0.59670000000000001</v>
-      </c>
-      <c r="AF37" s="90">
-        <v>0.54679999999999995</v>
-      </c>
+      <c r="AA37" s="99"/>
+      <c r="AB37" s="100"/>
+      <c r="AC37" s="100"/>
+      <c r="AD37" s="100"/>
+      <c r="AE37" s="100"/>
+      <c r="AF37" s="100"/>
       <c r="AK37" s="8"/>
       <c r="AL37" s="8"/>
       <c r="AM37" s="8"/>
@@ -3631,24 +3617,12 @@
       <c r="X38" s="40">
         <v>0.53969999999999996</v>
       </c>
-      <c r="AA38" s="44" t="s">
-        <v>54</v>
-      </c>
-      <c r="AB38" s="93">
-        <v>72.235699999999994</v>
-      </c>
-      <c r="AC38" s="93">
-        <v>0.54890000000000005</v>
-      </c>
-      <c r="AD38" s="93">
-        <v>0.4647</v>
-      </c>
-      <c r="AE38" s="93">
-        <v>0.60780000000000001</v>
-      </c>
-      <c r="AF38" s="93">
-        <v>0.48120000000000002</v>
-      </c>
+      <c r="AA38" s="99"/>
+      <c r="AB38" s="100"/>
+      <c r="AC38" s="100"/>
+      <c r="AD38" s="100"/>
+      <c r="AE38" s="100"/>
+      <c r="AF38" s="100"/>
       <c r="AK38" s="8"/>
       <c r="AL38" s="8"/>
       <c r="AM38" s="8"/>
@@ -3689,24 +3663,12 @@
       <c r="X39" s="56">
         <v>0.54010000000000002</v>
       </c>
-      <c r="AA39" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="AB39" s="93">
-        <v>68.759399999999999</v>
-      </c>
-      <c r="AC39" s="93">
-        <v>0.58130000000000004</v>
-      </c>
-      <c r="AD39" s="93">
-        <v>0.59930000000000005</v>
-      </c>
-      <c r="AE39" s="93">
-        <v>0.53339999999999999</v>
-      </c>
-      <c r="AF39" s="93">
-        <v>0.5353</v>
-      </c>
+      <c r="AA39" s="99"/>
+      <c r="AB39" s="100"/>
+      <c r="AC39" s="100"/>
+      <c r="AD39" s="100"/>
+      <c r="AE39" s="100"/>
+      <c r="AF39" s="100"/>
       <c r="AK39" s="8"/>
       <c r="AL39" s="8"/>
       <c r="AM39" s="8"/>
@@ -3747,14 +3709,12 @@
       <c r="X40" s="40">
         <v>0.42730000000000001</v>
       </c>
-      <c r="AA40" s="44" t="s">
-        <v>56</v>
-      </c>
-      <c r="AB40" s="93"/>
-      <c r="AC40" s="93"/>
-      <c r="AD40" s="93"/>
-      <c r="AE40" s="93"/>
-      <c r="AF40" s="93"/>
+      <c r="AA40" s="99"/>
+      <c r="AB40" s="107"/>
+      <c r="AC40" s="107"/>
+      <c r="AD40" s="107"/>
+      <c r="AE40" s="107"/>
+      <c r="AF40" s="107"/>
       <c r="AK40" s="8"/>
       <c r="AL40" s="8"/>
       <c r="AM40" s="8"/>
@@ -3795,24 +3755,12 @@
       <c r="X41" s="40">
         <v>0.33329999999999999</v>
       </c>
-      <c r="AA41" s="44" t="s">
-        <v>57</v>
-      </c>
-      <c r="AB41" s="92">
-        <v>81.6858</v>
-      </c>
-      <c r="AC41" s="92">
-        <v>0.42499999999999999</v>
-      </c>
-      <c r="AD41" s="92">
-        <v>0.1988</v>
-      </c>
-      <c r="AE41" s="92">
-        <v>0.14169999999999999</v>
-      </c>
-      <c r="AF41" s="92">
-        <v>0.33329999999999999</v>
-      </c>
+      <c r="AA41" s="99"/>
+      <c r="AB41" s="107"/>
+      <c r="AC41" s="107"/>
+      <c r="AD41" s="107"/>
+      <c r="AE41" s="107"/>
+      <c r="AF41" s="107"/>
       <c r="AK41" s="8"/>
       <c r="AL41" s="8"/>
       <c r="AM41" s="8"/>
@@ -3853,14 +3801,12 @@
       <c r="X42" s="40">
         <v>0.34810000000000002</v>
       </c>
-      <c r="AA42" s="44" t="s">
-        <v>58</v>
-      </c>
-      <c r="AB42" s="93"/>
-      <c r="AC42" s="93"/>
-      <c r="AD42" s="93"/>
-      <c r="AE42" s="93"/>
-      <c r="AF42" s="93"/>
+      <c r="AA42" s="99"/>
+      <c r="AB42" s="107"/>
+      <c r="AC42" s="107"/>
+      <c r="AD42" s="107"/>
+      <c r="AE42" s="107"/>
+      <c r="AF42" s="107"/>
       <c r="AK42" s="8"/>
       <c r="AL42" s="8"/>
       <c r="AM42" s="8"/>
@@ -3901,24 +3847,12 @@
       <c r="X43" s="40">
         <v>0.52080000000000004</v>
       </c>
-      <c r="AA43" s="44" t="s">
-        <v>59</v>
-      </c>
-      <c r="AB43" s="93">
-        <v>69.235500000000002</v>
-      </c>
-      <c r="AC43" s="93">
-        <v>0.57379999999999998</v>
-      </c>
-      <c r="AD43" s="93">
-        <v>0.53959999999999997</v>
-      </c>
-      <c r="AE43" s="93">
-        <v>0.57640000000000002</v>
-      </c>
-      <c r="AF43" s="93">
-        <v>0.53620000000000001</v>
-      </c>
+      <c r="AA43" s="99"/>
+      <c r="AB43" s="100"/>
+      <c r="AC43" s="100"/>
+      <c r="AD43" s="100"/>
+      <c r="AE43" s="100"/>
+      <c r="AF43" s="100"/>
       <c r="AK43" s="8"/>
       <c r="AL43" s="8"/>
       <c r="AM43" s="8"/>
@@ -3942,11 +3876,11 @@
       <c r="K44" s="8"/>
       <c r="L44" s="8"/>
       <c r="X44" s="8"/>
-      <c r="AB44" s="94"/>
-      <c r="AC44" s="94"/>
-      <c r="AD44" s="94"/>
-      <c r="AE44" s="94"/>
-      <c r="AF44" s="95"/>
+      <c r="AB44" s="92"/>
+      <c r="AC44" s="92"/>
+      <c r="AD44" s="92"/>
+      <c r="AE44" s="92"/>
+      <c r="AF44" s="93"/>
       <c r="AK44" s="8"/>
       <c r="AL44" s="8"/>
       <c r="AM44" s="8"/>
@@ -3970,11 +3904,11 @@
       <c r="K45" s="8"/>
       <c r="L45" s="8"/>
       <c r="X45" s="8"/>
-      <c r="AB45" s="94"/>
-      <c r="AC45" s="94"/>
-      <c r="AD45" s="94"/>
-      <c r="AE45" s="94"/>
-      <c r="AF45" s="95"/>
+      <c r="AB45" s="92"/>
+      <c r="AC45" s="92"/>
+      <c r="AD45" s="92"/>
+      <c r="AE45" s="92"/>
+      <c r="AF45" s="93"/>
       <c r="AK45" s="8"/>
       <c r="AL45" s="8"/>
       <c r="AM45" s="8"/>
@@ -3998,11 +3932,11 @@
       <c r="K46" s="8"/>
       <c r="L46" s="8"/>
       <c r="X46" s="8"/>
-      <c r="AB46" s="94"/>
-      <c r="AC46" s="94"/>
-      <c r="AD46" s="94"/>
-      <c r="AE46" s="94"/>
-      <c r="AF46" s="95"/>
+      <c r="AB46" s="92"/>
+      <c r="AC46" s="92"/>
+      <c r="AD46" s="92"/>
+      <c r="AE46" s="92"/>
+      <c r="AF46" s="93"/>
       <c r="AK46" s="8"/>
       <c r="AL46" s="8"/>
       <c r="AM46" s="8"/>
@@ -4026,11 +3960,11 @@
       <c r="K47" s="8"/>
       <c r="L47" s="8"/>
       <c r="X47" s="8"/>
-      <c r="AB47" s="94"/>
-      <c r="AC47" s="94"/>
-      <c r="AD47" s="94"/>
-      <c r="AE47" s="94"/>
-      <c r="AF47" s="95"/>
+      <c r="AB47" s="92"/>
+      <c r="AC47" s="92"/>
+      <c r="AD47" s="92"/>
+      <c r="AE47" s="92"/>
+      <c r="AF47" s="93"/>
       <c r="AK47" s="8"/>
       <c r="AL47" s="8"/>
       <c r="AM47" s="8"/>
@@ -10787,7 +10721,8 @@
     <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="1001" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="20">
+    <mergeCell ref="M3:M20"/>
     <mergeCell ref="A33:F33"/>
     <mergeCell ref="A27:F27"/>
     <mergeCell ref="S2:X2"/>
@@ -10802,11 +10737,11 @@
     <mergeCell ref="F15:F20"/>
     <mergeCell ref="G15:G20"/>
     <mergeCell ref="H15:H20"/>
+    <mergeCell ref="AB40:AF42"/>
     <mergeCell ref="S1:X1"/>
     <mergeCell ref="AA2:AF2"/>
-    <mergeCell ref="AA24:AF24"/>
     <mergeCell ref="AA1:AF1"/>
-    <mergeCell ref="M3:M20"/>
+    <mergeCell ref="AA13:AF13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -10815,10 +10750,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D89E235-3970-4CC9-B57E-2CDB888235F2}">
-  <dimension ref="A1:AL1000"/>
+  <dimension ref="A1:AL990"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AM42" sqref="AM42"/>
+    <sheetView tabSelected="1" topLeftCell="R43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S49" sqref="S49:AL55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -10903,33 +10838,33 @@
       <c r="O1" s="73" t="s">
         <v>116</v>
       </c>
-      <c r="Q1" s="116" t="s">
+      <c r="Q1" s="126" t="s">
         <v>37</v>
       </c>
-      <c r="R1" s="116"/>
-      <c r="S1" s="116"/>
-      <c r="T1" s="116"/>
-      <c r="U1" s="116"/>
-      <c r="V1" s="116"/>
-      <c r="W1" s="116"/>
-      <c r="X1" s="116"/>
-      <c r="Y1" s="116"/>
-      <c r="Z1" s="116"/>
-      <c r="AA1" s="116"/>
-      <c r="AB1" s="116"/>
-      <c r="AC1" s="116"/>
-      <c r="AD1" s="116"/>
-      <c r="AE1" s="116"/>
-      <c r="AF1" s="116"/>
-      <c r="AG1" s="116"/>
-      <c r="AH1" s="116"/>
-      <c r="AI1" s="116"/>
-      <c r="AJ1" s="116"/>
-      <c r="AK1" s="116"/>
-      <c r="AL1" s="116"/>
+      <c r="R1" s="126"/>
+      <c r="S1" s="126"/>
+      <c r="T1" s="126"/>
+      <c r="U1" s="126"/>
+      <c r="V1" s="126"/>
+      <c r="W1" s="126"/>
+      <c r="X1" s="126"/>
+      <c r="Y1" s="126"/>
+      <c r="Z1" s="126"/>
+      <c r="AA1" s="126"/>
+      <c r="AB1" s="126"/>
+      <c r="AC1" s="126"/>
+      <c r="AD1" s="126"/>
+      <c r="AE1" s="126"/>
+      <c r="AF1" s="126"/>
+      <c r="AG1" s="126"/>
+      <c r="AH1" s="126"/>
+      <c r="AI1" s="126"/>
+      <c r="AJ1" s="126"/>
+      <c r="AK1" s="126"/>
+      <c r="AL1" s="126"/>
     </row>
     <row r="2" spans="1:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="118" t="s">
+      <c r="A2" s="128" t="s">
         <v>82</v>
       </c>
       <c r="B2" s="62" t="s">
@@ -10943,10 +10878,10 @@
       <c r="F2" s="70"/>
       <c r="G2" s="70"/>
       <c r="H2" s="70"/>
-      <c r="I2" s="107">
+      <c r="I2" s="117">
         <v>32</v>
       </c>
-      <c r="J2" s="107">
+      <c r="J2" s="117">
         <v>1E-3</v>
       </c>
       <c r="K2" s="71" t="s">
@@ -10955,7 +10890,7 @@
       <c r="L2" s="83">
         <v>20</v>
       </c>
-      <c r="M2" s="102" t="b">
+      <c r="M2" s="112" t="b">
         <v>1</v>
       </c>
       <c r="N2" s="71" t="s">
@@ -11030,7 +10965,7 @@
       </c>
     </row>
     <row r="3" spans="1:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="119"/>
+      <c r="A3" s="129"/>
       <c r="B3" s="62" t="s">
         <v>11</v>
       </c>
@@ -11042,15 +10977,15 @@
       <c r="F3" s="70"/>
       <c r="G3" s="70"/>
       <c r="H3" s="70"/>
-      <c r="I3" s="108"/>
-      <c r="J3" s="108"/>
+      <c r="I3" s="118"/>
+      <c r="J3" s="118"/>
       <c r="K3" s="21" t="s">
         <v>66</v>
       </c>
       <c r="L3" s="83">
         <v>13</v>
       </c>
-      <c r="M3" s="102"/>
+      <c r="M3" s="112"/>
       <c r="N3" s="21" t="s">
         <v>118</v>
       </c>
@@ -11125,7 +11060,7 @@
       </c>
     </row>
     <row r="4" spans="1:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="119"/>
+      <c r="A4" s="129"/>
       <c r="B4" s="62" t="s">
         <v>12</v>
       </c>
@@ -11137,15 +11072,15 @@
       <c r="F4" s="70"/>
       <c r="G4" s="70"/>
       <c r="H4" s="70"/>
-      <c r="I4" s="108"/>
-      <c r="J4" s="108"/>
+      <c r="I4" s="118"/>
+      <c r="J4" s="118"/>
       <c r="K4" s="21" t="s">
         <v>67</v>
       </c>
       <c r="L4" s="83">
         <v>14</v>
       </c>
-      <c r="M4" s="102"/>
+      <c r="M4" s="112"/>
       <c r="N4" s="21" t="s">
         <v>119</v>
       </c>
@@ -11220,7 +11155,7 @@
       </c>
     </row>
     <row r="5" spans="1:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="119"/>
+      <c r="A5" s="129"/>
       <c r="B5" s="62" t="s">
         <v>19</v>
       </c>
@@ -11232,15 +11167,15 @@
       <c r="F5" s="70"/>
       <c r="G5" s="70"/>
       <c r="H5" s="70"/>
-      <c r="I5" s="108"/>
-      <c r="J5" s="108"/>
+      <c r="I5" s="118"/>
+      <c r="J5" s="118"/>
       <c r="K5" s="21" t="s">
         <v>68</v>
       </c>
       <c r="L5" s="83">
         <v>7</v>
       </c>
-      <c r="M5" s="102"/>
+      <c r="M5" s="112"/>
       <c r="N5" s="21" t="s">
         <v>120</v>
       </c>
@@ -11315,7 +11250,7 @@
       </c>
     </row>
     <row r="6" spans="1:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="119"/>
+      <c r="A6" s="129"/>
       <c r="B6" s="62" t="s">
         <v>20</v>
       </c>
@@ -11327,15 +11262,15 @@
       <c r="F6" s="70"/>
       <c r="G6" s="70"/>
       <c r="H6" s="70"/>
-      <c r="I6" s="108"/>
-      <c r="J6" s="108"/>
+      <c r="I6" s="118"/>
+      <c r="J6" s="118"/>
       <c r="K6" s="21" t="s">
         <v>68</v>
       </c>
       <c r="L6" s="83">
         <v>7</v>
       </c>
-      <c r="M6" s="102"/>
+      <c r="M6" s="112"/>
       <c r="N6" s="21" t="s">
         <v>121</v>
       </c>
@@ -11410,7 +11345,7 @@
       </c>
     </row>
     <row r="7" spans="1:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="120"/>
+      <c r="A7" s="130"/>
       <c r="B7" s="62" t="s">
         <v>21</v>
       </c>
@@ -11422,15 +11357,15 @@
       <c r="F7" s="70"/>
       <c r="G7" s="70"/>
       <c r="H7" s="70"/>
-      <c r="I7" s="108"/>
-      <c r="J7" s="108"/>
+      <c r="I7" s="118"/>
+      <c r="J7" s="118"/>
       <c r="K7" s="21" t="s">
         <v>69</v>
       </c>
       <c r="L7" s="83">
         <v>9</v>
       </c>
-      <c r="M7" s="102"/>
+      <c r="M7" s="112"/>
       <c r="N7" s="21" t="s">
         <v>122</v>
       </c>
@@ -11505,7 +11440,7 @@
       </c>
     </row>
     <row r="8" spans="1:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="121" t="s">
+      <c r="A8" s="131" t="s">
         <v>83</v>
       </c>
       <c r="B8" s="63" t="s">
@@ -11514,22 +11449,22 @@
       <c r="C8" s="69">
         <v>256</v>
       </c>
-      <c r="D8" s="110">
+      <c r="D8" s="120">
         <v>128</v>
       </c>
-      <c r="E8" s="110">
+      <c r="E8" s="120">
         <v>1</v>
       </c>
       <c r="F8" s="70"/>
       <c r="G8" s="70"/>
       <c r="H8" s="70"/>
-      <c r="I8" s="108"/>
-      <c r="J8" s="108"/>
+      <c r="I8" s="118"/>
+      <c r="J8" s="118"/>
       <c r="K8" s="21" t="s">
         <v>78</v>
       </c>
       <c r="L8" s="83"/>
-      <c r="M8" s="102"/>
+      <c r="M8" s="112"/>
       <c r="N8" s="21"/>
       <c r="O8" s="83"/>
       <c r="Q8" s="48" t="s">
@@ -11600,25 +11535,25 @@
       </c>
     </row>
     <row r="9" spans="1:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="122"/>
+      <c r="A9" s="132"/>
       <c r="B9" s="63" t="s">
         <v>11</v>
       </c>
       <c r="C9" s="69">
         <v>512</v>
       </c>
-      <c r="D9" s="111"/>
-      <c r="E9" s="111"/>
+      <c r="D9" s="121"/>
+      <c r="E9" s="121"/>
       <c r="F9" s="70"/>
       <c r="G9" s="70"/>
       <c r="H9" s="70"/>
-      <c r="I9" s="108"/>
-      <c r="J9" s="108"/>
+      <c r="I9" s="118"/>
+      <c r="J9" s="118"/>
       <c r="K9" s="21" t="s">
         <v>67</v>
       </c>
       <c r="L9" s="83"/>
-      <c r="M9" s="102"/>
+      <c r="M9" s="112"/>
       <c r="N9" s="21"/>
       <c r="O9" s="83"/>
       <c r="Q9" s="42" t="s">
@@ -11689,25 +11624,25 @@
       </c>
     </row>
     <row r="10" spans="1:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="122"/>
+      <c r="A10" s="132"/>
       <c r="B10" s="63" t="s">
         <v>12</v>
       </c>
       <c r="C10" s="69">
         <v>512</v>
       </c>
-      <c r="D10" s="111"/>
-      <c r="E10" s="111"/>
+      <c r="D10" s="121"/>
+      <c r="E10" s="121"/>
       <c r="F10" s="70"/>
       <c r="G10" s="70"/>
       <c r="H10" s="70"/>
-      <c r="I10" s="108"/>
-      <c r="J10" s="108"/>
+      <c r="I10" s="118"/>
+      <c r="J10" s="118"/>
       <c r="K10" s="21" t="s">
         <v>84</v>
       </c>
       <c r="L10" s="83"/>
-      <c r="M10" s="102"/>
+      <c r="M10" s="112"/>
       <c r="N10" s="21"/>
       <c r="O10" s="83"/>
       <c r="Q10" s="42" t="s">
@@ -11778,25 +11713,25 @@
       </c>
     </row>
     <row r="11" spans="1:38" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="122"/>
+      <c r="A11" s="132"/>
       <c r="B11" s="63" t="s">
         <v>19</v>
       </c>
       <c r="C11" s="69">
         <v>512</v>
       </c>
-      <c r="D11" s="111"/>
-      <c r="E11" s="111"/>
+      <c r="D11" s="121"/>
+      <c r="E11" s="121"/>
       <c r="F11" s="70"/>
       <c r="G11" s="70"/>
       <c r="H11" s="70"/>
-      <c r="I11" s="108"/>
-      <c r="J11" s="108"/>
+      <c r="I11" s="118"/>
+      <c r="J11" s="118"/>
       <c r="K11" s="21" t="s">
         <v>84</v>
       </c>
       <c r="L11" s="83"/>
-      <c r="M11" s="102"/>
+      <c r="M11" s="112"/>
       <c r="N11" s="21"/>
       <c r="O11" s="83"/>
       <c r="Q11" s="42" t="s">
@@ -11867,25 +11802,25 @@
       </c>
     </row>
     <row r="12" spans="1:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="122"/>
+      <c r="A12" s="132"/>
       <c r="B12" s="63" t="s">
         <v>20</v>
       </c>
       <c r="C12" s="69">
         <v>512</v>
       </c>
-      <c r="D12" s="111"/>
-      <c r="E12" s="111"/>
+      <c r="D12" s="121"/>
+      <c r="E12" s="121"/>
       <c r="F12" s="70"/>
       <c r="G12" s="70"/>
       <c r="H12" s="70"/>
-      <c r="I12" s="108"/>
-      <c r="J12" s="108"/>
+      <c r="I12" s="118"/>
+      <c r="J12" s="118"/>
       <c r="K12" s="21" t="s">
         <v>93</v>
       </c>
       <c r="L12" s="83"/>
-      <c r="M12" s="102"/>
+      <c r="M12" s="112"/>
       <c r="N12" s="21"/>
       <c r="O12" s="83"/>
       <c r="Q12" s="42" t="s">
@@ -11956,25 +11891,25 @@
       </c>
     </row>
     <row r="13" spans="1:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="123"/>
+      <c r="A13" s="133"/>
       <c r="B13" s="63" t="s">
         <v>21</v>
       </c>
       <c r="C13" s="69">
         <v>512</v>
       </c>
-      <c r="D13" s="112"/>
-      <c r="E13" s="112"/>
+      <c r="D13" s="122"/>
+      <c r="E13" s="122"/>
       <c r="F13" s="70"/>
       <c r="G13" s="70"/>
       <c r="H13" s="70"/>
-      <c r="I13" s="108"/>
-      <c r="J13" s="108"/>
+      <c r="I13" s="118"/>
+      <c r="J13" s="118"/>
       <c r="K13" s="21" t="s">
         <v>94</v>
       </c>
       <c r="L13" s="83"/>
-      <c r="M13" s="102"/>
+      <c r="M13" s="112"/>
       <c r="N13" s="21"/>
       <c r="O13" s="83"/>
       <c r="Q13" s="42" t="s">
@@ -12045,7 +11980,7 @@
       </c>
     </row>
     <row r="14" spans="1:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="117" t="s">
+      <c r="A14" s="127" t="s">
         <v>88</v>
       </c>
       <c r="B14" s="64" t="s">
@@ -12056,22 +11991,22 @@
       </c>
       <c r="D14" s="69"/>
       <c r="E14" s="69"/>
-      <c r="F14" s="113">
+      <c r="F14" s="123">
         <v>64</v>
       </c>
-      <c r="G14" s="113">
+      <c r="G14" s="123">
         <v>64</v>
       </c>
       <c r="H14" s="80">
         <v>64</v>
       </c>
-      <c r="I14" s="108"/>
-      <c r="J14" s="108"/>
+      <c r="I14" s="118"/>
+      <c r="J14" s="118"/>
       <c r="K14" s="21" t="s">
         <v>79</v>
       </c>
       <c r="L14" s="83"/>
-      <c r="M14" s="102"/>
+      <c r="M14" s="112"/>
       <c r="N14" s="21"/>
       <c r="O14" s="83"/>
       <c r="Q14" s="42" t="s">
@@ -12142,7 +12077,7 @@
       </c>
     </row>
     <row r="15" spans="1:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="117"/>
+      <c r="A15" s="127"/>
       <c r="B15" s="64" t="s">
         <v>11</v>
       </c>
@@ -12151,16 +12086,16 @@
       </c>
       <c r="D15" s="69"/>
       <c r="E15" s="69"/>
-      <c r="F15" s="114"/>
-      <c r="G15" s="114"/>
+      <c r="F15" s="124"/>
+      <c r="G15" s="124"/>
       <c r="H15" s="81"/>
-      <c r="I15" s="108"/>
-      <c r="J15" s="108"/>
+      <c r="I15" s="118"/>
+      <c r="J15" s="118"/>
       <c r="K15" s="21" t="s">
         <v>80</v>
       </c>
       <c r="L15" s="83"/>
-      <c r="M15" s="102"/>
+      <c r="M15" s="112"/>
       <c r="N15" s="21"/>
       <c r="O15" s="83"/>
       <c r="Q15" s="44" t="s">
@@ -12231,7 +12166,7 @@
       </c>
     </row>
     <row r="16" spans="1:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="117"/>
+      <c r="A16" s="127"/>
       <c r="B16" s="64" t="s">
         <v>12</v>
       </c>
@@ -12240,16 +12175,16 @@
       </c>
       <c r="D16" s="69"/>
       <c r="E16" s="69"/>
-      <c r="F16" s="114"/>
-      <c r="G16" s="114"/>
+      <c r="F16" s="124"/>
+      <c r="G16" s="124"/>
       <c r="H16" s="81"/>
-      <c r="I16" s="108"/>
-      <c r="J16" s="108"/>
+      <c r="I16" s="118"/>
+      <c r="J16" s="118"/>
       <c r="K16" s="21" t="s">
         <v>85</v>
       </c>
       <c r="L16" s="83"/>
-      <c r="M16" s="102"/>
+      <c r="M16" s="112"/>
       <c r="N16" s="21"/>
       <c r="O16" s="83"/>
       <c r="Q16" s="44" t="s">
@@ -12320,7 +12255,7 @@
       </c>
     </row>
     <row r="17" spans="1:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="117"/>
+      <c r="A17" s="127"/>
       <c r="B17" s="64" t="s">
         <v>19</v>
       </c>
@@ -12329,16 +12264,16 @@
       </c>
       <c r="D17" s="69"/>
       <c r="E17" s="69"/>
-      <c r="F17" s="114"/>
-      <c r="G17" s="114"/>
+      <c r="F17" s="124"/>
+      <c r="G17" s="124"/>
       <c r="H17" s="81"/>
-      <c r="I17" s="108"/>
-      <c r="J17" s="108"/>
+      <c r="I17" s="118"/>
+      <c r="J17" s="118"/>
       <c r="K17" s="21" t="s">
         <v>95</v>
       </c>
       <c r="L17" s="83"/>
-      <c r="M17" s="102"/>
+      <c r="M17" s="112"/>
       <c r="N17" s="21"/>
       <c r="O17" s="83"/>
       <c r="Q17" s="44" t="s">
@@ -12409,7 +12344,7 @@
       </c>
     </row>
     <row r="18" spans="1:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="117"/>
+      <c r="A18" s="127"/>
       <c r="B18" s="64" t="s">
         <v>20</v>
       </c>
@@ -12418,16 +12353,16 @@
       </c>
       <c r="D18" s="69"/>
       <c r="E18" s="69"/>
-      <c r="F18" s="114"/>
-      <c r="G18" s="114"/>
+      <c r="F18" s="124"/>
+      <c r="G18" s="124"/>
       <c r="H18" s="81"/>
-      <c r="I18" s="108"/>
-      <c r="J18" s="108"/>
+      <c r="I18" s="118"/>
+      <c r="J18" s="118"/>
       <c r="K18" s="21" t="s">
         <v>69</v>
       </c>
       <c r="L18" s="83"/>
-      <c r="M18" s="102"/>
+      <c r="M18" s="112"/>
       <c r="N18" s="21"/>
       <c r="O18" s="83"/>
       <c r="Q18" s="44" t="s">
@@ -12498,7 +12433,7 @@
       </c>
     </row>
     <row r="19" spans="1:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="117"/>
+      <c r="A19" s="127"/>
       <c r="B19" s="64" t="s">
         <v>21</v>
       </c>
@@ -12507,16 +12442,16 @@
       </c>
       <c r="D19" s="69"/>
       <c r="E19" s="69"/>
-      <c r="F19" s="115"/>
-      <c r="G19" s="115"/>
+      <c r="F19" s="125"/>
+      <c r="G19" s="125"/>
       <c r="H19" s="82"/>
-      <c r="I19" s="109"/>
-      <c r="J19" s="109"/>
+      <c r="I19" s="119"/>
+      <c r="J19" s="119"/>
       <c r="K19" s="21" t="s">
         <v>86</v>
       </c>
       <c r="L19" s="21"/>
-      <c r="M19" s="102"/>
+      <c r="M19" s="112"/>
       <c r="N19" s="21"/>
       <c r="O19" s="21"/>
       <c r="Q19" s="44" t="s">
@@ -12718,30 +12653,30 @@
       <c r="K23" s="8"/>
       <c r="L23" s="84"/>
       <c r="M23" s="8"/>
-      <c r="Q23" s="116" t="s">
+      <c r="Q23" s="126" t="s">
         <v>36</v>
       </c>
-      <c r="R23" s="116"/>
-      <c r="S23" s="116"/>
-      <c r="T23" s="116"/>
-      <c r="U23" s="116"/>
-      <c r="V23" s="116"/>
-      <c r="W23" s="116"/>
-      <c r="X23" s="116"/>
-      <c r="Y23" s="116"/>
-      <c r="Z23" s="116"/>
-      <c r="AA23" s="116"/>
-      <c r="AB23" s="116"/>
-      <c r="AC23" s="116"/>
-      <c r="AD23" s="116"/>
-      <c r="AE23" s="116"/>
-      <c r="AF23" s="116"/>
-      <c r="AG23" s="116"/>
-      <c r="AH23" s="116"/>
-      <c r="AI23" s="116"/>
-      <c r="AJ23" s="116"/>
-      <c r="AK23" s="116"/>
-      <c r="AL23" s="116"/>
+      <c r="R23" s="126"/>
+      <c r="S23" s="126"/>
+      <c r="T23" s="126"/>
+      <c r="U23" s="126"/>
+      <c r="V23" s="126"/>
+      <c r="W23" s="126"/>
+      <c r="X23" s="126"/>
+      <c r="Y23" s="126"/>
+      <c r="Z23" s="126"/>
+      <c r="AA23" s="126"/>
+      <c r="AB23" s="126"/>
+      <c r="AC23" s="126"/>
+      <c r="AD23" s="126"/>
+      <c r="AE23" s="126"/>
+      <c r="AF23" s="126"/>
+      <c r="AG23" s="126"/>
+      <c r="AH23" s="126"/>
+      <c r="AI23" s="126"/>
+      <c r="AJ23" s="126"/>
+      <c r="AK23" s="126"/>
+      <c r="AL23" s="126"/>
     </row>
     <row r="24" spans="1:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="59"/>
@@ -12896,12 +12831,12 @@
       </c>
     </row>
     <row r="26" spans="1:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="103"/>
-      <c r="B26" s="103"/>
-      <c r="C26" s="103"/>
-      <c r="D26" s="103"/>
-      <c r="E26" s="103"/>
-      <c r="F26" s="103"/>
+      <c r="A26" s="113"/>
+      <c r="B26" s="113"/>
+      <c r="C26" s="113"/>
+      <c r="D26" s="113"/>
+      <c r="E26" s="113"/>
+      <c r="F26" s="113"/>
       <c r="K26" s="8"/>
       <c r="L26" s="84"/>
       <c r="M26" s="8"/>
@@ -13347,12 +13282,12 @@
       </c>
     </row>
     <row r="32" spans="1:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="103"/>
-      <c r="B32" s="103"/>
-      <c r="C32" s="103"/>
-      <c r="D32" s="103"/>
-      <c r="E32" s="103"/>
-      <c r="F32" s="103"/>
+      <c r="A32" s="113"/>
+      <c r="B32" s="113"/>
+      <c r="C32" s="113"/>
+      <c r="D32" s="113"/>
+      <c r="E32" s="113"/>
+      <c r="F32" s="113"/>
       <c r="G32" s="8"/>
       <c r="Q32" s="42" t="s">
         <v>49</v>
@@ -14200,96 +14135,626 @@
       <c r="AI46" s="8"/>
     </row>
     <row r="47" spans="1:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="W47" s="8"/>
-      <c r="X47" s="8"/>
-      <c r="Y47" s="8"/>
-      <c r="Z47" s="8"/>
-      <c r="AA47" s="8"/>
-      <c r="AB47" s="8"/>
-      <c r="AI47" s="8"/>
+      <c r="Q47" s="126" t="s">
+        <v>37</v>
+      </c>
+      <c r="R47" s="126"/>
+      <c r="S47" s="126"/>
+      <c r="T47" s="126"/>
+      <c r="U47" s="126"/>
+      <c r="V47" s="126"/>
+      <c r="W47" s="126"/>
+      <c r="X47" s="126"/>
+      <c r="Y47" s="126"/>
+      <c r="Z47" s="126"/>
+      <c r="AA47" s="126"/>
+      <c r="AB47" s="126"/>
+      <c r="AC47" s="126"/>
+      <c r="AD47" s="126"/>
+      <c r="AE47" s="126"/>
+      <c r="AF47" s="126"/>
+      <c r="AG47" s="126"/>
+      <c r="AH47" s="126"/>
+      <c r="AI47" s="126"/>
+      <c r="AJ47" s="126"/>
+      <c r="AK47" s="126"/>
+      <c r="AL47" s="126"/>
     </row>
     <row r="48" spans="1:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="W48" s="8"/>
-      <c r="X48" s="8"/>
-      <c r="Y48" s="8"/>
-      <c r="Z48" s="8"/>
-      <c r="AA48" s="8"/>
-      <c r="AB48" s="8"/>
-      <c r="AI48" s="8"/>
-    </row>
-    <row r="49" spans="23:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="W49" s="8"/>
-      <c r="X49" s="8"/>
-      <c r="Y49" s="8"/>
-      <c r="Z49" s="8"/>
-      <c r="AA49" s="8"/>
-      <c r="AB49" s="8"/>
-      <c r="AI49" s="8"/>
-    </row>
-    <row r="50" spans="23:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="W50" s="8"/>
-      <c r="X50" s="8"/>
-      <c r="Y50" s="8"/>
-      <c r="Z50" s="8"/>
-      <c r="AA50" s="8"/>
-      <c r="AB50" s="8"/>
-      <c r="AI50" s="8"/>
-    </row>
-    <row r="51" spans="23:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="W51" s="8"/>
-      <c r="X51" s="8"/>
-      <c r="Y51" s="8"/>
-      <c r="Z51" s="8"/>
-      <c r="AA51" s="8"/>
-      <c r="AB51" s="8"/>
-      <c r="AI51" s="8"/>
-    </row>
-    <row r="52" spans="23:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="W52" s="8"/>
-      <c r="X52" s="8"/>
-      <c r="Y52" s="8"/>
-      <c r="Z52" s="8"/>
-      <c r="AA52" s="8"/>
-      <c r="AB52" s="8"/>
-      <c r="AI52" s="8"/>
-    </row>
-    <row r="53" spans="23:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="W53" s="8"/>
-      <c r="X53" s="8"/>
-      <c r="Y53" s="8"/>
-      <c r="Z53" s="8"/>
-      <c r="AA53" s="8"/>
-      <c r="AB53" s="8"/>
-      <c r="AI53" s="8"/>
-    </row>
-    <row r="54" spans="23:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="W54" s="8"/>
-      <c r="X54" s="8"/>
-      <c r="Y54" s="8"/>
-      <c r="Z54" s="8"/>
-      <c r="AA54" s="8"/>
-      <c r="AB54" s="8"/>
-      <c r="AI54" s="8"/>
-    </row>
-    <row r="55" spans="23:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="W55" s="8"/>
-      <c r="X55" s="8"/>
-      <c r="Y55" s="8"/>
-      <c r="Z55" s="8"/>
-      <c r="AA55" s="8"/>
-      <c r="AB55" s="8"/>
-      <c r="AI55" s="8"/>
-    </row>
-    <row r="56" spans="23:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="W56" s="8"/>
-      <c r="X56" s="8"/>
-      <c r="Y56" s="8"/>
-      <c r="Z56" s="8"/>
-      <c r="AA56" s="8"/>
-      <c r="AB56" s="8"/>
-      <c r="AI56" s="8"/>
-    </row>
-    <row r="57" spans="23:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q48" s="9"/>
+      <c r="R48" s="75" t="s">
+        <v>60</v>
+      </c>
+      <c r="S48" s="75" t="s">
+        <v>61</v>
+      </c>
+      <c r="T48" s="75" t="s">
+        <v>70</v>
+      </c>
+      <c r="U48" s="75" t="s">
+        <v>96</v>
+      </c>
+      <c r="V48" s="75" t="s">
+        <v>97</v>
+      </c>
+      <c r="W48" s="76" t="s">
+        <v>62</v>
+      </c>
+      <c r="X48" s="76" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y48" s="76" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z48" s="76" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA48" s="77" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB48" s="77" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC48" s="77" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD48" s="77" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE48" s="76" t="s">
+        <v>98</v>
+      </c>
+      <c r="AF48" s="76" t="s">
+        <v>99</v>
+      </c>
+      <c r="AG48" s="76" t="s">
+        <v>100</v>
+      </c>
+      <c r="AH48" s="76" t="s">
+        <v>101</v>
+      </c>
+      <c r="AI48" s="77" t="s">
+        <v>102</v>
+      </c>
+      <c r="AJ48" s="77" t="s">
+        <v>103</v>
+      </c>
+      <c r="AK48" s="77" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL48" s="77" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="49" spans="17:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q49" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="R49" s="49"/>
+      <c r="S49">
+        <v>0.71719999999999995</v>
+      </c>
+      <c r="T49">
+        <v>0.36959999999999998</v>
+      </c>
+      <c r="U49">
+        <v>0.4521</v>
+      </c>
+      <c r="V49">
+        <v>0.40539999999999998</v>
+      </c>
+      <c r="W49">
+        <v>0.7228</v>
+      </c>
+      <c r="X49">
+        <v>0.65810000000000002</v>
+      </c>
+      <c r="Y49">
+        <v>0.63239999999999996</v>
+      </c>
+      <c r="Z49">
+        <v>0.85560000000000003</v>
+      </c>
+      <c r="AA49">
+        <v>0.29859999999999998</v>
+      </c>
+      <c r="AB49">
+        <v>0.53339999999999999</v>
+      </c>
+      <c r="AC49">
+        <v>0.33900000000000002</v>
+      </c>
+      <c r="AD49">
+        <v>0.30740000000000001</v>
+      </c>
+      <c r="AE49">
+        <v>0.51829999999999998</v>
+      </c>
+      <c r="AF49">
+        <v>0.69430000000000003</v>
+      </c>
+      <c r="AG49">
+        <v>0.31059999999999999</v>
+      </c>
+      <c r="AH49">
+        <v>0.28520000000000001</v>
+      </c>
+      <c r="AI49">
+        <v>0.34260000000000002</v>
+      </c>
+      <c r="AJ49">
+        <v>0.57069999999999999</v>
+      </c>
+      <c r="AK49">
+        <v>0.37480000000000002</v>
+      </c>
+      <c r="AL49">
+        <v>0.33329999999999999</v>
+      </c>
+    </row>
+    <row r="50" spans="17:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q50" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="R50" s="51"/>
+      <c r="S50">
+        <v>0.72450000000000003</v>
+      </c>
+      <c r="T50">
+        <v>0.39729999999999999</v>
+      </c>
+      <c r="U50">
+        <v>0.4451</v>
+      </c>
+      <c r="V50">
+        <v>0.42209999999999998</v>
+      </c>
+      <c r="W50">
+        <v>0.73029999999999995</v>
+      </c>
+      <c r="X50">
+        <v>0.68300000000000005</v>
+      </c>
+      <c r="Y50">
+        <v>0.629</v>
+      </c>
+      <c r="Z50">
+        <v>0.85560000000000003</v>
+      </c>
+      <c r="AA50">
+        <v>0.32279999999999998</v>
+      </c>
+      <c r="AB50">
+        <v>0.61929999999999996</v>
+      </c>
+      <c r="AC50">
+        <v>0.33989999999999998</v>
+      </c>
+      <c r="AD50">
+        <v>0.30740000000000001</v>
+      </c>
+      <c r="AE50">
+        <v>0.50729999999999997</v>
+      </c>
+      <c r="AF50">
+        <v>0.6794</v>
+      </c>
+      <c r="AG50">
+        <v>0.30840000000000001</v>
+      </c>
+      <c r="AH50">
+        <v>0.28520000000000001</v>
+      </c>
+      <c r="AI50">
+        <v>0.35420000000000001</v>
+      </c>
+      <c r="AJ50">
+        <v>0.62250000000000005</v>
+      </c>
+      <c r="AK50">
+        <v>0.37859999999999999</v>
+      </c>
+      <c r="AL50">
+        <v>0.33329999999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="17:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q51" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="R51" s="49"/>
+      <c r="S51">
+        <v>0.67659999999999998</v>
+      </c>
+      <c r="T51">
+        <v>0.31969999999999998</v>
+      </c>
+      <c r="U51">
+        <v>0.33860000000000001</v>
+      </c>
+      <c r="V51">
+        <v>0.36780000000000002</v>
+      </c>
+      <c r="W51">
+        <v>0.71619999999999995</v>
+      </c>
+      <c r="X51">
+        <v>0.62570000000000003</v>
+      </c>
+      <c r="Y51">
+        <v>0.50870000000000004</v>
+      </c>
+      <c r="Z51">
+        <v>0.85560000000000003</v>
+      </c>
+      <c r="AA51">
+        <v>0.2782</v>
+      </c>
+      <c r="AB51">
+        <v>0.48120000000000002</v>
+      </c>
+      <c r="AC51">
+        <v>0.21210000000000001</v>
+      </c>
+      <c r="AD51">
+        <v>0.30740000000000001</v>
+      </c>
+      <c r="AE51">
+        <v>0.2387</v>
+      </c>
+      <c r="AF51">
+        <v>0.60429999999999995</v>
+      </c>
+      <c r="AG51">
+        <v>0.22639999999999999</v>
+      </c>
+      <c r="AH51">
+        <v>0.28520000000000001</v>
+      </c>
+      <c r="AI51">
+        <v>0.33329999999999999</v>
+      </c>
+      <c r="AJ51">
+        <v>0.53400000000000003</v>
+      </c>
+      <c r="AK51">
+        <v>0.2707</v>
+      </c>
+      <c r="AL51">
+        <v>0.33329999999999999</v>
+      </c>
+    </row>
+    <row r="52" spans="17:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q52" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="R52" s="49"/>
+      <c r="S52">
+        <v>0.66739999999999999</v>
+      </c>
+      <c r="T52">
+        <v>0.2379</v>
+      </c>
+      <c r="U52">
+        <v>0.35420000000000001</v>
+      </c>
+      <c r="V52">
+        <v>0.28220000000000001</v>
+      </c>
+      <c r="W52">
+        <v>0.71619999999999995</v>
+      </c>
+      <c r="X52">
+        <v>0.61240000000000006</v>
+      </c>
+      <c r="Y52">
+        <v>0.48549999999999999</v>
+      </c>
+      <c r="Z52">
+        <v>0.85560000000000003</v>
+      </c>
+      <c r="AA52">
+        <v>0.2387</v>
+      </c>
+      <c r="AB52">
+        <v>0.30620000000000003</v>
+      </c>
+      <c r="AC52">
+        <v>0.12139999999999999</v>
+      </c>
+      <c r="AD52">
+        <v>0.28520000000000001</v>
+      </c>
+      <c r="AE52">
+        <v>0.33329999999999999</v>
+      </c>
+      <c r="AF52">
+        <v>0.5</v>
+      </c>
+      <c r="AG52">
+        <v>0.25</v>
+      </c>
+      <c r="AH52">
+        <v>0.33329999999999999</v>
+      </c>
+      <c r="AI52">
+        <v>0.2782</v>
+      </c>
+      <c r="AJ52">
+        <v>0.37980000000000003</v>
+      </c>
+      <c r="AK52">
+        <v>0.16339999999999999</v>
+      </c>
+      <c r="AL52">
+        <v>0.30740000000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="17:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q53" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="R53" s="49"/>
+      <c r="S53">
+        <v>0.67100000000000004</v>
+      </c>
+      <c r="T53">
+        <v>0.29399999999999998</v>
+      </c>
+      <c r="U53">
+        <v>0.34100000000000003</v>
+      </c>
+      <c r="V53">
+        <v>0.35920000000000002</v>
+      </c>
+      <c r="W53">
+        <v>0.71619999999999995</v>
+      </c>
+      <c r="X53">
+        <v>0.62660000000000005</v>
+      </c>
+      <c r="Y53">
+        <v>0.48549999999999999</v>
+      </c>
+      <c r="Z53">
+        <v>0.85560000000000003</v>
+      </c>
+      <c r="AA53">
+        <v>0.2782</v>
+      </c>
+      <c r="AB53">
+        <v>0.42709999999999998</v>
+      </c>
+      <c r="AC53">
+        <v>0.16339999999999999</v>
+      </c>
+      <c r="AD53">
+        <v>0.30740000000000001</v>
+      </c>
+      <c r="AE53">
+        <v>0.2387</v>
+      </c>
+      <c r="AF53">
+        <v>0.71850000000000003</v>
+      </c>
+      <c r="AG53">
+        <v>0.12139999999999999</v>
+      </c>
+      <c r="AH53">
+        <v>0.28520000000000001</v>
+      </c>
+      <c r="AI53">
+        <v>0.33329999999999999</v>
+      </c>
+      <c r="AJ53">
+        <v>0.5202</v>
+      </c>
+      <c r="AK53">
+        <v>0.25</v>
+      </c>
+      <c r="AL53">
+        <v>0.33329999999999999</v>
+      </c>
+    </row>
+    <row r="54" spans="17:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q54" s="48" t="s">
+        <v>18</v>
+      </c>
+      <c r="R54" s="49"/>
+      <c r="S54">
+        <v>0.63800000000000001</v>
+      </c>
+      <c r="T54">
+        <v>0.33910000000000001</v>
+      </c>
+      <c r="U54">
+        <v>0.38840000000000002</v>
+      </c>
+      <c r="V54">
+        <v>0.38500000000000001</v>
+      </c>
+      <c r="W54">
+        <v>0.71619999999999995</v>
+      </c>
+      <c r="X54">
+        <v>0.65559999999999996</v>
+      </c>
+      <c r="Y54">
+        <v>0.31040000000000001</v>
+      </c>
+      <c r="Z54">
+        <v>0.86970000000000003</v>
+      </c>
+      <c r="AA54">
+        <v>0.2782</v>
+      </c>
+      <c r="AB54">
+        <v>0.54410000000000003</v>
+      </c>
+      <c r="AC54">
+        <v>0.15279999999999999</v>
+      </c>
+      <c r="AD54">
+        <v>0.38140000000000002</v>
+      </c>
+      <c r="AE54">
+        <v>0.2387</v>
+      </c>
+      <c r="AF54">
+        <v>0.66749999999999998</v>
+      </c>
+      <c r="AG54">
+        <v>0.1101</v>
+      </c>
+      <c r="AH54">
+        <v>0.53710000000000002</v>
+      </c>
+      <c r="AI54">
+        <v>0.33329999999999999</v>
+      </c>
+      <c r="AJ54">
+        <v>0.57340000000000002</v>
+      </c>
+      <c r="AK54">
+        <v>0.25850000000000001</v>
+      </c>
+      <c r="AL54">
+        <v>0.37469999999999998</v>
+      </c>
+    </row>
+    <row r="55" spans="17:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q55" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="R55" s="46"/>
+      <c r="S55">
+        <v>0.72950000000000004</v>
+      </c>
+      <c r="T55">
+        <v>0.42899999999999999</v>
+      </c>
+      <c r="U55">
+        <v>0.44550000000000001</v>
+      </c>
+      <c r="V55">
+        <v>0.44379999999999997</v>
+      </c>
+      <c r="W55">
+        <v>0.73529999999999995</v>
+      </c>
+      <c r="X55">
+        <v>0.70289999999999997</v>
+      </c>
+      <c r="Y55">
+        <v>0.62409999999999999</v>
+      </c>
+      <c r="Z55">
+        <v>0.85560000000000003</v>
+      </c>
+      <c r="AA55">
+        <v>0.377</v>
+      </c>
+      <c r="AB55">
+        <v>0.65790000000000004</v>
+      </c>
+      <c r="AC55">
+        <v>0.37380000000000002</v>
+      </c>
+      <c r="AD55">
+        <v>0.30740000000000001</v>
+      </c>
+      <c r="AE55">
+        <v>0.45229999999999998</v>
+      </c>
+      <c r="AF55">
+        <v>0.6956</v>
+      </c>
+      <c r="AG55">
+        <v>0.34889999999999999</v>
+      </c>
+      <c r="AH55">
+        <v>0.28520000000000001</v>
+      </c>
+      <c r="AI55">
+        <v>0.38190000000000002</v>
+      </c>
+      <c r="AJ55">
+        <v>0.65439999999999998</v>
+      </c>
+      <c r="AK55">
+        <v>0.40550000000000003</v>
+      </c>
+      <c r="AL55">
+        <v>0.33329999999999999</v>
+      </c>
+    </row>
+    <row r="56" spans="17:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q56" s="44" t="s">
+        <v>55</v>
+      </c>
+      <c r="R56" s="74"/>
+      <c r="S56" s="74">
+        <v>0.72950000000000004</v>
+      </c>
+      <c r="T56" s="74">
+        <v>0.40620000000000001</v>
+      </c>
+      <c r="U56" s="74">
+        <v>0.44629999999999997</v>
+      </c>
+      <c r="V56" s="74">
+        <v>0.42680000000000001</v>
+      </c>
+      <c r="W56" s="74">
+        <v>0.73109999999999997</v>
+      </c>
+      <c r="X56" s="74">
+        <v>0.69130000000000003</v>
+      </c>
+      <c r="Y56" s="74">
+        <v>0.63980000000000004</v>
+      </c>
+      <c r="Z56" s="79">
+        <v>0.85560000000000003</v>
+      </c>
+      <c r="AA56" s="74">
+        <v>0.33789999999999998</v>
+      </c>
+      <c r="AB56" s="74">
+        <v>0.62609999999999999</v>
+      </c>
+      <c r="AC56" s="74">
+        <v>0.3533</v>
+      </c>
+      <c r="AD56" s="79">
+        <v>0.30740000000000001</v>
+      </c>
+      <c r="AE56" s="74">
+        <v>0.47349999999999998</v>
+      </c>
+      <c r="AF56" s="74">
+        <v>0.69540000000000002</v>
+      </c>
+      <c r="AG56" s="74">
+        <v>0.33100000000000002</v>
+      </c>
+      <c r="AH56" s="74">
+        <v>0.28520000000000001</v>
+      </c>
+      <c r="AI56" s="74">
+        <v>0.36080000000000001</v>
+      </c>
+      <c r="AJ56" s="74">
+        <v>0.62919999999999998</v>
+      </c>
+      <c r="AK56" s="74">
+        <v>0.38369999999999999</v>
+      </c>
+      <c r="AL56" s="74">
+        <v>0.33329999999999999</v>
+      </c>
+    </row>
+    <row r="57" spans="17:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="W57" s="8"/>
       <c r="X57" s="8"/>
       <c r="Y57" s="8"/>
@@ -14298,97 +14763,627 @@
       <c r="AB57" s="8"/>
       <c r="AI57" s="8"/>
     </row>
-    <row r="58" spans="23:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="W58" s="8"/>
-      <c r="X58" s="8"/>
-      <c r="Y58" s="8"/>
-      <c r="Z58" s="8"/>
-      <c r="AA58" s="8"/>
-      <c r="AB58" s="8"/>
-      <c r="AI58" s="8"/>
-    </row>
-    <row r="59" spans="23:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="W59" s="8"/>
-      <c r="X59" s="8"/>
-      <c r="Y59" s="8"/>
-      <c r="Z59" s="8"/>
-      <c r="AA59" s="8"/>
-      <c r="AB59" s="8"/>
-      <c r="AI59" s="8"/>
-    </row>
-    <row r="60" spans="23:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="W60" s="8"/>
-      <c r="X60" s="8"/>
-      <c r="Y60" s="8"/>
-      <c r="Z60" s="8"/>
-      <c r="AA60" s="8"/>
-      <c r="AB60" s="8"/>
-      <c r="AI60" s="8"/>
-    </row>
-    <row r="61" spans="23:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="W61" s="8"/>
-      <c r="X61" s="8"/>
-      <c r="Y61" s="8"/>
-      <c r="Z61" s="8"/>
-      <c r="AA61" s="8"/>
-      <c r="AB61" s="8"/>
-      <c r="AI61" s="8"/>
-    </row>
-    <row r="62" spans="23:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="W62" s="8"/>
-      <c r="X62" s="8"/>
-      <c r="Y62" s="8"/>
-      <c r="Z62" s="8"/>
-      <c r="AA62" s="8"/>
-      <c r="AB62" s="8"/>
-      <c r="AI62" s="8"/>
-    </row>
-    <row r="63" spans="23:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="W63" s="8"/>
-      <c r="X63" s="8"/>
-      <c r="Y63" s="8"/>
-      <c r="Z63" s="8"/>
-      <c r="AA63" s="8"/>
-      <c r="AB63" s="8"/>
-      <c r="AI63" s="8"/>
-    </row>
-    <row r="64" spans="23:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="W64" s="8"/>
-      <c r="X64" s="8"/>
-      <c r="Y64" s="8"/>
-      <c r="Z64" s="8"/>
-      <c r="AA64" s="8"/>
-      <c r="AB64" s="8"/>
-      <c r="AI64" s="8"/>
-    </row>
-    <row r="65" spans="23:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="W65" s="8"/>
-      <c r="X65" s="8"/>
-      <c r="Y65" s="8"/>
-      <c r="Z65" s="8"/>
-      <c r="AA65" s="8"/>
-      <c r="AB65" s="8"/>
-      <c r="AI65" s="8"/>
-    </row>
-    <row r="66" spans="23:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="W66" s="8"/>
-      <c r="X66" s="8"/>
-      <c r="Y66" s="8"/>
-      <c r="Z66" s="8"/>
-      <c r="AA66" s="8"/>
-      <c r="AB66" s="8"/>
-      <c r="AI66" s="8"/>
-    </row>
-    <row r="67" spans="23:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="W67" s="8"/>
-      <c r="X67" s="8"/>
-      <c r="Y67" s="8"/>
-      <c r="Z67" s="8"/>
-      <c r="AA67" s="8"/>
-      <c r="AB67" s="8"/>
-      <c r="AI67" s="8"/>
-    </row>
-    <row r="68" spans="23:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="17:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q58" s="126" t="s">
+        <v>37</v>
+      </c>
+      <c r="R58" s="126"/>
+      <c r="S58" s="126"/>
+      <c r="T58" s="126"/>
+      <c r="U58" s="126"/>
+      <c r="V58" s="126"/>
+      <c r="W58" s="126"/>
+      <c r="X58" s="126"/>
+      <c r="Y58" s="126"/>
+      <c r="Z58" s="126"/>
+      <c r="AA58" s="126"/>
+      <c r="AB58" s="126"/>
+      <c r="AC58" s="126"/>
+      <c r="AD58" s="126"/>
+      <c r="AE58" s="126"/>
+      <c r="AF58" s="126"/>
+      <c r="AG58" s="126"/>
+      <c r="AH58" s="126"/>
+      <c r="AI58" s="126"/>
+      <c r="AJ58" s="126"/>
+      <c r="AK58" s="126"/>
+      <c r="AL58" s="126"/>
+    </row>
+    <row r="59" spans="17:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q59" s="9"/>
+      <c r="R59" s="75" t="s">
+        <v>60</v>
+      </c>
+      <c r="S59" s="75" t="s">
+        <v>61</v>
+      </c>
+      <c r="T59" s="75" t="s">
+        <v>70</v>
+      </c>
+      <c r="U59" s="75" t="s">
+        <v>96</v>
+      </c>
+      <c r="V59" s="75" t="s">
+        <v>97</v>
+      </c>
+      <c r="W59" s="76" t="s">
+        <v>62</v>
+      </c>
+      <c r="X59" s="76" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y59" s="76" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z59" s="76" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA59" s="77" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB59" s="77" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC59" s="77" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD59" s="77" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE59" s="76" t="s">
+        <v>98</v>
+      </c>
+      <c r="AF59" s="76" t="s">
+        <v>99</v>
+      </c>
+      <c r="AG59" s="76" t="s">
+        <v>100</v>
+      </c>
+      <c r="AH59" s="76" t="s">
+        <v>101</v>
+      </c>
+      <c r="AI59" s="77" t="s">
+        <v>102</v>
+      </c>
+      <c r="AJ59" s="77" t="s">
+        <v>103</v>
+      </c>
+      <c r="AK59" s="77" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL59" s="77" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="60" spans="17:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q60" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="R60" s="49"/>
+      <c r="S60">
+        <v>0.71919999999999995</v>
+      </c>
+      <c r="T60">
+        <v>0.37069999999999997</v>
+      </c>
+      <c r="U60">
+        <v>0.4511</v>
+      </c>
+      <c r="V60">
+        <v>0.40350000000000003</v>
+      </c>
+      <c r="W60">
+        <v>0.71970000000000001</v>
+      </c>
+      <c r="X60">
+        <v>0.67</v>
+      </c>
+      <c r="Y60">
+        <v>0.63519999999999999</v>
+      </c>
+      <c r="Z60">
+        <v>0.85199999999999998</v>
+      </c>
+      <c r="AA60">
+        <v>0.29970000000000002</v>
+      </c>
+      <c r="AB60">
+        <v>0.53779999999999994</v>
+      </c>
+      <c r="AC60">
+        <v>0.33879999999999999</v>
+      </c>
+      <c r="AD60">
+        <v>0.30669999999999997</v>
+      </c>
+      <c r="AE60">
+        <v>0.50160000000000005</v>
+      </c>
+      <c r="AF60">
+        <v>0.69440000000000002</v>
+      </c>
+      <c r="AG60">
+        <v>0.32429999999999998</v>
+      </c>
+      <c r="AH60">
+        <v>0.28399999999999997</v>
+      </c>
+      <c r="AI60">
+        <v>0.34320000000000001</v>
+      </c>
+      <c r="AJ60">
+        <v>0.57040000000000002</v>
+      </c>
+      <c r="AK60">
+        <v>0.36699999999999999</v>
+      </c>
+      <c r="AL60">
+        <v>0.33329999999999999</v>
+      </c>
+    </row>
+    <row r="61" spans="17:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q61" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="R61" s="51"/>
+      <c r="S61">
+        <v>0.72540000000000004</v>
+      </c>
+      <c r="T61">
+        <v>0.39529999999999998</v>
+      </c>
+      <c r="U61">
+        <v>0.43590000000000001</v>
+      </c>
+      <c r="V61">
+        <v>0.41920000000000002</v>
+      </c>
+      <c r="W61">
+        <v>0.7218</v>
+      </c>
+      <c r="X61">
+        <v>0.69199999999999995</v>
+      </c>
+      <c r="Y61">
+        <v>0.63600000000000001</v>
+      </c>
+      <c r="Z61">
+        <v>0.85199999999999998</v>
+      </c>
+      <c r="AA61">
+        <v>0.31459999999999999</v>
+      </c>
+      <c r="AB61">
+        <v>0.62180000000000002</v>
+      </c>
+      <c r="AC61">
+        <v>0.33800000000000002</v>
+      </c>
+      <c r="AD61">
+        <v>0.30669999999999997</v>
+      </c>
+      <c r="AE61">
+        <v>0.46899999999999997</v>
+      </c>
+      <c r="AF61">
+        <v>0.68059999999999998</v>
+      </c>
+      <c r="AG61">
+        <v>0.31019999999999998</v>
+      </c>
+      <c r="AH61">
+        <v>0.28399999999999997</v>
+      </c>
+      <c r="AI61">
+        <v>0.34949999999999998</v>
+      </c>
+      <c r="AJ61">
+        <v>0.62239999999999995</v>
+      </c>
+      <c r="AK61">
+        <v>0.37140000000000001</v>
+      </c>
+      <c r="AL61">
+        <v>0.33329999999999999</v>
+      </c>
+    </row>
+    <row r="62" spans="17:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q62" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="R62" s="49"/>
+      <c r="S62">
+        <v>0.68830000000000002</v>
+      </c>
+      <c r="T62">
+        <v>0.32679999999999998</v>
+      </c>
+      <c r="U62">
+        <v>0.35139999999999999</v>
+      </c>
+      <c r="V62">
+        <v>0.3715</v>
+      </c>
+      <c r="W62">
+        <v>0.71309999999999996</v>
+      </c>
+      <c r="X62">
+        <v>0.64929999999999999</v>
+      </c>
+      <c r="Y62">
+        <v>0.53900000000000003</v>
+      </c>
+      <c r="Z62">
+        <v>0.85199999999999998</v>
+      </c>
+      <c r="AA62">
+        <v>0.27750000000000002</v>
+      </c>
+      <c r="AB62">
+        <v>0.49990000000000001</v>
+      </c>
+      <c r="AC62">
+        <v>0.22309999999999999</v>
+      </c>
+      <c r="AD62">
+        <v>0.30669999999999997</v>
+      </c>
+      <c r="AE62">
+        <v>0.23769999999999999</v>
+      </c>
+      <c r="AF62">
+        <v>0.64019999999999999</v>
+      </c>
+      <c r="AG62">
+        <v>0.24349999999999999</v>
+      </c>
+      <c r="AH62">
+        <v>0.28399999999999997</v>
+      </c>
+      <c r="AI62">
+        <v>0.33329999999999999</v>
+      </c>
+      <c r="AJ62">
+        <v>0.54500000000000004</v>
+      </c>
+      <c r="AK62">
+        <v>0.27429999999999999</v>
+      </c>
+      <c r="AL62">
+        <v>0.33329999999999999</v>
+      </c>
+    </row>
+    <row r="63" spans="17:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q63" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="R63" s="49"/>
+      <c r="S63">
+        <v>0.67630000000000001</v>
+      </c>
+      <c r="T63">
+        <v>0.2848</v>
+      </c>
+      <c r="U63">
+        <v>0.2409</v>
+      </c>
+      <c r="V63">
+        <v>0.35420000000000001</v>
+      </c>
+      <c r="W63">
+        <v>0.71309999999999996</v>
+      </c>
+      <c r="X63">
+        <v>0.62809999999999999</v>
+      </c>
+      <c r="Y63">
+        <v>0.51200000000000001</v>
+      </c>
+      <c r="Z63">
+        <v>0.85199999999999998</v>
+      </c>
+      <c r="AA63">
+        <v>0.27750000000000002</v>
+      </c>
+      <c r="AB63">
+        <v>0.38579999999999998</v>
+      </c>
+      <c r="AC63">
+        <v>0.16930000000000001</v>
+      </c>
+      <c r="AD63">
+        <v>0.30669999999999997</v>
+      </c>
+      <c r="AE63">
+        <v>0.23769999999999999</v>
+      </c>
+      <c r="AF63">
+        <v>0.31409999999999999</v>
+      </c>
+      <c r="AG63">
+        <v>0.128</v>
+      </c>
+      <c r="AH63">
+        <v>0.28399999999999997</v>
+      </c>
+      <c r="AI63">
+        <v>0.33329999999999999</v>
+      </c>
+      <c r="AJ63">
+        <v>0.5</v>
+      </c>
+      <c r="AK63">
+        <v>0.25</v>
+      </c>
+      <c r="AL63">
+        <v>0.33329999999999999</v>
+      </c>
+    </row>
+    <row r="64" spans="17:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q64" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="R64" s="49"/>
+      <c r="S64">
+        <v>0.67900000000000005</v>
+      </c>
+      <c r="T64">
+        <v>0.29730000000000001</v>
+      </c>
+      <c r="U64">
+        <v>0.32850000000000001</v>
+      </c>
+      <c r="V64">
+        <v>0.35899999999999999</v>
+      </c>
+      <c r="W64">
+        <v>0.71309999999999996</v>
+      </c>
+      <c r="X64">
+        <v>0.63890000000000002</v>
+      </c>
+      <c r="Y64">
+        <v>0.51200000000000001</v>
+      </c>
+      <c r="Z64">
+        <v>0.85199999999999998</v>
+      </c>
+      <c r="AA64">
+        <v>0.27750000000000002</v>
+      </c>
+      <c r="AB64">
+        <v>0.43590000000000001</v>
+      </c>
+      <c r="AC64">
+        <v>0.16930000000000001</v>
+      </c>
+      <c r="AD64">
+        <v>0.30669999999999997</v>
+      </c>
+      <c r="AE64">
+        <v>0.23769999999999999</v>
+      </c>
+      <c r="AF64">
+        <v>0.6643</v>
+      </c>
+      <c r="AG64">
+        <v>0.128</v>
+      </c>
+      <c r="AH64">
+        <v>0.28399999999999997</v>
+      </c>
+      <c r="AI64">
+        <v>0.33329999999999999</v>
+      </c>
+      <c r="AJ64">
+        <v>0.51929999999999998</v>
+      </c>
+      <c r="AK64">
+        <v>0.25</v>
+      </c>
+      <c r="AL64">
+        <v>0.33329999999999999</v>
+      </c>
+    </row>
+    <row r="65" spans="17:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q65" s="48" t="s">
+        <v>18</v>
+      </c>
+      <c r="R65" s="49"/>
+      <c r="S65">
+        <v>0.63839999999999997</v>
+      </c>
+      <c r="T65">
+        <v>0.34860000000000002</v>
+      </c>
+      <c r="U65">
+        <v>0.38969999999999999</v>
+      </c>
+      <c r="V65">
+        <v>0.39129999999999998</v>
+      </c>
+      <c r="W65">
+        <v>0.71309999999999996</v>
+      </c>
+      <c r="X65">
+        <v>0.67290000000000005</v>
+      </c>
+      <c r="Y65">
+        <v>0.30099999999999999</v>
+      </c>
+      <c r="Z65">
+        <v>0.86650000000000005</v>
+      </c>
+      <c r="AA65">
+        <v>0.27750000000000002</v>
+      </c>
+      <c r="AB65">
+        <v>0.56410000000000005</v>
+      </c>
+      <c r="AC65">
+        <v>0.15029999999999999</v>
+      </c>
+      <c r="AD65">
+        <v>0.40250000000000002</v>
+      </c>
+      <c r="AE65">
+        <v>0.23769999999999999</v>
+      </c>
+      <c r="AF65">
+        <v>0.6734</v>
+      </c>
+      <c r="AG65">
+        <v>0.1079</v>
+      </c>
+      <c r="AH65">
+        <v>0.53979999999999995</v>
+      </c>
+      <c r="AI65">
+        <v>0.33329999999999999</v>
+      </c>
+      <c r="AJ65">
+        <v>0.58320000000000005</v>
+      </c>
+      <c r="AK65">
+        <v>0.25969999999999999</v>
+      </c>
+      <c r="AL65">
+        <v>0.38900000000000001</v>
+      </c>
+    </row>
+    <row r="66" spans="17:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q66" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="R66" s="46"/>
+      <c r="S66">
+        <v>0.73309999999999997</v>
+      </c>
+      <c r="T66">
+        <v>0.4299</v>
+      </c>
+      <c r="U66">
+        <v>0.44919999999999999</v>
+      </c>
+      <c r="V66">
+        <v>0.44309999999999999</v>
+      </c>
+      <c r="W66">
+        <v>0.74050000000000005</v>
+      </c>
+      <c r="X66">
+        <v>0.7127</v>
+      </c>
+      <c r="Y66">
+        <v>0.62729999999999997</v>
+      </c>
+      <c r="Z66">
+        <v>0.85199999999999998</v>
+      </c>
+      <c r="AA66">
+        <v>0.38500000000000001</v>
+      </c>
+      <c r="AB66">
+        <v>0.66110000000000002</v>
+      </c>
+      <c r="AC66">
+        <v>0.36670000000000003</v>
+      </c>
+      <c r="AD66">
+        <v>0.30669999999999997</v>
+      </c>
+      <c r="AE66">
+        <v>0.46800000000000003</v>
+      </c>
+      <c r="AF66">
+        <v>0.70069999999999999</v>
+      </c>
+      <c r="AG66">
+        <v>0.34420000000000001</v>
+      </c>
+      <c r="AH66">
+        <v>0.28399999999999997</v>
+      </c>
+      <c r="AI66">
+        <v>0.38850000000000001</v>
+      </c>
+      <c r="AJ66">
+        <v>0.65580000000000005</v>
+      </c>
+      <c r="AK66">
+        <v>0.39489999999999997</v>
+      </c>
+      <c r="AL66">
+        <v>0.33329999999999999</v>
+      </c>
+    </row>
+    <row r="67" spans="17:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q67" s="44" t="s">
+        <v>55</v>
+      </c>
+      <c r="R67" s="74"/>
+      <c r="S67" s="74">
+        <v>0.72950000000000004</v>
+      </c>
+      <c r="T67" s="74">
+        <v>0.33079999999999998</v>
+      </c>
+      <c r="U67" s="79">
+        <v>0.36230000000000001</v>
+      </c>
+      <c r="V67" s="74">
+        <v>0.34849999999999998</v>
+      </c>
+      <c r="W67" s="74">
+        <v>0.73009999999999997</v>
+      </c>
+      <c r="X67" s="74">
+        <v>0.70230000000000004</v>
+      </c>
+      <c r="Y67" s="74">
+        <v>0.63349999999999995</v>
+      </c>
+      <c r="Z67" s="79">
+        <v>0.85199999999999998</v>
+      </c>
+      <c r="AA67" s="74">
+        <v>0.25159999999999999</v>
+      </c>
+      <c r="AB67" s="74">
+        <v>0.42159999999999997</v>
+      </c>
+      <c r="AC67" s="74">
+        <v>0.34339999999999998</v>
+      </c>
+      <c r="AD67" s="79">
+        <v>0.30669999999999997</v>
+      </c>
+      <c r="AE67" s="74">
+        <v>0.37359999999999999</v>
+      </c>
+      <c r="AF67" s="74">
+        <v>0.46650000000000003</v>
+      </c>
+      <c r="AG67" s="74">
+        <v>0.3251</v>
+      </c>
+      <c r="AH67" s="74">
+        <v>0.28399999999999997</v>
+      </c>
+      <c r="AI67" s="74">
+        <v>0.2707</v>
+      </c>
+      <c r="AJ67" s="74">
+        <v>0.42159999999999997</v>
+      </c>
+      <c r="AK67" s="74">
+        <v>0.36849999999999999</v>
+      </c>
+      <c r="AL67" s="74">
+        <v>0.33329999999999999</v>
+      </c>
+    </row>
+    <row r="68" spans="17:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="W68" s="8"/>
       <c r="X68" s="8"/>
       <c r="Y68" s="8"/>
@@ -14397,7 +15392,7 @@
       <c r="AB68" s="8"/>
       <c r="AI68" s="8"/>
     </row>
-    <row r="69" spans="23:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="17:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="W69" s="8"/>
       <c r="X69" s="8"/>
       <c r="Y69" s="8"/>
@@ -14406,7 +15401,7 @@
       <c r="AB69" s="8"/>
       <c r="AI69" s="8"/>
     </row>
-    <row r="70" spans="23:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="17:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="W70" s="8"/>
       <c r="X70" s="8"/>
       <c r="Y70" s="8"/>
@@ -14415,7 +15410,7 @@
       <c r="AB70" s="8"/>
       <c r="AI70" s="8"/>
     </row>
-    <row r="71" spans="23:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="17:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="W71" s="8"/>
       <c r="X71" s="8"/>
       <c r="Y71" s="8"/>
@@ -14424,7 +15419,7 @@
       <c r="AB71" s="8"/>
       <c r="AI71" s="8"/>
     </row>
-    <row r="72" spans="23:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="17:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="W72" s="8"/>
       <c r="X72" s="8"/>
       <c r="Y72" s="8"/>
@@ -14433,7 +15428,7 @@
       <c r="AB72" s="8"/>
       <c r="AI72" s="8"/>
     </row>
-    <row r="73" spans="23:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="17:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="W73" s="8"/>
       <c r="X73" s="8"/>
       <c r="Y73" s="8"/>
@@ -14442,7 +15437,7 @@
       <c r="AB73" s="8"/>
       <c r="AI73" s="8"/>
     </row>
-    <row r="74" spans="23:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="17:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="W74" s="8"/>
       <c r="X74" s="8"/>
       <c r="Y74" s="8"/>
@@ -14451,7 +15446,7 @@
       <c r="AB74" s="8"/>
       <c r="AI74" s="8"/>
     </row>
-    <row r="75" spans="23:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="17:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="W75" s="8"/>
       <c r="X75" s="8"/>
       <c r="Y75" s="8"/>
@@ -14460,7 +15455,7 @@
       <c r="AB75" s="8"/>
       <c r="AI75" s="8"/>
     </row>
-    <row r="76" spans="23:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="17:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="W76" s="8"/>
       <c r="X76" s="8"/>
       <c r="Y76" s="8"/>
@@ -14469,7 +15464,7 @@
       <c r="AB76" s="8"/>
       <c r="AI76" s="8"/>
     </row>
-    <row r="77" spans="23:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="17:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="W77" s="8"/>
       <c r="X77" s="8"/>
       <c r="Y77" s="8"/>
@@ -14478,7 +15473,7 @@
       <c r="AB77" s="8"/>
       <c r="AI77" s="8"/>
     </row>
-    <row r="78" spans="23:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="17:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="W78" s="8"/>
       <c r="X78" s="8"/>
       <c r="Y78" s="8"/>
@@ -14487,7 +15482,7 @@
       <c r="AB78" s="8"/>
       <c r="AI78" s="8"/>
     </row>
-    <row r="79" spans="23:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="17:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="W79" s="8"/>
       <c r="X79" s="8"/>
       <c r="Y79" s="8"/>
@@ -14496,7 +15491,7 @@
       <c r="AB79" s="8"/>
       <c r="AI79" s="8"/>
     </row>
-    <row r="80" spans="23:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="17:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="W80" s="8"/>
       <c r="X80" s="8"/>
       <c r="Y80" s="8"/>
@@ -14937,7 +15932,7 @@
       <c r="AB128" s="8"/>
       <c r="AI128" s="8"/>
     </row>
-    <row r="129" spans="23:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="17:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="W129" s="8"/>
       <c r="X129" s="8"/>
       <c r="Y129" s="8"/>
@@ -14946,7 +15941,7 @@
       <c r="AB129" s="8"/>
       <c r="AI129" s="8"/>
     </row>
-    <row r="130" spans="23:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="17:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="W130" s="8"/>
       <c r="X130" s="8"/>
       <c r="Y130" s="8"/>
@@ -14955,7 +15950,7 @@
       <c r="AB130" s="8"/>
       <c r="AI130" s="8"/>
     </row>
-    <row r="131" spans="23:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="17:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="W131" s="8"/>
       <c r="X131" s="8"/>
       <c r="Y131" s="8"/>
@@ -14964,7 +15959,7 @@
       <c r="AB131" s="8"/>
       <c r="AI131" s="8"/>
     </row>
-    <row r="132" spans="23:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="17:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="W132" s="8"/>
       <c r="X132" s="8"/>
       <c r="Y132" s="8"/>
@@ -14973,7 +15968,7 @@
       <c r="AB132" s="8"/>
       <c r="AI132" s="8"/>
     </row>
-    <row r="133" spans="23:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="17:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="W133" s="8"/>
       <c r="X133" s="8"/>
       <c r="Y133" s="8"/>
@@ -14982,7 +15977,7 @@
       <c r="AB133" s="8"/>
       <c r="AI133" s="8"/>
     </row>
-    <row r="134" spans="23:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="17:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="W134" s="8"/>
       <c r="X134" s="8"/>
       <c r="Y134" s="8"/>
@@ -14991,7 +15986,7 @@
       <c r="AB134" s="8"/>
       <c r="AI134" s="8"/>
     </row>
-    <row r="135" spans="23:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="17:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="W135" s="8"/>
       <c r="X135" s="8"/>
       <c r="Y135" s="8"/>
@@ -15000,7 +15995,7 @@
       <c r="AB135" s="8"/>
       <c r="AI135" s="8"/>
     </row>
-    <row r="136" spans="23:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="17:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="W136" s="8"/>
       <c r="X136" s="8"/>
       <c r="Y136" s="8"/>
@@ -15009,7 +16004,7 @@
       <c r="AB136" s="8"/>
       <c r="AI136" s="8"/>
     </row>
-    <row r="137" spans="23:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="17:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="W137" s="8"/>
       <c r="X137" s="8"/>
       <c r="Y137" s="8"/>
@@ -15018,7 +16013,7 @@
       <c r="AB137" s="8"/>
       <c r="AI137" s="8"/>
     </row>
-    <row r="138" spans="23:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="17:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="W138" s="8"/>
       <c r="X138" s="8"/>
       <c r="Y138" s="8"/>
@@ -15027,7 +16022,7 @@
       <c r="AB138" s="8"/>
       <c r="AI138" s="8"/>
     </row>
-    <row r="139" spans="23:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="17:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="W139" s="8"/>
       <c r="X139" s="8"/>
       <c r="Y139" s="8"/>
@@ -15036,7 +16031,13 @@
       <c r="AB139" s="8"/>
       <c r="AI139" s="8"/>
     </row>
-    <row r="140" spans="23:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="17:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q140" s="8"/>
+      <c r="R140" s="8"/>
+      <c r="S140" s="8"/>
+      <c r="T140" s="8"/>
+      <c r="U140" s="8"/>
+      <c r="V140" s="8"/>
       <c r="W140" s="8"/>
       <c r="X140" s="8"/>
       <c r="Y140" s="8"/>
@@ -15045,7 +16046,13 @@
       <c r="AB140" s="8"/>
       <c r="AI140" s="8"/>
     </row>
-    <row r="141" spans="23:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="17:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q141" s="8"/>
+      <c r="R141" s="8"/>
+      <c r="S141" s="8"/>
+      <c r="T141" s="8"/>
+      <c r="U141" s="8"/>
+      <c r="V141" s="8"/>
       <c r="W141" s="8"/>
       <c r="X141" s="8"/>
       <c r="Y141" s="8"/>
@@ -15054,7 +16061,13 @@
       <c r="AB141" s="8"/>
       <c r="AI141" s="8"/>
     </row>
-    <row r="142" spans="23:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="17:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q142" s="8"/>
+      <c r="R142" s="8"/>
+      <c r="S142" s="8"/>
+      <c r="T142" s="8"/>
+      <c r="U142" s="8"/>
+      <c r="V142" s="8"/>
       <c r="W142" s="8"/>
       <c r="X142" s="8"/>
       <c r="Y142" s="8"/>
@@ -15063,7 +16076,13 @@
       <c r="AB142" s="8"/>
       <c r="AI142" s="8"/>
     </row>
-    <row r="143" spans="23:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="17:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q143" s="8"/>
+      <c r="R143" s="8"/>
+      <c r="S143" s="8"/>
+      <c r="T143" s="8"/>
+      <c r="U143" s="8"/>
+      <c r="V143" s="8"/>
       <c r="W143" s="8"/>
       <c r="X143" s="8"/>
       <c r="Y143" s="8"/>
@@ -15072,7 +16091,13 @@
       <c r="AB143" s="8"/>
       <c r="AI143" s="8"/>
     </row>
-    <row r="144" spans="23:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="17:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q144" s="8"/>
+      <c r="R144" s="8"/>
+      <c r="S144" s="8"/>
+      <c r="T144" s="8"/>
+      <c r="U144" s="8"/>
+      <c r="V144" s="8"/>
       <c r="W144" s="8"/>
       <c r="X144" s="8"/>
       <c r="Y144" s="8"/>
@@ -15082,6 +16107,12 @@
       <c r="AI144" s="8"/>
     </row>
     <row r="145" spans="17:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q145" s="8"/>
+      <c r="R145" s="8"/>
+      <c r="S145" s="8"/>
+      <c r="T145" s="8"/>
+      <c r="U145" s="8"/>
+      <c r="V145" s="8"/>
       <c r="W145" s="8"/>
       <c r="X145" s="8"/>
       <c r="Y145" s="8"/>
@@ -15091,6 +16122,12 @@
       <c r="AI145" s="8"/>
     </row>
     <row r="146" spans="17:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q146" s="8"/>
+      <c r="R146" s="8"/>
+      <c r="S146" s="8"/>
+      <c r="T146" s="8"/>
+      <c r="U146" s="8"/>
+      <c r="V146" s="8"/>
       <c r="W146" s="8"/>
       <c r="X146" s="8"/>
       <c r="Y146" s="8"/>
@@ -15100,6 +16137,12 @@
       <c r="AI146" s="8"/>
     </row>
     <row r="147" spans="17:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q147" s="8"/>
+      <c r="R147" s="8"/>
+      <c r="S147" s="8"/>
+      <c r="T147" s="8"/>
+      <c r="U147" s="8"/>
+      <c r="V147" s="8"/>
       <c r="W147" s="8"/>
       <c r="X147" s="8"/>
       <c r="Y147" s="8"/>
@@ -15109,6 +16152,12 @@
       <c r="AI147" s="8"/>
     </row>
     <row r="148" spans="17:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q148" s="8"/>
+      <c r="R148" s="8"/>
+      <c r="S148" s="8"/>
+      <c r="T148" s="8"/>
+      <c r="U148" s="8"/>
+      <c r="V148" s="8"/>
       <c r="W148" s="8"/>
       <c r="X148" s="8"/>
       <c r="Y148" s="8"/>
@@ -15118,6 +16167,12 @@
       <c r="AI148" s="8"/>
     </row>
     <row r="149" spans="17:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q149" s="8"/>
+      <c r="R149" s="8"/>
+      <c r="S149" s="8"/>
+      <c r="T149" s="8"/>
+      <c r="U149" s="8"/>
+      <c r="V149" s="8"/>
       <c r="W149" s="8"/>
       <c r="X149" s="8"/>
       <c r="Y149" s="8"/>
@@ -17991,156 +19046,16 @@
       <c r="AB340" s="8"/>
       <c r="AI340" s="8"/>
     </row>
-    <row r="341" spans="17:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q341" s="8"/>
-      <c r="R341" s="8"/>
-      <c r="S341" s="8"/>
-      <c r="T341" s="8"/>
-      <c r="U341" s="8"/>
-      <c r="V341" s="8"/>
-      <c r="W341" s="8"/>
-      <c r="X341" s="8"/>
-      <c r="Y341" s="8"/>
-      <c r="Z341" s="8"/>
-      <c r="AA341" s="8"/>
-      <c r="AB341" s="8"/>
-      <c r="AI341" s="8"/>
-    </row>
-    <row r="342" spans="17:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q342" s="8"/>
-      <c r="R342" s="8"/>
-      <c r="S342" s="8"/>
-      <c r="T342" s="8"/>
-      <c r="U342" s="8"/>
-      <c r="V342" s="8"/>
-      <c r="W342" s="8"/>
-      <c r="X342" s="8"/>
-      <c r="Y342" s="8"/>
-      <c r="Z342" s="8"/>
-      <c r="AA342" s="8"/>
-      <c r="AB342" s="8"/>
-      <c r="AI342" s="8"/>
-    </row>
-    <row r="343" spans="17:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q343" s="8"/>
-      <c r="R343" s="8"/>
-      <c r="S343" s="8"/>
-      <c r="T343" s="8"/>
-      <c r="U343" s="8"/>
-      <c r="V343" s="8"/>
-      <c r="W343" s="8"/>
-      <c r="X343" s="8"/>
-      <c r="Y343" s="8"/>
-      <c r="Z343" s="8"/>
-      <c r="AA343" s="8"/>
-      <c r="AB343" s="8"/>
-      <c r="AI343" s="8"/>
-    </row>
-    <row r="344" spans="17:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q344" s="8"/>
-      <c r="R344" s="8"/>
-      <c r="S344" s="8"/>
-      <c r="T344" s="8"/>
-      <c r="U344" s="8"/>
-      <c r="V344" s="8"/>
-      <c r="W344" s="8"/>
-      <c r="X344" s="8"/>
-      <c r="Y344" s="8"/>
-      <c r="Z344" s="8"/>
-      <c r="AA344" s="8"/>
-      <c r="AB344" s="8"/>
-      <c r="AI344" s="8"/>
-    </row>
-    <row r="345" spans="17:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q345" s="8"/>
-      <c r="R345" s="8"/>
-      <c r="S345" s="8"/>
-      <c r="T345" s="8"/>
-      <c r="U345" s="8"/>
-      <c r="V345" s="8"/>
-      <c r="W345" s="8"/>
-      <c r="X345" s="8"/>
-      <c r="Y345" s="8"/>
-      <c r="Z345" s="8"/>
-      <c r="AA345" s="8"/>
-      <c r="AB345" s="8"/>
-      <c r="AI345" s="8"/>
-    </row>
-    <row r="346" spans="17:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q346" s="8"/>
-      <c r="R346" s="8"/>
-      <c r="S346" s="8"/>
-      <c r="T346" s="8"/>
-      <c r="U346" s="8"/>
-      <c r="V346" s="8"/>
-      <c r="W346" s="8"/>
-      <c r="X346" s="8"/>
-      <c r="Y346" s="8"/>
-      <c r="Z346" s="8"/>
-      <c r="AA346" s="8"/>
-      <c r="AB346" s="8"/>
-      <c r="AI346" s="8"/>
-    </row>
-    <row r="347" spans="17:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q347" s="8"/>
-      <c r="R347" s="8"/>
-      <c r="S347" s="8"/>
-      <c r="T347" s="8"/>
-      <c r="U347" s="8"/>
-      <c r="V347" s="8"/>
-      <c r="W347" s="8"/>
-      <c r="X347" s="8"/>
-      <c r="Y347" s="8"/>
-      <c r="Z347" s="8"/>
-      <c r="AA347" s="8"/>
-      <c r="AB347" s="8"/>
-      <c r="AI347" s="8"/>
-    </row>
-    <row r="348" spans="17:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q348" s="8"/>
-      <c r="R348" s="8"/>
-      <c r="S348" s="8"/>
-      <c r="T348" s="8"/>
-      <c r="U348" s="8"/>
-      <c r="V348" s="8"/>
-      <c r="W348" s="8"/>
-      <c r="X348" s="8"/>
-      <c r="Y348" s="8"/>
-      <c r="Z348" s="8"/>
-      <c r="AA348" s="8"/>
-      <c r="AB348" s="8"/>
-      <c r="AI348" s="8"/>
-    </row>
-    <row r="349" spans="17:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q349" s="8"/>
-      <c r="R349" s="8"/>
-      <c r="S349" s="8"/>
-      <c r="T349" s="8"/>
-      <c r="U349" s="8"/>
-      <c r="V349" s="8"/>
-      <c r="W349" s="8"/>
-      <c r="X349" s="8"/>
-      <c r="Y349" s="8"/>
-      <c r="Z349" s="8"/>
-      <c r="AA349" s="8"/>
-      <c r="AB349" s="8"/>
-      <c r="AI349" s="8"/>
-    </row>
-    <row r="350" spans="17:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q350" s="8"/>
-      <c r="R350" s="8"/>
-      <c r="S350" s="8"/>
-      <c r="T350" s="8"/>
-      <c r="U350" s="8"/>
-      <c r="V350" s="8"/>
-      <c r="W350" s="8"/>
-      <c r="X350" s="8"/>
-      <c r="Y350" s="8"/>
-      <c r="Z350" s="8"/>
-      <c r="AA350" s="8"/>
-      <c r="AB350" s="8"/>
-      <c r="AI350" s="8"/>
-    </row>
+    <row r="341" spans="17:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="342" spans="17:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="343" spans="17:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="344" spans="17:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="345" spans="17:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="346" spans="17:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="347" spans="17:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="348" spans="17:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="349" spans="17:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="350" spans="17:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="351" spans="17:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="352" spans="17:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="353" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -18781,18 +19696,10 @@
     <row r="988" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="989" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="990" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="991" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="992" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="993" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="994" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="995" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="996" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="997" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="998" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="999" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="16">
+    <mergeCell ref="Q47:AL47"/>
+    <mergeCell ref="Q58:AL58"/>
     <mergeCell ref="A26:F26"/>
     <mergeCell ref="A32:F32"/>
     <mergeCell ref="Q1:AL1"/>
@@ -18861,10 +19768,10 @@
       <c r="V1" s="1"/>
     </row>
     <row r="2" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A2" s="129" t="s">
+      <c r="A2" s="139" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="130"/>
+      <c r="B2" s="140"/>
       <c r="C2" s="86" t="s">
         <v>130</v>
       </c>
@@ -18884,10 +19791,10 @@
       <c r="V2" s="1"/>
     </row>
     <row r="3" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="129" t="s">
+      <c r="A3" s="139" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="130"/>
+      <c r="B3" s="140"/>
       <c r="C3" s="86" t="s">
         <v>131</v>
       </c>
@@ -18907,10 +19814,10 @@
       <c r="V3" s="1"/>
     </row>
     <row r="4" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="129" t="s">
+      <c r="A4" s="139" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="130"/>
+      <c r="B4" s="140"/>
       <c r="C4" s="86" t="s">
         <v>132</v>
       </c>
@@ -19038,16 +19945,16 @@
       <c r="V10" s="1"/>
     </row>
     <row r="11" spans="1:22" ht="32.4" x14ac:dyDescent="0.6">
-      <c r="A11" s="133" t="s">
+      <c r="A11" s="143" t="s">
         <v>37</v>
       </c>
-      <c r="B11" s="134"/>
-      <c r="C11" s="134"/>
-      <c r="D11" s="134"/>
-      <c r="E11" s="134"/>
-      <c r="F11" s="134"/>
-      <c r="G11" s="134"/>
-      <c r="H11" s="135"/>
+      <c r="B11" s="144"/>
+      <c r="C11" s="144"/>
+      <c r="D11" s="144"/>
+      <c r="E11" s="144"/>
+      <c r="F11" s="144"/>
+      <c r="G11" s="144"/>
+      <c r="H11" s="145"/>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
@@ -19057,19 +19964,19 @@
     </row>
     <row r="12" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="16"/>
-      <c r="B12" s="124" t="s">
+      <c r="B12" s="134" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="125"/>
-      <c r="D12" s="126"/>
-      <c r="E12" s="131" t="s">
+      <c r="C12" s="135"/>
+      <c r="D12" s="136"/>
+      <c r="E12" s="141" t="s">
         <v>31</v>
       </c>
-      <c r="F12" s="124" t="s">
+      <c r="F12" s="134" t="s">
         <v>30</v>
       </c>
-      <c r="G12" s="125"/>
-      <c r="H12" s="126"/>
+      <c r="G12" s="135"/>
+      <c r="H12" s="136"/>
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
@@ -19088,7 +19995,7 @@
       <c r="D13" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="132"/>
+      <c r="E13" s="142"/>
       <c r="F13" s="18" t="s">
         <v>33</v>
       </c>
@@ -19242,16 +20149,16 @@
       <c r="V17" s="1"/>
     </row>
     <row r="18" spans="1:22" ht="32.4" x14ac:dyDescent="0.6">
-      <c r="A18" s="133" t="s">
+      <c r="A18" s="143" t="s">
         <v>36</v>
       </c>
-      <c r="B18" s="134"/>
-      <c r="C18" s="134"/>
-      <c r="D18" s="134"/>
-      <c r="E18" s="134"/>
-      <c r="F18" s="134"/>
-      <c r="G18" s="134"/>
-      <c r="H18" s="135"/>
+      <c r="B18" s="144"/>
+      <c r="C18" s="144"/>
+      <c r="D18" s="144"/>
+      <c r="E18" s="144"/>
+      <c r="F18" s="144"/>
+      <c r="G18" s="144"/>
+      <c r="H18" s="145"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
@@ -19266,19 +20173,19 @@
     </row>
     <row r="19" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="16"/>
-      <c r="B19" s="124" t="s">
+      <c r="B19" s="134" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="125"/>
-      <c r="D19" s="126"/>
-      <c r="E19" s="131" t="s">
+      <c r="C19" s="135"/>
+      <c r="D19" s="136"/>
+      <c r="E19" s="141" t="s">
         <v>31</v>
       </c>
-      <c r="F19" s="124" t="s">
+      <c r="F19" s="134" t="s">
         <v>30</v>
       </c>
-      <c r="G19" s="125"/>
-      <c r="H19" s="126"/>
+      <c r="G19" s="135"/>
+      <c r="H19" s="136"/>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
@@ -19299,7 +20206,7 @@
       <c r="D20" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E20" s="132"/>
+      <c r="E20" s="142"/>
       <c r="F20" s="18" t="s">
         <v>33</v>
       </c>
@@ -19613,12 +20520,12 @@
       <c r="V35" s="1"/>
     </row>
     <row r="36" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="127"/>
-      <c r="B36" s="128"/>
-      <c r="C36" s="128"/>
-      <c r="D36" s="128"/>
-      <c r="E36" s="128"/>
-      <c r="F36" s="128"/>
+      <c r="A36" s="137"/>
+      <c r="B36" s="138"/>
+      <c r="C36" s="138"/>
+      <c r="D36" s="138"/>
+      <c r="E36" s="138"/>
+      <c r="F36" s="138"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
